--- a/public/Export/Exportar_Elqui_Elqui.xlsx
+++ b/public/Export/Exportar_Elqui_Elqui.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF62C99-3FC2-D947-8076-3D3CC5D8F835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B1DDD4-CB39-AC45-9E3C-C5EEE14D8CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="18000" tabRatio="702" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="18000" tabRatio="702" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="8" r:id="rId1"/>
@@ -1706,7 +1706,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2059,7 +2059,6 @@
     <xf numFmtId="1" fontId="24" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="24" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2073,14 +2072,7 @@
     <xf numFmtId="1" fontId="24" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="24" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2118,6 +2110,24 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -16885,7 +16895,7 @@
   <dimension ref="B1:U41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="15" customHeight="1"/>
@@ -19472,77 +19482,77 @@
     <row r="2" spans="2:21" ht="14">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="243" t="s">
+      <c r="D2" s="239"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="245" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="244"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="246"/>
       <c r="P2" s="52"/>
     </row>
     <row r="3" spans="2:21" ht="14">
       <c r="B3" s="50"/>
       <c r="C3" s="51"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="246"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="248"/>
       <c r="P3" s="52"/>
     </row>
     <row r="4" spans="2:21" ht="14">
       <c r="B4" s="50"/>
       <c r="C4" s="51"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="245" t="s">
+      <c r="D4" s="241"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="247" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
-      <c r="J4" s="245"/>
-      <c r="K4" s="245"/>
-      <c r="L4" s="245" t="s">
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="247" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="248">
+      <c r="M4" s="247"/>
+      <c r="N4" s="250">
         <v>44500</v>
       </c>
-      <c r="O4" s="249"/>
+      <c r="O4" s="251"/>
       <c r="P4" s="52"/>
     </row>
     <row r="5" spans="2:21" thickBot="1">
       <c r="B5" s="50"/>
       <c r="C5" s="51"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="247"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="251"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="249"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="253"/>
       <c r="P5" s="52"/>
     </row>
     <row r="6" spans="2:21" thickBot="1">
@@ -19563,9 +19573,9 @@
     <row r="7" spans="2:21" ht="14">
       <c r="B7" s="55"/>
       <c r="C7" s="56"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
       <c r="G7" s="57" t="s">
         <v>110</v>
       </c>
@@ -19575,9 +19585,9 @@
       <c r="I7" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="233"/>
-      <c r="K7" s="234"/>
-      <c r="L7" s="234"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
       <c r="M7" s="57" t="s">
         <v>110</v>
       </c>
@@ -19588,14 +19598,14 @@
         <v>112</v>
       </c>
       <c r="P7" s="52"/>
-      <c r="R7" s="168"/>
+      <c r="R7" s="164"/>
     </row>
     <row r="8" spans="2:21" thickBot="1">
       <c r="B8" s="55"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
       <c r="G8" s="59" t="s">
         <v>1</v>
       </c>
@@ -19605,9 +19615,9 @@
       <c r="I8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="235"/>
-      <c r="K8" s="236"/>
-      <c r="L8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="238"/>
+      <c r="L8" s="238"/>
       <c r="M8" s="59" t="s">
         <v>1</v>
       </c>
@@ -19618,51 +19628,51 @@
         <v>34</v>
       </c>
       <c r="P8" s="52"/>
-      <c r="R8" s="168"/>
+      <c r="R8" s="164"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="55"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="216" t="s">
+      <c r="D9" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="222"/>
-      <c r="J9" s="223" t="s">
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="225"/>
+      <c r="K9" s="226"/>
+      <c r="L9" s="226"/>
+      <c r="M9" s="226"/>
+      <c r="N9" s="226"/>
+      <c r="O9" s="227"/>
       <c r="P9" s="52"/>
-      <c r="R9" s="168"/>
+      <c r="R9" s="164"/>
     </row>
     <row r="10" spans="2:21" ht="14">
       <c r="B10" s="55"/>
       <c r="C10" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="187" t="s">
+      <c r="D10" s="189" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="188"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="170"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="166"/>
       <c r="I10" s="106">
         <f>+H10*G10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="226" t="s">
+      <c r="J10" s="228" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="227"/>
-      <c r="L10" s="228"/>
+      <c r="K10" s="229"/>
+      <c r="L10" s="230"/>
       <c r="M10" s="63">
         <f>'Datos Extra'!B8</f>
         <v>140332.26200000002</v>
@@ -19684,11 +19694,11 @@
     <row r="11" spans="2:21" ht="14">
       <c r="B11" s="55"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="190" t="s">
+      <c r="D11" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="191"/>
-      <c r="F11" s="192"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="194"/>
       <c r="G11" s="63">
         <f>Utilidad!J101</f>
         <v>11681.220740000001</v>
@@ -19701,12 +19711,12 @@
         <f>+H11*G11</f>
         <v>4313.8748192820003</v>
       </c>
-      <c r="J11" s="190" t="s">
+      <c r="J11" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="191"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="167">
+      <c r="K11" s="193"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="163">
         <f>'Datos Extra'!B9</f>
         <v>142107.27499999999</v>
       </c>
@@ -19714,7 +19724,7 @@
         <f>Utilidad!K80</f>
         <v>0.68410599999999999</v>
       </c>
-      <c r="O11" s="167">
+      <c r="O11" s="163">
         <f t="shared" si="0"/>
         <v>97216.439471149992</v>
       </c>
@@ -19724,11 +19734,11 @@
     <row r="12" spans="2:21" ht="14">
       <c r="B12" s="55"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="191"/>
       <c r="G12" s="61">
         <f>Utilidad!J66</f>
         <v>26763.689249999999</v>
@@ -19741,12 +19751,12 @@
         <f>+H12*G12</f>
         <v>13210.021740015</v>
       </c>
-      <c r="J12" s="187" t="s">
+      <c r="J12" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="188"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="166">
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="162">
         <f>+Utilidad!J92</f>
         <v>0</v>
       </c>
@@ -19759,16 +19769,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="52"/>
-      <c r="R12" s="168"/>
+      <c r="R12" s="164"/>
     </row>
     <row r="13" spans="2:21" ht="14">
       <c r="B13" s="55"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="190" t="s">
+      <c r="D13" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="191"/>
-      <c r="F13" s="192"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="194"/>
       <c r="G13" s="66">
         <f>Utilidad!J115</f>
         <v>61164.541878000004</v>
@@ -19781,12 +19791,12 @@
         <f>+H13*G13</f>
         <v>31987.9544404402</v>
       </c>
-      <c r="J13" s="190" t="s">
+      <c r="J13" s="192" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="191"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="167">
+      <c r="K13" s="193"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="163">
         <f>'Datos Extra'!B10</f>
         <v>21525.51</v>
       </c>
@@ -19794,21 +19804,21 @@
         <f>Utilidad!K95</f>
         <v>0.62109999999999999</v>
       </c>
-      <c r="O13" s="167">
+      <c r="O13" s="163">
         <f t="shared" si="0"/>
         <v>13369.494260999998</v>
       </c>
       <c r="P13" s="52"/>
-      <c r="R13" s="168"/>
+      <c r="R13" s="164"/>
     </row>
     <row r="14" spans="2:21" ht="14">
       <c r="B14" s="55"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="187" t="s">
+      <c r="D14" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="191"/>
       <c r="G14" s="61">
         <f>Utilidad!J89</f>
         <v>0</v>
@@ -19821,11 +19831,11 @@
         <f>+H14*G14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="187" t="s">
+      <c r="J14" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="188"/>
-      <c r="L14" s="189"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="191"/>
       <c r="M14" s="63">
         <f>'Datos Extra'!B11</f>
         <v>5708.1906400000007</v>
@@ -19839,7 +19849,7 @@
         <v>3492.2710335520005</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="R14" s="168"/>
+      <c r="R14" s="164"/>
     </row>
     <row r="15" spans="2:21" ht="14">
       <c r="B15" s="55"/>
@@ -19850,39 +19860,39 @@
       <c r="G15" s="61"/>
       <c r="H15" s="67"/>
       <c r="I15" s="61"/>
-      <c r="J15" s="190" t="s">
+      <c r="J15" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="K15" s="191"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="167">
+      <c r="K15" s="193"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="163">
         <f>'Datos Extra'!B12</f>
         <v>769.05863999999997</v>
       </c>
       <c r="N15" s="68">
         <v>0.6099</v>
       </c>
-      <c r="O15" s="167">
+      <c r="O15" s="163">
         <f t="shared" si="0"/>
         <v>469.048864536</v>
       </c>
       <c r="P15" s="52"/>
-      <c r="R15" s="168"/>
+      <c r="R15" s="164"/>
     </row>
     <row r="16" spans="2:21" ht="14">
       <c r="B16" s="55"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="191"/>
       <c r="G16" s="61"/>
       <c r="H16" s="62"/>
       <c r="I16" s="61"/>
-      <c r="J16" s="187" t="s">
+      <c r="J16" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="188"/>
-      <c r="L16" s="189"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="191"/>
       <c r="M16" s="63">
         <f>'Datos Extra'!B13</f>
         <v>10808.078050000002</v>
@@ -19896,22 +19906,22 @@
         <v>6600.4932651350018</v>
       </c>
       <c r="P16" s="52"/>
-      <c r="R16" s="168"/>
+      <c r="R16" s="164"/>
     </row>
     <row r="17" spans="2:19" thickBot="1">
       <c r="B17" s="55"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="61"/>
       <c r="H17" s="62"/>
       <c r="I17" s="61"/>
-      <c r="J17" s="190" t="s">
+      <c r="J17" s="192" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="191"/>
-      <c r="L17" s="192"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="194"/>
       <c r="M17" s="66"/>
       <c r="N17" s="68">
         <f>Utilidad!K98</f>
@@ -19928,11 +19938,11 @@
       <c r="C18" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="204" t="s">
+      <c r="D18" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
       <c r="G18" s="69">
         <f>+SUM(G10:G17)</f>
         <v>99609.451868000004</v>
@@ -19942,11 +19952,11 @@
         <f t="shared" ref="I18" si="1">+SUM(I10:I17)</f>
         <v>49511.850999737202</v>
       </c>
-      <c r="J18" s="204" t="s">
+      <c r="J18" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
+      <c r="K18" s="207"/>
+      <c r="L18" s="207"/>
       <c r="M18" s="69">
         <f>SUM(M10,M13:M17)</f>
         <v>179143.09933000006</v>
@@ -19963,37 +19973,37 @@
     <row r="19" spans="2:19" ht="14">
       <c r="B19" s="55"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="216" t="s">
+      <c r="D19" s="218" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="208" t="s">
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="210" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="209"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="210"/>
+      <c r="K19" s="211"/>
+      <c r="L19" s="211"/>
+      <c r="M19" s="211"/>
+      <c r="N19" s="211"/>
+      <c r="O19" s="212"/>
       <c r="P19" s="52"/>
     </row>
     <row r="20" spans="2:19" ht="14">
       <c r="B20" s="55"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="187" t="s">
+      <c r="D20" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="188"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="171">
+      <c r="E20" s="190"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="167">
         <f>'Datos Extra'!B15</f>
         <v>0</v>
       </c>
-      <c r="H20" s="172">
+      <c r="H20" s="168">
         <f>Utilidad!K87</f>
         <v>0</v>
       </c>
@@ -20001,11 +20011,11 @@
         <f>+H20*G20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="198" t="s">
+      <c r="J20" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="199"/>
-      <c r="L20" s="200"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="202"/>
       <c r="M20" s="61">
         <f>Utilidad!J64</f>
         <v>15727.04054</v>
@@ -20024,11 +20034,11 @@
     <row r="21" spans="2:19" ht="14">
       <c r="B21" s="55"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="190" t="s">
+      <c r="D21" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="191"/>
-      <c r="F21" s="192"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="194"/>
       <c r="G21" s="74">
         <f>Utilidad!J93</f>
         <v>0</v>
@@ -20041,11 +20051,11 @@
         <f>+H21*G21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="219" t="s">
+      <c r="J21" s="221" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="220"/>
-      <c r="L21" s="221"/>
+      <c r="K21" s="222"/>
+      <c r="L21" s="223"/>
       <c r="M21" s="76">
         <f>Utilidad!J70</f>
         <v>13968.63</v>
@@ -20064,11 +20074,11 @@
     <row r="22" spans="2:19" ht="14">
       <c r="B22" s="55"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="188"/>
-      <c r="F22" s="189"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="191"/>
       <c r="G22" s="61">
         <f>Utilidad!J100</f>
         <v>0</v>
@@ -20081,11 +20091,11 @@
         <f>+H22*G22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="198" t="s">
+      <c r="J22" s="200" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="199"/>
-      <c r="L22" s="200"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="202"/>
       <c r="M22" s="78">
         <f>Utilidad!J71</f>
         <v>6086.9213650000002</v>
@@ -20104,11 +20114,11 @@
     <row r="23" spans="2:19" thickBot="1">
       <c r="B23" s="55"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="201" t="s">
+      <c r="D23" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="205"/>
       <c r="G23" s="80">
         <f>Utilidad!J88</f>
         <v>0</v>
@@ -20144,11 +20154,11 @@
     <row r="24" spans="2:19" thickBot="1">
       <c r="B24" s="55"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="204" t="s">
+      <c r="D24" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
       <c r="G24" s="69">
         <f>+SUM(G20:G23)</f>
         <v>0</v>
@@ -20158,11 +20168,11 @@
         <f t="shared" ref="I24" si="2">+SUM(I20:I23)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="204" t="s">
+      <c r="J24" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="205"/>
-      <c r="L24" s="205"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
       <c r="M24" s="69">
         <f>+SUM(M20:M23)</f>
         <v>65594.755434999999</v>
@@ -20177,31 +20187,31 @@
     <row r="25" spans="2:19" thickBot="1">
       <c r="B25" s="55"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
+      <c r="D25" s="208"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="208"/>
       <c r="G25" s="84"/>
       <c r="H25" s="85"/>
       <c r="I25" s="86"/>
-      <c r="J25" s="207"/>
-      <c r="K25" s="207"/>
-      <c r="L25" s="207"/>
+      <c r="J25" s="209"/>
+      <c r="K25" s="209"/>
+      <c r="L25" s="209"/>
       <c r="P25" s="52"/>
     </row>
     <row r="26" spans="2:19" ht="14.5" customHeight="1">
       <c r="B26" s="55"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="208" t="s">
+      <c r="D26" s="210" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="210"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="212"/>
       <c r="I26" s="99"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="206"/>
-      <c r="L26" s="206"/>
+      <c r="J26" s="208"/>
+      <c r="K26" s="208"/>
+      <c r="L26" s="208"/>
       <c r="M26" s="101"/>
       <c r="N26" s="102"/>
       <c r="O26" s="101"/>
@@ -20210,9 +20220,9 @@
     <row r="27" spans="2:19" thickBot="1">
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="213"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="215"/>
       <c r="G27" s="104" t="s">
         <v>104</v>
       </c>
@@ -20234,11 +20244,11 @@
     <row r="28" spans="2:19" ht="14">
       <c r="B28" s="55"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="214" t="s">
+      <c r="D28" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="215"/>
-      <c r="F28" s="215"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="217"/>
       <c r="G28" s="103">
         <f>H28/(1-'Datos Extra'!D1)</f>
         <v>3343.2999999999738</v>
@@ -20262,11 +20272,11 @@
     <row r="29" spans="2:19" ht="14">
       <c r="B29" s="55"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="188"/>
-      <c r="F29" s="189"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="191"/>
       <c r="G29" s="103">
         <f>H29/(1-'Datos Extra'!D2)</f>
         <v>25952.240000000027</v>
@@ -20290,11 +20300,11 @@
     <row r="30" spans="2:19" ht="14">
       <c r="B30" s="55"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="191"/>
       <c r="G30" s="103">
         <f>H30/(1-'Datos Extra'!D3)</f>
         <v>1387</v>
@@ -20318,11 +20328,11 @@
     <row r="31" spans="2:19" ht="14">
       <c r="B31" s="55"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="188"/>
-      <c r="F31" s="189"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="191"/>
       <c r="G31" s="103">
         <f>H31/(1-'Datos Extra'!D4)</f>
         <v>150.98000000000002</v>
@@ -20346,11 +20356,11 @@
     <row r="32" spans="2:19" ht="14">
       <c r="B32" s="55"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="190" t="s">
+      <c r="D32" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="194"/>
       <c r="G32" s="103">
         <f>H32/(1-'Datos Extra'!D5)</f>
         <v>39970.499999999985</v>
@@ -20372,11 +20382,11 @@
     <row r="33" spans="2:19" ht="14">
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="190" t="s">
+      <c r="D33" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="194"/>
       <c r="G33" s="103">
         <f>H33/(1-'Datos Extra'!D6)</f>
         <v>9939.8299999999799</v>
@@ -20400,11 +20410,11 @@
     <row r="34" spans="2:19" thickBot="1">
       <c r="B34" s="55"/>
       <c r="C34" s="56"/>
-      <c r="D34" s="193" t="s">
+      <c r="D34" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="194"/>
-      <c r="F34" s="195"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="197"/>
       <c r="G34" s="103">
         <f>H34/(1-'Datos Extra'!D7)</f>
         <v>66820.73</v>
@@ -20441,33 +20451,33 @@
       <c r="P35" s="97"/>
     </row>
     <row r="38" spans="2:19" ht="15" customHeight="1">
-      <c r="E38" s="196"/>
-      <c r="F38" s="196"/>
-      <c r="G38" s="196"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="198"/>
+      <c r="G38" s="198"/>
       <c r="H38" s="139"/>
       <c r="I38" s="139"/>
       <c r="J38" s="139"/>
     </row>
     <row r="39" spans="2:19" ht="14">
-      <c r="E39" s="196"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="196"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
       <c r="H39" s="139"/>
       <c r="I39" s="139"/>
       <c r="J39" s="139"/>
     </row>
     <row r="40" spans="2:19" ht="14">
-      <c r="E40" s="197"/>
-      <c r="F40" s="197"/>
-      <c r="G40" s="197"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="197"/>
+      <c r="E40" s="199"/>
+      <c r="F40" s="199"/>
+      <c r="G40" s="199"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="199"/>
     </row>
     <row r="41" spans="2:19" ht="15" customHeight="1">
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
       <c r="H41" s="107"/>
       <c r="I41" s="108"/>
       <c r="J41" s="109"/>
@@ -20537,19 +20547,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CC240"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="E54" sqref="E54"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="31.1640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="30.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="16.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="60.83203125" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="27.1640625" customWidth="1"/>
@@ -20570,36 +20580,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81">
-      <c r="A1" s="173">
+      <c r="A1" s="169">
         <v>86233.752800000002</v>
       </c>
-      <c r="B1" s="173">
+      <c r="B1" s="169">
         <v>86233.752800000002</v>
       </c>
-      <c r="C1" s="174">
+      <c r="C1" s="170">
         <v>0.36369100000000004</v>
       </c>
-      <c r="D1" s="174">
+      <c r="D1" s="170">
         <v>0.36369100000000004</v>
       </c>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
     </row>
     <row r="2" spans="1:81">
-      <c r="A2" s="173">
+      <c r="A2" s="169">
         <v>9491.9207399999996</v>
       </c>
-      <c r="B2" s="173">
+      <c r="B2" s="169">
         <v>9491.9207399999996</v>
       </c>
-      <c r="C2" s="174">
+      <c r="C2" s="170">
         <v>0.37185499999999999</v>
       </c>
-      <c r="D2" s="174">
+      <c r="D2" s="170">
         <v>0.37185499999999999</v>
       </c>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
       <c r="G2" s="113"/>
       <c r="H2" s="113"/>
       <c r="X2" s="110"/>
@@ -20662,20 +20672,20 @@
       <c r="CC2" s="110"/>
     </row>
     <row r="3" spans="1:81">
-      <c r="A3" s="173">
+      <c r="A3" s="169">
         <v>15727.04054</v>
       </c>
-      <c r="B3" s="173">
+      <c r="B3" s="169">
         <v>15727.04054</v>
       </c>
-      <c r="C3" s="174">
+      <c r="C3" s="170">
         <v>0.170652</v>
       </c>
-      <c r="D3" s="174">
+      <c r="D3" s="170">
         <v>0.170652</v>
       </c>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="114"/>
       <c r="H3" s="114"/>
       <c r="I3" s="114"/>
@@ -20753,20 +20763,20 @@
       <c r="CC3" s="110"/>
     </row>
     <row r="4" spans="1:81">
-      <c r="A4" s="173">
+      <c r="A4" s="169">
         <v>79998.633000000002</v>
       </c>
-      <c r="B4" s="173">
+      <c r="B4" s="169">
         <v>79998.633000000002</v>
       </c>
-      <c r="C4" s="174">
+      <c r="C4" s="170">
         <v>0.40261000000000002</v>
       </c>
-      <c r="D4" s="174">
+      <c r="D4" s="170">
         <v>0.40261000000000002</v>
       </c>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
       <c r="G4" s="113"/>
       <c r="H4" s="113"/>
       <c r="I4" s="113"/>
@@ -20844,20 +20854,20 @@
       <c r="CC4" s="110"/>
     </row>
     <row r="5" spans="1:81">
-      <c r="A5" s="173">
+      <c r="A5" s="169">
         <v>26763.689249999999</v>
       </c>
-      <c r="B5" s="173">
+      <c r="B5" s="169">
         <v>26763.689249999999</v>
       </c>
-      <c r="C5" s="174">
+      <c r="C5" s="170">
         <v>0.49357999999999996</v>
       </c>
-      <c r="D5" s="174">
+      <c r="D5" s="170">
         <v>0.49357999999999996</v>
       </c>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -20935,20 +20945,20 @@
       <c r="CC5" s="110"/>
     </row>
     <row r="6" spans="1:81">
-      <c r="A6" s="173">
+      <c r="A6" s="169">
         <v>43948.767596999998</v>
       </c>
-      <c r="B6" s="173">
+      <c r="B6" s="169">
         <v>43948.767596999998</v>
       </c>
-      <c r="C6" s="174">
+      <c r="C6" s="170">
         <v>0.42389399999999999</v>
       </c>
-      <c r="D6" s="174">
+      <c r="D6" s="170">
         <v>0.42389399999999999</v>
       </c>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
       <c r="G6" s="113"/>
       <c r="H6" s="113"/>
       <c r="I6" s="113"/>
@@ -21026,20 +21036,20 @@
       <c r="CC6" s="110"/>
     </row>
     <row r="7" spans="1:81">
-      <c r="A7" s="173">
+      <c r="A7" s="169">
         <v>62813.554652999999</v>
       </c>
-      <c r="B7" s="173">
+      <c r="B7" s="169">
         <v>62813.554652999999</v>
       </c>
-      <c r="C7" s="174">
+      <c r="C7" s="170">
         <v>0.426479</v>
       </c>
-      <c r="D7" s="174">
+      <c r="D7" s="170">
         <v>0.426479</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
       <c r="G7" s="113"/>
       <c r="H7" s="113"/>
       <c r="I7" s="113"/>
@@ -21117,20 +21127,20 @@
       <c r="CC7" s="110"/>
     </row>
     <row r="8" spans="1:81">
-      <c r="A8" s="173">
-        <v>0</v>
-      </c>
-      <c r="B8" s="173">
-        <v>0</v>
-      </c>
-      <c r="C8" s="174">
-        <v>0</v>
-      </c>
-      <c r="D8" s="174">
-        <v>0</v>
-      </c>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+      <c r="A8" s="169">
+        <v>0</v>
+      </c>
+      <c r="B8" s="169">
+        <v>0</v>
+      </c>
+      <c r="C8" s="170">
+        <v>0</v>
+      </c>
+      <c r="D8" s="170">
+        <v>0</v>
+      </c>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
       <c r="G8" s="113"/>
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
@@ -21208,20 +21218,20 @@
       <c r="CC8" s="110"/>
     </row>
     <row r="9" spans="1:81">
-      <c r="A9" s="173">
+      <c r="A9" s="169">
         <v>13968.63</v>
       </c>
-      <c r="B9" s="173">
+      <c r="B9" s="169">
         <v>13968.63</v>
       </c>
-      <c r="C9" s="174">
+      <c r="C9" s="170">
         <v>0.274341</v>
       </c>
-      <c r="D9" s="174">
+      <c r="D9" s="170">
         <v>0.274341</v>
       </c>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
       <c r="G9" s="113"/>
       <c r="H9" s="113"/>
       <c r="I9" s="113"/>
@@ -21299,20 +21309,20 @@
       <c r="CC9" s="110"/>
     </row>
     <row r="10" spans="1:81">
-      <c r="A10" s="173">
+      <c r="A10" s="169">
         <v>6086.9213650000002</v>
       </c>
-      <c r="B10" s="173">
+      <c r="B10" s="169">
         <v>6086.9213650000002</v>
       </c>
-      <c r="C10" s="174">
+      <c r="C10" s="170">
         <v>0.14440600000000001</v>
       </c>
-      <c r="D10" s="174">
+      <c r="D10" s="170">
         <v>0.14440600000000001</v>
       </c>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
       <c r="G10" s="113"/>
       <c r="H10" s="113"/>
       <c r="I10" s="113"/>
@@ -21390,20 +21400,20 @@
       <c r="CC10" s="110"/>
     </row>
     <row r="11" spans="1:81">
-      <c r="A11" s="173">
+      <c r="A11" s="169">
         <v>29076.782852</v>
       </c>
-      <c r="B11" s="173">
+      <c r="B11" s="169">
         <v>29076.782852</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="170">
         <v>0.49100700000000003</v>
       </c>
-      <c r="D11" s="174">
+      <c r="D11" s="170">
         <v>0.49100700000000003</v>
       </c>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
       <c r="G11" s="113"/>
       <c r="H11" s="113"/>
       <c r="I11" s="113"/>
@@ -21481,20 +21491,20 @@
       <c r="CC11" s="110"/>
     </row>
     <row r="12" spans="1:81">
-      <c r="A12" s="173">
+      <c r="A12" s="169">
         <v>13681.220436</v>
       </c>
-      <c r="B12" s="173">
+      <c r="B12" s="169">
         <v>13681.220436</v>
       </c>
-      <c r="C12" s="174">
+      <c r="C12" s="170">
         <v>0.57016599999999995</v>
       </c>
-      <c r="D12" s="174">
+      <c r="D12" s="170">
         <v>0.57016599999999995</v>
       </c>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
       <c r="G12" s="113"/>
       <c r="H12" s="113"/>
       <c r="I12" s="113"/>
@@ -21572,20 +21582,20 @@
       <c r="CC12" s="110"/>
     </row>
     <row r="13" spans="1:81">
-      <c r="A13" s="173">
+      <c r="A13" s="169">
         <v>9599.1431309</v>
       </c>
-      <c r="B13" s="173">
+      <c r="B13" s="169">
         <v>9599.1431309</v>
       </c>
-      <c r="C13" s="174">
+      <c r="C13" s="170">
         <v>0.52397700000000003</v>
       </c>
-      <c r="D13" s="174">
+      <c r="D13" s="170">
         <v>0.52397700000000003</v>
       </c>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
       <c r="G13" s="113"/>
       <c r="H13" s="113"/>
       <c r="I13" s="113"/>
@@ -21663,20 +21673,20 @@
       <c r="CC13" s="110"/>
     </row>
     <row r="14" spans="1:81">
-      <c r="A14" s="173">
+      <c r="A14" s="169">
         <v>-1947.6210599999999</v>
       </c>
-      <c r="B14" s="173">
+      <c r="B14" s="169">
         <v>-1947.6210599999999</v>
       </c>
-      <c r="C14" s="174">
+      <c r="C14" s="170">
         <v>0.48905500000000002</v>
       </c>
-      <c r="D14" s="174">
+      <c r="D14" s="170">
         <v>0.48905500000000002</v>
       </c>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
       <c r="G14" s="113"/>
       <c r="H14" s="113"/>
       <c r="I14" s="113"/>
@@ -21754,20 +21764,20 @@
       <c r="CC14" s="110"/>
     </row>
     <row r="15" spans="1:81">
-      <c r="A15" s="173">
+      <c r="A15" s="169">
         <v>82589.802658999994</v>
       </c>
-      <c r="B15" s="173">
+      <c r="B15" s="169">
         <v>82589.802658999994</v>
       </c>
-      <c r="C15" s="174">
+      <c r="C15" s="170">
         <v>0.51080899999999996</v>
       </c>
-      <c r="D15" s="174">
+      <c r="D15" s="170">
         <v>0.51080899999999996</v>
       </c>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="113"/>
       <c r="H15" s="113"/>
       <c r="I15" s="113"/>
@@ -21845,27 +21855,27 @@
       <c r="CC15" s="110"/>
     </row>
     <row r="16" spans="1:81">
-      <c r="A16" s="173">
+      <c r="A16" s="169">
         <v>29812.163530000002</v>
       </c>
-      <c r="B16" s="173">
+      <c r="B16" s="169">
         <v>29812.163530000002</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="170">
         <v>0.100116</v>
       </c>
-      <c r="D16" s="174">
+      <c r="D16" s="170">
         <v>0.100116</v>
       </c>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
       <c r="G16" s="113"/>
       <c r="H16" s="113"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="176"/>
       <c r="N16" s="113"/>
       <c r="O16" s="113"/>
       <c r="P16" s="113"/>
@@ -21936,27 +21946,27 @@
       <c r="CC16" s="110"/>
     </row>
     <row r="17" spans="1:81">
-      <c r="A17" s="173">
+      <c r="A17" s="169">
         <v>76058.002697000004</v>
       </c>
-      <c r="B17" s="173">
+      <c r="B17" s="169">
         <v>76058.002697000004</v>
       </c>
-      <c r="C17" s="174">
+      <c r="C17" s="170">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D17" s="174">
+      <c r="D17" s="170">
         <v>0.68412600000000001</v>
       </c>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
       <c r="G17" s="113"/>
       <c r="H17" s="113"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
       <c r="N17" s="113"/>
       <c r="O17" s="113"/>
       <c r="P17" s="113"/>
@@ -22027,27 +22037,27 @@
       <c r="CC17" s="110"/>
     </row>
     <row r="18" spans="1:81">
-      <c r="A18" s="173">
+      <c r="A18" s="169">
         <v>73.660909465000003</v>
       </c>
-      <c r="B18" s="173">
+      <c r="B18" s="169">
         <v>73.660909465000003</v>
       </c>
-      <c r="C18" s="174">
+      <c r="C18" s="170">
         <v>0.66385099999999997</v>
       </c>
-      <c r="D18" s="174">
+      <c r="D18" s="170">
         <v>0.66385099999999997</v>
       </c>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
       <c r="G18" s="113"/>
       <c r="H18" s="113"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
       <c r="N18" s="113"/>
       <c r="O18" s="113"/>
       <c r="P18" s="113"/>
@@ -22118,27 +22128,27 @@
       <c r="CC18" s="110"/>
     </row>
     <row r="19" spans="1:81">
-      <c r="A19" s="173">
+      <c r="A19" s="169">
         <v>76131.663606000002</v>
       </c>
-      <c r="B19" s="173">
+      <c r="B19" s="169">
         <v>76131.663606000002</v>
       </c>
-      <c r="C19" s="174">
+      <c r="C19" s="170">
         <v>0.68410599999999999</v>
       </c>
-      <c r="D19" s="174">
+      <c r="D19" s="170">
         <v>0.68410599999999999</v>
       </c>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
       <c r="G19" s="113"/>
       <c r="H19" s="113"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="176"/>
       <c r="N19" s="113"/>
       <c r="O19" s="113"/>
       <c r="P19" s="113"/>
@@ -22209,27 +22219,27 @@
       <c r="CC19" s="110"/>
     </row>
     <row r="20" spans="1:81">
-      <c r="A20" s="173">
+      <c r="A20" s="169">
         <v>-383.42565624999997</v>
       </c>
-      <c r="B20" s="173">
+      <c r="B20" s="169">
         <v>-383.42565624999997</v>
       </c>
-      <c r="C20" s="174">
+      <c r="C20" s="170">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D20" s="174">
+      <c r="D20" s="170">
         <v>0.68412600000000001</v>
       </c>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
       <c r="G20" s="113"/>
       <c r="H20" s="113"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="176"/>
       <c r="N20" s="113"/>
       <c r="O20" s="113"/>
       <c r="P20" s="113"/>
@@ -22300,27 +22310,27 @@
       <c r="CC20" s="110"/>
     </row>
     <row r="21" spans="1:81">
-      <c r="A21" s="173">
-        <v>0</v>
-      </c>
-      <c r="B21" s="173">
-        <v>0</v>
-      </c>
-      <c r="C21" s="174">
-        <v>0</v>
-      </c>
-      <c r="D21" s="174">
-        <v>0</v>
-      </c>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
+      <c r="A21" s="169">
+        <v>0</v>
+      </c>
+      <c r="B21" s="169">
+        <v>0</v>
+      </c>
+      <c r="C21" s="170">
+        <v>0</v>
+      </c>
+      <c r="D21" s="170">
+        <v>0</v>
+      </c>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
       <c r="G21" s="113"/>
       <c r="H21" s="113"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
       <c r="N21" s="113"/>
       <c r="O21" s="113"/>
       <c r="P21" s="113"/>
@@ -22391,27 +22401,27 @@
       <c r="CC21" s="110"/>
     </row>
     <row r="22" spans="1:81">
-      <c r="A22" s="173">
+      <c r="A22" s="169">
         <v>75748.237949999995</v>
       </c>
-      <c r="B22" s="173">
+      <c r="B22" s="169">
         <v>75748.237949999995</v>
       </c>
-      <c r="C22" s="174">
+      <c r="C22" s="170">
         <v>0.68410599999999999</v>
       </c>
-      <c r="D22" s="174">
+      <c r="D22" s="170">
         <v>0.68410599999999999</v>
       </c>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
       <c r="G22" s="113"/>
       <c r="H22" s="113"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
       <c r="N22" s="113"/>
       <c r="O22" s="113"/>
       <c r="P22" s="113"/>
@@ -22482,27 +22492,27 @@
       <c r="CC22" s="110"/>
     </row>
     <row r="23" spans="1:81">
-      <c r="A23" s="173">
+      <c r="A23" s="169">
         <v>1003.6487</v>
       </c>
-      <c r="B23" s="173">
+      <c r="B23" s="169">
         <v>1003.6487</v>
       </c>
-      <c r="C23" s="174">
+      <c r="C23" s="170">
         <v>0.68263800000000008</v>
       </c>
-      <c r="D23" s="174">
+      <c r="D23" s="170">
         <v>0.68263800000000008</v>
       </c>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
       <c r="G23" s="113"/>
       <c r="H23" s="113"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="181"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="177"/>
       <c r="N23" s="113"/>
       <c r="O23" s="113"/>
       <c r="P23" s="113"/>
@@ -22573,27 +22583,27 @@
       <c r="CC23" s="110"/>
     </row>
     <row r="24" spans="1:81">
-      <c r="A24" s="173">
+      <c r="A24" s="169">
         <v>74744.589250000005</v>
       </c>
-      <c r="B24" s="173">
+      <c r="B24" s="169">
         <v>74744.589250000005</v>
       </c>
-      <c r="C24" s="174">
+      <c r="C24" s="170">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D24" s="174">
+      <c r="D24" s="170">
         <v>0.68412600000000001</v>
       </c>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
       <c r="G24" s="113"/>
       <c r="H24" s="113"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="176"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="176"/>
       <c r="N24" s="113"/>
       <c r="O24" s="113"/>
       <c r="P24" s="113"/>
@@ -22664,27 +22674,27 @@
       <c r="CC24" s="110"/>
     </row>
     <row r="25" spans="1:81">
-      <c r="A25" s="173">
+      <c r="A25" s="169">
         <v>74744.589250000005</v>
       </c>
-      <c r="B25" s="173">
+      <c r="B25" s="169">
         <v>74744.589250000005</v>
       </c>
-      <c r="C25" s="174">
+      <c r="C25" s="170">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D25" s="174">
+      <c r="D25" s="170">
         <v>0.68412600000000001</v>
       </c>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
       <c r="G25" s="113"/>
       <c r="H25" s="113"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
       <c r="N25" s="113"/>
       <c r="O25" s="113"/>
       <c r="P25" s="113"/>
@@ -22755,27 +22765,27 @@
       <c r="CC25" s="110"/>
     </row>
     <row r="26" spans="1:81">
-      <c r="A26" s="173">
-        <v>0</v>
-      </c>
-      <c r="B26" s="173">
-        <v>0</v>
-      </c>
-      <c r="C26" s="174">
-        <v>0</v>
-      </c>
-      <c r="D26" s="174">
-        <v>0</v>
-      </c>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
+      <c r="A26" s="169">
+        <v>0</v>
+      </c>
+      <c r="B26" s="169">
+        <v>0</v>
+      </c>
+      <c r="C26" s="170">
+        <v>0</v>
+      </c>
+      <c r="D26" s="170">
+        <v>0</v>
+      </c>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
       <c r="G26" s="113"/>
       <c r="H26" s="113"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
       <c r="N26" s="113"/>
       <c r="O26" s="113"/>
       <c r="P26" s="113"/>
@@ -22846,27 +22856,27 @@
       <c r="CC26" s="110"/>
     </row>
     <row r="27" spans="1:81">
-      <c r="A27" s="173">
-        <v>0</v>
-      </c>
-      <c r="B27" s="173">
-        <v>0</v>
-      </c>
-      <c r="C27" s="174">
-        <v>0</v>
-      </c>
-      <c r="D27" s="174">
-        <v>0</v>
-      </c>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
+      <c r="A27" s="169">
+        <v>0</v>
+      </c>
+      <c r="B27" s="169">
+        <v>0</v>
+      </c>
+      <c r="C27" s="170">
+        <v>0</v>
+      </c>
+      <c r="D27" s="170">
+        <v>0</v>
+      </c>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
       <c r="G27" s="113"/>
       <c r="H27" s="113"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="176"/>
       <c r="N27" s="113"/>
       <c r="O27" s="113"/>
       <c r="P27" s="113"/>
@@ -22937,27 +22947,27 @@
       <c r="CC27" s="110"/>
     </row>
     <row r="28" spans="1:81">
-      <c r="A28" s="173">
-        <v>0</v>
-      </c>
-      <c r="B28" s="173">
-        <v>0</v>
-      </c>
-      <c r="C28" s="174">
-        <v>0</v>
-      </c>
-      <c r="D28" s="174">
-        <v>0</v>
-      </c>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
+      <c r="A28" s="169">
+        <v>0</v>
+      </c>
+      <c r="B28" s="169">
+        <v>0</v>
+      </c>
+      <c r="C28" s="170">
+        <v>0</v>
+      </c>
+      <c r="D28" s="170">
+        <v>0</v>
+      </c>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
       <c r="G28" s="113"/>
       <c r="H28" s="113"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
       <c r="N28" s="113"/>
       <c r="O28" s="113"/>
       <c r="P28" s="113"/>
@@ -23028,27 +23038,27 @@
       <c r="CC28" s="110"/>
     </row>
     <row r="29" spans="1:81">
-      <c r="A29" s="173">
-        <v>0</v>
-      </c>
-      <c r="B29" s="173">
-        <v>0</v>
-      </c>
-      <c r="C29" s="174">
-        <v>0</v>
-      </c>
-      <c r="D29" s="174">
-        <v>0</v>
-      </c>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
+      <c r="A29" s="169">
+        <v>0</v>
+      </c>
+      <c r="B29" s="169">
+        <v>0</v>
+      </c>
+      <c r="C29" s="170">
+        <v>0</v>
+      </c>
+      <c r="D29" s="170">
+        <v>0</v>
+      </c>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
       <c r="G29" s="113"/>
       <c r="H29" s="113"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
       <c r="N29" s="113"/>
       <c r="O29" s="113"/>
       <c r="P29" s="113"/>
@@ -23066,27 +23076,27 @@
       <c r="AF29" s="4"/>
     </row>
     <row r="30" spans="1:81">
-      <c r="A30" s="173">
-        <v>0</v>
-      </c>
-      <c r="B30" s="173">
-        <v>0</v>
-      </c>
-      <c r="C30" s="174">
+      <c r="A30" s="169">
+        <v>0</v>
+      </c>
+      <c r="B30" s="169">
+        <v>0</v>
+      </c>
+      <c r="C30" s="170">
         <v>0.61</v>
       </c>
-      <c r="D30" s="174">
+      <c r="D30" s="170">
         <v>0.61</v>
       </c>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
       <c r="G30" s="113"/>
       <c r="H30" s="113"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="176"/>
       <c r="N30" s="113"/>
       <c r="O30" s="113"/>
       <c r="P30" s="113"/>
@@ -23104,27 +23114,27 @@
       <c r="AF30" s="4"/>
     </row>
     <row r="31" spans="1:81">
-      <c r="A31" s="173">
-        <v>0</v>
-      </c>
-      <c r="B31" s="173">
-        <v>0</v>
-      </c>
-      <c r="C31" s="174">
-        <v>0</v>
-      </c>
-      <c r="D31" s="174">
-        <v>0</v>
-      </c>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
+      <c r="A31" s="169">
+        <v>0</v>
+      </c>
+      <c r="B31" s="169">
+        <v>0</v>
+      </c>
+      <c r="C31" s="170">
+        <v>0</v>
+      </c>
+      <c r="D31" s="170">
+        <v>0</v>
+      </c>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
       <c r="G31" s="113"/>
       <c r="H31" s="113"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="176"/>
       <c r="N31" s="113"/>
       <c r="O31" s="113"/>
       <c r="P31" s="113"/>
@@ -23142,27 +23152,27 @@
       <c r="AF31" s="4"/>
     </row>
     <row r="32" spans="1:81">
-      <c r="A32" s="173">
-        <v>0</v>
-      </c>
-      <c r="B32" s="173">
-        <v>0</v>
-      </c>
-      <c r="C32" s="174">
-        <v>0</v>
-      </c>
-      <c r="D32" s="174">
-        <v>0</v>
-      </c>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
+      <c r="A32" s="169">
+        <v>0</v>
+      </c>
+      <c r="B32" s="169">
+        <v>0</v>
+      </c>
+      <c r="C32" s="170">
+        <v>0</v>
+      </c>
+      <c r="D32" s="170">
+        <v>0</v>
+      </c>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
       <c r="G32" s="113"/>
       <c r="H32" s="113"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="176"/>
       <c r="N32" s="113"/>
       <c r="O32" s="113"/>
       <c r="P32" s="113"/>
@@ -23180,27 +23190,27 @@
       <c r="AF32" s="4"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="173">
+      <c r="A33" s="169">
         <v>27866.973293999999</v>
       </c>
-      <c r="B33" s="173">
+      <c r="B33" s="169">
         <v>27866.973293999999</v>
       </c>
-      <c r="C33" s="174">
+      <c r="C33" s="170">
         <v>0.61919499999999994</v>
       </c>
-      <c r="D33" s="174">
+      <c r="D33" s="170">
         <v>0.61919499999999994</v>
       </c>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
       <c r="G33" s="113"/>
       <c r="H33" s="113"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="176"/>
       <c r="N33" s="113"/>
       <c r="O33" s="113"/>
       <c r="P33" s="113"/>
@@ -23218,27 +23228,27 @@
       <c r="AF33" s="4"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="173">
+      <c r="A34" s="169">
         <v>22158.782653999999</v>
       </c>
-      <c r="B34" s="173">
+      <c r="B34" s="169">
         <v>22158.782653999999</v>
       </c>
-      <c r="C34" s="174">
+      <c r="C34" s="170">
         <v>0.62109999999999999</v>
       </c>
-      <c r="D34" s="174">
+      <c r="D34" s="170">
         <v>0.62109999999999999</v>
       </c>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="180"/>
-      <c r="L34" s="180"/>
-      <c r="M34" s="180"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="176"/>
       <c r="N34" s="113"/>
       <c r="O34" s="113"/>
       <c r="P34" s="113"/>
@@ -23256,27 +23266,27 @@
       <c r="AF34" s="4"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="173">
+      <c r="A35" s="169">
         <v>5708.1906399999998</v>
       </c>
-      <c r="B35" s="173">
+      <c r="B35" s="169">
         <v>5708.1906399999998</v>
       </c>
-      <c r="C35" s="174">
+      <c r="C35" s="170">
         <v>0.61180000000000001</v>
       </c>
-      <c r="D35" s="174">
+      <c r="D35" s="170">
         <v>0.61180000000000001</v>
       </c>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
       <c r="G35" s="113"/>
       <c r="H35" s="113"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="176"/>
+      <c r="M35" s="176"/>
       <c r="N35" s="113"/>
       <c r="O35" s="113"/>
       <c r="P35" s="113"/>
@@ -23294,27 +23304,27 @@
       <c r="AF35" s="4"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="173">
+      <c r="A36" s="169">
         <v>10808.07805</v>
       </c>
-      <c r="B36" s="173">
+      <c r="B36" s="169">
         <v>10808.07805</v>
       </c>
-      <c r="C36" s="174">
+      <c r="C36" s="170">
         <v>0.61070000000000002</v>
       </c>
-      <c r="D36" s="174">
+      <c r="D36" s="170">
         <v>0.61070000000000002</v>
       </c>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
       <c r="G36" s="113"/>
       <c r="H36" s="113"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="180"/>
-      <c r="K36" s="180"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="180"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="176"/>
+      <c r="M36" s="176"/>
       <c r="N36" s="113"/>
       <c r="O36" s="113"/>
       <c r="P36" s="113"/>
@@ -23332,27 +23342,27 @@
       <c r="AF36" s="4"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="173">
+      <c r="A37" s="169">
         <v>417.69489800000002</v>
       </c>
-      <c r="B37" s="173">
+      <c r="B37" s="169">
         <v>417.69489800000002</v>
       </c>
-      <c r="C37" s="174">
+      <c r="C37" s="170">
         <v>0.56729999999999992</v>
       </c>
-      <c r="D37" s="174">
+      <c r="D37" s="170">
         <v>0.56729999999999992</v>
       </c>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
       <c r="G37" s="113"/>
       <c r="H37" s="113"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="180"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="176"/>
+      <c r="M37" s="176"/>
       <c r="N37" s="113"/>
       <c r="O37" s="113"/>
       <c r="P37" s="113"/>
@@ -23370,27 +23380,27 @@
       <c r="AF37" s="4"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="173">
+      <c r="A38" s="169">
         <v>11225.772948</v>
       </c>
-      <c r="B38" s="173">
+      <c r="B38" s="169">
         <v>11225.772948</v>
       </c>
-      <c r="C38" s="174">
+      <c r="C38" s="170">
         <v>0.60908499999999999</v>
       </c>
-      <c r="D38" s="174">
+      <c r="D38" s="170">
         <v>0.60908499999999999</v>
       </c>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
       <c r="G38" s="113"/>
       <c r="H38" s="113"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="180"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="180"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="176"/>
+      <c r="K38" s="176"/>
+      <c r="L38" s="176"/>
+      <c r="M38" s="176"/>
       <c r="N38" s="113"/>
       <c r="O38" s="113"/>
       <c r="P38" s="113"/>
@@ -23408,27 +23418,27 @@
       <c r="AF38" s="4"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="173">
-        <v>0</v>
-      </c>
-      <c r="B39" s="173">
-        <v>0</v>
-      </c>
-      <c r="C39" s="174">
-        <v>0</v>
-      </c>
-      <c r="D39" s="174">
-        <v>0</v>
-      </c>
-      <c r="E39" s="175"/>
-      <c r="F39" s="175"/>
+      <c r="A39" s="169">
+        <v>0</v>
+      </c>
+      <c r="B39" s="169">
+        <v>0</v>
+      </c>
+      <c r="C39" s="170">
+        <v>0</v>
+      </c>
+      <c r="D39" s="170">
+        <v>0</v>
+      </c>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
       <c r="G39" s="113"/>
       <c r="H39" s="113"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="176"/>
+      <c r="L39" s="176"/>
+      <c r="M39" s="176"/>
       <c r="N39" s="113"/>
       <c r="O39" s="113"/>
       <c r="P39" s="113"/>
@@ -23446,27 +23456,27 @@
       <c r="AF39" s="4"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="173">
+      <c r="A40" s="169">
         <v>11681.220740000001</v>
       </c>
-      <c r="B40" s="173">
+      <c r="B40" s="169">
         <v>11681.220740000001</v>
       </c>
-      <c r="C40" s="174">
+      <c r="C40" s="170">
         <v>0.36930000000000002</v>
       </c>
-      <c r="D40" s="174">
+      <c r="D40" s="170">
         <v>0.36930000000000002</v>
       </c>
-      <c r="E40" s="175"/>
-      <c r="F40" s="175"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
       <c r="G40" s="113"/>
       <c r="H40" s="113"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="180"/>
-      <c r="K40" s="180"/>
-      <c r="L40" s="180"/>
-      <c r="M40" s="180"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="176"/>
+      <c r="K40" s="176"/>
+      <c r="L40" s="176"/>
+      <c r="M40" s="176"/>
       <c r="N40" s="113"/>
       <c r="O40" s="113"/>
       <c r="P40" s="113"/>
@@ -23484,27 +23494,27 @@
       <c r="AF40" s="4"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="173">
+      <c r="A41" s="169">
         <v>2189.3000000000002</v>
       </c>
-      <c r="B41" s="173">
+      <c r="B41" s="169">
         <v>2189.3000000000002</v>
       </c>
-      <c r="C41" s="174">
+      <c r="C41" s="170">
         <v>0.35822100000000001</v>
       </c>
-      <c r="D41" s="174">
+      <c r="D41" s="170">
         <v>0.35822100000000001</v>
       </c>
-      <c r="E41" s="175"/>
-      <c r="F41" s="175"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
       <c r="G41" s="113"/>
       <c r="H41" s="113"/>
-      <c r="I41" s="180"/>
-      <c r="J41" s="180"/>
-      <c r="K41" s="180"/>
-      <c r="L41" s="180"/>
-      <c r="M41" s="180"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="176"/>
+      <c r="L41" s="176"/>
+      <c r="M41" s="176"/>
       <c r="N41" s="113"/>
       <c r="O41" s="113"/>
       <c r="P41" s="113"/>
@@ -23522,27 +23532,27 @@
       <c r="AF41" s="4"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="173">
-        <v>0</v>
-      </c>
-      <c r="B42" s="173">
-        <v>0</v>
-      </c>
-      <c r="C42" s="174">
-        <v>0</v>
-      </c>
-      <c r="D42" s="174">
-        <v>0</v>
-      </c>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
+      <c r="A42" s="169">
+        <v>0</v>
+      </c>
+      <c r="B42" s="169">
+        <v>0</v>
+      </c>
+      <c r="C42" s="170">
+        <v>0</v>
+      </c>
+      <c r="D42" s="170">
+        <v>0</v>
+      </c>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
       <c r="G42" s="113"/>
       <c r="H42" s="113"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="180"/>
-      <c r="K42" s="180"/>
-      <c r="L42" s="180"/>
-      <c r="M42" s="180"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="176"/>
+      <c r="K42" s="176"/>
+      <c r="L42" s="176"/>
+      <c r="M42" s="176"/>
       <c r="N42" s="113"/>
       <c r="O42" s="113"/>
       <c r="P42" s="113"/>
@@ -23560,27 +23570,27 @@
       <c r="AF42" s="4"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="173">
-        <v>0</v>
-      </c>
-      <c r="B43" s="173">
-        <v>0</v>
-      </c>
-      <c r="C43" s="174">
-        <v>0</v>
-      </c>
-      <c r="D43" s="174">
-        <v>0</v>
-      </c>
-      <c r="E43" s="175"/>
-      <c r="F43" s="175"/>
+      <c r="A43" s="169">
+        <v>0</v>
+      </c>
+      <c r="B43" s="169">
+        <v>0</v>
+      </c>
+      <c r="C43" s="170">
+        <v>0</v>
+      </c>
+      <c r="D43" s="170">
+        <v>0</v>
+      </c>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
       <c r="G43" s="113"/>
       <c r="H43" s="113"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="176"/>
+      <c r="L43" s="176"/>
+      <c r="M43" s="176"/>
       <c r="N43" s="113"/>
       <c r="O43" s="113"/>
       <c r="P43" s="113"/>
@@ -23598,27 +23608,27 @@
       <c r="AF43" s="4"/>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="173">
-        <v>0</v>
-      </c>
-      <c r="B44" s="173">
-        <v>0</v>
-      </c>
-      <c r="C44" s="174">
-        <v>0</v>
-      </c>
-      <c r="D44" s="174">
-        <v>0</v>
-      </c>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
+      <c r="A44" s="169">
+        <v>0</v>
+      </c>
+      <c r="B44" s="169">
+        <v>0</v>
+      </c>
+      <c r="C44" s="170">
+        <v>0</v>
+      </c>
+      <c r="D44" s="170">
+        <v>0</v>
+      </c>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
       <c r="G44" s="113"/>
       <c r="H44" s="113"/>
-      <c r="I44" s="180"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="180"/>
-      <c r="M44" s="180"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
+      <c r="K44" s="176"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="176"/>
       <c r="N44" s="113"/>
       <c r="O44" s="113"/>
       <c r="P44" s="113"/>
@@ -23636,27 +23646,27 @@
       <c r="AF44" s="4"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="173">
-        <v>0</v>
-      </c>
-      <c r="B45" s="173">
-        <v>0</v>
-      </c>
-      <c r="C45" s="174">
-        <v>0</v>
-      </c>
-      <c r="D45" s="174">
-        <v>0</v>
-      </c>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
+      <c r="A45" s="169">
+        <v>0</v>
+      </c>
+      <c r="B45" s="169">
+        <v>0</v>
+      </c>
+      <c r="C45" s="170">
+        <v>0</v>
+      </c>
+      <c r="D45" s="170">
+        <v>0</v>
+      </c>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
       <c r="G45" s="113"/>
       <c r="H45" s="113"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="180"/>
-      <c r="L45" s="180"/>
-      <c r="M45" s="180"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="176"/>
+      <c r="K45" s="176"/>
+      <c r="L45" s="176"/>
+      <c r="M45" s="176"/>
       <c r="N45" s="113"/>
       <c r="O45" s="113"/>
       <c r="P45" s="113"/>
@@ -23674,27 +23684,27 @@
       <c r="AF45" s="4"/>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="173">
-        <v>0</v>
-      </c>
-      <c r="B46" s="173">
-        <v>0</v>
-      </c>
-      <c r="C46" s="174">
-        <v>0</v>
-      </c>
-      <c r="D46" s="174">
-        <v>0</v>
-      </c>
-      <c r="E46" s="175"/>
-      <c r="F46" s="175"/>
+      <c r="A46" s="169">
+        <v>0</v>
+      </c>
+      <c r="B46" s="169">
+        <v>0</v>
+      </c>
+      <c r="C46" s="170">
+        <v>0</v>
+      </c>
+      <c r="D46" s="170">
+        <v>0</v>
+      </c>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
       <c r="G46" s="113"/>
       <c r="H46" s="113"/>
-      <c r="I46" s="180"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="180"/>
-      <c r="L46" s="180"/>
-      <c r="M46" s="180"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="176"/>
+      <c r="K46" s="176"/>
+      <c r="L46" s="176"/>
+      <c r="M46" s="176"/>
       <c r="N46" s="113"/>
       <c r="O46" s="113"/>
       <c r="P46" s="113"/>
@@ -23712,27 +23722,27 @@
       <c r="AF46" s="4"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="173">
-        <v>0</v>
-      </c>
-      <c r="B47" s="173">
-        <v>0</v>
-      </c>
-      <c r="C47" s="174">
-        <v>0</v>
-      </c>
-      <c r="D47" s="174">
-        <v>0</v>
-      </c>
-      <c r="E47" s="175"/>
-      <c r="F47" s="175"/>
+      <c r="A47" s="169">
+        <v>0</v>
+      </c>
+      <c r="B47" s="169">
+        <v>0</v>
+      </c>
+      <c r="C47" s="170">
+        <v>0</v>
+      </c>
+      <c r="D47" s="170">
+        <v>0</v>
+      </c>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
       <c r="G47" s="113"/>
       <c r="H47" s="113"/>
-      <c r="I47" s="180"/>
-      <c r="J47" s="180"/>
-      <c r="K47" s="180"/>
-      <c r="L47" s="180"/>
-      <c r="M47" s="180"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="176"/>
+      <c r="K47" s="176"/>
+      <c r="L47" s="176"/>
+      <c r="M47" s="176"/>
       <c r="N47" s="113"/>
       <c r="O47" s="113"/>
       <c r="P47" s="113"/>
@@ -23750,27 +23760,27 @@
       <c r="AF47" s="4"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="173">
-        <v>0</v>
-      </c>
-      <c r="B48" s="173">
-        <v>0</v>
-      </c>
-      <c r="C48" s="174">
-        <v>0</v>
-      </c>
-      <c r="D48" s="174">
-        <v>0</v>
-      </c>
-      <c r="E48" s="175"/>
-      <c r="F48" s="175"/>
+      <c r="A48" s="169">
+        <v>0</v>
+      </c>
+      <c r="B48" s="169">
+        <v>0</v>
+      </c>
+      <c r="C48" s="170">
+        <v>0</v>
+      </c>
+      <c r="D48" s="170">
+        <v>0</v>
+      </c>
+      <c r="E48" s="171"/>
+      <c r="F48" s="171"/>
       <c r="G48" s="113"/>
       <c r="H48" s="113"/>
-      <c r="I48" s="180"/>
-      <c r="J48" s="180"/>
-      <c r="K48" s="180"/>
-      <c r="L48" s="180"/>
-      <c r="M48" s="180"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="176"/>
+      <c r="K48" s="176"/>
+      <c r="L48" s="176"/>
+      <c r="M48" s="176"/>
       <c r="N48" s="113"/>
       <c r="O48" s="113"/>
       <c r="P48" s="113"/>
@@ -23788,27 +23798,27 @@
       <c r="AF48" s="4"/>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49" s="173">
-        <v>0</v>
-      </c>
-      <c r="B49" s="173">
-        <v>0</v>
-      </c>
-      <c r="C49" s="174">
-        <v>0</v>
-      </c>
-      <c r="D49" s="174">
-        <v>0</v>
-      </c>
-      <c r="E49" s="175"/>
-      <c r="F49" s="175"/>
+      <c r="A49" s="169">
+        <v>0</v>
+      </c>
+      <c r="B49" s="169">
+        <v>0</v>
+      </c>
+      <c r="C49" s="170">
+        <v>0</v>
+      </c>
+      <c r="D49" s="170">
+        <v>0</v>
+      </c>
+      <c r="E49" s="171"/>
+      <c r="F49" s="171"/>
       <c r="G49" s="113"/>
       <c r="H49" s="113"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="180"/>
-      <c r="K49" s="180"/>
-      <c r="L49" s="180"/>
-      <c r="M49" s="180"/>
+      <c r="I49" s="176"/>
+      <c r="J49" s="176"/>
+      <c r="K49" s="176"/>
+      <c r="L49" s="176"/>
+      <c r="M49" s="176"/>
       <c r="N49" s="113"/>
       <c r="O49" s="113"/>
       <c r="P49" s="113"/>
@@ -23826,27 +23836,27 @@
       <c r="AF49" s="4"/>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50" s="173">
-        <v>0</v>
-      </c>
-      <c r="B50" s="173">
-        <v>0</v>
-      </c>
-      <c r="C50" s="174">
-        <v>0</v>
-      </c>
-      <c r="D50" s="174">
-        <v>0</v>
-      </c>
-      <c r="E50" s="175"/>
-      <c r="F50" s="175"/>
+      <c r="A50" s="169">
+        <v>0</v>
+      </c>
+      <c r="B50" s="169">
+        <v>0</v>
+      </c>
+      <c r="C50" s="170">
+        <v>0</v>
+      </c>
+      <c r="D50" s="170">
+        <v>0</v>
+      </c>
+      <c r="E50" s="171"/>
+      <c r="F50" s="171"/>
       <c r="G50" s="113"/>
       <c r="H50" s="113"/>
-      <c r="I50" s="180"/>
-      <c r="J50" s="180"/>
-      <c r="K50" s="180"/>
-      <c r="L50" s="180"/>
-      <c r="M50" s="180"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="176"/>
+      <c r="L50" s="176"/>
+      <c r="M50" s="176"/>
       <c r="N50" s="113"/>
       <c r="O50" s="113"/>
       <c r="P50" s="113"/>
@@ -23864,27 +23874,27 @@
       <c r="AF50" s="4"/>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51" s="173">
-        <v>0</v>
-      </c>
-      <c r="B51" s="173">
-        <v>0</v>
-      </c>
-      <c r="C51" s="174">
-        <v>0</v>
-      </c>
-      <c r="D51" s="174">
-        <v>0</v>
-      </c>
-      <c r="E51" s="175"/>
-      <c r="F51" s="175"/>
+      <c r="A51" s="169">
+        <v>0</v>
+      </c>
+      <c r="B51" s="169">
+        <v>0</v>
+      </c>
+      <c r="C51" s="170">
+        <v>0</v>
+      </c>
+      <c r="D51" s="170">
+        <v>0</v>
+      </c>
+      <c r="E51" s="171"/>
+      <c r="F51" s="171"/>
       <c r="G51" s="113"/>
       <c r="H51" s="113"/>
-      <c r="I51" s="180"/>
-      <c r="J51" s="180"/>
-      <c r="K51" s="180"/>
-      <c r="L51" s="180"/>
-      <c r="M51" s="180"/>
+      <c r="I51" s="176"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="176"/>
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
       <c r="N51" s="113"/>
       <c r="O51" s="113"/>
       <c r="P51" s="113"/>
@@ -23902,27 +23912,27 @@
       <c r="AF51" s="4"/>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="173">
-        <v>0</v>
-      </c>
-      <c r="B52" s="173">
-        <v>0</v>
-      </c>
-      <c r="C52" s="174">
-        <v>0</v>
-      </c>
-      <c r="D52" s="174">
-        <v>0</v>
-      </c>
-      <c r="E52" s="175"/>
-      <c r="F52" s="175"/>
+      <c r="A52" s="169">
+        <v>0</v>
+      </c>
+      <c r="B52" s="169">
+        <v>0</v>
+      </c>
+      <c r="C52" s="170">
+        <v>0</v>
+      </c>
+      <c r="D52" s="170">
+        <v>0</v>
+      </c>
+      <c r="E52" s="171"/>
+      <c r="F52" s="171"/>
       <c r="G52" s="113"/>
       <c r="H52" s="113"/>
-      <c r="I52" s="180"/>
-      <c r="J52" s="180"/>
-      <c r="K52" s="180"/>
-      <c r="L52" s="180"/>
-      <c r="M52" s="180"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="176"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="176"/>
       <c r="N52" s="113"/>
       <c r="O52" s="113"/>
       <c r="P52" s="113"/>
@@ -23940,27 +23950,27 @@
       <c r="AF52" s="4"/>
     </row>
     <row r="53" spans="1:39">
-      <c r="A53" s="173">
-        <v>0</v>
-      </c>
-      <c r="B53" s="173">
-        <v>0</v>
-      </c>
-      <c r="C53" s="174">
-        <v>0</v>
-      </c>
-      <c r="D53" s="174">
-        <v>0</v>
-      </c>
-      <c r="E53" s="175"/>
-      <c r="F53" s="175"/>
+      <c r="A53" s="169">
+        <v>0</v>
+      </c>
+      <c r="B53" s="169">
+        <v>0</v>
+      </c>
+      <c r="C53" s="170">
+        <v>0</v>
+      </c>
+      <c r="D53" s="170">
+        <v>0</v>
+      </c>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
       <c r="G53" s="113"/>
       <c r="H53" s="113"/>
-      <c r="I53" s="180"/>
-      <c r="J53" s="180"/>
-      <c r="K53" s="180"/>
-      <c r="L53" s="180"/>
-      <c r="M53" s="180"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="176"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="176"/>
       <c r="N53" s="113"/>
       <c r="O53" s="113"/>
       <c r="P53" s="113"/>
@@ -23978,27 +23988,27 @@
       <c r="AF53" s="4"/>
     </row>
     <row r="54" spans="1:39">
-      <c r="A54" s="173">
+      <c r="A54" s="169">
         <v>61164.541878000004</v>
       </c>
-      <c r="B54" s="173">
+      <c r="B54" s="169">
         <v>61164.541878000004</v>
       </c>
-      <c r="C54" s="174">
+      <c r="C54" s="170">
         <v>0.52298200000000006</v>
       </c>
-      <c r="D54" s="174">
+      <c r="D54" s="170">
         <v>0.52298200000000006</v>
       </c>
-      <c r="E54" s="175"/>
-      <c r="F54" s="175"/>
+      <c r="E54" s="171"/>
+      <c r="F54" s="171"/>
       <c r="G54" s="113"/>
       <c r="H54" s="113"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="180"/>
-      <c r="K54" s="180"/>
-      <c r="L54" s="180"/>
-      <c r="M54" s="180"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="176"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="176"/>
+      <c r="M54" s="176"/>
       <c r="N54" s="113"/>
       <c r="O54" s="113"/>
       <c r="P54" s="113"/>
@@ -24016,27 +24026,27 @@
       <c r="AF54" s="4"/>
     </row>
     <row r="55" spans="1:39">
-      <c r="A55" s="173">
+      <c r="A55" s="169">
         <v>61164.541878000004</v>
       </c>
-      <c r="B55" s="173">
+      <c r="B55" s="169">
         <v>61164.541878000004</v>
       </c>
-      <c r="C55" s="174">
+      <c r="C55" s="170">
         <v>0.52298200000000006</v>
       </c>
-      <c r="D55" s="174">
+      <c r="D55" s="170">
         <v>0.52298200000000006</v>
       </c>
-      <c r="E55" s="175"/>
-      <c r="F55" s="175"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
       <c r="G55" s="113"/>
       <c r="H55" s="113"/>
-      <c r="I55" s="180"/>
-      <c r="J55" s="180"/>
-      <c r="K55" s="180"/>
-      <c r="L55" s="180"/>
-      <c r="M55" s="180"/>
+      <c r="I55" s="176"/>
+      <c r="J55" s="176"/>
+      <c r="K55" s="176"/>
+      <c r="L55" s="176"/>
+      <c r="M55" s="176"/>
       <c r="N55" s="113"/>
       <c r="O55" s="113"/>
       <c r="P55" s="113"/>
@@ -24054,19 +24064,19 @@
       <c r="AF55" s="4"/>
     </row>
     <row r="56" spans="1:39">
-      <c r="A56" s="175"/>
-      <c r="B56" s="175"/>
-      <c r="C56" s="175"/>
-      <c r="D56" s="175"/>
-      <c r="E56" s="175"/>
-      <c r="F56" s="175"/>
+      <c r="A56" s="171"/>
+      <c r="B56" s="171"/>
+      <c r="C56" s="171"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="171"/>
       <c r="G56" s="113"/>
       <c r="H56" s="113"/>
-      <c r="I56" s="180"/>
-      <c r="J56" s="180"/>
-      <c r="K56" s="180"/>
-      <c r="L56" s="180"/>
-      <c r="M56" s="180"/>
+      <c r="I56" s="176"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="176"/>
+      <c r="L56" s="176"/>
+      <c r="M56" s="176"/>
       <c r="N56" s="113"/>
       <c r="O56" s="113"/>
       <c r="P56" s="113"/>
@@ -24095,19 +24105,19 @@
       <c r="AM56" s="113"/>
     </row>
     <row r="57" spans="1:39">
-      <c r="A57" s="175"/>
-      <c r="B57" s="175"/>
-      <c r="C57" s="175"/>
-      <c r="D57" s="175"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="175"/>
+      <c r="A57" s="171"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="171"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="171"/>
+      <c r="F57" s="171"/>
       <c r="G57" s="113"/>
       <c r="H57" s="113"/>
-      <c r="I57" s="180"/>
-      <c r="J57" s="180"/>
-      <c r="K57" s="180"/>
-      <c r="L57" s="180"/>
-      <c r="M57" s="180"/>
+      <c r="I57" s="176"/>
+      <c r="J57" s="176"/>
+      <c r="K57" s="176"/>
+      <c r="L57" s="176"/>
+      <c r="M57" s="176"/>
       <c r="N57" s="113"/>
       <c r="O57" s="113"/>
       <c r="P57" s="113"/>
@@ -24136,19 +24146,19 @@
       <c r="AM57" s="113"/>
     </row>
     <row r="58" spans="1:39">
-      <c r="A58" s="175"/>
-      <c r="B58" s="175"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="175"/>
-      <c r="E58" s="175"/>
-      <c r="F58" s="175"/>
+      <c r="A58" s="171"/>
+      <c r="B58" s="171"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
       <c r="G58" s="113"/>
       <c r="H58" s="113"/>
-      <c r="I58" s="180"/>
-      <c r="J58" s="180"/>
-      <c r="K58" s="180"/>
-      <c r="L58" s="180"/>
-      <c r="M58" s="180"/>
+      <c r="I58" s="176"/>
+      <c r="J58" s="176"/>
+      <c r="K58" s="176"/>
+      <c r="L58" s="176"/>
+      <c r="M58" s="176"/>
       <c r="N58" s="113"/>
       <c r="O58" s="113"/>
       <c r="P58" s="113"/>
@@ -24177,19 +24187,19 @@
       <c r="AM58" s="113"/>
     </row>
     <row r="59" spans="1:39">
-      <c r="A59" s="175"/>
-      <c r="B59" s="175"/>
-      <c r="C59" s="175"/>
-      <c r="D59" s="175"/>
-      <c r="E59" s="175"/>
-      <c r="F59" s="175"/>
+      <c r="A59" s="171"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
       <c r="G59" s="113"/>
       <c r="H59" s="113"/>
-      <c r="I59" s="180"/>
-      <c r="J59" s="180"/>
-      <c r="K59" s="180"/>
-      <c r="L59" s="180"/>
-      <c r="M59" s="180"/>
+      <c r="I59" s="176"/>
+      <c r="J59" s="176"/>
+      <c r="K59" s="176"/>
+      <c r="L59" s="176"/>
+      <c r="M59" s="176"/>
       <c r="N59" s="113"/>
       <c r="O59" s="113"/>
       <c r="P59" s="113"/>
@@ -24218,23 +24228,23 @@
       <c r="AM59" s="113"/>
     </row>
     <row r="60" spans="1:39" ht="19">
-      <c r="A60" s="175"/>
-      <c r="B60" s="175"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="175"/>
-      <c r="E60" s="175"/>
-      <c r="F60" s="175"/>
+      <c r="A60" s="171"/>
+      <c r="B60" s="171"/>
+      <c r="C60" s="171"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="171"/>
+      <c r="F60" s="171"/>
       <c r="G60" s="127"/>
       <c r="H60" s="127"/>
-      <c r="I60" s="180"/>
-      <c r="J60" s="252" t="s">
+      <c r="I60" s="176"/>
+      <c r="J60" s="254" t="s">
         <v>68</v>
       </c>
-      <c r="K60" s="252"/>
-      <c r="L60" s="252"/>
-      <c r="M60" s="180"/>
-      <c r="N60" s="253"/>
-      <c r="O60" s="253"/>
+      <c r="K60" s="254"/>
+      <c r="L60" s="254"/>
+      <c r="M60" s="176"/>
+      <c r="N60" s="255"/>
+      <c r="O60" s="255"/>
       <c r="P60" s="113"/>
       <c r="Q60" s="113"/>
       <c r="R60" s="132"/>
@@ -24261,25 +24271,25 @@
       <c r="AM60" s="113"/>
     </row>
     <row r="61" spans="1:39">
-      <c r="A61" s="175"/>
-      <c r="B61" s="175"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="175"/>
-      <c r="E61" s="175"/>
-      <c r="F61" s="175"/>
+      <c r="A61" s="171"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="171"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
       <c r="G61" s="120"/>
       <c r="H61" s="120"/>
-      <c r="I61" s="180"/>
-      <c r="J61" s="182" t="s">
+      <c r="I61" s="176"/>
+      <c r="J61" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="K61" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="L61" s="182" t="s">
+      <c r="K61" s="178" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="M61" s="180"/>
+      <c r="M61" s="176"/>
       <c r="N61" s="126"/>
       <c r="O61" s="126"/>
       <c r="P61" s="123"/>
@@ -24308,30 +24318,30 @@
       <c r="AM61" s="113"/>
     </row>
     <row r="62" spans="1:39" ht="16">
-      <c r="A62" s="175"/>
-      <c r="B62" s="175"/>
-      <c r="C62" s="175"/>
-      <c r="D62" s="175"/>
-      <c r="E62" s="175"/>
-      <c r="F62" s="175"/>
+      <c r="A62" s="171"/>
+      <c r="B62" s="171"/>
+      <c r="C62" s="171"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="171"/>
+      <c r="F62" s="171"/>
       <c r="G62" s="116"/>
       <c r="H62" s="124"/>
-      <c r="I62" s="180" t="s">
+      <c r="I62" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J62" s="180">
+      <c r="J62" s="176">
         <f>B1</f>
         <v>86233.752800000002</v>
       </c>
-      <c r="K62" s="183">
+      <c r="K62" s="179">
         <f>IF(D1&gt;1,D1/100,D1)</f>
         <v>0.36369100000000004</v>
       </c>
-      <c r="L62" s="181">
+      <c r="L62" s="177">
         <f>+J62*K62</f>
         <v>31362.439789584805</v>
       </c>
-      <c r="M62" s="180"/>
+      <c r="M62" s="176"/>
       <c r="N62" s="130"/>
       <c r="O62" s="130"/>
       <c r="P62" s="124"/>
@@ -24360,30 +24370,30 @@
       <c r="AM62" s="113"/>
     </row>
     <row r="63" spans="1:39" ht="16">
-      <c r="A63" s="175"/>
-      <c r="B63" s="175"/>
-      <c r="C63" s="175"/>
-      <c r="D63" s="175"/>
-      <c r="E63" s="175"/>
-      <c r="F63" s="175"/>
+      <c r="A63" s="171"/>
+      <c r="B63" s="171"/>
+      <c r="C63" s="171"/>
+      <c r="D63" s="171"/>
+      <c r="E63" s="171"/>
+      <c r="F63" s="171"/>
       <c r="G63" s="128"/>
       <c r="H63" s="129"/>
-      <c r="I63" s="180" t="s">
+      <c r="I63" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="180">
+      <c r="J63" s="176">
         <f t="shared" ref="J63:J116" si="0">B2</f>
         <v>9491.9207399999996</v>
       </c>
-      <c r="K63" s="183">
+      <c r="K63" s="179">
         <f t="shared" ref="K63:K116" si="1">IF(D2&gt;1,D2/100,D2)</f>
         <v>0.37185499999999999</v>
       </c>
-      <c r="L63" s="181">
+      <c r="L63" s="177">
         <f t="shared" ref="L63:L116" si="2">+J63*K63</f>
         <v>3529.6181867726996</v>
       </c>
-      <c r="M63" s="180"/>
+      <c r="M63" s="176"/>
       <c r="N63" s="130"/>
       <c r="O63" s="130"/>
       <c r="P63" s="124"/>
@@ -24412,30 +24422,30 @@
       <c r="AM63" s="113"/>
     </row>
     <row r="64" spans="1:39" ht="16">
-      <c r="A64" s="175"/>
-      <c r="B64" s="175"/>
-      <c r="C64" s="175"/>
-      <c r="D64" s="175"/>
-      <c r="E64" s="175"/>
-      <c r="F64" s="175"/>
+      <c r="A64" s="171"/>
+      <c r="B64" s="171"/>
+      <c r="C64" s="171"/>
+      <c r="D64" s="171"/>
+      <c r="E64" s="171"/>
+      <c r="F64" s="171"/>
       <c r="G64" s="128"/>
       <c r="H64" s="129"/>
-      <c r="I64" s="180" t="s">
+      <c r="I64" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="180">
+      <c r="J64" s="176">
         <f t="shared" si="0"/>
         <v>15727.04054</v>
       </c>
-      <c r="K64" s="183">
+      <c r="K64" s="179">
         <f t="shared" si="1"/>
         <v>0.170652</v>
       </c>
-      <c r="L64" s="181">
+      <c r="L64" s="177">
         <f t="shared" si="2"/>
         <v>2683.8509222320799</v>
       </c>
-      <c r="M64" s="180"/>
+      <c r="M64" s="176"/>
       <c r="N64" s="130"/>
       <c r="O64" s="130"/>
       <c r="P64" s="124"/>
@@ -24464,30 +24474,30 @@
       <c r="AM64" s="113"/>
     </row>
     <row r="65" spans="1:39" ht="16">
-      <c r="A65" s="175"/>
-      <c r="B65" s="175"/>
-      <c r="C65" s="175"/>
-      <c r="D65" s="175"/>
-      <c r="E65" s="175"/>
-      <c r="F65" s="175"/>
+      <c r="A65" s="171"/>
+      <c r="B65" s="171"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="171"/>
+      <c r="E65" s="171"/>
+      <c r="F65" s="171"/>
       <c r="G65" s="128"/>
       <c r="H65" s="129"/>
-      <c r="I65" s="180" t="s">
+      <c r="I65" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="180">
+      <c r="J65" s="176">
         <f t="shared" si="0"/>
         <v>79998.633000000002</v>
       </c>
-      <c r="K65" s="183">
+      <c r="K65" s="179">
         <f t="shared" si="1"/>
         <v>0.40261000000000002</v>
       </c>
-      <c r="L65" s="181">
+      <c r="L65" s="177">
         <f t="shared" si="2"/>
         <v>32208.249632130002</v>
       </c>
-      <c r="M65" s="180"/>
+      <c r="M65" s="176"/>
       <c r="N65" s="130"/>
       <c r="O65" s="130"/>
       <c r="P65" s="124"/>
@@ -24516,30 +24526,30 @@
       <c r="AM65" s="113"/>
     </row>
     <row r="66" spans="1:39" ht="16">
-      <c r="A66" s="175"/>
-      <c r="B66" s="175"/>
-      <c r="C66" s="175"/>
-      <c r="D66" s="175"/>
-      <c r="E66" s="175"/>
-      <c r="F66" s="175"/>
+      <c r="A66" s="171"/>
+      <c r="B66" s="171"/>
+      <c r="C66" s="171"/>
+      <c r="D66" s="171"/>
+      <c r="E66" s="171"/>
+      <c r="F66" s="171"/>
       <c r="G66" s="128"/>
       <c r="H66" s="129"/>
-      <c r="I66" s="180" t="s">
+      <c r="I66" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="J66" s="180">
+      <c r="J66" s="176">
         <f t="shared" si="0"/>
         <v>26763.689249999999</v>
       </c>
-      <c r="K66" s="183">
+      <c r="K66" s="179">
         <f t="shared" si="1"/>
         <v>0.49357999999999996</v>
       </c>
-      <c r="L66" s="181">
+      <c r="L66" s="177">
         <f t="shared" si="2"/>
         <v>13210.021740015</v>
       </c>
-      <c r="M66" s="180"/>
+      <c r="M66" s="176"/>
       <c r="N66" s="130"/>
       <c r="O66" s="130"/>
       <c r="P66" s="124"/>
@@ -24568,30 +24578,30 @@
       <c r="AM66" s="113"/>
     </row>
     <row r="67" spans="1:39" ht="16">
-      <c r="A67" s="176"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="175"/>
-      <c r="E67" s="175"/>
-      <c r="F67" s="178"/>
+      <c r="A67" s="172"/>
+      <c r="B67" s="172"/>
+      <c r="C67" s="173"/>
+      <c r="D67" s="171"/>
+      <c r="E67" s="171"/>
+      <c r="F67" s="174"/>
       <c r="G67" s="128"/>
       <c r="H67" s="129"/>
-      <c r="I67" s="180" t="s">
+      <c r="I67" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="180">
+      <c r="J67" s="176">
         <f t="shared" si="0"/>
         <v>43948.767596999998</v>
       </c>
-      <c r="K67" s="183">
+      <c r="K67" s="179">
         <f t="shared" si="1"/>
         <v>0.42389399999999999</v>
       </c>
-      <c r="L67" s="181">
+      <c r="L67" s="177">
         <f t="shared" si="2"/>
         <v>18629.618891762719</v>
       </c>
-      <c r="M67" s="180"/>
+      <c r="M67" s="176"/>
       <c r="N67" s="130"/>
       <c r="O67" s="130"/>
       <c r="P67" s="124"/>
@@ -24620,30 +24630,30 @@
       <c r="AM67" s="113"/>
     </row>
     <row r="68" spans="1:39" ht="16">
-      <c r="A68" s="175"/>
-      <c r="B68" s="175"/>
-      <c r="C68" s="175"/>
-      <c r="D68" s="175"/>
-      <c r="E68" s="175"/>
-      <c r="F68" s="175"/>
+      <c r="A68" s="171"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="171"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="171"/>
+      <c r="F68" s="171"/>
       <c r="G68" s="128"/>
       <c r="H68" s="129"/>
-      <c r="I68" s="180" t="s">
+      <c r="I68" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="180">
+      <c r="J68" s="176">
         <f t="shared" si="0"/>
         <v>62813.554652999999</v>
       </c>
-      <c r="K68" s="183">
+      <c r="K68" s="179">
         <f t="shared" si="1"/>
         <v>0.426479</v>
       </c>
-      <c r="L68" s="181">
+      <c r="L68" s="177">
         <f t="shared" si="2"/>
         <v>26788.661974856786</v>
       </c>
-      <c r="M68" s="180"/>
+      <c r="M68" s="176"/>
       <c r="N68" s="130"/>
       <c r="O68" s="130"/>
       <c r="P68" s="124"/>
@@ -24672,30 +24682,30 @@
       <c r="AM68" s="113"/>
     </row>
     <row r="69" spans="1:39" ht="19" customHeight="1">
-      <c r="A69" s="175"/>
-      <c r="B69" s="175"/>
-      <c r="C69" s="175"/>
-      <c r="D69" s="175"/>
-      <c r="E69" s="175"/>
-      <c r="F69" s="175"/>
+      <c r="A69" s="171"/>
+      <c r="B69" s="171"/>
+      <c r="C69" s="171"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="171"/>
+      <c r="F69" s="171"/>
       <c r="G69" s="128"/>
       <c r="H69" s="129"/>
-      <c r="I69" s="180" t="s">
+      <c r="I69" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="J69" s="180">
+      <c r="J69" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K69" s="183">
+      <c r="K69" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L69" s="181">
+      <c r="L69" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M69" s="180"/>
+      <c r="M69" s="176"/>
       <c r="N69" s="130"/>
       <c r="O69" s="130"/>
       <c r="P69" s="124"/>
@@ -24724,30 +24734,30 @@
       <c r="AM69" s="113"/>
     </row>
     <row r="70" spans="1:39" ht="16">
-      <c r="A70" s="175"/>
-      <c r="B70" s="175"/>
-      <c r="C70" s="175"/>
-      <c r="D70" s="175"/>
-      <c r="E70" s="175"/>
-      <c r="F70" s="175"/>
+      <c r="A70" s="171"/>
+      <c r="B70" s="171"/>
+      <c r="C70" s="171"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="171"/>
+      <c r="F70" s="171"/>
       <c r="G70" s="128"/>
       <c r="H70" s="129"/>
-      <c r="I70" s="180" t="s">
+      <c r="I70" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="J70" s="180">
+      <c r="J70" s="176">
         <f t="shared" si="0"/>
         <v>13968.63</v>
       </c>
-      <c r="K70" s="183">
+      <c r="K70" s="179">
         <f t="shared" si="1"/>
         <v>0.274341</v>
       </c>
-      <c r="L70" s="181">
+      <c r="L70" s="177">
         <f t="shared" si="2"/>
         <v>3832.16792283</v>
       </c>
-      <c r="M70" s="180"/>
+      <c r="M70" s="176"/>
       <c r="N70" s="130"/>
       <c r="O70" s="130"/>
       <c r="P70" s="124"/>
@@ -24776,30 +24786,30 @@
       <c r="AM70" s="113"/>
     </row>
     <row r="71" spans="1:39" ht="16">
-      <c r="A71" s="175"/>
-      <c r="B71" s="175"/>
-      <c r="C71" s="175"/>
-      <c r="D71" s="175"/>
-      <c r="E71" s="175"/>
-      <c r="F71" s="175"/>
+      <c r="A71" s="171"/>
+      <c r="B71" s="171"/>
+      <c r="C71" s="171"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="171"/>
+      <c r="F71" s="171"/>
       <c r="G71" s="116"/>
       <c r="H71" s="129"/>
-      <c r="I71" s="180" t="s">
+      <c r="I71" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="J71" s="180">
+      <c r="J71" s="176">
         <f t="shared" si="0"/>
         <v>6086.9213650000002</v>
       </c>
-      <c r="K71" s="183">
+      <c r="K71" s="179">
         <f t="shared" si="1"/>
         <v>0.14440600000000001</v>
       </c>
-      <c r="L71" s="181">
+      <c r="L71" s="177">
         <f t="shared" si="2"/>
         <v>878.98796663419012</v>
       </c>
-      <c r="M71" s="180"/>
+      <c r="M71" s="176"/>
       <c r="N71" s="130"/>
       <c r="O71" s="130"/>
       <c r="P71" s="124"/>
@@ -24828,30 +24838,30 @@
       <c r="AM71" s="113"/>
     </row>
     <row r="72" spans="1:39" ht="16">
-      <c r="A72" s="175"/>
-      <c r="B72" s="175"/>
-      <c r="C72" s="175"/>
-      <c r="D72" s="175"/>
-      <c r="E72" s="175"/>
-      <c r="F72" s="175"/>
+      <c r="A72" s="171"/>
+      <c r="B72" s="171"/>
+      <c r="C72" s="171"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="171"/>
+      <c r="F72" s="171"/>
       <c r="G72" s="128"/>
       <c r="H72" s="129"/>
-      <c r="I72" s="180" t="s">
+      <c r="I72" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="J72" s="180">
+      <c r="J72" s="176">
         <f t="shared" si="0"/>
         <v>29076.782852</v>
       </c>
-      <c r="K72" s="183">
+      <c r="K72" s="179">
         <f t="shared" si="1"/>
         <v>0.49100700000000003</v>
       </c>
-      <c r="L72" s="181">
+      <c r="L72" s="177">
         <f t="shared" si="2"/>
         <v>14276.903917811966</v>
       </c>
-      <c r="M72" s="180"/>
+      <c r="M72" s="176"/>
       <c r="N72" s="130"/>
       <c r="O72" s="130"/>
       <c r="P72" s="124"/>
@@ -24880,30 +24890,30 @@
       <c r="AM72" s="113"/>
     </row>
     <row r="73" spans="1:39" ht="16">
-      <c r="A73" s="175"/>
-      <c r="B73" s="175"/>
-      <c r="C73" s="175"/>
-      <c r="D73" s="175"/>
-      <c r="E73" s="175"/>
-      <c r="F73" s="175"/>
+      <c r="A73" s="171"/>
+      <c r="B73" s="171"/>
+      <c r="C73" s="171"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="171"/>
+      <c r="F73" s="171"/>
       <c r="G73" s="128"/>
       <c r="H73" s="129"/>
-      <c r="I73" s="180" t="s">
+      <c r="I73" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="J73" s="180">
+      <c r="J73" s="176">
         <f t="shared" si="0"/>
         <v>13681.220436</v>
       </c>
-      <c r="K73" s="183">
+      <c r="K73" s="179">
         <f t="shared" si="1"/>
         <v>0.57016599999999995</v>
       </c>
-      <c r="L73" s="181">
+      <c r="L73" s="177">
         <f t="shared" si="2"/>
         <v>7800.5667311123752</v>
       </c>
-      <c r="M73" s="180"/>
+      <c r="M73" s="176"/>
       <c r="N73" s="130"/>
       <c r="O73" s="130"/>
       <c r="P73" s="124"/>
@@ -24932,30 +24942,30 @@
       <c r="AM73" s="113"/>
     </row>
     <row r="74" spans="1:39" ht="16">
-      <c r="A74" s="175"/>
-      <c r="B74" s="175"/>
-      <c r="C74" s="175"/>
-      <c r="D74" s="175"/>
-      <c r="E74" s="175"/>
-      <c r="F74" s="175"/>
+      <c r="A74" s="171"/>
+      <c r="B74" s="171"/>
+      <c r="C74" s="171"/>
+      <c r="D74" s="171"/>
+      <c r="E74" s="171"/>
+      <c r="F74" s="171"/>
       <c r="G74" s="128"/>
       <c r="H74" s="129"/>
-      <c r="I74" s="180" t="s">
+      <c r="I74" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="J74" s="180">
+      <c r="J74" s="176">
         <f t="shared" si="0"/>
         <v>9599.1431309</v>
       </c>
-      <c r="K74" s="183">
+      <c r="K74" s="179">
         <f t="shared" si="1"/>
         <v>0.52397700000000003</v>
       </c>
-      <c r="L74" s="181">
+      <c r="L74" s="177">
         <f t="shared" si="2"/>
         <v>5029.7302202995897</v>
       </c>
-      <c r="M74" s="180"/>
+      <c r="M74" s="176"/>
       <c r="N74" s="130"/>
       <c r="O74" s="130"/>
       <c r="P74" s="124"/>
@@ -24984,30 +24994,30 @@
       <c r="AM74" s="113"/>
     </row>
     <row r="75" spans="1:39" ht="16">
-      <c r="A75" s="176"/>
-      <c r="B75" s="176"/>
-      <c r="C75" s="177"/>
-      <c r="D75" s="175"/>
-      <c r="E75" s="175"/>
-      <c r="F75" s="178"/>
+      <c r="A75" s="172"/>
+      <c r="B75" s="172"/>
+      <c r="C75" s="173"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="171"/>
+      <c r="F75" s="174"/>
       <c r="G75" s="128"/>
       <c r="H75" s="129"/>
-      <c r="I75" s="180" t="s">
+      <c r="I75" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="J75" s="180">
+      <c r="J75" s="176">
         <f t="shared" si="0"/>
         <v>-1947.6210599999999</v>
       </c>
-      <c r="K75" s="183">
+      <c r="K75" s="179">
         <f t="shared" si="1"/>
         <v>0.48905500000000002</v>
       </c>
-      <c r="L75" s="181">
+      <c r="L75" s="177">
         <f t="shared" si="2"/>
         <v>-952.49381749830002</v>
       </c>
-      <c r="M75" s="180"/>
+      <c r="M75" s="176"/>
       <c r="N75" s="130"/>
       <c r="O75" s="130"/>
       <c r="P75" s="124"/>
@@ -25036,30 +25046,30 @@
       <c r="AM75" s="113"/>
     </row>
     <row r="76" spans="1:39" ht="16">
-      <c r="A76" s="175"/>
-      <c r="B76" s="175"/>
-      <c r="C76" s="175"/>
-      <c r="D76" s="175"/>
-      <c r="E76" s="175"/>
-      <c r="F76" s="175"/>
+      <c r="A76" s="171"/>
+      <c r="B76" s="171"/>
+      <c r="C76" s="171"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="171"/>
+      <c r="F76" s="171"/>
       <c r="G76" s="128"/>
       <c r="H76" s="129"/>
-      <c r="I76" s="180" t="s">
+      <c r="I76" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J76" s="180">
+      <c r="J76" s="176">
         <f t="shared" si="0"/>
         <v>82589.802658999994</v>
       </c>
-      <c r="K76" s="183">
+      <c r="K76" s="179">
         <f t="shared" si="1"/>
         <v>0.51080899999999996</v>
       </c>
-      <c r="L76" s="181">
+      <c r="L76" s="177">
         <f t="shared" si="2"/>
         <v>42187.614506441125</v>
       </c>
-      <c r="M76" s="181"/>
+      <c r="M76" s="177"/>
       <c r="N76" s="130"/>
       <c r="O76" s="130"/>
       <c r="P76" s="124"/>
@@ -25088,30 +25098,30 @@
       <c r="AM76" s="113"/>
     </row>
     <row r="77" spans="1:39" ht="16">
-      <c r="A77" s="175"/>
-      <c r="B77" s="175"/>
-      <c r="C77" s="175"/>
-      <c r="D77" s="175"/>
-      <c r="E77" s="175"/>
-      <c r="F77" s="175"/>
+      <c r="A77" s="171"/>
+      <c r="B77" s="171"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
+      <c r="F77" s="171"/>
       <c r="G77" s="128"/>
       <c r="H77" s="129"/>
-      <c r="I77" s="180" t="s">
+      <c r="I77" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="J77" s="180">
+      <c r="J77" s="176">
         <f t="shared" si="0"/>
         <v>29812.163530000002</v>
       </c>
-      <c r="K77" s="183">
+      <c r="K77" s="179">
         <f t="shared" si="1"/>
         <v>0.100116</v>
       </c>
-      <c r="L77" s="181">
+      <c r="L77" s="177">
         <f t="shared" si="2"/>
         <v>2984.67456396948</v>
       </c>
-      <c r="M77" s="180"/>
+      <c r="M77" s="176"/>
       <c r="N77" s="130"/>
       <c r="O77" s="130"/>
       <c r="P77" s="124"/>
@@ -25140,30 +25150,30 @@
       <c r="AM77" s="113"/>
     </row>
     <row r="78" spans="1:39" ht="16">
-      <c r="A78" s="175"/>
-      <c r="B78" s="175"/>
-      <c r="C78" s="175"/>
-      <c r="D78" s="175"/>
-      <c r="E78" s="175"/>
-      <c r="F78" s="175"/>
+      <c r="A78" s="171"/>
+      <c r="B78" s="171"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
+      <c r="E78" s="171"/>
+      <c r="F78" s="171"/>
       <c r="G78" s="116"/>
       <c r="H78" s="129"/>
-      <c r="I78" s="180" t="s">
+      <c r="I78" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="J78" s="180">
+      <c r="J78" s="176">
         <f t="shared" si="0"/>
         <v>76058.002697000004</v>
       </c>
-      <c r="K78" s="183">
+      <c r="K78" s="179">
         <f t="shared" si="1"/>
         <v>0.68412600000000001</v>
       </c>
-      <c r="L78" s="181">
+      <c r="L78" s="177">
         <f t="shared" si="2"/>
         <v>52033.257153087827</v>
       </c>
-      <c r="M78" s="180"/>
+      <c r="M78" s="176"/>
       <c r="N78" s="130"/>
       <c r="O78" s="130"/>
       <c r="P78" s="124"/>
@@ -25192,30 +25202,30 @@
       <c r="AM78" s="113"/>
     </row>
     <row r="79" spans="1:39" ht="16">
-      <c r="A79" s="176"/>
-      <c r="B79" s="176"/>
-      <c r="C79" s="177"/>
-      <c r="D79" s="175"/>
-      <c r="E79" s="175"/>
-      <c r="F79" s="178"/>
+      <c r="A79" s="172"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="171"/>
+      <c r="F79" s="174"/>
       <c r="G79" s="128"/>
       <c r="H79" s="129"/>
-      <c r="I79" s="180" t="s">
+      <c r="I79" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="J79" s="180">
+      <c r="J79" s="176">
         <f t="shared" si="0"/>
         <v>73.660909465000003</v>
       </c>
-      <c r="K79" s="183">
+      <c r="K79" s="179">
         <f t="shared" si="1"/>
         <v>0.66385099999999997</v>
       </c>
-      <c r="L79" s="181">
+      <c r="L79" s="177">
         <f t="shared" si="2"/>
         <v>48.899868409249713</v>
       </c>
-      <c r="M79" s="180"/>
+      <c r="M79" s="176"/>
       <c r="N79" s="130"/>
       <c r="O79" s="130"/>
       <c r="P79" s="124"/>
@@ -25244,30 +25254,30 @@
       <c r="AM79" s="113"/>
     </row>
     <row r="80" spans="1:39" ht="16">
-      <c r="A80" s="175"/>
-      <c r="B80" s="175"/>
-      <c r="C80" s="175"/>
-      <c r="D80" s="175"/>
-      <c r="E80" s="175"/>
-      <c r="F80" s="175"/>
+      <c r="A80" s="171"/>
+      <c r="B80" s="171"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="171"/>
+      <c r="E80" s="171"/>
+      <c r="F80" s="171"/>
       <c r="G80" s="116"/>
       <c r="H80" s="129"/>
-      <c r="I80" s="180" t="s">
+      <c r="I80" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="J80" s="180">
+      <c r="J80" s="176">
         <f t="shared" si="0"/>
         <v>76131.663606000002</v>
       </c>
-      <c r="K80" s="183">
+      <c r="K80" s="179">
         <f t="shared" si="1"/>
         <v>0.68410599999999999</v>
       </c>
-      <c r="L80" s="181">
+      <c r="L80" s="177">
         <f t="shared" si="2"/>
         <v>52082.127862846239</v>
       </c>
-      <c r="M80" s="180"/>
+      <c r="M80" s="176"/>
       <c r="N80" s="130"/>
       <c r="O80" s="130"/>
       <c r="P80" s="124"/>
@@ -25296,30 +25306,30 @@
       <c r="AM80" s="113"/>
     </row>
     <row r="81" spans="1:39" ht="16">
-      <c r="A81" s="176"/>
-      <c r="B81" s="176"/>
-      <c r="C81" s="177"/>
-      <c r="D81" s="175"/>
-      <c r="E81" s="175"/>
-      <c r="F81" s="178"/>
+      <c r="A81" s="172"/>
+      <c r="B81" s="172"/>
+      <c r="C81" s="173"/>
+      <c r="D81" s="171"/>
+      <c r="E81" s="171"/>
+      <c r="F81" s="174"/>
       <c r="G81" s="128"/>
       <c r="H81" s="129"/>
-      <c r="I81" s="180" t="s">
+      <c r="I81" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="J81" s="180">
+      <c r="J81" s="176">
         <f t="shared" si="0"/>
         <v>-383.42565624999997</v>
       </c>
-      <c r="K81" s="183">
+      <c r="K81" s="179">
         <f t="shared" si="1"/>
         <v>0.68412600000000001</v>
       </c>
-      <c r="L81" s="181">
+      <c r="L81" s="177">
         <f t="shared" si="2"/>
         <v>-262.31146050768751</v>
       </c>
-      <c r="M81" s="180"/>
+      <c r="M81" s="176"/>
       <c r="N81" s="130"/>
       <c r="O81" s="130"/>
       <c r="P81" s="124"/>
@@ -25348,30 +25358,30 @@
       <c r="AM81" s="113"/>
     </row>
     <row r="82" spans="1:39" ht="16">
-      <c r="A82" s="175"/>
-      <c r="B82" s="175"/>
-      <c r="C82" s="175"/>
-      <c r="D82" s="175"/>
-      <c r="E82" s="175"/>
-      <c r="F82" s="175"/>
+      <c r="A82" s="171"/>
+      <c r="B82" s="171"/>
+      <c r="C82" s="171"/>
+      <c r="D82" s="171"/>
+      <c r="E82" s="171"/>
+      <c r="F82" s="171"/>
       <c r="G82" s="128"/>
       <c r="H82" s="129"/>
-      <c r="I82" s="180" t="s">
+      <c r="I82" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="J82" s="180">
+      <c r="J82" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K82" s="183">
+      <c r="K82" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L82" s="181">
+      <c r="L82" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="180"/>
+      <c r="M82" s="176"/>
       <c r="N82" s="130"/>
       <c r="O82" s="130"/>
       <c r="P82" s="124"/>
@@ -25400,30 +25410,30 @@
       <c r="AM82" s="113"/>
     </row>
     <row r="83" spans="1:39" ht="16">
-      <c r="A83" s="175"/>
-      <c r="B83" s="175"/>
-      <c r="C83" s="175"/>
-      <c r="D83" s="175"/>
-      <c r="E83" s="175"/>
-      <c r="F83" s="175"/>
+      <c r="A83" s="171"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="171"/>
+      <c r="E83" s="171"/>
+      <c r="F83" s="171"/>
       <c r="G83" s="128"/>
       <c r="H83" s="129"/>
-      <c r="I83" s="180" t="s">
+      <c r="I83" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="J83" s="180">
+      <c r="J83" s="176">
         <f t="shared" si="0"/>
         <v>75748.237949999995</v>
       </c>
-      <c r="K83" s="183">
+      <c r="K83" s="179">
         <f t="shared" si="1"/>
         <v>0.68410599999999999</v>
       </c>
-      <c r="L83" s="181">
+      <c r="L83" s="177">
         <f t="shared" si="2"/>
         <v>51819.824071022696</v>
       </c>
-      <c r="M83" s="180"/>
+      <c r="M83" s="176"/>
       <c r="N83" s="130"/>
       <c r="O83" s="130"/>
       <c r="P83" s="124"/>
@@ -25452,30 +25462,30 @@
       <c r="AM83" s="113"/>
     </row>
     <row r="84" spans="1:39" ht="16">
-      <c r="A84" s="175"/>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
+      <c r="A84" s="171"/>
+      <c r="B84" s="171"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
       <c r="G84" s="116"/>
       <c r="H84" s="124"/>
-      <c r="I84" s="180" t="s">
+      <c r="I84" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="J84" s="180">
+      <c r="J84" s="176">
         <f t="shared" si="0"/>
         <v>1003.6487</v>
       </c>
-      <c r="K84" s="183">
+      <c r="K84" s="179">
         <f t="shared" si="1"/>
         <v>0.68263800000000008</v>
       </c>
-      <c r="L84" s="181">
+      <c r="L84" s="177">
         <f t="shared" si="2"/>
         <v>685.12874127060002</v>
       </c>
-      <c r="M84" s="180"/>
+      <c r="M84" s="176"/>
       <c r="N84" s="130"/>
       <c r="O84" s="130"/>
       <c r="P84" s="124"/>
@@ -25504,30 +25514,30 @@
       <c r="AM84" s="113"/>
     </row>
     <row r="85" spans="1:39" ht="16">
-      <c r="A85" s="175"/>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="A85" s="171"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
       <c r="G85" s="128"/>
       <c r="H85" s="129"/>
-      <c r="I85" s="180" t="s">
+      <c r="I85" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="J85" s="180">
+      <c r="J85" s="176">
         <f t="shared" si="0"/>
         <v>74744.589250000005</v>
       </c>
-      <c r="K85" s="183">
+      <c r="K85" s="179">
         <f t="shared" si="1"/>
         <v>0.68412600000000001</v>
       </c>
-      <c r="L85" s="181">
+      <c r="L85" s="177">
         <f t="shared" si="2"/>
         <v>51134.716865245508</v>
       </c>
-      <c r="M85" s="180"/>
+      <c r="M85" s="176"/>
       <c r="N85" s="130"/>
       <c r="O85" s="130"/>
       <c r="P85" s="124"/>
@@ -25556,30 +25566,30 @@
       <c r="AM85" s="113"/>
     </row>
     <row r="86" spans="1:39" ht="16">
-      <c r="A86" s="176"/>
-      <c r="B86" s="176"/>
-      <c r="C86" s="179"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
-      <c r="F86" s="178"/>
+      <c r="A86" s="172"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="175"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="174"/>
       <c r="G86" s="128"/>
       <c r="H86" s="129"/>
-      <c r="I86" s="180" t="s">
+      <c r="I86" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="J86" s="180">
+      <c r="J86" s="176">
         <f t="shared" si="0"/>
         <v>74744.589250000005</v>
       </c>
-      <c r="K86" s="183">
+      <c r="K86" s="179">
         <f t="shared" si="1"/>
         <v>0.68412600000000001</v>
       </c>
-      <c r="L86" s="181">
+      <c r="L86" s="177">
         <f t="shared" si="2"/>
         <v>51134.716865245508</v>
       </c>
-      <c r="M86" s="180"/>
+      <c r="M86" s="176"/>
       <c r="N86" s="130"/>
       <c r="O86" s="130"/>
       <c r="P86" s="124"/>
@@ -25608,30 +25618,30 @@
       <c r="AM86" s="113"/>
     </row>
     <row r="87" spans="1:39" ht="16">
-      <c r="A87" s="175"/>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
-      <c r="F87" s="178"/>
+      <c r="A87" s="171"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="174"/>
       <c r="G87" s="128"/>
       <c r="H87" s="129"/>
-      <c r="I87" s="180" t="s">
+      <c r="I87" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="J87" s="180">
+      <c r="J87" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K87" s="183">
+      <c r="K87" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L87" s="181">
+      <c r="L87" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="184"/>
+      <c r="M87" s="180"/>
       <c r="N87" s="130"/>
       <c r="O87" s="130"/>
       <c r="P87" s="124"/>
@@ -25660,30 +25670,30 @@
       <c r="AM87" s="113"/>
     </row>
     <row r="88" spans="1:39" ht="16">
-      <c r="A88" s="175"/>
-      <c r="B88" s="175"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
+      <c r="A88" s="171"/>
+      <c r="B88" s="171"/>
+      <c r="C88" s="171"/>
+      <c r="D88" s="171"/>
+      <c r="E88" s="171"/>
+      <c r="F88" s="171"/>
       <c r="G88" s="128"/>
       <c r="H88" s="129"/>
-      <c r="I88" s="180" t="s">
+      <c r="I88" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="J88" s="180">
+      <c r="J88" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K88" s="183">
+      <c r="K88" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L88" s="181">
+      <c r="L88" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M88" s="180"/>
+      <c r="M88" s="176"/>
       <c r="N88" s="130"/>
       <c r="O88" s="130"/>
       <c r="P88" s="124"/>
@@ -25712,30 +25722,30 @@
       <c r="AM88" s="113"/>
     </row>
     <row r="89" spans="1:39" ht="16">
-      <c r="A89" s="175"/>
-      <c r="B89" s="175"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="175"/>
-      <c r="F89" s="175"/>
+      <c r="A89" s="171"/>
+      <c r="B89" s="171"/>
+      <c r="C89" s="171"/>
+      <c r="D89" s="171"/>
+      <c r="E89" s="171"/>
+      <c r="F89" s="171"/>
       <c r="G89" s="128"/>
       <c r="H89" s="129"/>
-      <c r="I89" s="180" t="s">
+      <c r="I89" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="J89" s="180">
+      <c r="J89" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K89" s="183">
+      <c r="K89" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L89" s="181">
+      <c r="L89" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M89" s="180"/>
+      <c r="M89" s="176"/>
       <c r="N89" s="130"/>
       <c r="O89" s="130"/>
       <c r="P89" s="124"/>
@@ -25764,30 +25774,30 @@
       <c r="AM89" s="113"/>
     </row>
     <row r="90" spans="1:39" ht="16">
-      <c r="A90" s="175"/>
-      <c r="B90" s="175"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="175"/>
-      <c r="E90" s="175"/>
-      <c r="F90" s="175"/>
+      <c r="A90" s="171"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="171"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="171"/>
+      <c r="F90" s="171"/>
       <c r="G90" s="128"/>
       <c r="H90" s="129"/>
-      <c r="I90" s="180" t="s">
+      <c r="I90" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="J90" s="180">
+      <c r="J90" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K90" s="183">
+      <c r="K90" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L90" s="181">
+      <c r="L90" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M90" s="180"/>
+      <c r="M90" s="176"/>
       <c r="N90" s="130"/>
       <c r="O90" s="130"/>
       <c r="P90" s="124"/>
@@ -25816,30 +25826,30 @@
       <c r="AM90" s="113"/>
     </row>
     <row r="91" spans="1:39" ht="19">
-      <c r="A91" s="176"/>
-      <c r="B91" s="176"/>
-      <c r="C91" s="177"/>
-      <c r="D91" s="175"/>
-      <c r="E91" s="175"/>
-      <c r="F91" s="178"/>
+      <c r="A91" s="172"/>
+      <c r="B91" s="172"/>
+      <c r="C91" s="173"/>
+      <c r="D91" s="171"/>
+      <c r="E91" s="171"/>
+      <c r="F91" s="174"/>
       <c r="G91" s="128"/>
       <c r="H91" s="131"/>
-      <c r="I91" s="180" t="s">
+      <c r="I91" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="180">
+      <c r="J91" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K91" s="183">
+      <c r="K91" s="179">
         <f t="shared" si="1"/>
         <v>0.61</v>
       </c>
-      <c r="L91" s="181">
+      <c r="L91" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M91" s="180"/>
+      <c r="M91" s="176"/>
       <c r="N91" s="130"/>
       <c r="O91" s="130"/>
       <c r="P91" s="124"/>
@@ -25868,30 +25878,30 @@
       <c r="AM91" s="113"/>
     </row>
     <row r="92" spans="1:39" ht="16">
-      <c r="A92" s="175"/>
-      <c r="B92" s="175"/>
-      <c r="C92" s="175"/>
-      <c r="D92" s="175"/>
-      <c r="E92" s="175"/>
-      <c r="F92" s="175"/>
+      <c r="A92" s="171"/>
+      <c r="B92" s="171"/>
+      <c r="C92" s="171"/>
+      <c r="D92" s="171"/>
+      <c r="E92" s="171"/>
+      <c r="F92" s="171"/>
       <c r="G92" s="128"/>
       <c r="H92" s="129"/>
-      <c r="I92" s="180" t="s">
+      <c r="I92" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="J92" s="180">
+      <c r="J92" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K92" s="183">
+      <c r="K92" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L92" s="181">
+      <c r="L92" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M92" s="180"/>
+      <c r="M92" s="176"/>
       <c r="N92" s="130"/>
       <c r="O92" s="130"/>
       <c r="P92" s="124"/>
@@ -25920,30 +25930,30 @@
       <c r="AM92" s="113"/>
     </row>
     <row r="93" spans="1:39" ht="16">
-      <c r="A93" s="175"/>
-      <c r="B93" s="175"/>
-      <c r="C93" s="175"/>
-      <c r="D93" s="175"/>
-      <c r="E93" s="175"/>
-      <c r="F93" s="175"/>
+      <c r="A93" s="171"/>
+      <c r="B93" s="171"/>
+      <c r="C93" s="171"/>
+      <c r="D93" s="171"/>
+      <c r="E93" s="171"/>
+      <c r="F93" s="171"/>
       <c r="G93" s="128"/>
       <c r="H93" s="129"/>
-      <c r="I93" s="180" t="s">
+      <c r="I93" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="J93" s="180">
+      <c r="J93" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K93" s="183">
+      <c r="K93" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L93" s="181">
+      <c r="L93" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="180"/>
+      <c r="M93" s="176"/>
       <c r="N93" s="130"/>
       <c r="O93" s="130"/>
       <c r="P93" s="124"/>
@@ -25972,30 +25982,30 @@
       <c r="AM93" s="113"/>
     </row>
     <row r="94" spans="1:39" ht="16">
-      <c r="A94" s="176"/>
-      <c r="B94" s="176"/>
-      <c r="C94" s="179"/>
-      <c r="D94" s="175"/>
-      <c r="E94" s="175"/>
-      <c r="F94" s="178"/>
+      <c r="A94" s="172"/>
+      <c r="B94" s="172"/>
+      <c r="C94" s="175"/>
+      <c r="D94" s="171"/>
+      <c r="E94" s="171"/>
+      <c r="F94" s="174"/>
       <c r="G94" s="128"/>
       <c r="H94" s="129"/>
-      <c r="I94" s="180" t="s">
+      <c r="I94" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="J94" s="180">
+      <c r="J94" s="176">
         <f t="shared" si="0"/>
         <v>27866.973293999999</v>
       </c>
-      <c r="K94" s="183">
+      <c r="K94" s="179">
         <f t="shared" si="1"/>
         <v>0.61919499999999994</v>
       </c>
-      <c r="L94" s="181">
+      <c r="L94" s="177">
         <f t="shared" si="2"/>
         <v>17255.090528778328</v>
       </c>
-      <c r="M94" s="180"/>
+      <c r="M94" s="176"/>
       <c r="N94" s="130"/>
       <c r="O94" s="130"/>
       <c r="P94" s="124"/>
@@ -26024,30 +26034,30 @@
       <c r="AM94" s="113"/>
     </row>
     <row r="95" spans="1:39" ht="16">
-      <c r="A95" s="175"/>
-      <c r="B95" s="175"/>
-      <c r="C95" s="175"/>
-      <c r="D95" s="175"/>
-      <c r="E95" s="175"/>
-      <c r="F95" s="175"/>
+      <c r="A95" s="171"/>
+      <c r="B95" s="171"/>
+      <c r="C95" s="171"/>
+      <c r="D95" s="171"/>
+      <c r="E95" s="171"/>
+      <c r="F95" s="171"/>
       <c r="G95" s="128"/>
       <c r="H95" s="129"/>
-      <c r="I95" s="180" t="s">
+      <c r="I95" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="J95" s="180">
+      <c r="J95" s="176">
         <f t="shared" si="0"/>
         <v>22158.782653999999</v>
       </c>
-      <c r="K95" s="183">
+      <c r="K95" s="179">
         <f t="shared" si="1"/>
         <v>0.62109999999999999</v>
       </c>
-      <c r="L95" s="181">
+      <c r="L95" s="177">
         <f t="shared" si="2"/>
         <v>13762.8199063994</v>
       </c>
-      <c r="M95" s="180"/>
+      <c r="M95" s="176"/>
       <c r="N95" s="130"/>
       <c r="O95" s="130"/>
       <c r="P95" s="124"/>
@@ -26076,30 +26086,30 @@
       <c r="AM95" s="113"/>
     </row>
     <row r="96" spans="1:39" ht="16">
-      <c r="A96" s="175"/>
-      <c r="B96" s="175"/>
-      <c r="C96" s="175"/>
-      <c r="D96" s="175"/>
-      <c r="E96" s="175"/>
-      <c r="F96" s="175"/>
+      <c r="A96" s="171"/>
+      <c r="B96" s="171"/>
+      <c r="C96" s="171"/>
+      <c r="D96" s="171"/>
+      <c r="E96" s="171"/>
+      <c r="F96" s="171"/>
       <c r="G96" s="128"/>
       <c r="H96" s="129"/>
-      <c r="I96" s="180" t="s">
+      <c r="I96" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="J96" s="180">
+      <c r="J96" s="176">
         <f t="shared" si="0"/>
         <v>5708.1906399999998</v>
       </c>
-      <c r="K96" s="183">
+      <c r="K96" s="179">
         <f t="shared" si="1"/>
         <v>0.61180000000000001</v>
       </c>
-      <c r="L96" s="181">
+      <c r="L96" s="177">
         <f t="shared" si="2"/>
         <v>3492.2710335520001</v>
       </c>
-      <c r="M96" s="180"/>
+      <c r="M96" s="176"/>
       <c r="N96" s="130"/>
       <c r="O96" s="130"/>
       <c r="P96" s="124"/>
@@ -26128,30 +26138,30 @@
       <c r="AM96" s="113"/>
     </row>
     <row r="97" spans="1:39" ht="16">
-      <c r="A97" s="175"/>
-      <c r="B97" s="175"/>
-      <c r="C97" s="175"/>
-      <c r="D97" s="175"/>
-      <c r="E97" s="175"/>
-      <c r="F97" s="175"/>
+      <c r="A97" s="171"/>
+      <c r="B97" s="171"/>
+      <c r="C97" s="171"/>
+      <c r="D97" s="171"/>
+      <c r="E97" s="171"/>
+      <c r="F97" s="171"/>
       <c r="G97" s="128"/>
       <c r="H97" s="129"/>
-      <c r="I97" s="180" t="s">
+      <c r="I97" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="J97" s="180">
+      <c r="J97" s="176">
         <f t="shared" si="0"/>
         <v>10808.07805</v>
       </c>
-      <c r="K97" s="183">
+      <c r="K97" s="179">
         <f t="shared" si="1"/>
         <v>0.61070000000000002</v>
       </c>
-      <c r="L97" s="181">
+      <c r="L97" s="177">
         <f t="shared" si="2"/>
         <v>6600.493265135</v>
       </c>
-      <c r="M97" s="180"/>
+      <c r="M97" s="176"/>
       <c r="N97" s="130"/>
       <c r="O97" s="130"/>
       <c r="P97" s="124"/>
@@ -26180,30 +26190,30 @@
       <c r="AM97" s="113"/>
     </row>
     <row r="98" spans="1:39" ht="16">
-      <c r="A98" s="175"/>
-      <c r="B98" s="175"/>
-      <c r="C98" s="175"/>
-      <c r="D98" s="175"/>
-      <c r="E98" s="175"/>
-      <c r="F98" s="175"/>
+      <c r="A98" s="171"/>
+      <c r="B98" s="171"/>
+      <c r="C98" s="171"/>
+      <c r="D98" s="171"/>
+      <c r="E98" s="171"/>
+      <c r="F98" s="171"/>
       <c r="G98" s="128"/>
       <c r="H98" s="129"/>
-      <c r="I98" s="180" t="s">
+      <c r="I98" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="J98" s="180">
+      <c r="J98" s="176">
         <f t="shared" si="0"/>
         <v>417.69489800000002</v>
       </c>
-      <c r="K98" s="183">
+      <c r="K98" s="179">
         <f t="shared" si="1"/>
         <v>0.56729999999999992</v>
       </c>
-      <c r="L98" s="181">
+      <c r="L98" s="177">
         <f t="shared" si="2"/>
         <v>236.95831563539997</v>
       </c>
-      <c r="M98" s="180"/>
+      <c r="M98" s="176"/>
       <c r="N98" s="130"/>
       <c r="O98" s="130"/>
       <c r="P98" s="124"/>
@@ -26232,30 +26242,30 @@
       <c r="AM98" s="113"/>
     </row>
     <row r="99" spans="1:39" ht="16">
-      <c r="A99" s="176"/>
-      <c r="B99" s="176"/>
-      <c r="C99" s="177"/>
-      <c r="D99" s="175"/>
-      <c r="E99" s="175"/>
-      <c r="F99" s="178"/>
+      <c r="A99" s="172"/>
+      <c r="B99" s="172"/>
+      <c r="C99" s="173"/>
+      <c r="D99" s="171"/>
+      <c r="E99" s="171"/>
+      <c r="F99" s="174"/>
       <c r="G99" s="128"/>
       <c r="H99" s="129"/>
-      <c r="I99" s="180" t="s">
+      <c r="I99" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="J99" s="180">
+      <c r="J99" s="176">
         <f t="shared" si="0"/>
         <v>11225.772948</v>
       </c>
-      <c r="K99" s="183">
+      <c r="K99" s="179">
         <f t="shared" si="1"/>
         <v>0.60908499999999999</v>
       </c>
-      <c r="L99" s="181">
+      <c r="L99" s="177">
         <f t="shared" si="2"/>
         <v>6837.4499160325795</v>
       </c>
-      <c r="M99" s="180"/>
+      <c r="M99" s="176"/>
       <c r="N99" s="130"/>
       <c r="O99" s="130"/>
       <c r="P99" s="124"/>
@@ -26284,30 +26294,30 @@
       <c r="AM99" s="113"/>
     </row>
     <row r="100" spans="1:39" ht="16">
-      <c r="A100" s="175"/>
-      <c r="B100" s="175"/>
-      <c r="C100" s="175"/>
-      <c r="D100" s="175"/>
-      <c r="E100" s="175"/>
-      <c r="F100" s="175"/>
+      <c r="A100" s="171"/>
+      <c r="B100" s="171"/>
+      <c r="C100" s="171"/>
+      <c r="D100" s="171"/>
+      <c r="E100" s="171"/>
+      <c r="F100" s="171"/>
       <c r="G100" s="128"/>
       <c r="H100" s="129"/>
-      <c r="I100" s="180" t="s">
+      <c r="I100" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="J100" s="180">
+      <c r="J100" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K100" s="183">
+      <c r="K100" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L100" s="181">
+      <c r="L100" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M100" s="180"/>
+      <c r="M100" s="176"/>
       <c r="N100" s="130"/>
       <c r="O100" s="130"/>
       <c r="P100" s="124"/>
@@ -26336,30 +26346,30 @@
       <c r="AM100" s="113"/>
     </row>
     <row r="101" spans="1:39" ht="16">
-      <c r="A101" s="175"/>
-      <c r="B101" s="175"/>
-      <c r="C101" s="175"/>
-      <c r="D101" s="175"/>
-      <c r="E101" s="175"/>
-      <c r="F101" s="175"/>
+      <c r="A101" s="171"/>
+      <c r="B101" s="171"/>
+      <c r="C101" s="171"/>
+      <c r="D101" s="171"/>
+      <c r="E101" s="171"/>
+      <c r="F101" s="171"/>
       <c r="G101" s="128"/>
       <c r="H101" s="129"/>
-      <c r="I101" s="180" t="s">
+      <c r="I101" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="J101" s="180">
+      <c r="J101" s="176">
         <f t="shared" si="0"/>
         <v>11681.220740000001</v>
       </c>
-      <c r="K101" s="183">
+      <c r="K101" s="179">
         <f t="shared" si="1"/>
         <v>0.36930000000000002</v>
       </c>
-      <c r="L101" s="181">
+      <c r="L101" s="177">
         <f t="shared" si="2"/>
         <v>4313.8748192820003</v>
       </c>
-      <c r="M101" s="180"/>
+      <c r="M101" s="176"/>
       <c r="N101" s="130"/>
       <c r="O101" s="130"/>
       <c r="P101" s="124"/>
@@ -26388,30 +26398,30 @@
       <c r="AM101" s="113"/>
     </row>
     <row r="102" spans="1:39" ht="16">
-      <c r="A102" s="176"/>
-      <c r="B102" s="176"/>
-      <c r="C102" s="177"/>
-      <c r="D102" s="175"/>
-      <c r="E102" s="175"/>
-      <c r="F102" s="178"/>
+      <c r="A102" s="172"/>
+      <c r="B102" s="172"/>
+      <c r="C102" s="173"/>
+      <c r="D102" s="171"/>
+      <c r="E102" s="171"/>
+      <c r="F102" s="174"/>
       <c r="G102" s="128"/>
       <c r="H102" s="129"/>
-      <c r="I102" s="180" t="s">
+      <c r="I102" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="J102" s="180">
+      <c r="J102" s="176">
         <f t="shared" si="0"/>
         <v>2189.3000000000002</v>
       </c>
-      <c r="K102" s="183">
+      <c r="K102" s="179">
         <f t="shared" si="1"/>
         <v>0.35822100000000001</v>
       </c>
-      <c r="L102" s="181">
+      <c r="L102" s="177">
         <f t="shared" si="2"/>
         <v>784.25323530000014</v>
       </c>
-      <c r="M102" s="180"/>
+      <c r="M102" s="176"/>
       <c r="N102" s="130"/>
       <c r="O102" s="130"/>
       <c r="P102" s="124"/>
@@ -26440,30 +26450,30 @@
       <c r="AM102" s="113"/>
     </row>
     <row r="103" spans="1:39" ht="16">
-      <c r="A103" s="175"/>
-      <c r="B103" s="175"/>
-      <c r="C103" s="175"/>
-      <c r="D103" s="175"/>
-      <c r="E103" s="175"/>
-      <c r="F103" s="175"/>
+      <c r="A103" s="171"/>
+      <c r="B103" s="171"/>
+      <c r="C103" s="171"/>
+      <c r="D103" s="171"/>
+      <c r="E103" s="171"/>
+      <c r="F103" s="171"/>
       <c r="G103" s="128"/>
       <c r="H103" s="129"/>
-      <c r="I103" s="180" t="s">
+      <c r="I103" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="J103" s="180">
+      <c r="J103" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K103" s="183">
+      <c r="K103" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L103" s="181">
+      <c r="L103" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M103" s="180"/>
+      <c r="M103" s="176"/>
       <c r="N103" s="130"/>
       <c r="O103" s="130"/>
       <c r="P103" s="124"/>
@@ -26492,30 +26502,30 @@
       <c r="AM103" s="113"/>
     </row>
     <row r="104" spans="1:39" ht="16">
-      <c r="A104" s="176"/>
-      <c r="B104" s="176"/>
-      <c r="C104" s="177"/>
-      <c r="D104" s="175"/>
-      <c r="E104" s="175"/>
-      <c r="F104" s="178"/>
+      <c r="A104" s="172"/>
+      <c r="B104" s="172"/>
+      <c r="C104" s="173"/>
+      <c r="D104" s="171"/>
+      <c r="E104" s="171"/>
+      <c r="F104" s="174"/>
       <c r="G104" s="128"/>
       <c r="H104" s="129"/>
-      <c r="I104" s="180" t="s">
+      <c r="I104" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="J104" s="180">
+      <c r="J104" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K104" s="183">
+      <c r="K104" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L104" s="181">
+      <c r="L104" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M104" s="180"/>
+      <c r="M104" s="176"/>
       <c r="N104" s="130"/>
       <c r="O104" s="130"/>
       <c r="P104" s="124"/>
@@ -26544,30 +26554,30 @@
       <c r="AM104" s="113"/>
     </row>
     <row r="105" spans="1:39" ht="16">
-      <c r="A105" s="175"/>
-      <c r="B105" s="175"/>
-      <c r="C105" s="175"/>
-      <c r="D105" s="175"/>
-      <c r="E105" s="175"/>
-      <c r="F105" s="175"/>
+      <c r="A105" s="171"/>
+      <c r="B105" s="171"/>
+      <c r="C105" s="171"/>
+      <c r="D105" s="171"/>
+      <c r="E105" s="171"/>
+      <c r="F105" s="171"/>
       <c r="G105" s="128"/>
       <c r="H105" s="129"/>
-      <c r="I105" s="180" t="s">
+      <c r="I105" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="J105" s="180">
+      <c r="J105" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K105" s="183">
+      <c r="K105" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L105" s="181">
+      <c r="L105" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M105" s="180"/>
+      <c r="M105" s="176"/>
       <c r="N105" s="130"/>
       <c r="O105" s="130"/>
       <c r="P105" s="124"/>
@@ -26596,30 +26606,30 @@
       <c r="AM105" s="113"/>
     </row>
     <row r="106" spans="1:39" ht="16">
-      <c r="A106" s="176"/>
-      <c r="B106" s="176"/>
-      <c r="C106" s="177"/>
-      <c r="D106" s="175"/>
-      <c r="E106" s="175"/>
-      <c r="F106" s="175"/>
+      <c r="A106" s="172"/>
+      <c r="B106" s="172"/>
+      <c r="C106" s="173"/>
+      <c r="D106" s="171"/>
+      <c r="E106" s="171"/>
+      <c r="F106" s="171"/>
       <c r="G106" s="128"/>
       <c r="H106" s="129"/>
-      <c r="I106" s="180" t="s">
+      <c r="I106" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="J106" s="180">
+      <c r="J106" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K106" s="183">
+      <c r="K106" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L106" s="181">
+      <c r="L106" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M106" s="180"/>
+      <c r="M106" s="176"/>
       <c r="N106" s="130"/>
       <c r="O106" s="130"/>
       <c r="P106" s="124"/>
@@ -26648,30 +26658,30 @@
       <c r="AM106" s="113"/>
     </row>
     <row r="107" spans="1:39" ht="16">
-      <c r="A107" s="176"/>
-      <c r="B107" s="176"/>
-      <c r="C107" s="177"/>
-      <c r="D107" s="175"/>
-      <c r="E107" s="175"/>
-      <c r="F107" s="175"/>
+      <c r="A107" s="172"/>
+      <c r="B107" s="172"/>
+      <c r="C107" s="173"/>
+      <c r="D107" s="171"/>
+      <c r="E107" s="171"/>
+      <c r="F107" s="171"/>
       <c r="G107" s="128"/>
       <c r="H107" s="129"/>
-      <c r="I107" s="180" t="s">
+      <c r="I107" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="J107" s="180">
+      <c r="J107" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K107" s="183">
+      <c r="K107" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L107" s="181">
+      <c r="L107" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M107" s="180"/>
+      <c r="M107" s="176"/>
       <c r="N107" s="130"/>
       <c r="O107" s="130"/>
       <c r="P107" s="124"/>
@@ -26700,30 +26710,30 @@
       <c r="AM107" s="113"/>
     </row>
     <row r="108" spans="1:39" ht="16">
-      <c r="A108" s="175"/>
-      <c r="B108" s="175"/>
-      <c r="C108" s="175"/>
-      <c r="D108" s="175"/>
-      <c r="E108" s="175"/>
-      <c r="F108" s="175"/>
+      <c r="A108" s="171"/>
+      <c r="B108" s="171"/>
+      <c r="C108" s="171"/>
+      <c r="D108" s="171"/>
+      <c r="E108" s="171"/>
+      <c r="F108" s="171"/>
       <c r="G108" s="128"/>
       <c r="H108" s="129"/>
-      <c r="I108" s="180" t="s">
+      <c r="I108" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J108" s="180">
+      <c r="J108" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K108" s="183">
+      <c r="K108" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L108" s="181">
+      <c r="L108" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M108" s="180"/>
+      <c r="M108" s="176"/>
       <c r="N108" s="130"/>
       <c r="O108" s="130"/>
       <c r="P108" s="124"/>
@@ -26752,30 +26762,30 @@
       <c r="AM108" s="113"/>
     </row>
     <row r="109" spans="1:39" ht="16">
-      <c r="A109" s="175"/>
-      <c r="B109" s="175"/>
-      <c r="C109" s="175"/>
-      <c r="D109" s="175"/>
-      <c r="E109" s="175"/>
-      <c r="F109" s="175"/>
+      <c r="A109" s="171"/>
+      <c r="B109" s="171"/>
+      <c r="C109" s="171"/>
+      <c r="D109" s="171"/>
+      <c r="E109" s="171"/>
+      <c r="F109" s="171"/>
       <c r="G109" s="128"/>
       <c r="H109" s="129"/>
-      <c r="I109" s="180" t="s">
+      <c r="I109" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="J109" s="180">
+      <c r="J109" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K109" s="183">
+      <c r="K109" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L109" s="181">
+      <c r="L109" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M109" s="180"/>
+      <c r="M109" s="176"/>
       <c r="N109" s="130"/>
       <c r="O109" s="130"/>
       <c r="P109" s="124"/>
@@ -26804,30 +26814,30 @@
       <c r="AM109" s="113"/>
     </row>
     <row r="110" spans="1:39" ht="16">
-      <c r="A110" s="176"/>
-      <c r="B110" s="176"/>
-      <c r="C110" s="177"/>
-      <c r="D110" s="175"/>
-      <c r="E110" s="175"/>
-      <c r="F110" s="178"/>
+      <c r="A110" s="172"/>
+      <c r="B110" s="172"/>
+      <c r="C110" s="173"/>
+      <c r="D110" s="171"/>
+      <c r="E110" s="171"/>
+      <c r="F110" s="174"/>
       <c r="G110" s="128"/>
       <c r="H110" s="129"/>
-      <c r="I110" s="180" t="s">
+      <c r="I110" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J110" s="180">
+      <c r="J110" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K110" s="183">
+      <c r="K110" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L110" s="181">
+      <c r="L110" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="180"/>
+      <c r="M110" s="176"/>
       <c r="N110" s="130"/>
       <c r="O110" s="130"/>
       <c r="P110" s="124"/>
@@ -26856,30 +26866,30 @@
       <c r="AM110" s="113"/>
     </row>
     <row r="111" spans="1:39" ht="16">
-      <c r="A111" s="175"/>
-      <c r="B111" s="175"/>
-      <c r="C111" s="175"/>
-      <c r="D111" s="175"/>
-      <c r="E111" s="175"/>
-      <c r="F111" s="175"/>
+      <c r="A111" s="171"/>
+      <c r="B111" s="171"/>
+      <c r="C111" s="171"/>
+      <c r="D111" s="171"/>
+      <c r="E111" s="171"/>
+      <c r="F111" s="171"/>
       <c r="G111" s="128"/>
       <c r="H111" s="129"/>
-      <c r="I111" s="180" t="s">
+      <c r="I111" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="J111" s="180">
+      <c r="J111" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K111" s="183">
+      <c r="K111" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L111" s="181">
+      <c r="L111" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="180"/>
+      <c r="M111" s="176"/>
       <c r="N111" s="130"/>
       <c r="O111" s="130"/>
       <c r="P111" s="124"/>
@@ -26908,30 +26918,30 @@
       <c r="AM111" s="113"/>
     </row>
     <row r="112" spans="1:39" ht="16">
-      <c r="A112" s="175"/>
-      <c r="B112" s="175"/>
-      <c r="C112" s="175"/>
-      <c r="D112" s="175"/>
-      <c r="E112" s="175"/>
-      <c r="F112" s="175"/>
+      <c r="A112" s="171"/>
+      <c r="B112" s="171"/>
+      <c r="C112" s="171"/>
+      <c r="D112" s="171"/>
+      <c r="E112" s="171"/>
+      <c r="F112" s="171"/>
       <c r="G112" s="128"/>
       <c r="H112" s="129"/>
-      <c r="I112" s="180" t="s">
+      <c r="I112" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="J112" s="180">
+      <c r="J112" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K112" s="183">
+      <c r="K112" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L112" s="181">
+      <c r="L112" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="180"/>
+      <c r="M112" s="176"/>
       <c r="N112" s="130"/>
       <c r="O112" s="130"/>
       <c r="P112" s="124"/>
@@ -26960,30 +26970,30 @@
       <c r="AM112" s="113"/>
     </row>
     <row r="113" spans="1:39" ht="16">
-      <c r="A113" s="176"/>
-      <c r="B113" s="176"/>
-      <c r="C113" s="177"/>
-      <c r="D113" s="175"/>
-      <c r="E113" s="175"/>
-      <c r="F113" s="178"/>
+      <c r="A113" s="172"/>
+      <c r="B113" s="172"/>
+      <c r="C113" s="173"/>
+      <c r="D113" s="171"/>
+      <c r="E113" s="171"/>
+      <c r="F113" s="174"/>
       <c r="G113" s="128"/>
       <c r="H113" s="129"/>
-      <c r="I113" s="180" t="s">
+      <c r="I113" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="J113" s="180">
+      <c r="J113" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K113" s="183">
+      <c r="K113" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L113" s="181">
+      <c r="L113" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="180"/>
+      <c r="M113" s="176"/>
       <c r="N113" s="130"/>
       <c r="O113" s="130"/>
       <c r="P113" s="124"/>
@@ -27012,30 +27022,30 @@
       <c r="AM113" s="113"/>
     </row>
     <row r="114" spans="1:39" ht="16">
-      <c r="A114" s="175"/>
-      <c r="B114" s="175"/>
-      <c r="C114" s="175"/>
-      <c r="D114" s="175"/>
-      <c r="E114" s="175"/>
-      <c r="F114" s="175"/>
+      <c r="A114" s="171"/>
+      <c r="B114" s="171"/>
+      <c r="C114" s="171"/>
+      <c r="D114" s="171"/>
+      <c r="E114" s="171"/>
+      <c r="F114" s="171"/>
       <c r="G114" s="128"/>
       <c r="H114" s="129"/>
-      <c r="I114" s="180" t="s">
+      <c r="I114" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="J114" s="180">
+      <c r="J114" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K114" s="183">
+      <c r="K114" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L114" s="181">
+      <c r="L114" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M114" s="180"/>
+      <c r="M114" s="176"/>
       <c r="N114" s="130"/>
       <c r="O114" s="130"/>
       <c r="P114" s="124"/>
@@ -27064,30 +27074,30 @@
       <c r="AM114" s="113"/>
     </row>
     <row r="115" spans="1:39" ht="16">
-      <c r="A115" s="175"/>
-      <c r="B115" s="175"/>
-      <c r="C115" s="175"/>
-      <c r="D115" s="175"/>
-      <c r="E115" s="175"/>
-      <c r="F115" s="175"/>
+      <c r="A115" s="171"/>
+      <c r="B115" s="171"/>
+      <c r="C115" s="171"/>
+      <c r="D115" s="171"/>
+      <c r="E115" s="171"/>
+      <c r="F115" s="171"/>
       <c r="G115" s="128"/>
       <c r="H115" s="129"/>
-      <c r="I115" s="180" t="s">
+      <c r="I115" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="J115" s="180">
+      <c r="J115" s="176">
         <f t="shared" si="0"/>
         <v>61164.541878000004</v>
       </c>
-      <c r="K115" s="183">
+      <c r="K115" s="179">
         <f t="shared" si="1"/>
         <v>0.52298200000000006</v>
       </c>
-      <c r="L115" s="181">
+      <c r="L115" s="177">
         <f t="shared" si="2"/>
         <v>31987.9544404402</v>
       </c>
-      <c r="M115" s="180"/>
+      <c r="M115" s="176"/>
       <c r="N115" s="130"/>
       <c r="O115" s="130"/>
       <c r="P115" s="124"/>
@@ -27116,30 +27126,30 @@
       <c r="AM115" s="113"/>
     </row>
     <row r="116" spans="1:39" ht="16">
-      <c r="A116" s="175"/>
-      <c r="B116" s="175"/>
-      <c r="C116" s="175"/>
-      <c r="D116" s="175"/>
-      <c r="E116" s="175"/>
-      <c r="F116" s="175"/>
+      <c r="A116" s="171"/>
+      <c r="B116" s="171"/>
+      <c r="C116" s="171"/>
+      <c r="D116" s="171"/>
+      <c r="E116" s="171"/>
+      <c r="F116" s="171"/>
       <c r="G116" s="116"/>
       <c r="H116" s="124"/>
-      <c r="I116" s="180" t="s">
+      <c r="I116" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="J116" s="180">
+      <c r="J116" s="176">
         <f t="shared" si="0"/>
         <v>61164.541878000004</v>
       </c>
-      <c r="K116" s="183">
+      <c r="K116" s="179">
         <f t="shared" si="1"/>
         <v>0.52298200000000006</v>
       </c>
-      <c r="L116" s="181">
+      <c r="L116" s="177">
         <f t="shared" si="2"/>
         <v>31987.9544404402</v>
       </c>
-      <c r="M116" s="180"/>
+      <c r="M116" s="176"/>
       <c r="N116" s="130"/>
       <c r="O116" s="130"/>
       <c r="P116" s="124"/>
@@ -27168,19 +27178,19 @@
       <c r="AM116" s="113"/>
     </row>
     <row r="117" spans="1:39">
-      <c r="A117" s="175"/>
-      <c r="B117" s="175"/>
-      <c r="C117" s="175"/>
-      <c r="D117" s="175"/>
-      <c r="E117" s="175"/>
-      <c r="F117" s="175"/>
+      <c r="A117" s="171"/>
+      <c r="B117" s="171"/>
+      <c r="C117" s="171"/>
+      <c r="D117" s="171"/>
+      <c r="E117" s="171"/>
+      <c r="F117" s="171"/>
       <c r="G117" s="113"/>
       <c r="H117" s="113"/>
-      <c r="I117" s="180"/>
-      <c r="J117" s="180"/>
-      <c r="K117" s="180"/>
-      <c r="L117" s="180"/>
-      <c r="M117" s="180"/>
+      <c r="I117" s="176"/>
+      <c r="J117" s="176"/>
+      <c r="K117" s="176"/>
+      <c r="L117" s="176"/>
+      <c r="M117" s="176"/>
       <c r="N117" s="113"/>
       <c r="O117" s="113"/>
       <c r="P117" s="113"/>
@@ -27209,19 +27219,19 @@
       <c r="AM117" s="113"/>
     </row>
     <row r="118" spans="1:39">
-      <c r="A118" s="175"/>
-      <c r="B118" s="175"/>
-      <c r="C118" s="175"/>
-      <c r="D118" s="175"/>
-      <c r="E118" s="175"/>
-      <c r="F118" s="175"/>
-      <c r="G118" s="254"/>
-      <c r="H118" s="254"/>
-      <c r="I118" s="180"/>
-      <c r="J118" s="185"/>
-      <c r="K118" s="185"/>
-      <c r="L118" s="180"/>
-      <c r="M118" s="180"/>
+      <c r="A118" s="171"/>
+      <c r="B118" s="171"/>
+      <c r="C118" s="171"/>
+      <c r="D118" s="171"/>
+      <c r="E118" s="171"/>
+      <c r="F118" s="171"/>
+      <c r="G118" s="256"/>
+      <c r="H118" s="256"/>
+      <c r="I118" s="176"/>
+      <c r="J118" s="181"/>
+      <c r="K118" s="181"/>
+      <c r="L118" s="176"/>
+      <c r="M118" s="176"/>
       <c r="N118" s="113"/>
       <c r="O118" s="113"/>
       <c r="P118" s="113"/>
@@ -27250,12 +27260,12 @@
       <c r="AM118" s="113"/>
     </row>
     <row r="119" spans="1:39">
-      <c r="A119" s="175"/>
-      <c r="B119" s="175"/>
-      <c r="C119" s="175"/>
-      <c r="D119" s="175"/>
-      <c r="E119" s="175"/>
-      <c r="F119" s="175"/>
+      <c r="A119" s="171"/>
+      <c r="B119" s="171"/>
+      <c r="C119" s="171"/>
+      <c r="D119" s="171"/>
+      <c r="E119" s="171"/>
+      <c r="F119" s="171"/>
       <c r="G119" s="126"/>
       <c r="H119" s="126"/>
       <c r="I119" s="113"/>
@@ -27291,12 +27301,12 @@
       <c r="AM119" s="113"/>
     </row>
     <row r="120" spans="1:39">
-      <c r="A120" s="175"/>
-      <c r="B120" s="175"/>
-      <c r="C120" s="175"/>
-      <c r="D120" s="175"/>
-      <c r="E120" s="175"/>
-      <c r="F120" s="175"/>
+      <c r="A120" s="171"/>
+      <c r="B120" s="171"/>
+      <c r="C120" s="171"/>
+      <c r="D120" s="171"/>
+      <c r="E120" s="171"/>
+      <c r="F120" s="171"/>
       <c r="G120" s="113"/>
       <c r="H120" s="113"/>
       <c r="I120" s="113"/>
@@ -27332,12 +27342,12 @@
       <c r="AM120" s="113"/>
     </row>
     <row r="121" spans="1:39">
-      <c r="A121" s="175"/>
-      <c r="B121" s="175"/>
-      <c r="C121" s="175"/>
-      <c r="D121" s="175"/>
-      <c r="E121" s="175"/>
-      <c r="F121" s="175"/>
+      <c r="A121" s="171"/>
+      <c r="B121" s="171"/>
+      <c r="C121" s="171"/>
+      <c r="D121" s="171"/>
+      <c r="E121" s="171"/>
+      <c r="F121" s="171"/>
       <c r="G121" s="113"/>
       <c r="H121" s="113"/>
       <c r="I121" s="113"/>
@@ -27373,12 +27383,12 @@
       <c r="AM121" s="113"/>
     </row>
     <row r="122" spans="1:39">
-      <c r="A122" s="175"/>
-      <c r="B122" s="175"/>
-      <c r="C122" s="175"/>
-      <c r="D122" s="175"/>
-      <c r="E122" s="175"/>
-      <c r="F122" s="175"/>
+      <c r="A122" s="171"/>
+      <c r="B122" s="171"/>
+      <c r="C122" s="171"/>
+      <c r="D122" s="171"/>
+      <c r="E122" s="171"/>
+      <c r="F122" s="171"/>
       <c r="G122" s="113"/>
       <c r="H122" s="113"/>
       <c r="I122" s="113"/>
@@ -27414,12 +27424,12 @@
       <c r="AM122" s="113"/>
     </row>
     <row r="123" spans="1:39">
-      <c r="A123" s="175"/>
-      <c r="B123" s="175"/>
-      <c r="C123" s="175"/>
-      <c r="D123" s="175"/>
-      <c r="E123" s="175"/>
-      <c r="F123" s="175"/>
+      <c r="A123" s="171"/>
+      <c r="B123" s="171"/>
+      <c r="C123" s="171"/>
+      <c r="D123" s="171"/>
+      <c r="E123" s="171"/>
+      <c r="F123" s="171"/>
       <c r="G123" s="113"/>
       <c r="H123" s="113"/>
       <c r="I123" s="113"/>
@@ -27455,12 +27465,12 @@
       <c r="AM123" s="113"/>
     </row>
     <row r="124" spans="1:39">
-      <c r="A124" s="175"/>
-      <c r="B124" s="175"/>
-      <c r="C124" s="175"/>
-      <c r="D124" s="175"/>
-      <c r="E124" s="175"/>
-      <c r="F124" s="175"/>
+      <c r="A124" s="171"/>
+      <c r="B124" s="171"/>
+      <c r="C124" s="171"/>
+      <c r="D124" s="171"/>
+      <c r="E124" s="171"/>
+      <c r="F124" s="171"/>
       <c r="G124" s="113"/>
       <c r="H124" s="113"/>
       <c r="I124" s="113"/>
@@ -27496,12 +27506,12 @@
       <c r="AM124" s="113"/>
     </row>
     <row r="125" spans="1:39">
-      <c r="A125" s="175"/>
-      <c r="B125" s="175"/>
-      <c r="C125" s="175"/>
-      <c r="D125" s="175"/>
-      <c r="E125" s="175"/>
-      <c r="F125" s="175"/>
+      <c r="A125" s="171"/>
+      <c r="B125" s="171"/>
+      <c r="C125" s="171"/>
+      <c r="D125" s="171"/>
+      <c r="E125" s="171"/>
+      <c r="F125" s="171"/>
       <c r="G125" s="113"/>
       <c r="H125" s="113"/>
       <c r="I125" s="113"/>
@@ -27537,12 +27547,12 @@
       <c r="AM125" s="113"/>
     </row>
     <row r="126" spans="1:39">
-      <c r="A126" s="175"/>
-      <c r="B126" s="175"/>
-      <c r="C126" s="175"/>
-      <c r="D126" s="175"/>
-      <c r="E126" s="175"/>
-      <c r="F126" s="175"/>
+      <c r="A126" s="171"/>
+      <c r="B126" s="171"/>
+      <c r="C126" s="171"/>
+      <c r="D126" s="171"/>
+      <c r="E126" s="171"/>
+      <c r="F126" s="171"/>
       <c r="G126" s="113"/>
       <c r="H126" s="113"/>
       <c r="I126" s="113"/>
@@ -27578,12 +27588,12 @@
       <c r="AM126" s="113"/>
     </row>
     <row r="127" spans="1:39">
-      <c r="A127" s="175"/>
-      <c r="B127" s="175"/>
-      <c r="C127" s="175"/>
-      <c r="D127" s="175"/>
-      <c r="E127" s="175"/>
-      <c r="F127" s="175"/>
+      <c r="A127" s="171"/>
+      <c r="B127" s="171"/>
+      <c r="C127" s="171"/>
+      <c r="D127" s="171"/>
+      <c r="E127" s="171"/>
+      <c r="F127" s="171"/>
       <c r="G127" s="113"/>
       <c r="H127" s="113"/>
       <c r="I127" s="113"/>
@@ -27619,12 +27629,12 @@
       <c r="AM127" s="113"/>
     </row>
     <row r="128" spans="1:39">
-      <c r="A128" s="175"/>
-      <c r="B128" s="175"/>
-      <c r="C128" s="175"/>
-      <c r="D128" s="175"/>
-      <c r="E128" s="175"/>
-      <c r="F128" s="175"/>
+      <c r="A128" s="171"/>
+      <c r="B128" s="171"/>
+      <c r="C128" s="171"/>
+      <c r="D128" s="171"/>
+      <c r="E128" s="171"/>
+      <c r="F128" s="171"/>
       <c r="G128" s="113"/>
       <c r="H128" s="113"/>
       <c r="I128" s="113"/>
@@ -27660,12 +27670,12 @@
       <c r="AM128" s="113"/>
     </row>
     <row r="129" spans="1:39">
-      <c r="A129" s="175"/>
-      <c r="B129" s="175"/>
-      <c r="C129" s="175"/>
-      <c r="D129" s="175"/>
-      <c r="E129" s="175"/>
-      <c r="F129" s="175"/>
+      <c r="A129" s="171"/>
+      <c r="B129" s="171"/>
+      <c r="C129" s="171"/>
+      <c r="D129" s="171"/>
+      <c r="E129" s="171"/>
+      <c r="F129" s="171"/>
       <c r="G129" s="113"/>
       <c r="H129" s="113"/>
       <c r="I129" s="113"/>
@@ -27701,12 +27711,12 @@
       <c r="AM129" s="113"/>
     </row>
     <row r="130" spans="1:39">
-      <c r="A130" s="175"/>
-      <c r="B130" s="175"/>
-      <c r="C130" s="175"/>
-      <c r="D130" s="175"/>
-      <c r="E130" s="175"/>
-      <c r="F130" s="175"/>
+      <c r="A130" s="171"/>
+      <c r="B130" s="171"/>
+      <c r="C130" s="171"/>
+      <c r="D130" s="171"/>
+      <c r="E130" s="171"/>
+      <c r="F130" s="171"/>
       <c r="G130" s="113"/>
       <c r="H130" s="113"/>
       <c r="I130" s="113"/>
@@ -27742,12 +27752,12 @@
       <c r="AM130" s="113"/>
     </row>
     <row r="131" spans="1:39">
-      <c r="A131" s="175"/>
-      <c r="B131" s="175"/>
-      <c r="C131" s="175"/>
-      <c r="D131" s="175"/>
-      <c r="E131" s="175"/>
-      <c r="F131" s="175"/>
+      <c r="A131" s="171"/>
+      <c r="B131" s="171"/>
+      <c r="C131" s="171"/>
+      <c r="D131" s="171"/>
+      <c r="E131" s="171"/>
+      <c r="F131" s="171"/>
       <c r="G131" s="113"/>
       <c r="H131" s="113"/>
       <c r="I131" s="113"/>
@@ -27783,12 +27793,12 @@
       <c r="AM131" s="113"/>
     </row>
     <row r="132" spans="1:39">
-      <c r="A132" s="175"/>
-      <c r="B132" s="175"/>
-      <c r="C132" s="175"/>
-      <c r="D132" s="175"/>
-      <c r="E132" s="175"/>
-      <c r="F132" s="175"/>
+      <c r="A132" s="171"/>
+      <c r="B132" s="171"/>
+      <c r="C132" s="171"/>
+      <c r="D132" s="171"/>
+      <c r="E132" s="171"/>
+      <c r="F132" s="171"/>
       <c r="G132" s="113"/>
       <c r="H132" s="113"/>
       <c r="I132" s="113"/>
@@ -27808,12 +27818,12 @@
       <c r="W132" s="119"/>
     </row>
     <row r="133" spans="1:39">
-      <c r="A133" s="175"/>
-      <c r="B133" s="175"/>
-      <c r="C133" s="175"/>
-      <c r="D133" s="175"/>
-      <c r="E133" s="175"/>
-      <c r="F133" s="175"/>
+      <c r="A133" s="171"/>
+      <c r="B133" s="171"/>
+      <c r="C133" s="171"/>
+      <c r="D133" s="171"/>
+      <c r="E133" s="171"/>
+      <c r="F133" s="171"/>
       <c r="G133" s="113"/>
       <c r="H133" s="113"/>
       <c r="I133" s="113"/>
@@ -27833,12 +27843,12 @@
       <c r="W133" s="119"/>
     </row>
     <row r="134" spans="1:39">
-      <c r="A134" s="175"/>
-      <c r="B134" s="175"/>
-      <c r="C134" s="175"/>
-      <c r="D134" s="175"/>
-      <c r="E134" s="175"/>
-      <c r="F134" s="175"/>
+      <c r="A134" s="171"/>
+      <c r="B134" s="171"/>
+      <c r="C134" s="171"/>
+      <c r="D134" s="171"/>
+      <c r="E134" s="171"/>
+      <c r="F134" s="171"/>
       <c r="G134" s="113"/>
       <c r="H134" s="113"/>
       <c r="I134" s="113"/>
@@ -27858,12 +27868,12 @@
       <c r="W134" s="119"/>
     </row>
     <row r="135" spans="1:39">
-      <c r="A135" s="175"/>
-      <c r="B135" s="175"/>
-      <c r="C135" s="175"/>
-      <c r="D135" s="175"/>
-      <c r="E135" s="175"/>
-      <c r="F135" s="175"/>
+      <c r="A135" s="171"/>
+      <c r="B135" s="171"/>
+      <c r="C135" s="171"/>
+      <c r="D135" s="171"/>
+      <c r="E135" s="171"/>
+      <c r="F135" s="171"/>
       <c r="G135" s="113"/>
       <c r="H135" s="113"/>
       <c r="I135" s="113"/>
@@ -27883,12 +27893,12 @@
       <c r="W135" s="119"/>
     </row>
     <row r="136" spans="1:39">
-      <c r="A136" s="175"/>
-      <c r="B136" s="175"/>
-      <c r="C136" s="175"/>
-      <c r="D136" s="175"/>
-      <c r="E136" s="175"/>
-      <c r="F136" s="175"/>
+      <c r="A136" s="171"/>
+      <c r="B136" s="171"/>
+      <c r="C136" s="171"/>
+      <c r="D136" s="171"/>
+      <c r="E136" s="171"/>
+      <c r="F136" s="171"/>
       <c r="G136" s="113"/>
       <c r="H136" s="113"/>
       <c r="I136" s="113"/>
@@ -27899,12 +27909,12 @@
       <c r="N136" s="113"/>
     </row>
     <row r="137" spans="1:39">
-      <c r="A137" s="175"/>
-      <c r="B137" s="175"/>
-      <c r="C137" s="175"/>
-      <c r="D137" s="175"/>
-      <c r="E137" s="175"/>
-      <c r="F137" s="175"/>
+      <c r="A137" s="171"/>
+      <c r="B137" s="171"/>
+      <c r="C137" s="171"/>
+      <c r="D137" s="171"/>
+      <c r="E137" s="171"/>
+      <c r="F137" s="171"/>
       <c r="G137" s="113"/>
       <c r="H137" s="113"/>
       <c r="I137" s="113"/>
@@ -27915,12 +27925,12 @@
       <c r="N137" s="113"/>
     </row>
     <row r="138" spans="1:39">
-      <c r="A138" s="175"/>
-      <c r="B138" s="175"/>
-      <c r="C138" s="175"/>
-      <c r="D138" s="175"/>
-      <c r="E138" s="175"/>
-      <c r="F138" s="175"/>
+      <c r="A138" s="171"/>
+      <c r="B138" s="171"/>
+      <c r="C138" s="171"/>
+      <c r="D138" s="171"/>
+      <c r="E138" s="171"/>
+      <c r="F138" s="171"/>
       <c r="G138" s="113"/>
       <c r="H138" s="113"/>
       <c r="I138" s="113"/>
@@ -27931,12 +27941,12 @@
       <c r="N138" s="113"/>
     </row>
     <row r="139" spans="1:39">
-      <c r="A139" s="175"/>
-      <c r="B139" s="175"/>
-      <c r="C139" s="175"/>
-      <c r="D139" s="175"/>
-      <c r="E139" s="175"/>
-      <c r="F139" s="175"/>
+      <c r="A139" s="171"/>
+      <c r="B139" s="171"/>
+      <c r="C139" s="171"/>
+      <c r="D139" s="171"/>
+      <c r="E139" s="171"/>
+      <c r="F139" s="171"/>
       <c r="G139" s="113"/>
       <c r="H139" s="113"/>
       <c r="I139" s="113"/>
@@ -27947,12 +27957,12 @@
       <c r="N139" s="113"/>
     </row>
     <row r="140" spans="1:39">
-      <c r="A140" s="175"/>
-      <c r="B140" s="175"/>
-      <c r="C140" s="175"/>
-      <c r="D140" s="175"/>
-      <c r="E140" s="175"/>
-      <c r="F140" s="175"/>
+      <c r="A140" s="171"/>
+      <c r="B140" s="171"/>
+      <c r="C140" s="171"/>
+      <c r="D140" s="171"/>
+      <c r="E140" s="171"/>
+      <c r="F140" s="171"/>
       <c r="G140" s="113"/>
       <c r="H140" s="113"/>
       <c r="I140" s="113"/>
@@ -27963,12 +27973,12 @@
       <c r="N140" s="113"/>
     </row>
     <row r="141" spans="1:39">
-      <c r="A141" s="175"/>
-      <c r="B141" s="175"/>
-      <c r="C141" s="175"/>
-      <c r="D141" s="175"/>
-      <c r="E141" s="175"/>
-      <c r="F141" s="175"/>
+      <c r="A141" s="171"/>
+      <c r="B141" s="171"/>
+      <c r="C141" s="171"/>
+      <c r="D141" s="171"/>
+      <c r="E141" s="171"/>
+      <c r="F141" s="171"/>
       <c r="G141" s="113"/>
       <c r="H141" s="113"/>
       <c r="I141" s="113"/>
@@ -27979,12 +27989,12 @@
       <c r="N141" s="113"/>
     </row>
     <row r="142" spans="1:39">
-      <c r="A142" s="175"/>
-      <c r="B142" s="175"/>
-      <c r="C142" s="175"/>
-      <c r="D142" s="175"/>
-      <c r="E142" s="175"/>
-      <c r="F142" s="175"/>
+      <c r="A142" s="171"/>
+      <c r="B142" s="171"/>
+      <c r="C142" s="171"/>
+      <c r="D142" s="171"/>
+      <c r="E142" s="171"/>
+      <c r="F142" s="171"/>
       <c r="G142" s="113"/>
       <c r="H142" s="113"/>
       <c r="I142" s="113"/>
@@ -27995,12 +28005,12 @@
       <c r="N142" s="113"/>
     </row>
     <row r="143" spans="1:39">
-      <c r="A143" s="175"/>
-      <c r="B143" s="175"/>
-      <c r="C143" s="175"/>
-      <c r="D143" s="175"/>
-      <c r="E143" s="175"/>
-      <c r="F143" s="175"/>
+      <c r="A143" s="171"/>
+      <c r="B143" s="171"/>
+      <c r="C143" s="171"/>
+      <c r="D143" s="171"/>
+      <c r="E143" s="171"/>
+      <c r="F143" s="171"/>
       <c r="G143" s="113"/>
       <c r="H143" s="113"/>
       <c r="I143" s="113"/>
@@ -28011,12 +28021,12 @@
       <c r="N143" s="113"/>
     </row>
     <row r="144" spans="1:39">
-      <c r="A144" s="175"/>
-      <c r="B144" s="175"/>
-      <c r="C144" s="175"/>
-      <c r="D144" s="175"/>
-      <c r="E144" s="175"/>
-      <c r="F144" s="175"/>
+      <c r="A144" s="171"/>
+      <c r="B144" s="171"/>
+      <c r="C144" s="171"/>
+      <c r="D144" s="171"/>
+      <c r="E144" s="171"/>
+      <c r="F144" s="171"/>
       <c r="G144" s="113"/>
       <c r="H144" s="113"/>
       <c r="I144" s="113"/>
@@ -28027,12 +28037,12 @@
       <c r="N144" s="113"/>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="175"/>
-      <c r="B145" s="175"/>
-      <c r="C145" s="175"/>
-      <c r="D145" s="175"/>
-      <c r="E145" s="175"/>
-      <c r="F145" s="175"/>
+      <c r="A145" s="171"/>
+      <c r="B145" s="171"/>
+      <c r="C145" s="171"/>
+      <c r="D145" s="171"/>
+      <c r="E145" s="171"/>
+      <c r="F145" s="171"/>
       <c r="G145" s="113"/>
       <c r="H145" s="113"/>
       <c r="I145" s="113"/>
@@ -28043,12 +28053,12 @@
       <c r="N145" s="113"/>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="175"/>
-      <c r="B146" s="175"/>
-      <c r="C146" s="175"/>
-      <c r="D146" s="175"/>
-      <c r="E146" s="175"/>
-      <c r="F146" s="175"/>
+      <c r="A146" s="171"/>
+      <c r="B146" s="171"/>
+      <c r="C146" s="171"/>
+      <c r="D146" s="171"/>
+      <c r="E146" s="171"/>
+      <c r="F146" s="171"/>
       <c r="G146" s="113"/>
       <c r="H146" s="113"/>
       <c r="I146" s="113"/>
@@ -28059,12 +28069,12 @@
       <c r="N146" s="113"/>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="175"/>
-      <c r="B147" s="175"/>
-      <c r="C147" s="175"/>
-      <c r="D147" s="175"/>
-      <c r="E147" s="175"/>
-      <c r="F147" s="175"/>
+      <c r="A147" s="171"/>
+      <c r="B147" s="171"/>
+      <c r="C147" s="171"/>
+      <c r="D147" s="171"/>
+      <c r="E147" s="171"/>
+      <c r="F147" s="171"/>
       <c r="G147" s="113"/>
       <c r="H147" s="113"/>
       <c r="I147" s="113"/>
@@ -28075,12 +28085,12 @@
       <c r="N147" s="113"/>
     </row>
     <row r="148" spans="1:14">
-      <c r="A148" s="175"/>
-      <c r="B148" s="175"/>
-      <c r="C148" s="175"/>
-      <c r="D148" s="175"/>
-      <c r="E148" s="175"/>
-      <c r="F148" s="175"/>
+      <c r="A148" s="171"/>
+      <c r="B148" s="171"/>
+      <c r="C148" s="171"/>
+      <c r="D148" s="171"/>
+      <c r="E148" s="171"/>
+      <c r="F148" s="171"/>
       <c r="G148" s="113"/>
       <c r="H148" s="113"/>
       <c r="I148" s="113"/>
@@ -28091,12 +28101,12 @@
       <c r="N148" s="113"/>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="175"/>
-      <c r="B149" s="175"/>
-      <c r="C149" s="175"/>
-      <c r="D149" s="175"/>
-      <c r="E149" s="175"/>
-      <c r="F149" s="175"/>
+      <c r="A149" s="171"/>
+      <c r="B149" s="171"/>
+      <c r="C149" s="171"/>
+      <c r="D149" s="171"/>
+      <c r="E149" s="171"/>
+      <c r="F149" s="171"/>
       <c r="G149" s="113"/>
       <c r="H149" s="113"/>
       <c r="I149" s="113"/>
@@ -28107,12 +28117,12 @@
       <c r="N149" s="113"/>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="175"/>
-      <c r="B150" s="175"/>
-      <c r="C150" s="175"/>
-      <c r="D150" s="175"/>
-      <c r="E150" s="175"/>
-      <c r="F150" s="175"/>
+      <c r="A150" s="171"/>
+      <c r="B150" s="171"/>
+      <c r="C150" s="171"/>
+      <c r="D150" s="171"/>
+      <c r="E150" s="171"/>
+      <c r="F150" s="171"/>
       <c r="G150" s="113"/>
       <c r="H150" s="113"/>
       <c r="I150" s="113"/>
@@ -28123,12 +28133,12 @@
       <c r="N150" s="113"/>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="175"/>
-      <c r="B151" s="175"/>
-      <c r="C151" s="175"/>
-      <c r="D151" s="175"/>
-      <c r="E151" s="175"/>
-      <c r="F151" s="175"/>
+      <c r="A151" s="171"/>
+      <c r="B151" s="171"/>
+      <c r="C151" s="171"/>
+      <c r="D151" s="171"/>
+      <c r="E151" s="171"/>
+      <c r="F151" s="171"/>
       <c r="G151" s="113"/>
       <c r="H151" s="113"/>
       <c r="I151" s="113"/>
@@ -28139,12 +28149,12 @@
       <c r="N151" s="113"/>
     </row>
     <row r="152" spans="1:14">
-      <c r="A152" s="175"/>
-      <c r="B152" s="175"/>
-      <c r="C152" s="175"/>
-      <c r="D152" s="175"/>
-      <c r="E152" s="175"/>
-      <c r="F152" s="175"/>
+      <c r="A152" s="171"/>
+      <c r="B152" s="171"/>
+      <c r="C152" s="171"/>
+      <c r="D152" s="171"/>
+      <c r="E152" s="171"/>
+      <c r="F152" s="171"/>
       <c r="G152" s="113"/>
       <c r="H152" s="113"/>
       <c r="I152" s="113"/>
@@ -28155,12 +28165,12 @@
       <c r="N152" s="113"/>
     </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="175"/>
-      <c r="B153" s="175"/>
-      <c r="C153" s="175"/>
-      <c r="D153" s="175"/>
-      <c r="E153" s="175"/>
-      <c r="F153" s="175"/>
+      <c r="A153" s="171"/>
+      <c r="B153" s="171"/>
+      <c r="C153" s="171"/>
+      <c r="D153" s="171"/>
+      <c r="E153" s="171"/>
+      <c r="F153" s="171"/>
       <c r="G153" s="113"/>
       <c r="H153" s="113"/>
       <c r="I153" s="113"/>
@@ -28171,12 +28181,12 @@
       <c r="N153" s="113"/>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="175"/>
-      <c r="B154" s="175"/>
-      <c r="C154" s="175"/>
-      <c r="D154" s="175"/>
-      <c r="E154" s="175"/>
-      <c r="F154" s="175"/>
+      <c r="A154" s="171"/>
+      <c r="B154" s="171"/>
+      <c r="C154" s="171"/>
+      <c r="D154" s="171"/>
+      <c r="E154" s="171"/>
+      <c r="F154" s="171"/>
       <c r="G154" s="113"/>
       <c r="H154" s="113"/>
       <c r="I154" s="113"/>
@@ -28187,12 +28197,12 @@
       <c r="N154" s="113"/>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="175"/>
-      <c r="B155" s="175"/>
-      <c r="C155" s="175"/>
-      <c r="D155" s="175"/>
-      <c r="E155" s="175"/>
-      <c r="F155" s="175"/>
+      <c r="A155" s="171"/>
+      <c r="B155" s="171"/>
+      <c r="C155" s="171"/>
+      <c r="D155" s="171"/>
+      <c r="E155" s="171"/>
+      <c r="F155" s="171"/>
       <c r="G155" s="113"/>
       <c r="H155" s="113"/>
       <c r="I155" s="113"/>
@@ -28203,12 +28213,12 @@
       <c r="N155" s="113"/>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="175"/>
-      <c r="B156" s="175"/>
-      <c r="C156" s="175"/>
-      <c r="D156" s="175"/>
-      <c r="E156" s="175"/>
-      <c r="F156" s="175"/>
+      <c r="A156" s="171"/>
+      <c r="B156" s="171"/>
+      <c r="C156" s="171"/>
+      <c r="D156" s="171"/>
+      <c r="E156" s="171"/>
+      <c r="F156" s="171"/>
       <c r="G156" s="113"/>
       <c r="H156" s="113"/>
       <c r="I156" s="113"/>
@@ -28219,12 +28229,12 @@
       <c r="N156" s="113"/>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="175"/>
-      <c r="B157" s="175"/>
-      <c r="C157" s="175"/>
-      <c r="D157" s="175"/>
-      <c r="E157" s="175"/>
-      <c r="F157" s="175"/>
+      <c r="A157" s="171"/>
+      <c r="B157" s="171"/>
+      <c r="C157" s="171"/>
+      <c r="D157" s="171"/>
+      <c r="E157" s="171"/>
+      <c r="F157" s="171"/>
       <c r="G157" s="113"/>
       <c r="H157" s="113"/>
       <c r="I157" s="113"/>
@@ -28235,12 +28245,12 @@
       <c r="N157" s="113"/>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="175"/>
-      <c r="B158" s="175"/>
-      <c r="C158" s="175"/>
-      <c r="D158" s="175"/>
-      <c r="E158" s="175"/>
-      <c r="F158" s="175"/>
+      <c r="A158" s="171"/>
+      <c r="B158" s="171"/>
+      <c r="C158" s="171"/>
+      <c r="D158" s="171"/>
+      <c r="E158" s="171"/>
+      <c r="F158" s="171"/>
       <c r="G158" s="113"/>
       <c r="H158" s="113"/>
       <c r="I158" s="113"/>
@@ -29851,7 +29861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:S134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F74" zoomScale="150" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G111" zoomScale="150" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
@@ -30846,163 +30856,163 @@
       </c>
     </row>
     <row r="96" spans="2:19" ht="25.5" customHeight="1">
-      <c r="G96" s="271" t="s">
+      <c r="G96" s="273" t="s">
         <v>71</v>
       </c>
-      <c r="H96" s="271"/>
-      <c r="I96" s="272"/>
-      <c r="J96" s="273" t="s">
+      <c r="H96" s="273"/>
+      <c r="I96" s="274"/>
+      <c r="J96" s="275" t="s">
         <v>72</v>
       </c>
-      <c r="K96" s="273"/>
-      <c r="L96" s="273"/>
-      <c r="M96" s="274" t="s">
+      <c r="K96" s="275"/>
+      <c r="L96" s="275"/>
+      <c r="M96" s="276" t="s">
         <v>73</v>
       </c>
-      <c r="N96" s="274"/>
-      <c r="O96" s="274"/>
-      <c r="P96" s="274"/>
+      <c r="N96" s="276"/>
+      <c r="O96" s="276"/>
+      <c r="P96" s="276"/>
     </row>
     <row r="97" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G97" s="264" t="s">
+      <c r="G97" s="266" t="s">
         <v>74</v>
       </c>
-      <c r="H97" s="265"/>
+      <c r="H97" s="267"/>
       <c r="I97" s="22">
         <f>+E6</f>
         <v>86233.752800000002</v>
       </c>
-      <c r="J97" s="270" t="s">
+      <c r="J97" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="257"/>
+      <c r="K97" s="259"/>
       <c r="L97" s="11">
         <f>+Utilidad!J67</f>
         <v>43948.767596999998</v>
       </c>
-      <c r="M97" s="257" t="s">
+      <c r="M97" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="N97" s="257"/>
-      <c r="O97" s="257"/>
+      <c r="N97" s="259"/>
+      <c r="O97" s="259"/>
       <c r="P97" s="11">
         <f>+G15</f>
         <v>15727.04054</v>
       </c>
     </row>
     <row r="98" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G98" s="264" t="s">
+      <c r="G98" s="266" t="s">
         <v>76</v>
       </c>
-      <c r="H98" s="265"/>
+      <c r="H98" s="267"/>
       <c r="I98" s="22">
         <f>+C12</f>
         <v>11681.220740000001</v>
       </c>
-      <c r="J98" s="257" t="s">
+      <c r="J98" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="K98" s="257"/>
+      <c r="K98" s="259"/>
       <c r="L98" s="11">
         <f>+Utilidad!J75</f>
         <v>-1947.6210599999999</v>
       </c>
-      <c r="M98" s="257" t="s">
+      <c r="M98" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="N98" s="257"/>
-      <c r="O98" s="257"/>
+      <c r="N98" s="259"/>
+      <c r="O98" s="259"/>
       <c r="P98" s="11">
         <f>+Q7</f>
         <v>13968.63</v>
       </c>
     </row>
     <row r="99" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G99" s="264" t="s">
+      <c r="G99" s="266" t="s">
         <v>77</v>
       </c>
-      <c r="H99" s="265"/>
+      <c r="H99" s="267"/>
       <c r="I99" s="22">
         <f>+H13</f>
         <v>26763.689249999999</v>
       </c>
-      <c r="J99" s="257" t="s">
+      <c r="J99" s="259" t="s">
         <v>78</v>
       </c>
-      <c r="K99" s="257"/>
+      <c r="K99" s="259"/>
       <c r="L99" s="11">
         <f>+Utilidad!J79</f>
         <v>73.660909465000003</v>
       </c>
-      <c r="M99" s="257" t="s">
+      <c r="M99" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="N99" s="257"/>
-      <c r="O99" s="257"/>
+      <c r="N99" s="259"/>
+      <c r="O99" s="259"/>
       <c r="P99" s="11">
         <f>+Q11</f>
         <v>6086.9213650000002</v>
       </c>
     </row>
     <row r="100" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G100" s="255" t="s">
+      <c r="G100" s="257" t="s">
         <v>79</v>
       </c>
-      <c r="H100" s="256"/>
+      <c r="H100" s="258"/>
       <c r="I100" s="22">
         <f>+C26</f>
         <v>0</v>
       </c>
-      <c r="J100" s="257" t="s">
+      <c r="J100" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="257"/>
+      <c r="K100" s="259"/>
       <c r="L100" s="11">
         <f>+Utilidad!J81</f>
         <v>-383.42565624999997</v>
       </c>
-      <c r="M100" s="257" t="s">
+      <c r="M100" s="259" t="s">
         <v>80</v>
       </c>
-      <c r="N100" s="257"/>
-      <c r="O100" s="257"/>
+      <c r="N100" s="259"/>
+      <c r="O100" s="259"/>
       <c r="P100" s="11">
         <f>+I30</f>
         <v>29812.163530000002</v>
       </c>
     </row>
     <row r="101" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G101" s="255" t="s">
+      <c r="G101" s="257" t="s">
         <v>57</v>
       </c>
-      <c r="H101" s="256"/>
+      <c r="H101" s="258"/>
       <c r="I101" s="22">
         <f>+C35</f>
         <v>0</v>
       </c>
-      <c r="J101" s="257" t="s">
+      <c r="J101" s="259" t="s">
         <v>81</v>
       </c>
-      <c r="K101" s="257"/>
+      <c r="K101" s="259"/>
       <c r="L101" s="11">
         <f>+Utilidad!J91</f>
         <v>0</v>
       </c>
-      <c r="M101" s="257" t="s">
+      <c r="M101" s="259" t="s">
         <v>82</v>
       </c>
-      <c r="N101" s="257"/>
-      <c r="O101" s="257"/>
+      <c r="N101" s="259"/>
+      <c r="O101" s="259"/>
       <c r="P101" s="11">
         <f>+M58</f>
         <v>1003.6487</v>
       </c>
     </row>
     <row r="102" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G102" s="255" t="s">
+      <c r="G102" s="257" t="s">
         <v>60</v>
       </c>
-      <c r="H102" s="256"/>
+      <c r="H102" s="258"/>
       <c r="I102" s="22">
         <f>+C44</f>
         <v>0</v>
@@ -31015,21 +31025,21 @@
         <f>+Utilidad!J104</f>
         <v>0</v>
       </c>
-      <c r="M102" s="257" t="s">
+      <c r="M102" s="259" t="s">
         <v>84</v>
       </c>
-      <c r="N102" s="257"/>
-      <c r="O102" s="257"/>
+      <c r="N102" s="259"/>
+      <c r="O102" s="259"/>
       <c r="P102" s="11">
         <f>+O63</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G103" s="255" t="s">
+      <c r="G103" s="257" t="s">
         <v>85</v>
       </c>
-      <c r="H103" s="256"/>
+      <c r="H103" s="258"/>
       <c r="I103" s="22">
         <f>+C54</f>
         <v>0</v>
@@ -31042,21 +31052,21 @@
         <f>+Utilidad!J107</f>
         <v>0</v>
       </c>
-      <c r="M103" s="257" t="s">
+      <c r="M103" s="259" t="s">
         <v>87</v>
       </c>
-      <c r="N103" s="257"/>
-      <c r="O103" s="257"/>
+      <c r="N103" s="259"/>
+      <c r="O103" s="259"/>
       <c r="P103" s="11">
         <f>+O67</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G104" s="255" t="s">
+      <c r="G104" s="257" t="s">
         <v>88</v>
       </c>
-      <c r="H104" s="256"/>
+      <c r="H104" s="258"/>
       <c r="I104" s="22">
         <f>+C62</f>
         <v>61164.541878000004</v>
@@ -31069,21 +31079,21 @@
         <f>+Utilidad!J110</f>
         <v>0</v>
       </c>
-      <c r="M104" s="257" t="s">
+      <c r="M104" s="259" t="s">
         <v>44</v>
       </c>
-      <c r="N104" s="257"/>
-      <c r="O104" s="257"/>
+      <c r="N104" s="259"/>
+      <c r="O104" s="259"/>
       <c r="P104" s="11">
         <f>+O74</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G105" s="255" t="s">
+      <c r="G105" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="H105" s="256"/>
+      <c r="H105" s="258"/>
       <c r="I105" s="22">
         <f>+H70</f>
         <v>0</v>
@@ -31096,36 +31106,36 @@
         <f>+Utilidad!J113</f>
         <v>0</v>
       </c>
-      <c r="M105" s="257" t="s">
+      <c r="M105" s="259" t="s">
         <v>92</v>
       </c>
-      <c r="N105" s="257"/>
-      <c r="O105" s="257"/>
+      <c r="N105" s="259"/>
+      <c r="O105" s="259"/>
       <c r="P105" s="11">
         <f>+O84</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G106" s="255" t="s">
+      <c r="G106" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="H106" s="256"/>
+      <c r="H106" s="258"/>
       <c r="I106" s="22">
         <f>+H75</f>
         <v>0</v>
       </c>
-      <c r="J106" s="257" t="s">
+      <c r="J106" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="K106" s="257"/>
+      <c r="K106" s="259"/>
       <c r="L106" s="11">
         <f>+Utilidad!J102</f>
         <v>2189.3000000000002</v>
       </c>
-      <c r="M106" s="257"/>
-      <c r="N106" s="257"/>
-      <c r="O106" s="257"/>
+      <c r="M106" s="259"/>
+      <c r="N106" s="259"/>
+      <c r="O106" s="259"/>
       <c r="P106" s="11"/>
     </row>
     <row r="107" spans="7:16" ht="25.5" customHeight="1">
@@ -31145,9 +31155,9 @@
         <f>+Utilidad!J86</f>
         <v>74744.589250000005</v>
       </c>
-      <c r="M107" s="261"/>
-      <c r="N107" s="262"/>
-      <c r="O107" s="263"/>
+      <c r="M107" s="263"/>
+      <c r="N107" s="264"/>
+      <c r="O107" s="265"/>
       <c r="P107" s="11"/>
     </row>
     <row r="108" spans="7:16" ht="25.5" customHeight="1">
@@ -31159,17 +31169,17 @@
         <f>+L78</f>
         <v>5708.1906399999998</v>
       </c>
-      <c r="J108" s="257" t="s">
+      <c r="J108" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="K108" s="257"/>
+      <c r="K108" s="259"/>
       <c r="L108" s="11">
         <f>+Utilidad!J94</f>
         <v>27866.973293999999</v>
       </c>
-      <c r="M108" s="261"/>
-      <c r="N108" s="262"/>
-      <c r="O108" s="263"/>
+      <c r="M108" s="263"/>
+      <c r="N108" s="264"/>
+      <c r="O108" s="265"/>
       <c r="P108" s="11"/>
     </row>
     <row r="109" spans="7:16" ht="25.5" customHeight="1">
@@ -31181,58 +31191,58 @@
         <f>+K86</f>
         <v>417.69489800000002</v>
       </c>
-      <c r="J109" s="257" t="s">
+      <c r="J109" s="259" t="s">
         <v>10</v>
       </c>
-      <c r="K109" s="257"/>
+      <c r="K109" s="259"/>
       <c r="L109" s="11">
         <f>+Utilidad!J99</f>
         <v>11225.772948</v>
       </c>
-      <c r="M109" s="261"/>
-      <c r="N109" s="262"/>
-      <c r="O109" s="263"/>
+      <c r="M109" s="263"/>
+      <c r="N109" s="264"/>
+      <c r="O109" s="265"/>
       <c r="P109" s="11"/>
     </row>
     <row r="110" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G110" s="255" t="s">
+      <c r="G110" s="257" t="s">
         <v>98</v>
       </c>
-      <c r="H110" s="256"/>
+      <c r="H110" s="258"/>
       <c r="I110" s="22">
         <f>+L90</f>
         <v>10808.07805</v>
       </c>
-      <c r="J110" s="257"/>
-      <c r="K110" s="257"/>
+      <c r="J110" s="259"/>
+      <c r="K110" s="259"/>
       <c r="L110" s="11"/>
-      <c r="M110" s="257"/>
-      <c r="N110" s="257"/>
-      <c r="O110" s="257"/>
+      <c r="M110" s="259"/>
+      <c r="N110" s="259"/>
+      <c r="O110" s="259"/>
       <c r="P110" s="11"/>
     </row>
     <row r="111" spans="7:16" ht="19">
-      <c r="G111" s="258" t="s">
+      <c r="G111" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="H111" s="259"/>
+      <c r="H111" s="261"/>
       <c r="I111" s="13">
         <f>+SUM(I97:I110)</f>
         <v>224935.95090999999</v>
       </c>
-      <c r="J111" s="260" t="s">
+      <c r="J111" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="K111" s="260"/>
+      <c r="K111" s="262"/>
       <c r="L111" s="14">
         <f>+SUM(L97:L110)</f>
         <v>157718.01728221501</v>
       </c>
-      <c r="M111" s="260" t="s">
+      <c r="M111" s="262" t="s">
         <v>101</v>
       </c>
-      <c r="N111" s="260"/>
-      <c r="O111" s="260"/>
+      <c r="N111" s="262"/>
+      <c r="O111" s="262"/>
       <c r="P111" s="13">
         <f>+SUM(P97:P110)</f>
         <v>66598.404135000004</v>
@@ -31273,163 +31283,163 @@
       </c>
     </row>
     <row r="117" spans="7:16" ht="19">
-      <c r="G117" s="266" t="s">
+      <c r="G117" s="268" t="s">
         <v>71</v>
       </c>
-      <c r="H117" s="266"/>
-      <c r="I117" s="267"/>
-      <c r="J117" s="268" t="s">
+      <c r="H117" s="268"/>
+      <c r="I117" s="269"/>
+      <c r="J117" s="270" t="s">
         <v>72</v>
       </c>
-      <c r="K117" s="268"/>
-      <c r="L117" s="268"/>
-      <c r="M117" s="269" t="s">
+      <c r="K117" s="270"/>
+      <c r="L117" s="270"/>
+      <c r="M117" s="271" t="s">
         <v>73</v>
       </c>
-      <c r="N117" s="269"/>
-      <c r="O117" s="269"/>
-      <c r="P117" s="269"/>
+      <c r="N117" s="271"/>
+      <c r="O117" s="271"/>
+      <c r="P117" s="271"/>
     </row>
     <row r="118" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G118" s="264" t="s">
+      <c r="G118" s="266" t="s">
         <v>74</v>
       </c>
-      <c r="H118" s="265"/>
+      <c r="H118" s="267"/>
       <c r="I118" s="22">
         <f>+E8</f>
         <v>31362.439789584805</v>
       </c>
-      <c r="J118" s="270" t="s">
+      <c r="J118" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="K118" s="257"/>
+      <c r="K118" s="259"/>
       <c r="L118" s="11">
         <f>+Utilidad!L67</f>
         <v>18629.618891762719</v>
       </c>
-      <c r="M118" s="257" t="s">
+      <c r="M118" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="N118" s="257"/>
-      <c r="O118" s="257"/>
+      <c r="N118" s="259"/>
+      <c r="O118" s="259"/>
       <c r="P118" s="11">
         <f>+G17</f>
         <v>2683.8509222320799</v>
       </c>
     </row>
     <row r="119" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G119" s="264" t="s">
+      <c r="G119" s="266" t="s">
         <v>76</v>
       </c>
-      <c r="H119" s="265"/>
+      <c r="H119" s="267"/>
       <c r="I119" s="22">
         <f>+C14</f>
         <v>4313.8748192820003</v>
       </c>
-      <c r="J119" s="257" t="s">
+      <c r="J119" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="K119" s="257"/>
+      <c r="K119" s="259"/>
       <c r="L119" s="11">
         <f>+Utilidad!L75</f>
         <v>-952.49381749830002</v>
       </c>
-      <c r="M119" s="257" t="s">
+      <c r="M119" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="N119" s="257"/>
-      <c r="O119" s="257"/>
+      <c r="N119" s="259"/>
+      <c r="O119" s="259"/>
       <c r="P119" s="11">
         <f>+Q9</f>
         <v>3832.16792283</v>
       </c>
     </row>
     <row r="120" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G120" s="264" t="s">
+      <c r="G120" s="266" t="s">
         <v>77</v>
       </c>
-      <c r="H120" s="265"/>
+      <c r="H120" s="267"/>
       <c r="I120" s="22">
         <f>+H15</f>
         <v>13210.021740015</v>
       </c>
-      <c r="J120" s="257" t="s">
+      <c r="J120" s="259" t="s">
         <v>78</v>
       </c>
-      <c r="K120" s="257"/>
+      <c r="K120" s="259"/>
       <c r="L120" s="11">
         <f>+Utilidad!L79</f>
         <v>48.899868409249713</v>
       </c>
-      <c r="M120" s="257" t="s">
+      <c r="M120" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="N120" s="257"/>
-      <c r="O120" s="257"/>
+      <c r="N120" s="259"/>
+      <c r="O120" s="259"/>
       <c r="P120" s="11">
         <f>+Q13</f>
         <v>878.98796663419012</v>
       </c>
     </row>
     <row r="121" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G121" s="255" t="s">
+      <c r="G121" s="257" t="s">
         <v>79</v>
       </c>
-      <c r="H121" s="256"/>
+      <c r="H121" s="258"/>
       <c r="I121" s="22">
         <f>+C28</f>
         <v>0</v>
       </c>
-      <c r="J121" s="257" t="s">
+      <c r="J121" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="257"/>
+      <c r="K121" s="259"/>
       <c r="L121" s="11">
         <f>+Utilidad!L81</f>
         <v>-262.31146050768751</v>
       </c>
-      <c r="M121" s="257" t="s">
+      <c r="M121" s="259" t="s">
         <v>80</v>
       </c>
-      <c r="N121" s="257"/>
-      <c r="O121" s="257"/>
+      <c r="N121" s="259"/>
+      <c r="O121" s="259"/>
       <c r="P121" s="11">
         <f>+I32</f>
         <v>2984.67456396948</v>
       </c>
     </row>
     <row r="122" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G122" s="255" t="s">
+      <c r="G122" s="257" t="s">
         <v>57</v>
       </c>
-      <c r="H122" s="256"/>
+      <c r="H122" s="258"/>
       <c r="I122" s="22">
         <f>+C37</f>
         <v>0</v>
       </c>
-      <c r="J122" s="257" t="s">
+      <c r="J122" s="259" t="s">
         <v>81</v>
       </c>
-      <c r="K122" s="257"/>
+      <c r="K122" s="259"/>
       <c r="L122" s="11">
         <f>+Utilidad!L91</f>
         <v>0</v>
       </c>
-      <c r="M122" s="257" t="s">
+      <c r="M122" s="259" t="s">
         <v>82</v>
       </c>
-      <c r="N122" s="257"/>
-      <c r="O122" s="257"/>
+      <c r="N122" s="259"/>
+      <c r="O122" s="259"/>
       <c r="P122" s="11">
         <f>+M60</f>
         <v>685.12874127060002</v>
       </c>
     </row>
     <row r="123" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G123" s="255" t="s">
+      <c r="G123" s="257" t="s">
         <v>60</v>
       </c>
-      <c r="H123" s="256"/>
+      <c r="H123" s="258"/>
       <c r="I123" s="22">
         <f>+C46</f>
         <v>0</v>
@@ -31442,21 +31452,21 @@
         <f>+Utilidad!L104</f>
         <v>0</v>
       </c>
-      <c r="M123" s="257" t="s">
+      <c r="M123" s="259" t="s">
         <v>84</v>
       </c>
-      <c r="N123" s="257"/>
-      <c r="O123" s="257"/>
+      <c r="N123" s="259"/>
+      <c r="O123" s="259"/>
       <c r="P123" s="11">
         <f>+O65</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G124" s="255" t="s">
+      <c r="G124" s="257" t="s">
         <v>85</v>
       </c>
-      <c r="H124" s="256"/>
+      <c r="H124" s="258"/>
       <c r="I124" s="22">
         <f>+C56</f>
         <v>0</v>
@@ -31469,21 +31479,21 @@
         <f>+Utilidad!L107</f>
         <v>0</v>
       </c>
-      <c r="M124" s="257" t="s">
+      <c r="M124" s="259" t="s">
         <v>87</v>
       </c>
-      <c r="N124" s="257"/>
-      <c r="O124" s="257"/>
+      <c r="N124" s="259"/>
+      <c r="O124" s="259"/>
       <c r="P124" s="11">
         <f>+O69</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G125" s="255" t="s">
+      <c r="G125" s="257" t="s">
         <v>88</v>
       </c>
-      <c r="H125" s="256"/>
+      <c r="H125" s="258"/>
       <c r="I125" s="22">
         <f>C64</f>
         <v>31987.9544404402</v>
@@ -31496,21 +31506,21 @@
         <f>+Utilidad!L110</f>
         <v>0</v>
       </c>
-      <c r="M125" s="257" t="s">
+      <c r="M125" s="259" t="s">
         <v>44</v>
       </c>
-      <c r="N125" s="257"/>
-      <c r="O125" s="257"/>
+      <c r="N125" s="259"/>
+      <c r="O125" s="259"/>
       <c r="P125" s="11">
         <f>+O76</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G126" s="255" t="s">
+      <c r="G126" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="H126" s="256"/>
+      <c r="H126" s="258"/>
       <c r="I126" s="22">
         <f>+H72</f>
         <v>0</v>
@@ -31523,36 +31533,36 @@
         <f>+Utilidad!L113</f>
         <v>0</v>
       </c>
-      <c r="M126" s="257" t="s">
+      <c r="M126" s="259" t="s">
         <v>92</v>
       </c>
-      <c r="N126" s="257"/>
-      <c r="O126" s="257"/>
+      <c r="N126" s="259"/>
+      <c r="O126" s="259"/>
       <c r="P126" s="11">
         <f>+O86</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G127" s="255" t="s">
+      <c r="G127" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="H127" s="256"/>
+      <c r="H127" s="258"/>
       <c r="I127" s="22">
         <f>+H77</f>
         <v>0</v>
       </c>
-      <c r="J127" s="257" t="s">
+      <c r="J127" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="K127" s="257"/>
+      <c r="K127" s="259"/>
       <c r="L127" s="11">
         <f>+Utilidad!L102</f>
         <v>784.25323530000014</v>
       </c>
-      <c r="M127" s="257"/>
-      <c r="N127" s="257"/>
-      <c r="O127" s="257"/>
+      <c r="M127" s="259"/>
+      <c r="N127" s="259"/>
+      <c r="O127" s="259"/>
       <c r="P127" s="11"/>
     </row>
     <row r="128" spans="7:16" ht="27.75" customHeight="1">
@@ -31572,9 +31582,9 @@
         <f>+Utilidad!L86</f>
         <v>51134.716865245508</v>
       </c>
-      <c r="M128" s="261"/>
-      <c r="N128" s="262"/>
-      <c r="O128" s="263"/>
+      <c r="M128" s="263"/>
+      <c r="N128" s="264"/>
+      <c r="O128" s="265"/>
       <c r="P128" s="11"/>
     </row>
     <row r="129" spans="7:16" ht="27.75" customHeight="1">
@@ -31586,17 +31596,17 @@
         <f>+L80</f>
         <v>3492.2710335520001</v>
       </c>
-      <c r="J129" s="257" t="s">
+      <c r="J129" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="K129" s="257"/>
+      <c r="K129" s="259"/>
       <c r="L129" s="11">
         <f>+Utilidad!L94</f>
         <v>17255.090528778328</v>
       </c>
-      <c r="M129" s="261"/>
-      <c r="N129" s="262"/>
-      <c r="O129" s="263"/>
+      <c r="M129" s="263"/>
+      <c r="N129" s="264"/>
+      <c r="O129" s="265"/>
       <c r="P129" s="11"/>
     </row>
     <row r="130" spans="7:16" ht="27.75" customHeight="1">
@@ -31608,58 +31618,58 @@
         <f>+K88</f>
         <v>236.95831563539997</v>
       </c>
-      <c r="J130" s="257" t="s">
+      <c r="J130" s="259" t="s">
         <v>10</v>
       </c>
-      <c r="K130" s="257"/>
+      <c r="K130" s="259"/>
       <c r="L130" s="11">
         <f>+Utilidad!L99</f>
         <v>6837.4499160325795</v>
       </c>
-      <c r="M130" s="261"/>
-      <c r="N130" s="262"/>
-      <c r="O130" s="263"/>
+      <c r="M130" s="263"/>
+      <c r="N130" s="264"/>
+      <c r="O130" s="265"/>
       <c r="P130" s="11"/>
     </row>
     <row r="131" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G131" s="255" t="s">
+      <c r="G131" s="257" t="s">
         <v>98</v>
       </c>
-      <c r="H131" s="256"/>
+      <c r="H131" s="258"/>
       <c r="I131" s="22">
         <f>+L92</f>
         <v>6600.493265135</v>
       </c>
-      <c r="J131" s="257"/>
-      <c r="K131" s="257"/>
+      <c r="J131" s="259"/>
+      <c r="K131" s="259"/>
       <c r="L131" s="11"/>
-      <c r="M131" s="257"/>
-      <c r="N131" s="257"/>
-      <c r="O131" s="257"/>
+      <c r="M131" s="259"/>
+      <c r="N131" s="259"/>
+      <c r="O131" s="259"/>
       <c r="P131" s="11"/>
     </row>
     <row r="132" spans="7:16" ht="19">
-      <c r="G132" s="258" t="s">
+      <c r="G132" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="H132" s="259"/>
+      <c r="H132" s="261"/>
       <c r="I132" s="13">
         <f>+SUM(I118:I131)</f>
         <v>104966.8333100438</v>
       </c>
-      <c r="J132" s="260" t="s">
+      <c r="J132" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="K132" s="260"/>
+      <c r="K132" s="262"/>
       <c r="L132" s="14">
         <f>+SUM(L118:L131)</f>
         <v>93475.224027522388</v>
       </c>
-      <c r="M132" s="260" t="s">
+      <c r="M132" s="262" t="s">
         <v>101</v>
       </c>
-      <c r="N132" s="260"/>
-      <c r="O132" s="260"/>
+      <c r="N132" s="262"/>
+      <c r="O132" s="262"/>
       <c r="P132" s="13">
         <f>+SUM(P118:P131)</f>
         <v>11064.810116936351</v>
@@ -32042,8 +32052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731AE742-D316-A04E-A3DB-C52263974828}">
   <dimension ref="B2:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D58"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -32055,20 +32065,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20">
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="277" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="F2" s="275" t="s">
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="F2" s="277" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="J2" s="276" t="s">
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="J2" s="278" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="277"/>
+      <c r="K2" s="279"/>
       <c r="L2" s="143"/>
       <c r="M2" s="144" t="s">
         <v>148</v>
@@ -33892,7 +33902,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="149">
-        <f t="shared" si="0"/>
+        <f>+IF(C48&lt;&gt;0,(G48-C48)/C48,ABS(G48-C48))</f>
         <v>0</v>
       </c>
       <c r="K48" s="149">
@@ -34337,14 +34347,15 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.1640625" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="187" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24">
@@ -34354,10 +34365,10 @@
       <c r="B1" s="153">
         <v>3309.8669999999738</v>
       </c>
-      <c r="C1" s="154">
+      <c r="C1" s="182">
         <v>0.5</v>
       </c>
-      <c r="D1" s="155">
+      <c r="D1" s="154">
         <v>0.01</v>
       </c>
     </row>
@@ -34365,13 +34376,13 @@
       <c r="A2" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="156">
+      <c r="B2" s="155">
         <v>25692.717600000025</v>
       </c>
-      <c r="C2" s="154">
+      <c r="C2" s="182">
         <v>0.5</v>
       </c>
-      <c r="D2" s="157">
+      <c r="D2" s="156">
         <v>0.01</v>
       </c>
     </row>
@@ -34379,13 +34390,13 @@
       <c r="A3" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="156">
+      <c r="B3" s="155">
         <v>1265.6375</v>
       </c>
-      <c r="C3" s="154">
+      <c r="C3" s="182">
         <v>0.5</v>
       </c>
-      <c r="D3" s="157">
+      <c r="D3" s="156">
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
@@ -34393,13 +34404,13 @@
       <c r="A4" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="156">
+      <c r="B4" s="155">
         <v>149.92314000000002</v>
       </c>
-      <c r="C4" s="154">
+      <c r="C4" s="182">
         <v>0.5</v>
       </c>
-      <c r="D4" s="157">
+      <c r="D4" s="156">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -34407,13 +34418,13 @@
       <c r="A5" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="156">
+      <c r="B5" s="155">
         <v>36413.125499999987</v>
       </c>
-      <c r="C5" s="154">
+      <c r="C5" s="182">
         <v>0.5</v>
       </c>
-      <c r="D5" s="157">
+      <c r="D5" s="156">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
@@ -34421,13 +34432,13 @@
       <c r="A6" s="152" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="156">
+      <c r="B6" s="155">
         <v>9870.2511899999809</v>
       </c>
-      <c r="C6" s="154">
+      <c r="C6" s="182">
         <v>0.5</v>
       </c>
-      <c r="D6" s="157">
+      <c r="D6" s="156">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -34435,125 +34446,125 @@
       <c r="A7" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="156">
+      <c r="B7" s="155">
         <v>66352.984889999992</v>
       </c>
-      <c r="C7" s="154">
+      <c r="C7" s="182">
         <v>0.5</v>
       </c>
-      <c r="D7" s="157">
+      <c r="D7" s="156">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="159">
+      <c r="B8" s="158">
         <v>140332.26200000002</v>
       </c>
-      <c r="C8" s="160">
+      <c r="C8" s="183">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D8" s="161">
+      <c r="D8" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="159">
+      <c r="B9" s="158">
         <v>142107.27499999999</v>
       </c>
-      <c r="C9" s="160">
+      <c r="C9" s="183">
         <v>0.68410599999999999</v>
       </c>
-      <c r="D9" s="161">
+      <c r="D9" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="156">
+      <c r="B10" s="155">
         <v>21525.51</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="184">
         <v>0.62109999999999999</v>
       </c>
-      <c r="D10" s="161">
+      <c r="D10" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="156">
+      <c r="B11" s="155">
         <v>5708.1906400000007</v>
       </c>
-      <c r="C11" s="163">
+      <c r="C11" s="185">
         <v>0.62109999999999999</v>
       </c>
-      <c r="D11" s="161">
+      <c r="D11" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="156">
+      <c r="B12" s="155">
         <v>769.05863999999997</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="184">
         <v>0.6099</v>
       </c>
-      <c r="D12" s="161">
+      <c r="D12" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="156">
+      <c r="B13" s="155">
         <v>10808.078050000002</v>
       </c>
-      <c r="C13" s="163">
+      <c r="C13" s="185">
         <v>0.61070000000000002</v>
       </c>
-      <c r="D13" s="161">
+      <c r="D13" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24">
-      <c r="A14" s="164" t="s">
+      <c r="A14" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="159">
+      <c r="B14" s="158">
         <v>1</v>
       </c>
-      <c r="C14" s="161">
+      <c r="C14" s="186">
         <v>0.5</v>
       </c>
-      <c r="D14" s="161">
+      <c r="D14" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="159">
-        <v>0</v>
-      </c>
-      <c r="C15" s="161">
+      <c r="B15" s="158">
+        <v>0</v>
+      </c>
+      <c r="C15" s="186">
         <v>0.5</v>
       </c>
-      <c r="D15" s="161">
+      <c r="D15" s="159">
         <v>0.01</v>
       </c>
     </row>
@@ -34563,6 +34574,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A6756668BF342349B2041C16AA74819C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="34f20b74aaea4d26625ee764fb939c40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f53f264-df38-4c5e-a089-ad7f07a2b911" xmlns:ns3="1490ee3b-8825-4a14-a799-bb3413729370" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89947eaa9799a801b215acc636da5da5" ns2:_="" ns3:_="">
     <xsd:import namespace="6f53f264-df38-4c5e-a089-ad7f07a2b911"/>
@@ -34791,7 +34811,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f53f264-df38-4c5e-a089-ad7f07a2b911">
@@ -34802,16 +34822,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFCA9A7-8661-43F7-BFD7-3C6B027F5CB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4689CBF3-D67F-4E75-A23B-ADB34116EC27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34830,7 +34849,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79956576-308D-4576-AFE1-2F4C0F3C33E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -34845,12 +34864,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFCA9A7-8661-43F7-BFD7-3C6B027F5CB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/public/Export/Exportar_Elqui_Elqui.xlsx
+++ b/public/Export/Exportar_Elqui_Elqui.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B1DDD4-CB39-AC45-9E3C-C5EEE14D8CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B8A5EC-B9B9-3F42-9BD4-B30919E63C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="18000" tabRatio="702" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="20" windowWidth="28020" windowHeight="18000" tabRatio="702" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="8" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1047,12 +1047,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,18 +1107,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,7 +1688,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1808,36 +1790,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="15" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1959,16 +1941,16 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2032,17 +2014,17 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,47 +2033,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="24" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="24" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="18" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="17" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="17" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="17" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="14" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="17" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="14" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2111,152 +2073,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2282,50 +2100,179 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2336,14 +2283,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2363,27 +2331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2396,7 +2343,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2404,6 +2351,32 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -16895,7 +16868,7 @@
   <dimension ref="B1:U41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="15" customHeight="1"/>
@@ -19482,77 +19455,77 @@
     <row r="2" spans="2:21" ht="14">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="245" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="187" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="246"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="188"/>
       <c r="P2" s="52"/>
     </row>
     <row r="3" spans="2:21" ht="14">
       <c r="B3" s="50"/>
       <c r="C3" s="51"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="248"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="190"/>
       <c r="P3" s="52"/>
     </row>
     <row r="4" spans="2:21" ht="14">
       <c r="B4" s="50"/>
       <c r="C4" s="51"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="247" t="s">
+      <c r="D4" s="183"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="247"/>
-      <c r="L4" s="247" t="s">
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="247"/>
-      <c r="N4" s="250">
+      <c r="M4" s="189"/>
+      <c r="N4" s="192">
         <v>44500</v>
       </c>
-      <c r="O4" s="251"/>
+      <c r="O4" s="193"/>
       <c r="P4" s="52"/>
     </row>
     <row r="5" spans="2:21" thickBot="1">
       <c r="B5" s="50"/>
       <c r="C5" s="51"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="253"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="195"/>
       <c r="P5" s="52"/>
     </row>
     <row r="6" spans="2:21" thickBot="1">
@@ -19573,9 +19546,9 @@
     <row r="7" spans="2:21" ht="14">
       <c r="B7" s="55"/>
       <c r="C7" s="56"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
       <c r="G7" s="57" t="s">
         <v>110</v>
       </c>
@@ -19585,9 +19558,9 @@
       <c r="I7" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="235"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
       <c r="M7" s="57" t="s">
         <v>110</v>
       </c>
@@ -19598,14 +19571,14 @@
         <v>112</v>
       </c>
       <c r="P7" s="52"/>
-      <c r="R7" s="164"/>
+      <c r="R7" s="154"/>
     </row>
     <row r="8" spans="2:21" thickBot="1">
       <c r="B8" s="55"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
       <c r="G8" s="59" t="s">
         <v>1</v>
       </c>
@@ -19615,9 +19588,9 @@
       <c r="I8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="237"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="238"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
       <c r="M8" s="59" t="s">
         <v>1</v>
       </c>
@@ -19628,51 +19601,51 @@
         <v>34</v>
       </c>
       <c r="P8" s="52"/>
-      <c r="R8" s="164"/>
+      <c r="R8" s="154"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="55"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="218" t="s">
+      <c r="D9" s="196" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="225" t="s">
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="199" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="226"/>
-      <c r="L9" s="226"/>
-      <c r="M9" s="226"/>
-      <c r="N9" s="226"/>
-      <c r="O9" s="227"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="200"/>
+      <c r="O9" s="201"/>
       <c r="P9" s="52"/>
-      <c r="R9" s="164"/>
+      <c r="R9" s="154"/>
     </row>
     <row r="10" spans="2:21" ht="14">
       <c r="B10" s="55"/>
       <c r="C10" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="189" t="s">
+      <c r="D10" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="190"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="166"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="156"/>
       <c r="I10" s="106">
         <f>+H10*G10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="228" t="s">
+      <c r="J10" s="205" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="229"/>
-      <c r="L10" s="230"/>
+      <c r="K10" s="206"/>
+      <c r="L10" s="207"/>
       <c r="M10" s="63">
         <f>'Datos Extra'!B8</f>
         <v>140332.26200000002</v>
@@ -19694,11 +19667,11 @@
     <row r="11" spans="2:21" ht="14">
       <c r="B11" s="55"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="192" t="s">
+      <c r="D11" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="193"/>
-      <c r="F11" s="194"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="210"/>
       <c r="G11" s="63">
         <f>Utilidad!J101</f>
         <v>11681.220740000001</v>
@@ -19711,12 +19684,12 @@
         <f>+H11*G11</f>
         <v>4313.8748192820003</v>
       </c>
-      <c r="J11" s="192" t="s">
+      <c r="J11" s="208" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="193"/>
-      <c r="L11" s="194"/>
-      <c r="M11" s="163">
+      <c r="K11" s="209"/>
+      <c r="L11" s="210"/>
+      <c r="M11" s="153">
         <f>'Datos Extra'!B9</f>
         <v>142107.27499999999</v>
       </c>
@@ -19724,7 +19697,7 @@
         <f>Utilidad!K80</f>
         <v>0.68410599999999999</v>
       </c>
-      <c r="O11" s="163">
+      <c r="O11" s="153">
         <f t="shared" si="0"/>
         <v>97216.439471149992</v>
       </c>
@@ -19734,11 +19707,11 @@
     <row r="12" spans="2:21" ht="14">
       <c r="B12" s="55"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="189" t="s">
+      <c r="D12" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="190"/>
-      <c r="F12" s="191"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="204"/>
       <c r="G12" s="61">
         <f>Utilidad!J66</f>
         <v>26763.689249999999</v>
@@ -19751,12 +19724,12 @@
         <f>+H12*G12</f>
         <v>13210.021740015</v>
       </c>
-      <c r="J12" s="189" t="s">
+      <c r="J12" s="202" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
-      <c r="M12" s="162">
+      <c r="K12" s="203"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="152">
         <f>+Utilidad!J92</f>
         <v>0</v>
       </c>
@@ -19769,16 +19742,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="52"/>
-      <c r="R12" s="164"/>
+      <c r="R12" s="154"/>
     </row>
     <row r="13" spans="2:21" ht="14">
       <c r="B13" s="55"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="192" t="s">
+      <c r="D13" s="208" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="194"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="210"/>
       <c r="G13" s="66">
         <f>Utilidad!J115</f>
         <v>61164.541878000004</v>
@@ -19791,12 +19764,12 @@
         <f>+H13*G13</f>
         <v>31987.9544404402</v>
       </c>
-      <c r="J13" s="192" t="s">
+      <c r="J13" s="208" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="193"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="163">
+      <c r="K13" s="209"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="153">
         <f>'Datos Extra'!B10</f>
         <v>21525.51</v>
       </c>
@@ -19804,21 +19777,21 @@
         <f>Utilidad!K95</f>
         <v>0.62109999999999999</v>
       </c>
-      <c r="O13" s="163">
+      <c r="O13" s="153">
         <f t="shared" si="0"/>
         <v>13369.494260999998</v>
       </c>
       <c r="P13" s="52"/>
-      <c r="R13" s="164"/>
+      <c r="R13" s="154"/>
     </row>
     <row r="14" spans="2:21" ht="14">
       <c r="B14" s="55"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="189" t="s">
+      <c r="D14" s="202" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="191"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="204"/>
       <c r="G14" s="61">
         <f>Utilidad!J89</f>
         <v>0</v>
@@ -19831,11 +19804,11 @@
         <f>+H14*G14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="189" t="s">
+      <c r="J14" s="202" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="190"/>
-      <c r="L14" s="191"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="204"/>
       <c r="M14" s="63">
         <f>'Datos Extra'!B11</f>
         <v>5708.1906400000007</v>
@@ -19849,7 +19822,7 @@
         <v>3492.2710335520005</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="R14" s="164"/>
+      <c r="R14" s="154"/>
     </row>
     <row r="15" spans="2:21" ht="14">
       <c r="B15" s="55"/>
@@ -19860,39 +19833,39 @@
       <c r="G15" s="61"/>
       <c r="H15" s="67"/>
       <c r="I15" s="61"/>
-      <c r="J15" s="192" t="s">
+      <c r="J15" s="208" t="s">
         <v>140</v>
       </c>
-      <c r="K15" s="193"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="163">
+      <c r="K15" s="209"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="153">
         <f>'Datos Extra'!B12</f>
         <v>769.05863999999997</v>
       </c>
       <c r="N15" s="68">
         <v>0.6099</v>
       </c>
-      <c r="O15" s="163">
+      <c r="O15" s="153">
         <f t="shared" si="0"/>
         <v>469.048864536</v>
       </c>
       <c r="P15" s="52"/>
-      <c r="R15" s="164"/>
+      <c r="R15" s="154"/>
     </row>
     <row r="16" spans="2:21" ht="14">
       <c r="B16" s="55"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="191"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
       <c r="G16" s="61"/>
       <c r="H16" s="62"/>
       <c r="I16" s="61"/>
-      <c r="J16" s="189" t="s">
+      <c r="J16" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="190"/>
-      <c r="L16" s="191"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="204"/>
       <c r="M16" s="63">
         <f>'Datos Extra'!B13</f>
         <v>10808.078050000002</v>
@@ -19906,22 +19879,22 @@
         <v>6600.4932651350018</v>
       </c>
       <c r="P16" s="52"/>
-      <c r="R16" s="164"/>
+      <c r="R16" s="154"/>
     </row>
     <row r="17" spans="2:19" thickBot="1">
       <c r="B17" s="55"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="191"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="204"/>
       <c r="G17" s="61"/>
       <c r="H17" s="62"/>
       <c r="I17" s="61"/>
-      <c r="J17" s="192" t="s">
+      <c r="J17" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="193"/>
-      <c r="L17" s="194"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="210"/>
       <c r="M17" s="66"/>
       <c r="N17" s="68">
         <f>Utilidad!K98</f>
@@ -19938,11 +19911,11 @@
       <c r="C18" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="206" t="s">
+      <c r="D18" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
       <c r="G18" s="69">
         <f>+SUM(G10:G17)</f>
         <v>99609.451868000004</v>
@@ -19952,11 +19925,11 @@
         <f t="shared" ref="I18" si="1">+SUM(I10:I17)</f>
         <v>49511.850999737202</v>
       </c>
-      <c r="J18" s="206" t="s">
+      <c r="J18" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="207"/>
-      <c r="L18" s="207"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="212"/>
       <c r="M18" s="69">
         <f>SUM(M10,M13:M17)</f>
         <v>179143.09933000006</v>
@@ -19973,37 +19946,37 @@
     <row r="19" spans="2:19" ht="14">
       <c r="B19" s="55"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="218" t="s">
+      <c r="D19" s="196" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="210" t="s">
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="214" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="211"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="211"/>
-      <c r="N19" s="211"/>
-      <c r="O19" s="212"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215"/>
+      <c r="O19" s="216"/>
       <c r="P19" s="52"/>
     </row>
     <row r="20" spans="2:19" ht="14">
       <c r="B20" s="55"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="189" t="s">
+      <c r="D20" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="190"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="167">
+      <c r="E20" s="203"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="157">
         <f>'Datos Extra'!B15</f>
         <v>0</v>
       </c>
-      <c r="H20" s="168">
+      <c r="H20" s="158">
         <f>Utilidad!K87</f>
         <v>0</v>
       </c>
@@ -20011,11 +19984,11 @@
         <f>+H20*G20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="200" t="s">
+      <c r="J20" s="217" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="201"/>
-      <c r="L20" s="202"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="219"/>
       <c r="M20" s="61">
         <f>Utilidad!J64</f>
         <v>15727.04054</v>
@@ -20034,11 +20007,11 @@
     <row r="21" spans="2:19" ht="14">
       <c r="B21" s="55"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="192" t="s">
+      <c r="D21" s="208" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="194"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="210"/>
       <c r="G21" s="74">
         <f>Utilidad!J93</f>
         <v>0</v>
@@ -20051,11 +20024,11 @@
         <f>+H21*G21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="221" t="s">
+      <c r="J21" s="220" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="222"/>
-      <c r="L21" s="223"/>
+      <c r="K21" s="221"/>
+      <c r="L21" s="222"/>
       <c r="M21" s="76">
         <f>Utilidad!J70</f>
         <v>13968.63</v>
@@ -20074,11 +20047,11 @@
     <row r="22" spans="2:19" ht="14">
       <c r="B22" s="55"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="189" t="s">
+      <c r="D22" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="190"/>
-      <c r="F22" s="191"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
       <c r="G22" s="61">
         <f>Utilidad!J100</f>
         <v>0</v>
@@ -20091,11 +20064,11 @@
         <f>+H22*G22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="200" t="s">
+      <c r="J22" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="201"/>
-      <c r="L22" s="202"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="219"/>
       <c r="M22" s="78">
         <f>Utilidad!J71</f>
         <v>6086.9213650000002</v>
@@ -20114,11 +20087,11 @@
     <row r="23" spans="2:19" thickBot="1">
       <c r="B23" s="55"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="203" t="s">
+      <c r="D23" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="204"/>
-      <c r="F23" s="205"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="225"/>
       <c r="G23" s="80">
         <f>Utilidad!J88</f>
         <v>0</v>
@@ -20154,11 +20127,11 @@
     <row r="24" spans="2:19" thickBot="1">
       <c r="B24" s="55"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="206" t="s">
+      <c r="D24" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
       <c r="G24" s="69">
         <f>+SUM(G20:G23)</f>
         <v>0</v>
@@ -20168,11 +20141,11 @@
         <f t="shared" ref="I24" si="2">+SUM(I20:I23)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="206" t="s">
+      <c r="J24" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
+      <c r="K24" s="212"/>
+      <c r="L24" s="212"/>
       <c r="M24" s="69">
         <f>+SUM(M20:M23)</f>
         <v>65594.755434999999</v>
@@ -20187,31 +20160,31 @@
     <row r="25" spans="2:19" thickBot="1">
       <c r="B25" s="55"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="208"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="208"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="226"/>
+      <c r="F25" s="226"/>
       <c r="G25" s="84"/>
       <c r="H25" s="85"/>
       <c r="I25" s="86"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="209"/>
-      <c r="L25" s="209"/>
+      <c r="J25" s="227"/>
+      <c r="K25" s="227"/>
+      <c r="L25" s="227"/>
       <c r="P25" s="52"/>
     </row>
     <row r="26" spans="2:19" ht="14.5" customHeight="1">
       <c r="B26" s="55"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="210" t="s">
+      <c r="D26" s="214" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="211"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="212"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="216"/>
       <c r="I26" s="99"/>
-      <c r="J26" s="208"/>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
+      <c r="J26" s="226"/>
+      <c r="K26" s="226"/>
+      <c r="L26" s="226"/>
       <c r="M26" s="101"/>
       <c r="N26" s="102"/>
       <c r="O26" s="101"/>
@@ -20220,9 +20193,9 @@
     <row r="27" spans="2:19" thickBot="1">
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="215"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="230"/>
       <c r="G27" s="104" t="s">
         <v>104</v>
       </c>
@@ -20244,11 +20217,11 @@
     <row r="28" spans="2:19" ht="14">
       <c r="B28" s="55"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="216" t="s">
+      <c r="D28" s="231" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="232"/>
       <c r="G28" s="103">
         <f>H28/(1-'Datos Extra'!D1)</f>
         <v>3343.2999999999738</v>
@@ -20272,11 +20245,11 @@
     <row r="29" spans="2:19" ht="14">
       <c r="B29" s="55"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="189" t="s">
+      <c r="D29" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="190"/>
-      <c r="F29" s="191"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="204"/>
       <c r="G29" s="103">
         <f>H29/(1-'Datos Extra'!D2)</f>
         <v>25952.240000000027</v>
@@ -20300,11 +20273,11 @@
     <row r="30" spans="2:19" ht="14">
       <c r="B30" s="55"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="189" t="s">
+      <c r="D30" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="190"/>
-      <c r="F30" s="191"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
       <c r="G30" s="103">
         <f>H30/(1-'Datos Extra'!D3)</f>
         <v>1387</v>
@@ -20328,11 +20301,11 @@
     <row r="31" spans="2:19" ht="14">
       <c r="B31" s="55"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="189" t="s">
+      <c r="D31" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="190"/>
-      <c r="F31" s="191"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
       <c r="G31" s="103">
         <f>H31/(1-'Datos Extra'!D4)</f>
         <v>150.98000000000002</v>
@@ -20356,11 +20329,11 @@
     <row r="32" spans="2:19" ht="14">
       <c r="B32" s="55"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="192" t="s">
+      <c r="D32" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="193"/>
-      <c r="F32" s="194"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="210"/>
       <c r="G32" s="103">
         <f>H32/(1-'Datos Extra'!D5)</f>
         <v>39970.499999999985</v>
@@ -20382,11 +20355,11 @@
     <row r="33" spans="2:19" ht="14">
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="192" t="s">
+      <c r="D33" s="208" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="193"/>
-      <c r="F33" s="194"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="210"/>
       <c r="G33" s="103">
         <f>H33/(1-'Datos Extra'!D6)</f>
         <v>9939.8299999999799</v>
@@ -20410,11 +20383,11 @@
     <row r="34" spans="2:19" thickBot="1">
       <c r="B34" s="55"/>
       <c r="C34" s="56"/>
-      <c r="D34" s="195" t="s">
+      <c r="D34" s="234" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="196"/>
-      <c r="F34" s="197"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="236"/>
       <c r="G34" s="103">
         <f>H34/(1-'Datos Extra'!D7)</f>
         <v>66820.73</v>
@@ -20451,52 +20424,65 @@
       <c r="P35" s="97"/>
     </row>
     <row r="38" spans="2:19" ht="15" customHeight="1">
-      <c r="E38" s="198"/>
-      <c r="F38" s="198"/>
-      <c r="G38" s="198"/>
+      <c r="E38" s="237"/>
+      <c r="F38" s="237"/>
+      <c r="G38" s="237"/>
       <c r="H38" s="139"/>
       <c r="I38" s="139"/>
       <c r="J38" s="139"/>
     </row>
     <row r="39" spans="2:19" ht="14">
-      <c r="E39" s="198"/>
-      <c r="F39" s="198"/>
-      <c r="G39" s="198"/>
+      <c r="E39" s="237"/>
+      <c r="F39" s="237"/>
+      <c r="G39" s="237"/>
       <c r="H39" s="139"/>
       <c r="I39" s="139"/>
       <c r="J39" s="139"/>
     </row>
     <row r="40" spans="2:19" ht="14">
-      <c r="E40" s="199"/>
-      <c r="F40" s="199"/>
-      <c r="G40" s="199"/>
-      <c r="H40" s="199"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="199"/>
+      <c r="E40" s="238"/>
+      <c r="F40" s="238"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="238"/>
+      <c r="I40" s="238"/>
+      <c r="J40" s="238"/>
     </row>
     <row r="41" spans="2:19" ht="15" customHeight="1">
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="188"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="233"/>
+      <c r="G41" s="233"/>
       <c r="H41" s="107"/>
       <c r="I41" s="108"/>
       <c r="J41" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="J7:L8"/>
-    <mergeCell ref="D2:E5"/>
-    <mergeCell ref="F2:O3"/>
-    <mergeCell ref="F4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="D12:F12"/>
@@ -20510,32 +20496,19 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="J7:L8"/>
+    <mergeCell ref="D2:E5"/>
+    <mergeCell ref="F2:O3"/>
+    <mergeCell ref="F4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="N4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -20547,7 +20520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CC240"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="E54" sqref="E54"/>
       <selection pane="topRight" activeCell="L62" sqref="L62"/>
@@ -20580,36 +20553,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81">
-      <c r="A1" s="169">
+      <c r="A1" s="159">
         <v>86233.752800000002</v>
       </c>
-      <c r="B1" s="169">
+      <c r="B1" s="159">
         <v>86233.752800000002</v>
       </c>
-      <c r="C1" s="170">
+      <c r="C1" s="160">
         <v>0.36369100000000004</v>
       </c>
-      <c r="D1" s="170">
+      <c r="D1" s="160">
         <v>0.36369100000000004</v>
       </c>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
     </row>
     <row r="2" spans="1:81">
-      <c r="A2" s="169">
+      <c r="A2" s="159">
         <v>9491.9207399999996</v>
       </c>
-      <c r="B2" s="169">
+      <c r="B2" s="159">
         <v>9491.9207399999996</v>
       </c>
-      <c r="C2" s="170">
+      <c r="C2" s="160">
         <v>0.37185499999999999</v>
       </c>
-      <c r="D2" s="170">
+      <c r="D2" s="160">
         <v>0.37185499999999999</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
       <c r="G2" s="113"/>
       <c r="H2" s="113"/>
       <c r="X2" s="110"/>
@@ -20672,20 +20645,20 @@
       <c r="CC2" s="110"/>
     </row>
     <row r="3" spans="1:81">
-      <c r="A3" s="169">
+      <c r="A3" s="159">
         <v>15727.04054</v>
       </c>
-      <c r="B3" s="169">
+      <c r="B3" s="159">
         <v>15727.04054</v>
       </c>
-      <c r="C3" s="170">
+      <c r="C3" s="160">
         <v>0.170652</v>
       </c>
-      <c r="D3" s="170">
+      <c r="D3" s="160">
         <v>0.170652</v>
       </c>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
       <c r="G3" s="114"/>
       <c r="H3" s="114"/>
       <c r="I3" s="114"/>
@@ -20763,20 +20736,20 @@
       <c r="CC3" s="110"/>
     </row>
     <row r="4" spans="1:81">
-      <c r="A4" s="169">
+      <c r="A4" s="159">
         <v>79998.633000000002</v>
       </c>
-      <c r="B4" s="169">
+      <c r="B4" s="159">
         <v>79998.633000000002</v>
       </c>
-      <c r="C4" s="170">
+      <c r="C4" s="160">
         <v>0.40261000000000002</v>
       </c>
-      <c r="D4" s="170">
+      <c r="D4" s="160">
         <v>0.40261000000000002</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="113"/>
       <c r="H4" s="113"/>
       <c r="I4" s="113"/>
@@ -20854,20 +20827,20 @@
       <c r="CC4" s="110"/>
     </row>
     <row r="5" spans="1:81">
-      <c r="A5" s="169">
+      <c r="A5" s="159">
         <v>26763.689249999999</v>
       </c>
-      <c r="B5" s="169">
+      <c r="B5" s="159">
         <v>26763.689249999999</v>
       </c>
-      <c r="C5" s="170">
+      <c r="C5" s="160">
         <v>0.49357999999999996</v>
       </c>
-      <c r="D5" s="170">
+      <c r="D5" s="160">
         <v>0.49357999999999996</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -20945,20 +20918,20 @@
       <c r="CC5" s="110"/>
     </row>
     <row r="6" spans="1:81">
-      <c r="A6" s="169">
+      <c r="A6" s="159">
         <v>43948.767596999998</v>
       </c>
-      <c r="B6" s="169">
+      <c r="B6" s="159">
         <v>43948.767596999998</v>
       </c>
-      <c r="C6" s="170">
+      <c r="C6" s="160">
         <v>0.42389399999999999</v>
       </c>
-      <c r="D6" s="170">
+      <c r="D6" s="160">
         <v>0.42389399999999999</v>
       </c>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
       <c r="G6" s="113"/>
       <c r="H6" s="113"/>
       <c r="I6" s="113"/>
@@ -21036,20 +21009,20 @@
       <c r="CC6" s="110"/>
     </row>
     <row r="7" spans="1:81">
-      <c r="A7" s="169">
+      <c r="A7" s="159">
         <v>62813.554652999999</v>
       </c>
-      <c r="B7" s="169">
+      <c r="B7" s="159">
         <v>62813.554652999999</v>
       </c>
-      <c r="C7" s="170">
+      <c r="C7" s="160">
         <v>0.426479</v>
       </c>
-      <c r="D7" s="170">
+      <c r="D7" s="160">
         <v>0.426479</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="113"/>
       <c r="H7" s="113"/>
       <c r="I7" s="113"/>
@@ -21127,20 +21100,20 @@
       <c r="CC7" s="110"/>
     </row>
     <row r="8" spans="1:81">
-      <c r="A8" s="169">
-        <v>0</v>
-      </c>
-      <c r="B8" s="169">
-        <v>0</v>
-      </c>
-      <c r="C8" s="170">
-        <v>0</v>
-      </c>
-      <c r="D8" s="170">
-        <v>0</v>
-      </c>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
+      <c r="A8" s="159">
+        <v>0</v>
+      </c>
+      <c r="B8" s="159">
+        <v>0</v>
+      </c>
+      <c r="C8" s="160">
+        <v>0</v>
+      </c>
+      <c r="D8" s="160">
+        <v>0</v>
+      </c>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
       <c r="G8" s="113"/>
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
@@ -21218,20 +21191,20 @@
       <c r="CC8" s="110"/>
     </row>
     <row r="9" spans="1:81">
-      <c r="A9" s="169">
+      <c r="A9" s="159">
         <v>13968.63</v>
       </c>
-      <c r="B9" s="169">
+      <c r="B9" s="159">
         <v>13968.63</v>
       </c>
-      <c r="C9" s="170">
+      <c r="C9" s="160">
         <v>0.274341</v>
       </c>
-      <c r="D9" s="170">
+      <c r="D9" s="160">
         <v>0.274341</v>
       </c>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
       <c r="G9" s="113"/>
       <c r="H9" s="113"/>
       <c r="I9" s="113"/>
@@ -21309,20 +21282,20 @@
       <c r="CC9" s="110"/>
     </row>
     <row r="10" spans="1:81">
-      <c r="A10" s="169">
+      <c r="A10" s="159">
         <v>6086.9213650000002</v>
       </c>
-      <c r="B10" s="169">
+      <c r="B10" s="159">
         <v>6086.9213650000002</v>
       </c>
-      <c r="C10" s="170">
+      <c r="C10" s="160">
         <v>0.14440600000000001</v>
       </c>
-      <c r="D10" s="170">
+      <c r="D10" s="160">
         <v>0.14440600000000001</v>
       </c>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
       <c r="G10" s="113"/>
       <c r="H10" s="113"/>
       <c r="I10" s="113"/>
@@ -21400,20 +21373,20 @@
       <c r="CC10" s="110"/>
     </row>
     <row r="11" spans="1:81">
-      <c r="A11" s="169">
+      <c r="A11" s="159">
         <v>29076.782852</v>
       </c>
-      <c r="B11" s="169">
+      <c r="B11" s="159">
         <v>29076.782852</v>
       </c>
-      <c r="C11" s="170">
+      <c r="C11" s="160">
         <v>0.49100700000000003</v>
       </c>
-      <c r="D11" s="170">
+      <c r="D11" s="160">
         <v>0.49100700000000003</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="113"/>
       <c r="H11" s="113"/>
       <c r="I11" s="113"/>
@@ -21491,20 +21464,20 @@
       <c r="CC11" s="110"/>
     </row>
     <row r="12" spans="1:81">
-      <c r="A12" s="169">
+      <c r="A12" s="159">
         <v>13681.220436</v>
       </c>
-      <c r="B12" s="169">
+      <c r="B12" s="159">
         <v>13681.220436</v>
       </c>
-      <c r="C12" s="170">
+      <c r="C12" s="160">
         <v>0.57016599999999995</v>
       </c>
-      <c r="D12" s="170">
+      <c r="D12" s="160">
         <v>0.57016599999999995</v>
       </c>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
       <c r="G12" s="113"/>
       <c r="H12" s="113"/>
       <c r="I12" s="113"/>
@@ -21582,20 +21555,20 @@
       <c r="CC12" s="110"/>
     </row>
     <row r="13" spans="1:81">
-      <c r="A13" s="169">
+      <c r="A13" s="159">
         <v>9599.1431309</v>
       </c>
-      <c r="B13" s="169">
+      <c r="B13" s="159">
         <v>9599.1431309</v>
       </c>
-      <c r="C13" s="170">
+      <c r="C13" s="160">
         <v>0.52397700000000003</v>
       </c>
-      <c r="D13" s="170">
+      <c r="D13" s="160">
         <v>0.52397700000000003</v>
       </c>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
       <c r="G13" s="113"/>
       <c r="H13" s="113"/>
       <c r="I13" s="113"/>
@@ -21673,20 +21646,20 @@
       <c r="CC13" s="110"/>
     </row>
     <row r="14" spans="1:81">
-      <c r="A14" s="169">
+      <c r="A14" s="159">
         <v>-1947.6210599999999</v>
       </c>
-      <c r="B14" s="169">
+      <c r="B14" s="159">
         <v>-1947.6210599999999</v>
       </c>
-      <c r="C14" s="170">
+      <c r="C14" s="160">
         <v>0.48905500000000002</v>
       </c>
-      <c r="D14" s="170">
+      <c r="D14" s="160">
         <v>0.48905500000000002</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="113"/>
       <c r="H14" s="113"/>
       <c r="I14" s="113"/>
@@ -21764,20 +21737,20 @@
       <c r="CC14" s="110"/>
     </row>
     <row r="15" spans="1:81">
-      <c r="A15" s="169">
+      <c r="A15" s="159">
         <v>82589.802658999994</v>
       </c>
-      <c r="B15" s="169">
+      <c r="B15" s="159">
         <v>82589.802658999994</v>
       </c>
-      <c r="C15" s="170">
+      <c r="C15" s="160">
         <v>0.51080899999999996</v>
       </c>
-      <c r="D15" s="170">
+      <c r="D15" s="160">
         <v>0.51080899999999996</v>
       </c>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
       <c r="G15" s="113"/>
       <c r="H15" s="113"/>
       <c r="I15" s="113"/>
@@ -21855,27 +21828,27 @@
       <c r="CC15" s="110"/>
     </row>
     <row r="16" spans="1:81">
-      <c r="A16" s="169">
+      <c r="A16" s="159">
         <v>29812.163530000002</v>
       </c>
-      <c r="B16" s="169">
+      <c r="B16" s="159">
         <v>29812.163530000002</v>
       </c>
-      <c r="C16" s="170">
+      <c r="C16" s="160">
         <v>0.100116</v>
       </c>
-      <c r="D16" s="170">
+      <c r="D16" s="160">
         <v>0.100116</v>
       </c>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
       <c r="G16" s="113"/>
       <c r="H16" s="113"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="176"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
       <c r="N16" s="113"/>
       <c r="O16" s="113"/>
       <c r="P16" s="113"/>
@@ -21946,27 +21919,27 @@
       <c r="CC16" s="110"/>
     </row>
     <row r="17" spans="1:81">
-      <c r="A17" s="169">
+      <c r="A17" s="159">
         <v>76058.002697000004</v>
       </c>
-      <c r="B17" s="169">
+      <c r="B17" s="159">
         <v>76058.002697000004</v>
       </c>
-      <c r="C17" s="170">
+      <c r="C17" s="160">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D17" s="170">
+      <c r="D17" s="160">
         <v>0.68412600000000001</v>
       </c>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="113"/>
       <c r="H17" s="113"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="176"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
       <c r="N17" s="113"/>
       <c r="O17" s="113"/>
       <c r="P17" s="113"/>
@@ -22037,27 +22010,27 @@
       <c r="CC17" s="110"/>
     </row>
     <row r="18" spans="1:81">
-      <c r="A18" s="169">
+      <c r="A18" s="159">
         <v>73.660909465000003</v>
       </c>
-      <c r="B18" s="169">
+      <c r="B18" s="159">
         <v>73.660909465000003</v>
       </c>
-      <c r="C18" s="170">
+      <c r="C18" s="160">
         <v>0.66385099999999997</v>
       </c>
-      <c r="D18" s="170">
+      <c r="D18" s="160">
         <v>0.66385099999999997</v>
       </c>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
       <c r="G18" s="113"/>
       <c r="H18" s="113"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="176"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
       <c r="N18" s="113"/>
       <c r="O18" s="113"/>
       <c r="P18" s="113"/>
@@ -22128,27 +22101,27 @@
       <c r="CC18" s="110"/>
     </row>
     <row r="19" spans="1:81">
-      <c r="A19" s="169">
+      <c r="A19" s="159">
         <v>76131.663606000002</v>
       </c>
-      <c r="B19" s="169">
+      <c r="B19" s="159">
         <v>76131.663606000002</v>
       </c>
-      <c r="C19" s="170">
+      <c r="C19" s="160">
         <v>0.68410599999999999</v>
       </c>
-      <c r="D19" s="170">
+      <c r="D19" s="160">
         <v>0.68410599999999999</v>
       </c>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
       <c r="G19" s="113"/>
       <c r="H19" s="113"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="176"/>
-      <c r="M19" s="176"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
       <c r="N19" s="113"/>
       <c r="O19" s="113"/>
       <c r="P19" s="113"/>
@@ -22219,27 +22192,27 @@
       <c r="CC19" s="110"/>
     </row>
     <row r="20" spans="1:81">
-      <c r="A20" s="169">
+      <c r="A20" s="159">
         <v>-383.42565624999997</v>
       </c>
-      <c r="B20" s="169">
+      <c r="B20" s="159">
         <v>-383.42565624999997</v>
       </c>
-      <c r="C20" s="170">
+      <c r="C20" s="160">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D20" s="170">
+      <c r="D20" s="160">
         <v>0.68412600000000001</v>
       </c>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
       <c r="G20" s="113"/>
       <c r="H20" s="113"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="176"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
       <c r="N20" s="113"/>
       <c r="O20" s="113"/>
       <c r="P20" s="113"/>
@@ -22310,27 +22283,27 @@
       <c r="CC20" s="110"/>
     </row>
     <row r="21" spans="1:81">
-      <c r="A21" s="169">
-        <v>0</v>
-      </c>
-      <c r="B21" s="169">
-        <v>0</v>
-      </c>
-      <c r="C21" s="170">
-        <v>0</v>
-      </c>
-      <c r="D21" s="170">
-        <v>0</v>
-      </c>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
+      <c r="A21" s="159">
+        <v>0</v>
+      </c>
+      <c r="B21" s="159">
+        <v>0</v>
+      </c>
+      <c r="C21" s="160">
+        <v>0</v>
+      </c>
+      <c r="D21" s="160">
+        <v>0</v>
+      </c>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
       <c r="G21" s="113"/>
       <c r="H21" s="113"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="176"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
       <c r="N21" s="113"/>
       <c r="O21" s="113"/>
       <c r="P21" s="113"/>
@@ -22401,27 +22374,27 @@
       <c r="CC21" s="110"/>
     </row>
     <row r="22" spans="1:81">
-      <c r="A22" s="169">
+      <c r="A22" s="159">
         <v>75748.237949999995</v>
       </c>
-      <c r="B22" s="169">
+      <c r="B22" s="159">
         <v>75748.237949999995</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="160">
         <v>0.68410599999999999</v>
       </c>
-      <c r="D22" s="170">
+      <c r="D22" s="160">
         <v>0.68410599999999999</v>
       </c>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
       <c r="G22" s="113"/>
       <c r="H22" s="113"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
       <c r="N22" s="113"/>
       <c r="O22" s="113"/>
       <c r="P22" s="113"/>
@@ -22492,27 +22465,27 @@
       <c r="CC22" s="110"/>
     </row>
     <row r="23" spans="1:81">
-      <c r="A23" s="169">
+      <c r="A23" s="159">
         <v>1003.6487</v>
       </c>
-      <c r="B23" s="169">
+      <c r="B23" s="159">
         <v>1003.6487</v>
       </c>
-      <c r="C23" s="170">
+      <c r="C23" s="160">
         <v>0.68263800000000008</v>
       </c>
-      <c r="D23" s="170">
+      <c r="D23" s="160">
         <v>0.68263800000000008</v>
       </c>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
       <c r="G23" s="113"/>
       <c r="H23" s="113"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="177"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="167"/>
       <c r="N23" s="113"/>
       <c r="O23" s="113"/>
       <c r="P23" s="113"/>
@@ -22583,27 +22556,27 @@
       <c r="CC23" s="110"/>
     </row>
     <row r="24" spans="1:81">
-      <c r="A24" s="169">
+      <c r="A24" s="159">
         <v>74744.589250000005</v>
       </c>
-      <c r="B24" s="169">
+      <c r="B24" s="159">
         <v>74744.589250000005</v>
       </c>
-      <c r="C24" s="170">
+      <c r="C24" s="160">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D24" s="170">
+      <c r="D24" s="160">
         <v>0.68412600000000001</v>
       </c>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
       <c r="G24" s="113"/>
       <c r="H24" s="113"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="176"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="166"/>
       <c r="N24" s="113"/>
       <c r="O24" s="113"/>
       <c r="P24" s="113"/>
@@ -22674,27 +22647,27 @@
       <c r="CC24" s="110"/>
     </row>
     <row r="25" spans="1:81">
-      <c r="A25" s="169">
+      <c r="A25" s="159">
         <v>74744.589250000005</v>
       </c>
-      <c r="B25" s="169">
+      <c r="B25" s="159">
         <v>74744.589250000005</v>
       </c>
-      <c r="C25" s="170">
+      <c r="C25" s="160">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D25" s="170">
+      <c r="D25" s="160">
         <v>0.68412600000000001</v>
       </c>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
       <c r="G25" s="113"/>
       <c r="H25" s="113"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="176"/>
-      <c r="K25" s="176"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="176"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="166"/>
       <c r="N25" s="113"/>
       <c r="O25" s="113"/>
       <c r="P25" s="113"/>
@@ -22765,27 +22738,27 @@
       <c r="CC25" s="110"/>
     </row>
     <row r="26" spans="1:81">
-      <c r="A26" s="169">
-        <v>0</v>
-      </c>
-      <c r="B26" s="169">
-        <v>0</v>
-      </c>
-      <c r="C26" s="170">
-        <v>0</v>
-      </c>
-      <c r="D26" s="170">
-        <v>0</v>
-      </c>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
+      <c r="A26" s="159">
+        <v>0</v>
+      </c>
+      <c r="B26" s="159">
+        <v>0</v>
+      </c>
+      <c r="C26" s="160">
+        <v>0</v>
+      </c>
+      <c r="D26" s="160">
+        <v>0</v>
+      </c>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
       <c r="G26" s="113"/>
       <c r="H26" s="113"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="176"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
       <c r="N26" s="113"/>
       <c r="O26" s="113"/>
       <c r="P26" s="113"/>
@@ -22856,27 +22829,27 @@
       <c r="CC26" s="110"/>
     </row>
     <row r="27" spans="1:81">
-      <c r="A27" s="169">
-        <v>0</v>
-      </c>
-      <c r="B27" s="169">
-        <v>0</v>
-      </c>
-      <c r="C27" s="170">
-        <v>0</v>
-      </c>
-      <c r="D27" s="170">
-        <v>0</v>
-      </c>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
+      <c r="A27" s="159">
+        <v>0</v>
+      </c>
+      <c r="B27" s="159">
+        <v>0</v>
+      </c>
+      <c r="C27" s="160">
+        <v>0</v>
+      </c>
+      <c r="D27" s="160">
+        <v>0</v>
+      </c>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
       <c r="G27" s="113"/>
       <c r="H27" s="113"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="176"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
       <c r="N27" s="113"/>
       <c r="O27" s="113"/>
       <c r="P27" s="113"/>
@@ -22947,27 +22920,27 @@
       <c r="CC27" s="110"/>
     </row>
     <row r="28" spans="1:81">
-      <c r="A28" s="169">
-        <v>0</v>
-      </c>
-      <c r="B28" s="169">
-        <v>0</v>
-      </c>
-      <c r="C28" s="170">
-        <v>0</v>
-      </c>
-      <c r="D28" s="170">
-        <v>0</v>
-      </c>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
+      <c r="A28" s="159">
+        <v>0</v>
+      </c>
+      <c r="B28" s="159">
+        <v>0</v>
+      </c>
+      <c r="C28" s="160">
+        <v>0</v>
+      </c>
+      <c r="D28" s="160">
+        <v>0</v>
+      </c>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
       <c r="G28" s="113"/>
       <c r="H28" s="113"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
       <c r="N28" s="113"/>
       <c r="O28" s="113"/>
       <c r="P28" s="113"/>
@@ -23038,27 +23011,27 @@
       <c r="CC28" s="110"/>
     </row>
     <row r="29" spans="1:81">
-      <c r="A29" s="169">
-        <v>0</v>
-      </c>
-      <c r="B29" s="169">
-        <v>0</v>
-      </c>
-      <c r="C29" s="170">
-        <v>0</v>
-      </c>
-      <c r="D29" s="170">
-        <v>0</v>
-      </c>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
+      <c r="A29" s="159">
+        <v>0</v>
+      </c>
+      <c r="B29" s="159">
+        <v>0</v>
+      </c>
+      <c r="C29" s="160">
+        <v>0</v>
+      </c>
+      <c r="D29" s="160">
+        <v>0</v>
+      </c>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
       <c r="G29" s="113"/>
       <c r="H29" s="113"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="176"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="166"/>
+      <c r="M29" s="166"/>
       <c r="N29" s="113"/>
       <c r="O29" s="113"/>
       <c r="P29" s="113"/>
@@ -23076,27 +23049,27 @@
       <c r="AF29" s="4"/>
     </row>
     <row r="30" spans="1:81">
-      <c r="A30" s="169">
-        <v>0</v>
-      </c>
-      <c r="B30" s="169">
-        <v>0</v>
-      </c>
-      <c r="C30" s="170">
+      <c r="A30" s="159">
+        <v>0</v>
+      </c>
+      <c r="B30" s="159">
+        <v>0</v>
+      </c>
+      <c r="C30" s="160">
         <v>0.61</v>
       </c>
-      <c r="D30" s="170">
+      <c r="D30" s="160">
         <v>0.61</v>
       </c>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
       <c r="G30" s="113"/>
       <c r="H30" s="113"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="176"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
       <c r="N30" s="113"/>
       <c r="O30" s="113"/>
       <c r="P30" s="113"/>
@@ -23114,27 +23087,27 @@
       <c r="AF30" s="4"/>
     </row>
     <row r="31" spans="1:81">
-      <c r="A31" s="169">
-        <v>0</v>
-      </c>
-      <c r="B31" s="169">
-        <v>0</v>
-      </c>
-      <c r="C31" s="170">
-        <v>0</v>
-      </c>
-      <c r="D31" s="170">
-        <v>0</v>
-      </c>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
+      <c r="A31" s="159">
+        <v>0</v>
+      </c>
+      <c r="B31" s="159">
+        <v>0</v>
+      </c>
+      <c r="C31" s="160">
+        <v>0</v>
+      </c>
+      <c r="D31" s="160">
+        <v>0</v>
+      </c>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
       <c r="G31" s="113"/>
       <c r="H31" s="113"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="176"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
       <c r="N31" s="113"/>
       <c r="O31" s="113"/>
       <c r="P31" s="113"/>
@@ -23152,27 +23125,27 @@
       <c r="AF31" s="4"/>
     </row>
     <row r="32" spans="1:81">
-      <c r="A32" s="169">
-        <v>0</v>
-      </c>
-      <c r="B32" s="169">
-        <v>0</v>
-      </c>
-      <c r="C32" s="170">
-        <v>0</v>
-      </c>
-      <c r="D32" s="170">
-        <v>0</v>
-      </c>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
+      <c r="A32" s="159">
+        <v>0</v>
+      </c>
+      <c r="B32" s="159">
+        <v>0</v>
+      </c>
+      <c r="C32" s="160">
+        <v>0</v>
+      </c>
+      <c r="D32" s="160">
+        <v>0</v>
+      </c>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
       <c r="G32" s="113"/>
       <c r="H32" s="113"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
       <c r="N32" s="113"/>
       <c r="O32" s="113"/>
       <c r="P32" s="113"/>
@@ -23190,27 +23163,27 @@
       <c r="AF32" s="4"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="169">
+      <c r="A33" s="159">
         <v>27866.973293999999</v>
       </c>
-      <c r="B33" s="169">
+      <c r="B33" s="159">
         <v>27866.973293999999</v>
       </c>
-      <c r="C33" s="170">
+      <c r="C33" s="160">
         <v>0.61919499999999994</v>
       </c>
-      <c r="D33" s="170">
+      <c r="D33" s="160">
         <v>0.61919499999999994</v>
       </c>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
       <c r="G33" s="113"/>
       <c r="H33" s="113"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="176"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
       <c r="N33" s="113"/>
       <c r="O33" s="113"/>
       <c r="P33" s="113"/>
@@ -23228,27 +23201,27 @@
       <c r="AF33" s="4"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="169">
+      <c r="A34" s="159">
         <v>22158.782653999999</v>
       </c>
-      <c r="B34" s="169">
+      <c r="B34" s="159">
         <v>22158.782653999999</v>
       </c>
-      <c r="C34" s="170">
+      <c r="C34" s="160">
         <v>0.62109999999999999</v>
       </c>
-      <c r="D34" s="170">
+      <c r="D34" s="160">
         <v>0.62109999999999999</v>
       </c>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="176"/>
-      <c r="L34" s="176"/>
-      <c r="M34" s="176"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
+      <c r="K34" s="166"/>
+      <c r="L34" s="166"/>
+      <c r="M34" s="166"/>
       <c r="N34" s="113"/>
       <c r="O34" s="113"/>
       <c r="P34" s="113"/>
@@ -23266,27 +23239,27 @@
       <c r="AF34" s="4"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="169">
+      <c r="A35" s="159">
         <v>5708.1906399999998</v>
       </c>
-      <c r="B35" s="169">
+      <c r="B35" s="159">
         <v>5708.1906399999998</v>
       </c>
-      <c r="C35" s="170">
+      <c r="C35" s="160">
         <v>0.61180000000000001</v>
       </c>
-      <c r="D35" s="170">
+      <c r="D35" s="160">
         <v>0.61180000000000001</v>
       </c>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
       <c r="G35" s="113"/>
       <c r="H35" s="113"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="176"/>
-      <c r="K35" s="176"/>
-      <c r="L35" s="176"/>
-      <c r="M35" s="176"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="166"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="166"/>
       <c r="N35" s="113"/>
       <c r="O35" s="113"/>
       <c r="P35" s="113"/>
@@ -23304,27 +23277,27 @@
       <c r="AF35" s="4"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="169">
+      <c r="A36" s="159">
         <v>10808.07805</v>
       </c>
-      <c r="B36" s="169">
+      <c r="B36" s="159">
         <v>10808.07805</v>
       </c>
-      <c r="C36" s="170">
+      <c r="C36" s="160">
         <v>0.61070000000000002</v>
       </c>
-      <c r="D36" s="170">
+      <c r="D36" s="160">
         <v>0.61070000000000002</v>
       </c>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
       <c r="G36" s="113"/>
       <c r="H36" s="113"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="166"/>
+      <c r="K36" s="166"/>
+      <c r="L36" s="166"/>
+      <c r="M36" s="166"/>
       <c r="N36" s="113"/>
       <c r="O36" s="113"/>
       <c r="P36" s="113"/>
@@ -23342,27 +23315,27 @@
       <c r="AF36" s="4"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="169">
+      <c r="A37" s="159">
         <v>417.69489800000002</v>
       </c>
-      <c r="B37" s="169">
+      <c r="B37" s="159">
         <v>417.69489800000002</v>
       </c>
-      <c r="C37" s="170">
+      <c r="C37" s="160">
         <v>0.56729999999999992</v>
       </c>
-      <c r="D37" s="170">
+      <c r="D37" s="160">
         <v>0.56729999999999992</v>
       </c>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
       <c r="G37" s="113"/>
       <c r="H37" s="113"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="176"/>
-      <c r="L37" s="176"/>
-      <c r="M37" s="176"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="166"/>
+      <c r="K37" s="166"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="166"/>
       <c r="N37" s="113"/>
       <c r="O37" s="113"/>
       <c r="P37" s="113"/>
@@ -23380,27 +23353,27 @@
       <c r="AF37" s="4"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="169">
+      <c r="A38" s="159">
         <v>11225.772948</v>
       </c>
-      <c r="B38" s="169">
+      <c r="B38" s="159">
         <v>11225.772948</v>
       </c>
-      <c r="C38" s="170">
+      <c r="C38" s="160">
         <v>0.60908499999999999</v>
       </c>
-      <c r="D38" s="170">
+      <c r="D38" s="160">
         <v>0.60908499999999999</v>
       </c>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
       <c r="G38" s="113"/>
       <c r="H38" s="113"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="176"/>
-      <c r="L38" s="176"/>
-      <c r="M38" s="176"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="166"/>
+      <c r="K38" s="166"/>
+      <c r="L38" s="166"/>
+      <c r="M38" s="166"/>
       <c r="N38" s="113"/>
       <c r="O38" s="113"/>
       <c r="P38" s="113"/>
@@ -23418,27 +23391,27 @@
       <c r="AF38" s="4"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="169">
-        <v>0</v>
-      </c>
-      <c r="B39" s="169">
-        <v>0</v>
-      </c>
-      <c r="C39" s="170">
-        <v>0</v>
-      </c>
-      <c r="D39" s="170">
-        <v>0</v>
-      </c>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
+      <c r="A39" s="159">
+        <v>0</v>
+      </c>
+      <c r="B39" s="159">
+        <v>0</v>
+      </c>
+      <c r="C39" s="160">
+        <v>0</v>
+      </c>
+      <c r="D39" s="160">
+        <v>0</v>
+      </c>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
       <c r="G39" s="113"/>
       <c r="H39" s="113"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="176"/>
-      <c r="L39" s="176"/>
-      <c r="M39" s="176"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="166"/>
+      <c r="K39" s="166"/>
+      <c r="L39" s="166"/>
+      <c r="M39" s="166"/>
       <c r="N39" s="113"/>
       <c r="O39" s="113"/>
       <c r="P39" s="113"/>
@@ -23456,27 +23429,27 @@
       <c r="AF39" s="4"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="169">
+      <c r="A40" s="159">
         <v>11681.220740000001</v>
       </c>
-      <c r="B40" s="169">
+      <c r="B40" s="159">
         <v>11681.220740000001</v>
       </c>
-      <c r="C40" s="170">
+      <c r="C40" s="160">
         <v>0.36930000000000002</v>
       </c>
-      <c r="D40" s="170">
+      <c r="D40" s="160">
         <v>0.36930000000000002</v>
       </c>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
       <c r="G40" s="113"/>
       <c r="H40" s="113"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="176"/>
-      <c r="K40" s="176"/>
-      <c r="L40" s="176"/>
-      <c r="M40" s="176"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="166"/>
       <c r="N40" s="113"/>
       <c r="O40" s="113"/>
       <c r="P40" s="113"/>
@@ -23494,27 +23467,27 @@
       <c r="AF40" s="4"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="169">
+      <c r="A41" s="159">
         <v>2189.3000000000002</v>
       </c>
-      <c r="B41" s="169">
+      <c r="B41" s="159">
         <v>2189.3000000000002</v>
       </c>
-      <c r="C41" s="170">
+      <c r="C41" s="160">
         <v>0.35822100000000001</v>
       </c>
-      <c r="D41" s="170">
+      <c r="D41" s="160">
         <v>0.35822100000000001</v>
       </c>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="161"/>
       <c r="G41" s="113"/>
       <c r="H41" s="113"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="176"/>
-      <c r="K41" s="176"/>
-      <c r="L41" s="176"/>
-      <c r="M41" s="176"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="166"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="166"/>
       <c r="N41" s="113"/>
       <c r="O41" s="113"/>
       <c r="P41" s="113"/>
@@ -23532,27 +23505,27 @@
       <c r="AF41" s="4"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="169">
-        <v>0</v>
-      </c>
-      <c r="B42" s="169">
-        <v>0</v>
-      </c>
-      <c r="C42" s="170">
-        <v>0</v>
-      </c>
-      <c r="D42" s="170">
-        <v>0</v>
-      </c>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
+      <c r="A42" s="159">
+        <v>0</v>
+      </c>
+      <c r="B42" s="159">
+        <v>0</v>
+      </c>
+      <c r="C42" s="160">
+        <v>0</v>
+      </c>
+      <c r="D42" s="160">
+        <v>0</v>
+      </c>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
       <c r="G42" s="113"/>
       <c r="H42" s="113"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="176"/>
-      <c r="K42" s="176"/>
-      <c r="L42" s="176"/>
-      <c r="M42" s="176"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="166"/>
+      <c r="L42" s="166"/>
+      <c r="M42" s="166"/>
       <c r="N42" s="113"/>
       <c r="O42" s="113"/>
       <c r="P42" s="113"/>
@@ -23570,27 +23543,27 @@
       <c r="AF42" s="4"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="169">
-        <v>0</v>
-      </c>
-      <c r="B43" s="169">
-        <v>0</v>
-      </c>
-      <c r="C43" s="170">
-        <v>0</v>
-      </c>
-      <c r="D43" s="170">
-        <v>0</v>
-      </c>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
+      <c r="A43" s="159">
+        <v>0</v>
+      </c>
+      <c r="B43" s="159">
+        <v>0</v>
+      </c>
+      <c r="C43" s="160">
+        <v>0</v>
+      </c>
+      <c r="D43" s="160">
+        <v>0</v>
+      </c>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
       <c r="G43" s="113"/>
       <c r="H43" s="113"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="176"/>
-      <c r="K43" s="176"/>
-      <c r="L43" s="176"/>
-      <c r="M43" s="176"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
+      <c r="M43" s="166"/>
       <c r="N43" s="113"/>
       <c r="O43" s="113"/>
       <c r="P43" s="113"/>
@@ -23608,27 +23581,27 @@
       <c r="AF43" s="4"/>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="169">
-        <v>0</v>
-      </c>
-      <c r="B44" s="169">
-        <v>0</v>
-      </c>
-      <c r="C44" s="170">
-        <v>0</v>
-      </c>
-      <c r="D44" s="170">
-        <v>0</v>
-      </c>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
+      <c r="A44" s="159">
+        <v>0</v>
+      </c>
+      <c r="B44" s="159">
+        <v>0</v>
+      </c>
+      <c r="C44" s="160">
+        <v>0</v>
+      </c>
+      <c r="D44" s="160">
+        <v>0</v>
+      </c>
+      <c r="E44" s="161"/>
+      <c r="F44" s="161"/>
       <c r="G44" s="113"/>
       <c r="H44" s="113"/>
-      <c r="I44" s="176"/>
-      <c r="J44" s="176"/>
-      <c r="K44" s="176"/>
-      <c r="L44" s="176"/>
-      <c r="M44" s="176"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
       <c r="N44" s="113"/>
       <c r="O44" s="113"/>
       <c r="P44" s="113"/>
@@ -23646,27 +23619,27 @@
       <c r="AF44" s="4"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="169">
-        <v>0</v>
-      </c>
-      <c r="B45" s="169">
-        <v>0</v>
-      </c>
-      <c r="C45" s="170">
-        <v>0</v>
-      </c>
-      <c r="D45" s="170">
-        <v>0</v>
-      </c>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
+      <c r="A45" s="159">
+        <v>0</v>
+      </c>
+      <c r="B45" s="159">
+        <v>0</v>
+      </c>
+      <c r="C45" s="160">
+        <v>0</v>
+      </c>
+      <c r="D45" s="160">
+        <v>0</v>
+      </c>
+      <c r="E45" s="161"/>
+      <c r="F45" s="161"/>
       <c r="G45" s="113"/>
       <c r="H45" s="113"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="176"/>
-      <c r="K45" s="176"/>
-      <c r="L45" s="176"/>
-      <c r="M45" s="176"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
+      <c r="L45" s="166"/>
+      <c r="M45" s="166"/>
       <c r="N45" s="113"/>
       <c r="O45" s="113"/>
       <c r="P45" s="113"/>
@@ -23684,27 +23657,27 @@
       <c r="AF45" s="4"/>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="169">
-        <v>0</v>
-      </c>
-      <c r="B46" s="169">
-        <v>0</v>
-      </c>
-      <c r="C46" s="170">
-        <v>0</v>
-      </c>
-      <c r="D46" s="170">
-        <v>0</v>
-      </c>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
+      <c r="A46" s="159">
+        <v>0</v>
+      </c>
+      <c r="B46" s="159">
+        <v>0</v>
+      </c>
+      <c r="C46" s="160">
+        <v>0</v>
+      </c>
+      <c r="D46" s="160">
+        <v>0</v>
+      </c>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
       <c r="G46" s="113"/>
       <c r="H46" s="113"/>
-      <c r="I46" s="176"/>
-      <c r="J46" s="176"/>
-      <c r="K46" s="176"/>
-      <c r="L46" s="176"/>
-      <c r="M46" s="176"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="166"/>
+      <c r="M46" s="166"/>
       <c r="N46" s="113"/>
       <c r="O46" s="113"/>
       <c r="P46" s="113"/>
@@ -23722,27 +23695,27 @@
       <c r="AF46" s="4"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="169">
-        <v>0</v>
-      </c>
-      <c r="B47" s="169">
-        <v>0</v>
-      </c>
-      <c r="C47" s="170">
-        <v>0</v>
-      </c>
-      <c r="D47" s="170">
-        <v>0</v>
-      </c>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
+      <c r="A47" s="159">
+        <v>0</v>
+      </c>
+      <c r="B47" s="159">
+        <v>0</v>
+      </c>
+      <c r="C47" s="160">
+        <v>0</v>
+      </c>
+      <c r="D47" s="160">
+        <v>0</v>
+      </c>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
       <c r="G47" s="113"/>
       <c r="H47" s="113"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="176"/>
-      <c r="L47" s="176"/>
-      <c r="M47" s="176"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="166"/>
+      <c r="L47" s="166"/>
+      <c r="M47" s="166"/>
       <c r="N47" s="113"/>
       <c r="O47" s="113"/>
       <c r="P47" s="113"/>
@@ -23760,27 +23733,27 @@
       <c r="AF47" s="4"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="169">
-        <v>0</v>
-      </c>
-      <c r="B48" s="169">
-        <v>0</v>
-      </c>
-      <c r="C48" s="170">
-        <v>0</v>
-      </c>
-      <c r="D48" s="170">
-        <v>0</v>
-      </c>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
+      <c r="A48" s="159">
+        <v>0</v>
+      </c>
+      <c r="B48" s="159">
+        <v>0</v>
+      </c>
+      <c r="C48" s="160">
+        <v>0</v>
+      </c>
+      <c r="D48" s="160">
+        <v>0</v>
+      </c>
+      <c r="E48" s="161"/>
+      <c r="F48" s="161"/>
       <c r="G48" s="113"/>
       <c r="H48" s="113"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="176"/>
-      <c r="K48" s="176"/>
-      <c r="L48" s="176"/>
-      <c r="M48" s="176"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
+      <c r="K48" s="166"/>
+      <c r="L48" s="166"/>
+      <c r="M48" s="166"/>
       <c r="N48" s="113"/>
       <c r="O48" s="113"/>
       <c r="P48" s="113"/>
@@ -23798,27 +23771,27 @@
       <c r="AF48" s="4"/>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49" s="169">
-        <v>0</v>
-      </c>
-      <c r="B49" s="169">
-        <v>0</v>
-      </c>
-      <c r="C49" s="170">
-        <v>0</v>
-      </c>
-      <c r="D49" s="170">
-        <v>0</v>
-      </c>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
+      <c r="A49" s="159">
+        <v>0</v>
+      </c>
+      <c r="B49" s="159">
+        <v>0</v>
+      </c>
+      <c r="C49" s="160">
+        <v>0</v>
+      </c>
+      <c r="D49" s="160">
+        <v>0</v>
+      </c>
+      <c r="E49" s="161"/>
+      <c r="F49" s="161"/>
       <c r="G49" s="113"/>
       <c r="H49" s="113"/>
-      <c r="I49" s="176"/>
-      <c r="J49" s="176"/>
-      <c r="K49" s="176"/>
-      <c r="L49" s="176"/>
-      <c r="M49" s="176"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="166"/>
+      <c r="K49" s="166"/>
+      <c r="L49" s="166"/>
+      <c r="M49" s="166"/>
       <c r="N49" s="113"/>
       <c r="O49" s="113"/>
       <c r="P49" s="113"/>
@@ -23836,27 +23809,27 @@
       <c r="AF49" s="4"/>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50" s="169">
-        <v>0</v>
-      </c>
-      <c r="B50" s="169">
-        <v>0</v>
-      </c>
-      <c r="C50" s="170">
-        <v>0</v>
-      </c>
-      <c r="D50" s="170">
-        <v>0</v>
-      </c>
-      <c r="E50" s="171"/>
-      <c r="F50" s="171"/>
+      <c r="A50" s="159">
+        <v>0</v>
+      </c>
+      <c r="B50" s="159">
+        <v>0</v>
+      </c>
+      <c r="C50" s="160">
+        <v>0</v>
+      </c>
+      <c r="D50" s="160">
+        <v>0</v>
+      </c>
+      <c r="E50" s="161"/>
+      <c r="F50" s="161"/>
       <c r="G50" s="113"/>
       <c r="H50" s="113"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="176"/>
-      <c r="L50" s="176"/>
-      <c r="M50" s="176"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="166"/>
+      <c r="K50" s="166"/>
+      <c r="L50" s="166"/>
+      <c r="M50" s="166"/>
       <c r="N50" s="113"/>
       <c r="O50" s="113"/>
       <c r="P50" s="113"/>
@@ -23874,27 +23847,27 @@
       <c r="AF50" s="4"/>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51" s="169">
-        <v>0</v>
-      </c>
-      <c r="B51" s="169">
-        <v>0</v>
-      </c>
-      <c r="C51" s="170">
-        <v>0</v>
-      </c>
-      <c r="D51" s="170">
-        <v>0</v>
-      </c>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
+      <c r="A51" s="159">
+        <v>0</v>
+      </c>
+      <c r="B51" s="159">
+        <v>0</v>
+      </c>
+      <c r="C51" s="160">
+        <v>0</v>
+      </c>
+      <c r="D51" s="160">
+        <v>0</v>
+      </c>
+      <c r="E51" s="161"/>
+      <c r="F51" s="161"/>
       <c r="G51" s="113"/>
       <c r="H51" s="113"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176"/>
-      <c r="L51" s="176"/>
-      <c r="M51" s="176"/>
+      <c r="I51" s="166"/>
+      <c r="J51" s="166"/>
+      <c r="K51" s="166"/>
+      <c r="L51" s="166"/>
+      <c r="M51" s="166"/>
       <c r="N51" s="113"/>
       <c r="O51" s="113"/>
       <c r="P51" s="113"/>
@@ -23912,27 +23885,27 @@
       <c r="AF51" s="4"/>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="169">
-        <v>0</v>
-      </c>
-      <c r="B52" s="169">
-        <v>0</v>
-      </c>
-      <c r="C52" s="170">
-        <v>0</v>
-      </c>
-      <c r="D52" s="170">
-        <v>0</v>
-      </c>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
+      <c r="A52" s="159">
+        <v>0</v>
+      </c>
+      <c r="B52" s="159">
+        <v>0</v>
+      </c>
+      <c r="C52" s="160">
+        <v>0</v>
+      </c>
+      <c r="D52" s="160">
+        <v>0</v>
+      </c>
+      <c r="E52" s="161"/>
+      <c r="F52" s="161"/>
       <c r="G52" s="113"/>
       <c r="H52" s="113"/>
-      <c r="I52" s="176"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="176"/>
-      <c r="M52" s="176"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="166"/>
+      <c r="K52" s="166"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="166"/>
       <c r="N52" s="113"/>
       <c r="O52" s="113"/>
       <c r="P52" s="113"/>
@@ -23950,27 +23923,27 @@
       <c r="AF52" s="4"/>
     </row>
     <row r="53" spans="1:39">
-      <c r="A53" s="169">
-        <v>0</v>
-      </c>
-      <c r="B53" s="169">
-        <v>0</v>
-      </c>
-      <c r="C53" s="170">
-        <v>0</v>
-      </c>
-      <c r="D53" s="170">
-        <v>0</v>
-      </c>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
+      <c r="A53" s="159">
+        <v>0</v>
+      </c>
+      <c r="B53" s="159">
+        <v>0</v>
+      </c>
+      <c r="C53" s="160">
+        <v>0</v>
+      </c>
+      <c r="D53" s="160">
+        <v>0</v>
+      </c>
+      <c r="E53" s="161"/>
+      <c r="F53" s="161"/>
       <c r="G53" s="113"/>
       <c r="H53" s="113"/>
-      <c r="I53" s="176"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="176"/>
-      <c r="L53" s="176"/>
-      <c r="M53" s="176"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
+      <c r="K53" s="166"/>
+      <c r="L53" s="166"/>
+      <c r="M53" s="166"/>
       <c r="N53" s="113"/>
       <c r="O53" s="113"/>
       <c r="P53" s="113"/>
@@ -23988,27 +23961,27 @@
       <c r="AF53" s="4"/>
     </row>
     <row r="54" spans="1:39">
-      <c r="A54" s="169">
+      <c r="A54" s="159">
         <v>61164.541878000004</v>
       </c>
-      <c r="B54" s="169">
+      <c r="B54" s="159">
         <v>61164.541878000004</v>
       </c>
-      <c r="C54" s="170">
+      <c r="C54" s="160">
         <v>0.52298200000000006</v>
       </c>
-      <c r="D54" s="170">
+      <c r="D54" s="160">
         <v>0.52298200000000006</v>
       </c>
-      <c r="E54" s="171"/>
-      <c r="F54" s="171"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
       <c r="G54" s="113"/>
       <c r="H54" s="113"/>
-      <c r="I54" s="176"/>
-      <c r="J54" s="176"/>
-      <c r="K54" s="176"/>
-      <c r="L54" s="176"/>
-      <c r="M54" s="176"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="166"/>
+      <c r="M54" s="166"/>
       <c r="N54" s="113"/>
       <c r="O54" s="113"/>
       <c r="P54" s="113"/>
@@ -24026,27 +23999,27 @@
       <c r="AF54" s="4"/>
     </row>
     <row r="55" spans="1:39">
-      <c r="A55" s="169">
+      <c r="A55" s="159">
         <v>61164.541878000004</v>
       </c>
-      <c r="B55" s="169">
+      <c r="B55" s="159">
         <v>61164.541878000004</v>
       </c>
-      <c r="C55" s="170">
+      <c r="C55" s="160">
         <v>0.52298200000000006</v>
       </c>
-      <c r="D55" s="170">
+      <c r="D55" s="160">
         <v>0.52298200000000006</v>
       </c>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="161"/>
       <c r="G55" s="113"/>
       <c r="H55" s="113"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="176"/>
-      <c r="L55" s="176"/>
-      <c r="M55" s="176"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="166"/>
+      <c r="K55" s="166"/>
+      <c r="L55" s="166"/>
+      <c r="M55" s="166"/>
       <c r="N55" s="113"/>
       <c r="O55" s="113"/>
       <c r="P55" s="113"/>
@@ -24064,19 +24037,19 @@
       <c r="AF55" s="4"/>
     </row>
     <row r="56" spans="1:39">
-      <c r="A56" s="171"/>
-      <c r="B56" s="171"/>
-      <c r="C56" s="171"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="171"/>
-      <c r="F56" s="171"/>
+      <c r="A56" s="161"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
       <c r="G56" s="113"/>
       <c r="H56" s="113"/>
-      <c r="I56" s="176"/>
-      <c r="J56" s="176"/>
-      <c r="K56" s="176"/>
-      <c r="L56" s="176"/>
-      <c r="M56" s="176"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="166"/>
+      <c r="L56" s="166"/>
+      <c r="M56" s="166"/>
       <c r="N56" s="113"/>
       <c r="O56" s="113"/>
       <c r="P56" s="113"/>
@@ -24105,19 +24078,19 @@
       <c r="AM56" s="113"/>
     </row>
     <row r="57" spans="1:39">
-      <c r="A57" s="171"/>
-      <c r="B57" s="171"/>
-      <c r="C57" s="171"/>
-      <c r="D57" s="171"/>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171"/>
+      <c r="A57" s="161"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
       <c r="G57" s="113"/>
       <c r="H57" s="113"/>
-      <c r="I57" s="176"/>
-      <c r="J57" s="176"/>
-      <c r="K57" s="176"/>
-      <c r="L57" s="176"/>
-      <c r="M57" s="176"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="166"/>
+      <c r="K57" s="166"/>
+      <c r="L57" s="166"/>
+      <c r="M57" s="166"/>
       <c r="N57" s="113"/>
       <c r="O57" s="113"/>
       <c r="P57" s="113"/>
@@ -24146,19 +24119,19 @@
       <c r="AM57" s="113"/>
     </row>
     <row r="58" spans="1:39">
-      <c r="A58" s="171"/>
-      <c r="B58" s="171"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
+      <c r="A58" s="161"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="161"/>
       <c r="G58" s="113"/>
       <c r="H58" s="113"/>
-      <c r="I58" s="176"/>
-      <c r="J58" s="176"/>
-      <c r="K58" s="176"/>
-      <c r="L58" s="176"/>
-      <c r="M58" s="176"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="166"/>
+      <c r="K58" s="166"/>
+      <c r="L58" s="166"/>
+      <c r="M58" s="166"/>
       <c r="N58" s="113"/>
       <c r="O58" s="113"/>
       <c r="P58" s="113"/>
@@ -24187,19 +24160,19 @@
       <c r="AM58" s="113"/>
     </row>
     <row r="59" spans="1:39">
-      <c r="A59" s="171"/>
-      <c r="B59" s="171"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
+      <c r="A59" s="161"/>
+      <c r="B59" s="161"/>
+      <c r="C59" s="161"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="161"/>
       <c r="G59" s="113"/>
       <c r="H59" s="113"/>
-      <c r="I59" s="176"/>
-      <c r="J59" s="176"/>
-      <c r="K59" s="176"/>
-      <c r="L59" s="176"/>
-      <c r="M59" s="176"/>
+      <c r="I59" s="166"/>
+      <c r="J59" s="166"/>
+      <c r="K59" s="166"/>
+      <c r="L59" s="166"/>
+      <c r="M59" s="166"/>
       <c r="N59" s="113"/>
       <c r="O59" s="113"/>
       <c r="P59" s="113"/>
@@ -24228,23 +24201,23 @@
       <c r="AM59" s="113"/>
     </row>
     <row r="60" spans="1:39" ht="19">
-      <c r="A60" s="171"/>
-      <c r="B60" s="171"/>
-      <c r="C60" s="171"/>
-      <c r="D60" s="171"/>
-      <c r="E60" s="171"/>
-      <c r="F60" s="171"/>
+      <c r="A60" s="161"/>
+      <c r="B60" s="161"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="161"/>
       <c r="G60" s="127"/>
       <c r="H60" s="127"/>
-      <c r="I60" s="176"/>
-      <c r="J60" s="254" t="s">
+      <c r="I60" s="166"/>
+      <c r="J60" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="K60" s="254"/>
-      <c r="L60" s="254"/>
-      <c r="M60" s="176"/>
-      <c r="N60" s="255"/>
-      <c r="O60" s="255"/>
+      <c r="K60" s="239"/>
+      <c r="L60" s="239"/>
+      <c r="M60" s="166"/>
+      <c r="N60" s="240"/>
+      <c r="O60" s="240"/>
       <c r="P60" s="113"/>
       <c r="Q60" s="113"/>
       <c r="R60" s="132"/>
@@ -24271,25 +24244,25 @@
       <c r="AM60" s="113"/>
     </row>
     <row r="61" spans="1:39">
-      <c r="A61" s="171"/>
-      <c r="B61" s="171"/>
-      <c r="C61" s="171"/>
-      <c r="D61" s="171"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
+      <c r="A61" s="161"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="161"/>
+      <c r="F61" s="161"/>
       <c r="G61" s="120"/>
       <c r="H61" s="120"/>
-      <c r="I61" s="176"/>
-      <c r="J61" s="178" t="s">
+      <c r="I61" s="166"/>
+      <c r="J61" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="K61" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="L61" s="178" t="s">
+      <c r="K61" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="M61" s="176"/>
+      <c r="M61" s="166"/>
       <c r="N61" s="126"/>
       <c r="O61" s="126"/>
       <c r="P61" s="123"/>
@@ -24318,30 +24291,30 @@
       <c r="AM61" s="113"/>
     </row>
     <row r="62" spans="1:39" ht="16">
-      <c r="A62" s="171"/>
-      <c r="B62" s="171"/>
-      <c r="C62" s="171"/>
-      <c r="D62" s="171"/>
-      <c r="E62" s="171"/>
-      <c r="F62" s="171"/>
+      <c r="A62" s="161"/>
+      <c r="B62" s="161"/>
+      <c r="C62" s="161"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="161"/>
       <c r="G62" s="116"/>
       <c r="H62" s="124"/>
-      <c r="I62" s="176" t="s">
+      <c r="I62" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="J62" s="176">
+      <c r="J62" s="166">
         <f>B1</f>
         <v>86233.752800000002</v>
       </c>
-      <c r="K62" s="179">
+      <c r="K62" s="169">
         <f>IF(D1&gt;1,D1/100,D1)</f>
         <v>0.36369100000000004</v>
       </c>
-      <c r="L62" s="177">
+      <c r="L62" s="167">
         <f>+J62*K62</f>
         <v>31362.439789584805</v>
       </c>
-      <c r="M62" s="176"/>
+      <c r="M62" s="166"/>
       <c r="N62" s="130"/>
       <c r="O62" s="130"/>
       <c r="P62" s="124"/>
@@ -24370,30 +24343,30 @@
       <c r="AM62" s="113"/>
     </row>
     <row r="63" spans="1:39" ht="16">
-      <c r="A63" s="171"/>
-      <c r="B63" s="171"/>
-      <c r="C63" s="171"/>
-      <c r="D63" s="171"/>
-      <c r="E63" s="171"/>
-      <c r="F63" s="171"/>
+      <c r="A63" s="161"/>
+      <c r="B63" s="161"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="161"/>
+      <c r="F63" s="161"/>
       <c r="G63" s="128"/>
       <c r="H63" s="129"/>
-      <c r="I63" s="176" t="s">
+      <c r="I63" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="176">
+      <c r="J63" s="166">
         <f t="shared" ref="J63:J116" si="0">B2</f>
         <v>9491.9207399999996</v>
       </c>
-      <c r="K63" s="179">
+      <c r="K63" s="169">
         <f t="shared" ref="K63:K116" si="1">IF(D2&gt;1,D2/100,D2)</f>
         <v>0.37185499999999999</v>
       </c>
-      <c r="L63" s="177">
+      <c r="L63" s="167">
         <f t="shared" ref="L63:L116" si="2">+J63*K63</f>
         <v>3529.6181867726996</v>
       </c>
-      <c r="M63" s="176"/>
+      <c r="M63" s="166"/>
       <c r="N63" s="130"/>
       <c r="O63" s="130"/>
       <c r="P63" s="124"/>
@@ -24422,30 +24395,30 @@
       <c r="AM63" s="113"/>
     </row>
     <row r="64" spans="1:39" ht="16">
-      <c r="A64" s="171"/>
-      <c r="B64" s="171"/>
-      <c r="C64" s="171"/>
-      <c r="D64" s="171"/>
-      <c r="E64" s="171"/>
-      <c r="F64" s="171"/>
+      <c r="A64" s="161"/>
+      <c r="B64" s="161"/>
+      <c r="C64" s="161"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="161"/>
+      <c r="F64" s="161"/>
       <c r="G64" s="128"/>
       <c r="H64" s="129"/>
-      <c r="I64" s="176" t="s">
+      <c r="I64" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="176">
+      <c r="J64" s="166">
         <f t="shared" si="0"/>
         <v>15727.04054</v>
       </c>
-      <c r="K64" s="179">
+      <c r="K64" s="169">
         <f t="shared" si="1"/>
         <v>0.170652</v>
       </c>
-      <c r="L64" s="177">
+      <c r="L64" s="167">
         <f t="shared" si="2"/>
         <v>2683.8509222320799</v>
       </c>
-      <c r="M64" s="176"/>
+      <c r="M64" s="166"/>
       <c r="N64" s="130"/>
       <c r="O64" s="130"/>
       <c r="P64" s="124"/>
@@ -24474,30 +24447,30 @@
       <c r="AM64" s="113"/>
     </row>
     <row r="65" spans="1:39" ht="16">
-      <c r="A65" s="171"/>
-      <c r="B65" s="171"/>
-      <c r="C65" s="171"/>
-      <c r="D65" s="171"/>
-      <c r="E65" s="171"/>
-      <c r="F65" s="171"/>
+      <c r="A65" s="161"/>
+      <c r="B65" s="161"/>
+      <c r="C65" s="161"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="161"/>
+      <c r="F65" s="161"/>
       <c r="G65" s="128"/>
       <c r="H65" s="129"/>
-      <c r="I65" s="176" t="s">
+      <c r="I65" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="176">
+      <c r="J65" s="166">
         <f t="shared" si="0"/>
         <v>79998.633000000002</v>
       </c>
-      <c r="K65" s="179">
+      <c r="K65" s="169">
         <f t="shared" si="1"/>
         <v>0.40261000000000002</v>
       </c>
-      <c r="L65" s="177">
+      <c r="L65" s="167">
         <f t="shared" si="2"/>
         <v>32208.249632130002</v>
       </c>
-      <c r="M65" s="176"/>
+      <c r="M65" s="166"/>
       <c r="N65" s="130"/>
       <c r="O65" s="130"/>
       <c r="P65" s="124"/>
@@ -24526,30 +24499,30 @@
       <c r="AM65" s="113"/>
     </row>
     <row r="66" spans="1:39" ht="16">
-      <c r="A66" s="171"/>
-      <c r="B66" s="171"/>
-      <c r="C66" s="171"/>
-      <c r="D66" s="171"/>
-      <c r="E66" s="171"/>
-      <c r="F66" s="171"/>
+      <c r="A66" s="161"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="161"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="161"/>
+      <c r="F66" s="161"/>
       <c r="G66" s="128"/>
       <c r="H66" s="129"/>
-      <c r="I66" s="176" t="s">
+      <c r="I66" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="J66" s="176">
+      <c r="J66" s="166">
         <f t="shared" si="0"/>
         <v>26763.689249999999</v>
       </c>
-      <c r="K66" s="179">
+      <c r="K66" s="169">
         <f t="shared" si="1"/>
         <v>0.49357999999999996</v>
       </c>
-      <c r="L66" s="177">
+      <c r="L66" s="167">
         <f t="shared" si="2"/>
         <v>13210.021740015</v>
       </c>
-      <c r="M66" s="176"/>
+      <c r="M66" s="166"/>
       <c r="N66" s="130"/>
       <c r="O66" s="130"/>
       <c r="P66" s="124"/>
@@ -24578,30 +24551,30 @@
       <c r="AM66" s="113"/>
     </row>
     <row r="67" spans="1:39" ht="16">
-      <c r="A67" s="172"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="173"/>
-      <c r="D67" s="171"/>
-      <c r="E67" s="171"/>
-      <c r="F67" s="174"/>
+      <c r="A67" s="162"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="161"/>
+      <c r="F67" s="164"/>
       <c r="G67" s="128"/>
       <c r="H67" s="129"/>
-      <c r="I67" s="176" t="s">
+      <c r="I67" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="176">
+      <c r="J67" s="166">
         <f t="shared" si="0"/>
         <v>43948.767596999998</v>
       </c>
-      <c r="K67" s="179">
+      <c r="K67" s="169">
         <f t="shared" si="1"/>
         <v>0.42389399999999999</v>
       </c>
-      <c r="L67" s="177">
+      <c r="L67" s="167">
         <f t="shared" si="2"/>
         <v>18629.618891762719</v>
       </c>
-      <c r="M67" s="176"/>
+      <c r="M67" s="166"/>
       <c r="N67" s="130"/>
       <c r="O67" s="130"/>
       <c r="P67" s="124"/>
@@ -24630,30 +24603,30 @@
       <c r="AM67" s="113"/>
     </row>
     <row r="68" spans="1:39" ht="16">
-      <c r="A68" s="171"/>
-      <c r="B68" s="171"/>
-      <c r="C68" s="171"/>
-      <c r="D68" s="171"/>
-      <c r="E68" s="171"/>
-      <c r="F68" s="171"/>
+      <c r="A68" s="161"/>
+      <c r="B68" s="161"/>
+      <c r="C68" s="161"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="161"/>
+      <c r="F68" s="161"/>
       <c r="G68" s="128"/>
       <c r="H68" s="129"/>
-      <c r="I68" s="176" t="s">
+      <c r="I68" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="176">
+      <c r="J68" s="166">
         <f t="shared" si="0"/>
         <v>62813.554652999999</v>
       </c>
-      <c r="K68" s="179">
+      <c r="K68" s="169">
         <f t="shared" si="1"/>
         <v>0.426479</v>
       </c>
-      <c r="L68" s="177">
+      <c r="L68" s="167">
         <f t="shared" si="2"/>
         <v>26788.661974856786</v>
       </c>
-      <c r="M68" s="176"/>
+      <c r="M68" s="166"/>
       <c r="N68" s="130"/>
       <c r="O68" s="130"/>
       <c r="P68" s="124"/>
@@ -24682,30 +24655,30 @@
       <c r="AM68" s="113"/>
     </row>
     <row r="69" spans="1:39" ht="19" customHeight="1">
-      <c r="A69" s="171"/>
-      <c r="B69" s="171"/>
-      <c r="C69" s="171"/>
-      <c r="D69" s="171"/>
-      <c r="E69" s="171"/>
-      <c r="F69" s="171"/>
+      <c r="A69" s="161"/>
+      <c r="B69" s="161"/>
+      <c r="C69" s="161"/>
+      <c r="D69" s="161"/>
+      <c r="E69" s="161"/>
+      <c r="F69" s="161"/>
       <c r="G69" s="128"/>
       <c r="H69" s="129"/>
-      <c r="I69" s="176" t="s">
+      <c r="I69" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="J69" s="176">
+      <c r="J69" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K69" s="179">
+      <c r="K69" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L69" s="177">
+      <c r="L69" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M69" s="176"/>
+      <c r="M69" s="166"/>
       <c r="N69" s="130"/>
       <c r="O69" s="130"/>
       <c r="P69" s="124"/>
@@ -24734,30 +24707,30 @@
       <c r="AM69" s="113"/>
     </row>
     <row r="70" spans="1:39" ht="16">
-      <c r="A70" s="171"/>
-      <c r="B70" s="171"/>
-      <c r="C70" s="171"/>
-      <c r="D70" s="171"/>
-      <c r="E70" s="171"/>
-      <c r="F70" s="171"/>
+      <c r="A70" s="161"/>
+      <c r="B70" s="161"/>
+      <c r="C70" s="161"/>
+      <c r="D70" s="161"/>
+      <c r="E70" s="161"/>
+      <c r="F70" s="161"/>
       <c r="G70" s="128"/>
       <c r="H70" s="129"/>
-      <c r="I70" s="176" t="s">
+      <c r="I70" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="J70" s="176">
+      <c r="J70" s="166">
         <f t="shared" si="0"/>
         <v>13968.63</v>
       </c>
-      <c r="K70" s="179">
+      <c r="K70" s="169">
         <f t="shared" si="1"/>
         <v>0.274341</v>
       </c>
-      <c r="L70" s="177">
+      <c r="L70" s="167">
         <f t="shared" si="2"/>
         <v>3832.16792283</v>
       </c>
-      <c r="M70" s="176"/>
+      <c r="M70" s="166"/>
       <c r="N70" s="130"/>
       <c r="O70" s="130"/>
       <c r="P70" s="124"/>
@@ -24786,30 +24759,30 @@
       <c r="AM70" s="113"/>
     </row>
     <row r="71" spans="1:39" ht="16">
-      <c r="A71" s="171"/>
-      <c r="B71" s="171"/>
-      <c r="C71" s="171"/>
-      <c r="D71" s="171"/>
-      <c r="E71" s="171"/>
-      <c r="F71" s="171"/>
+      <c r="A71" s="161"/>
+      <c r="B71" s="161"/>
+      <c r="C71" s="161"/>
+      <c r="D71" s="161"/>
+      <c r="E71" s="161"/>
+      <c r="F71" s="161"/>
       <c r="G71" s="116"/>
       <c r="H71" s="129"/>
-      <c r="I71" s="176" t="s">
+      <c r="I71" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="J71" s="176">
+      <c r="J71" s="166">
         <f t="shared" si="0"/>
         <v>6086.9213650000002</v>
       </c>
-      <c r="K71" s="179">
+      <c r="K71" s="169">
         <f t="shared" si="1"/>
         <v>0.14440600000000001</v>
       </c>
-      <c r="L71" s="177">
+      <c r="L71" s="167">
         <f t="shared" si="2"/>
         <v>878.98796663419012</v>
       </c>
-      <c r="M71" s="176"/>
+      <c r="M71" s="166"/>
       <c r="N71" s="130"/>
       <c r="O71" s="130"/>
       <c r="P71" s="124"/>
@@ -24838,30 +24811,30 @@
       <c r="AM71" s="113"/>
     </row>
     <row r="72" spans="1:39" ht="16">
-      <c r="A72" s="171"/>
-      <c r="B72" s="171"/>
-      <c r="C72" s="171"/>
-      <c r="D72" s="171"/>
-      <c r="E72" s="171"/>
-      <c r="F72" s="171"/>
+      <c r="A72" s="161"/>
+      <c r="B72" s="161"/>
+      <c r="C72" s="161"/>
+      <c r="D72" s="161"/>
+      <c r="E72" s="161"/>
+      <c r="F72" s="161"/>
       <c r="G72" s="128"/>
       <c r="H72" s="129"/>
-      <c r="I72" s="176" t="s">
+      <c r="I72" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="J72" s="176">
+      <c r="J72" s="166">
         <f t="shared" si="0"/>
         <v>29076.782852</v>
       </c>
-      <c r="K72" s="179">
+      <c r="K72" s="169">
         <f t="shared" si="1"/>
         <v>0.49100700000000003</v>
       </c>
-      <c r="L72" s="177">
+      <c r="L72" s="167">
         <f t="shared" si="2"/>
         <v>14276.903917811966</v>
       </c>
-      <c r="M72" s="176"/>
+      <c r="M72" s="166"/>
       <c r="N72" s="130"/>
       <c r="O72" s="130"/>
       <c r="P72" s="124"/>
@@ -24890,30 +24863,30 @@
       <c r="AM72" s="113"/>
     </row>
     <row r="73" spans="1:39" ht="16">
-      <c r="A73" s="171"/>
-      <c r="B73" s="171"/>
-      <c r="C73" s="171"/>
-      <c r="D73" s="171"/>
-      <c r="E73" s="171"/>
-      <c r="F73" s="171"/>
+      <c r="A73" s="161"/>
+      <c r="B73" s="161"/>
+      <c r="C73" s="161"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="161"/>
+      <c r="F73" s="161"/>
       <c r="G73" s="128"/>
       <c r="H73" s="129"/>
-      <c r="I73" s="176" t="s">
+      <c r="I73" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="J73" s="176">
+      <c r="J73" s="166">
         <f t="shared" si="0"/>
         <v>13681.220436</v>
       </c>
-      <c r="K73" s="179">
+      <c r="K73" s="169">
         <f t="shared" si="1"/>
         <v>0.57016599999999995</v>
       </c>
-      <c r="L73" s="177">
+      <c r="L73" s="167">
         <f t="shared" si="2"/>
         <v>7800.5667311123752</v>
       </c>
-      <c r="M73" s="176"/>
+      <c r="M73" s="166"/>
       <c r="N73" s="130"/>
       <c r="O73" s="130"/>
       <c r="P73" s="124"/>
@@ -24942,30 +24915,30 @@
       <c r="AM73" s="113"/>
     </row>
     <row r="74" spans="1:39" ht="16">
-      <c r="A74" s="171"/>
-      <c r="B74" s="171"/>
-      <c r="C74" s="171"/>
-      <c r="D74" s="171"/>
-      <c r="E74" s="171"/>
-      <c r="F74" s="171"/>
+      <c r="A74" s="161"/>
+      <c r="B74" s="161"/>
+      <c r="C74" s="161"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="161"/>
+      <c r="F74" s="161"/>
       <c r="G74" s="128"/>
       <c r="H74" s="129"/>
-      <c r="I74" s="176" t="s">
+      <c r="I74" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="J74" s="176">
+      <c r="J74" s="166">
         <f t="shared" si="0"/>
         <v>9599.1431309</v>
       </c>
-      <c r="K74" s="179">
+      <c r="K74" s="169">
         <f t="shared" si="1"/>
         <v>0.52397700000000003</v>
       </c>
-      <c r="L74" s="177">
+      <c r="L74" s="167">
         <f t="shared" si="2"/>
         <v>5029.7302202995897</v>
       </c>
-      <c r="M74" s="176"/>
+      <c r="M74" s="166"/>
       <c r="N74" s="130"/>
       <c r="O74" s="130"/>
       <c r="P74" s="124"/>
@@ -24994,30 +24967,30 @@
       <c r="AM74" s="113"/>
     </row>
     <row r="75" spans="1:39" ht="16">
-      <c r="A75" s="172"/>
-      <c r="B75" s="172"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="171"/>
-      <c r="E75" s="171"/>
-      <c r="F75" s="174"/>
+      <c r="A75" s="162"/>
+      <c r="B75" s="162"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="161"/>
+      <c r="F75" s="164"/>
       <c r="G75" s="128"/>
       <c r="H75" s="129"/>
-      <c r="I75" s="176" t="s">
+      <c r="I75" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="J75" s="176">
+      <c r="J75" s="166">
         <f t="shared" si="0"/>
         <v>-1947.6210599999999</v>
       </c>
-      <c r="K75" s="179">
+      <c r="K75" s="169">
         <f t="shared" si="1"/>
         <v>0.48905500000000002</v>
       </c>
-      <c r="L75" s="177">
+      <c r="L75" s="167">
         <f t="shared" si="2"/>
         <v>-952.49381749830002</v>
       </c>
-      <c r="M75" s="176"/>
+      <c r="M75" s="166"/>
       <c r="N75" s="130"/>
       <c r="O75" s="130"/>
       <c r="P75" s="124"/>
@@ -25046,30 +25019,30 @@
       <c r="AM75" s="113"/>
     </row>
     <row r="76" spans="1:39" ht="16">
-      <c r="A76" s="171"/>
-      <c r="B76" s="171"/>
-      <c r="C76" s="171"/>
-      <c r="D76" s="171"/>
-      <c r="E76" s="171"/>
-      <c r="F76" s="171"/>
+      <c r="A76" s="161"/>
+      <c r="B76" s="161"/>
+      <c r="C76" s="161"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="161"/>
+      <c r="F76" s="161"/>
       <c r="G76" s="128"/>
       <c r="H76" s="129"/>
-      <c r="I76" s="176" t="s">
+      <c r="I76" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="J76" s="176">
+      <c r="J76" s="166">
         <f t="shared" si="0"/>
         <v>82589.802658999994</v>
       </c>
-      <c r="K76" s="179">
+      <c r="K76" s="169">
         <f t="shared" si="1"/>
         <v>0.51080899999999996</v>
       </c>
-      <c r="L76" s="177">
+      <c r="L76" s="167">
         <f t="shared" si="2"/>
         <v>42187.614506441125</v>
       </c>
-      <c r="M76" s="177"/>
+      <c r="M76" s="167"/>
       <c r="N76" s="130"/>
       <c r="O76" s="130"/>
       <c r="P76" s="124"/>
@@ -25098,30 +25071,30 @@
       <c r="AM76" s="113"/>
     </row>
     <row r="77" spans="1:39" ht="16">
-      <c r="A77" s="171"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
-      <c r="E77" s="171"/>
-      <c r="F77" s="171"/>
+      <c r="A77" s="161"/>
+      <c r="B77" s="161"/>
+      <c r="C77" s="161"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="161"/>
+      <c r="F77" s="161"/>
       <c r="G77" s="128"/>
       <c r="H77" s="129"/>
-      <c r="I77" s="176" t="s">
+      <c r="I77" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="J77" s="176">
+      <c r="J77" s="166">
         <f t="shared" si="0"/>
         <v>29812.163530000002</v>
       </c>
-      <c r="K77" s="179">
+      <c r="K77" s="169">
         <f t="shared" si="1"/>
         <v>0.100116</v>
       </c>
-      <c r="L77" s="177">
+      <c r="L77" s="167">
         <f t="shared" si="2"/>
         <v>2984.67456396948</v>
       </c>
-      <c r="M77" s="176"/>
+      <c r="M77" s="166"/>
       <c r="N77" s="130"/>
       <c r="O77" s="130"/>
       <c r="P77" s="124"/>
@@ -25150,30 +25123,30 @@
       <c r="AM77" s="113"/>
     </row>
     <row r="78" spans="1:39" ht="16">
-      <c r="A78" s="171"/>
-      <c r="B78" s="171"/>
-      <c r="C78" s="171"/>
-      <c r="D78" s="171"/>
-      <c r="E78" s="171"/>
-      <c r="F78" s="171"/>
+      <c r="A78" s="161"/>
+      <c r="B78" s="161"/>
+      <c r="C78" s="161"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="161"/>
+      <c r="F78" s="161"/>
       <c r="G78" s="116"/>
       <c r="H78" s="129"/>
-      <c r="I78" s="176" t="s">
+      <c r="I78" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="J78" s="176">
+      <c r="J78" s="166">
         <f t="shared" si="0"/>
         <v>76058.002697000004</v>
       </c>
-      <c r="K78" s="179">
+      <c r="K78" s="169">
         <f t="shared" si="1"/>
         <v>0.68412600000000001</v>
       </c>
-      <c r="L78" s="177">
+      <c r="L78" s="167">
         <f t="shared" si="2"/>
         <v>52033.257153087827</v>
       </c>
-      <c r="M78" s="176"/>
+      <c r="M78" s="166"/>
       <c r="N78" s="130"/>
       <c r="O78" s="130"/>
       <c r="P78" s="124"/>
@@ -25202,30 +25175,30 @@
       <c r="AM78" s="113"/>
     </row>
     <row r="79" spans="1:39" ht="16">
-      <c r="A79" s="172"/>
-      <c r="B79" s="172"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="171"/>
-      <c r="E79" s="171"/>
-      <c r="F79" s="174"/>
+      <c r="A79" s="162"/>
+      <c r="B79" s="162"/>
+      <c r="C79" s="163"/>
+      <c r="D79" s="161"/>
+      <c r="E79" s="161"/>
+      <c r="F79" s="164"/>
       <c r="G79" s="128"/>
       <c r="H79" s="129"/>
-      <c r="I79" s="176" t="s">
+      <c r="I79" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="J79" s="176">
+      <c r="J79" s="166">
         <f t="shared" si="0"/>
         <v>73.660909465000003</v>
       </c>
-      <c r="K79" s="179">
+      <c r="K79" s="169">
         <f t="shared" si="1"/>
         <v>0.66385099999999997</v>
       </c>
-      <c r="L79" s="177">
+      <c r="L79" s="167">
         <f t="shared" si="2"/>
         <v>48.899868409249713</v>
       </c>
-      <c r="M79" s="176"/>
+      <c r="M79" s="166"/>
       <c r="N79" s="130"/>
       <c r="O79" s="130"/>
       <c r="P79" s="124"/>
@@ -25254,30 +25227,30 @@
       <c r="AM79" s="113"/>
     </row>
     <row r="80" spans="1:39" ht="16">
-      <c r="A80" s="171"/>
-      <c r="B80" s="171"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="171"/>
-      <c r="E80" s="171"/>
-      <c r="F80" s="171"/>
+      <c r="A80" s="161"/>
+      <c r="B80" s="161"/>
+      <c r="C80" s="161"/>
+      <c r="D80" s="161"/>
+      <c r="E80" s="161"/>
+      <c r="F80" s="161"/>
       <c r="G80" s="116"/>
       <c r="H80" s="129"/>
-      <c r="I80" s="176" t="s">
+      <c r="I80" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="J80" s="176">
+      <c r="J80" s="166">
         <f t="shared" si="0"/>
         <v>76131.663606000002</v>
       </c>
-      <c r="K80" s="179">
+      <c r="K80" s="169">
         <f t="shared" si="1"/>
         <v>0.68410599999999999</v>
       </c>
-      <c r="L80" s="177">
+      <c r="L80" s="167">
         <f t="shared" si="2"/>
         <v>52082.127862846239</v>
       </c>
-      <c r="M80" s="176"/>
+      <c r="M80" s="166"/>
       <c r="N80" s="130"/>
       <c r="O80" s="130"/>
       <c r="P80" s="124"/>
@@ -25306,30 +25279,30 @@
       <c r="AM80" s="113"/>
     </row>
     <row r="81" spans="1:39" ht="16">
-      <c r="A81" s="172"/>
-      <c r="B81" s="172"/>
-      <c r="C81" s="173"/>
-      <c r="D81" s="171"/>
-      <c r="E81" s="171"/>
-      <c r="F81" s="174"/>
+      <c r="A81" s="162"/>
+      <c r="B81" s="162"/>
+      <c r="C81" s="163"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="161"/>
+      <c r="F81" s="164"/>
       <c r="G81" s="128"/>
       <c r="H81" s="129"/>
-      <c r="I81" s="176" t="s">
+      <c r="I81" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="J81" s="176">
+      <c r="J81" s="166">
         <f t="shared" si="0"/>
         <v>-383.42565624999997</v>
       </c>
-      <c r="K81" s="179">
+      <c r="K81" s="169">
         <f t="shared" si="1"/>
         <v>0.68412600000000001</v>
       </c>
-      <c r="L81" s="177">
+      <c r="L81" s="167">
         <f t="shared" si="2"/>
         <v>-262.31146050768751</v>
       </c>
-      <c r="M81" s="176"/>
+      <c r="M81" s="166"/>
       <c r="N81" s="130"/>
       <c r="O81" s="130"/>
       <c r="P81" s="124"/>
@@ -25358,30 +25331,30 @@
       <c r="AM81" s="113"/>
     </row>
     <row r="82" spans="1:39" ht="16">
-      <c r="A82" s="171"/>
-      <c r="B82" s="171"/>
-      <c r="C82" s="171"/>
-      <c r="D82" s="171"/>
-      <c r="E82" s="171"/>
-      <c r="F82" s="171"/>
+      <c r="A82" s="161"/>
+      <c r="B82" s="161"/>
+      <c r="C82" s="161"/>
+      <c r="D82" s="161"/>
+      <c r="E82" s="161"/>
+      <c r="F82" s="161"/>
       <c r="G82" s="128"/>
       <c r="H82" s="129"/>
-      <c r="I82" s="176" t="s">
+      <c r="I82" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="J82" s="176">
+      <c r="J82" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K82" s="179">
+      <c r="K82" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L82" s="177">
+      <c r="L82" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="176"/>
+      <c r="M82" s="166"/>
       <c r="N82" s="130"/>
       <c r="O82" s="130"/>
       <c r="P82" s="124"/>
@@ -25410,30 +25383,30 @@
       <c r="AM82" s="113"/>
     </row>
     <row r="83" spans="1:39" ht="16">
-      <c r="A83" s="171"/>
-      <c r="B83" s="171"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
+      <c r="A83" s="161"/>
+      <c r="B83" s="161"/>
+      <c r="C83" s="161"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="161"/>
+      <c r="F83" s="161"/>
       <c r="G83" s="128"/>
       <c r="H83" s="129"/>
-      <c r="I83" s="176" t="s">
+      <c r="I83" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="J83" s="176">
+      <c r="J83" s="166">
         <f t="shared" si="0"/>
         <v>75748.237949999995</v>
       </c>
-      <c r="K83" s="179">
+      <c r="K83" s="169">
         <f t="shared" si="1"/>
         <v>0.68410599999999999</v>
       </c>
-      <c r="L83" s="177">
+      <c r="L83" s="167">
         <f t="shared" si="2"/>
         <v>51819.824071022696</v>
       </c>
-      <c r="M83" s="176"/>
+      <c r="M83" s="166"/>
       <c r="N83" s="130"/>
       <c r="O83" s="130"/>
       <c r="P83" s="124"/>
@@ -25462,30 +25435,30 @@
       <c r="AM83" s="113"/>
     </row>
     <row r="84" spans="1:39" ht="16">
-      <c r="A84" s="171"/>
-      <c r="B84" s="171"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
+      <c r="A84" s="161"/>
+      <c r="B84" s="161"/>
+      <c r="C84" s="161"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="161"/>
+      <c r="F84" s="161"/>
       <c r="G84" s="116"/>
       <c r="H84" s="124"/>
-      <c r="I84" s="176" t="s">
+      <c r="I84" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="J84" s="176">
+      <c r="J84" s="166">
         <f t="shared" si="0"/>
         <v>1003.6487</v>
       </c>
-      <c r="K84" s="179">
+      <c r="K84" s="169">
         <f t="shared" si="1"/>
         <v>0.68263800000000008</v>
       </c>
-      <c r="L84" s="177">
+      <c r="L84" s="167">
         <f t="shared" si="2"/>
         <v>685.12874127060002</v>
       </c>
-      <c r="M84" s="176"/>
+      <c r="M84" s="166"/>
       <c r="N84" s="130"/>
       <c r="O84" s="130"/>
       <c r="P84" s="124"/>
@@ -25514,30 +25487,30 @@
       <c r="AM84" s="113"/>
     </row>
     <row r="85" spans="1:39" ht="16">
-      <c r="A85" s="171"/>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="A85" s="161"/>
+      <c r="B85" s="161"/>
+      <c r="C85" s="161"/>
+      <c r="D85" s="161"/>
+      <c r="E85" s="161"/>
+      <c r="F85" s="161"/>
       <c r="G85" s="128"/>
       <c r="H85" s="129"/>
-      <c r="I85" s="176" t="s">
+      <c r="I85" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="J85" s="176">
+      <c r="J85" s="166">
         <f t="shared" si="0"/>
         <v>74744.589250000005</v>
       </c>
-      <c r="K85" s="179">
+      <c r="K85" s="169">
         <f t="shared" si="1"/>
         <v>0.68412600000000001</v>
       </c>
-      <c r="L85" s="177">
+      <c r="L85" s="167">
         <f t="shared" si="2"/>
         <v>51134.716865245508</v>
       </c>
-      <c r="M85" s="176"/>
+      <c r="M85" s="166"/>
       <c r="N85" s="130"/>
       <c r="O85" s="130"/>
       <c r="P85" s="124"/>
@@ -25566,30 +25539,30 @@
       <c r="AM85" s="113"/>
     </row>
     <row r="86" spans="1:39" ht="16">
-      <c r="A86" s="172"/>
-      <c r="B86" s="172"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="174"/>
+      <c r="A86" s="162"/>
+      <c r="B86" s="162"/>
+      <c r="C86" s="165"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="161"/>
+      <c r="F86" s="164"/>
       <c r="G86" s="128"/>
       <c r="H86" s="129"/>
-      <c r="I86" s="176" t="s">
+      <c r="I86" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="J86" s="176">
+      <c r="J86" s="166">
         <f t="shared" si="0"/>
         <v>74744.589250000005</v>
       </c>
-      <c r="K86" s="179">
+      <c r="K86" s="169">
         <f t="shared" si="1"/>
         <v>0.68412600000000001</v>
       </c>
-      <c r="L86" s="177">
+      <c r="L86" s="167">
         <f t="shared" si="2"/>
         <v>51134.716865245508</v>
       </c>
-      <c r="M86" s="176"/>
+      <c r="M86" s="166"/>
       <c r="N86" s="130"/>
       <c r="O86" s="130"/>
       <c r="P86" s="124"/>
@@ -25618,30 +25591,30 @@
       <c r="AM86" s="113"/>
     </row>
     <row r="87" spans="1:39" ht="16">
-      <c r="A87" s="171"/>
-      <c r="B87" s="171"/>
-      <c r="C87" s="171"/>
-      <c r="D87" s="171"/>
-      <c r="E87" s="171"/>
-      <c r="F87" s="174"/>
+      <c r="A87" s="161"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="164"/>
       <c r="G87" s="128"/>
       <c r="H87" s="129"/>
-      <c r="I87" s="176" t="s">
+      <c r="I87" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="J87" s="176">
+      <c r="J87" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K87" s="179">
+      <c r="K87" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L87" s="177">
+      <c r="L87" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="180"/>
+      <c r="M87" s="170"/>
       <c r="N87" s="130"/>
       <c r="O87" s="130"/>
       <c r="P87" s="124"/>
@@ -25670,30 +25643,30 @@
       <c r="AM87" s="113"/>
     </row>
     <row r="88" spans="1:39" ht="16">
-      <c r="A88" s="171"/>
-      <c r="B88" s="171"/>
-      <c r="C88" s="171"/>
-      <c r="D88" s="171"/>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
+      <c r="A88" s="161"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
       <c r="G88" s="128"/>
       <c r="H88" s="129"/>
-      <c r="I88" s="176" t="s">
+      <c r="I88" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="J88" s="176">
+      <c r="J88" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K88" s="179">
+      <c r="K88" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L88" s="177">
+      <c r="L88" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M88" s="176"/>
+      <c r="M88" s="166"/>
       <c r="N88" s="130"/>
       <c r="O88" s="130"/>
       <c r="P88" s="124"/>
@@ -25722,30 +25695,30 @@
       <c r="AM88" s="113"/>
     </row>
     <row r="89" spans="1:39" ht="16">
-      <c r="A89" s="171"/>
-      <c r="B89" s="171"/>
-      <c r="C89" s="171"/>
-      <c r="D89" s="171"/>
-      <c r="E89" s="171"/>
-      <c r="F89" s="171"/>
+      <c r="A89" s="161"/>
+      <c r="B89" s="161"/>
+      <c r="C89" s="161"/>
+      <c r="D89" s="161"/>
+      <c r="E89" s="161"/>
+      <c r="F89" s="161"/>
       <c r="G89" s="128"/>
       <c r="H89" s="129"/>
-      <c r="I89" s="176" t="s">
+      <c r="I89" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="J89" s="176">
+      <c r="J89" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K89" s="179">
+      <c r="K89" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L89" s="177">
+      <c r="L89" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M89" s="176"/>
+      <c r="M89" s="166"/>
       <c r="N89" s="130"/>
       <c r="O89" s="130"/>
       <c r="P89" s="124"/>
@@ -25774,30 +25747,30 @@
       <c r="AM89" s="113"/>
     </row>
     <row r="90" spans="1:39" ht="16">
-      <c r="A90" s="171"/>
-      <c r="B90" s="171"/>
-      <c r="C90" s="171"/>
-      <c r="D90" s="171"/>
-      <c r="E90" s="171"/>
-      <c r="F90" s="171"/>
+      <c r="A90" s="161"/>
+      <c r="B90" s="161"/>
+      <c r="C90" s="161"/>
+      <c r="D90" s="161"/>
+      <c r="E90" s="161"/>
+      <c r="F90" s="161"/>
       <c r="G90" s="128"/>
       <c r="H90" s="129"/>
-      <c r="I90" s="176" t="s">
+      <c r="I90" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="J90" s="176">
+      <c r="J90" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K90" s="179">
+      <c r="K90" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L90" s="177">
+      <c r="L90" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M90" s="176"/>
+      <c r="M90" s="166"/>
       <c r="N90" s="130"/>
       <c r="O90" s="130"/>
       <c r="P90" s="124"/>
@@ -25826,30 +25799,30 @@
       <c r="AM90" s="113"/>
     </row>
     <row r="91" spans="1:39" ht="19">
-      <c r="A91" s="172"/>
-      <c r="B91" s="172"/>
-      <c r="C91" s="173"/>
-      <c r="D91" s="171"/>
-      <c r="E91" s="171"/>
-      <c r="F91" s="174"/>
+      <c r="A91" s="162"/>
+      <c r="B91" s="162"/>
+      <c r="C91" s="163"/>
+      <c r="D91" s="161"/>
+      <c r="E91" s="161"/>
+      <c r="F91" s="164"/>
       <c r="G91" s="128"/>
       <c r="H91" s="131"/>
-      <c r="I91" s="176" t="s">
+      <c r="I91" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="176">
+      <c r="J91" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K91" s="179">
+      <c r="K91" s="169">
         <f t="shared" si="1"/>
         <v>0.61</v>
       </c>
-      <c r="L91" s="177">
+      <c r="L91" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M91" s="176"/>
+      <c r="M91" s="166"/>
       <c r="N91" s="130"/>
       <c r="O91" s="130"/>
       <c r="P91" s="124"/>
@@ -25878,30 +25851,30 @@
       <c r="AM91" s="113"/>
     </row>
     <row r="92" spans="1:39" ht="16">
-      <c r="A92" s="171"/>
-      <c r="B92" s="171"/>
-      <c r="C92" s="171"/>
-      <c r="D92" s="171"/>
-      <c r="E92" s="171"/>
-      <c r="F92" s="171"/>
+      <c r="A92" s="161"/>
+      <c r="B92" s="161"/>
+      <c r="C92" s="161"/>
+      <c r="D92" s="161"/>
+      <c r="E92" s="161"/>
+      <c r="F92" s="161"/>
       <c r="G92" s="128"/>
       <c r="H92" s="129"/>
-      <c r="I92" s="176" t="s">
+      <c r="I92" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="J92" s="176">
+      <c r="J92" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K92" s="179">
+      <c r="K92" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L92" s="177">
+      <c r="L92" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M92" s="176"/>
+      <c r="M92" s="166"/>
       <c r="N92" s="130"/>
       <c r="O92" s="130"/>
       <c r="P92" s="124"/>
@@ -25930,30 +25903,30 @@
       <c r="AM92" s="113"/>
     </row>
     <row r="93" spans="1:39" ht="16">
-      <c r="A93" s="171"/>
-      <c r="B93" s="171"/>
-      <c r="C93" s="171"/>
-      <c r="D93" s="171"/>
-      <c r="E93" s="171"/>
-      <c r="F93" s="171"/>
+      <c r="A93" s="161"/>
+      <c r="B93" s="161"/>
+      <c r="C93" s="161"/>
+      <c r="D93" s="161"/>
+      <c r="E93" s="161"/>
+      <c r="F93" s="161"/>
       <c r="G93" s="128"/>
       <c r="H93" s="129"/>
-      <c r="I93" s="176" t="s">
+      <c r="I93" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="J93" s="176">
+      <c r="J93" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K93" s="179">
+      <c r="K93" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L93" s="177">
+      <c r="L93" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="176"/>
+      <c r="M93" s="166"/>
       <c r="N93" s="130"/>
       <c r="O93" s="130"/>
       <c r="P93" s="124"/>
@@ -25982,30 +25955,30 @@
       <c r="AM93" s="113"/>
     </row>
     <row r="94" spans="1:39" ht="16">
-      <c r="A94" s="172"/>
-      <c r="B94" s="172"/>
-      <c r="C94" s="175"/>
-      <c r="D94" s="171"/>
-      <c r="E94" s="171"/>
-      <c r="F94" s="174"/>
+      <c r="A94" s="162"/>
+      <c r="B94" s="162"/>
+      <c r="C94" s="165"/>
+      <c r="D94" s="161"/>
+      <c r="E94" s="161"/>
+      <c r="F94" s="164"/>
       <c r="G94" s="128"/>
       <c r="H94" s="129"/>
-      <c r="I94" s="176" t="s">
+      <c r="I94" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="J94" s="176">
+      <c r="J94" s="166">
         <f t="shared" si="0"/>
         <v>27866.973293999999</v>
       </c>
-      <c r="K94" s="179">
+      <c r="K94" s="169">
         <f t="shared" si="1"/>
         <v>0.61919499999999994</v>
       </c>
-      <c r="L94" s="177">
+      <c r="L94" s="167">
         <f t="shared" si="2"/>
         <v>17255.090528778328</v>
       </c>
-      <c r="M94" s="176"/>
+      <c r="M94" s="166"/>
       <c r="N94" s="130"/>
       <c r="O94" s="130"/>
       <c r="P94" s="124"/>
@@ -26034,30 +26007,30 @@
       <c r="AM94" s="113"/>
     </row>
     <row r="95" spans="1:39" ht="16">
-      <c r="A95" s="171"/>
-      <c r="B95" s="171"/>
-      <c r="C95" s="171"/>
-      <c r="D95" s="171"/>
-      <c r="E95" s="171"/>
-      <c r="F95" s="171"/>
+      <c r="A95" s="161"/>
+      <c r="B95" s="161"/>
+      <c r="C95" s="161"/>
+      <c r="D95" s="161"/>
+      <c r="E95" s="161"/>
+      <c r="F95" s="161"/>
       <c r="G95" s="128"/>
       <c r="H95" s="129"/>
-      <c r="I95" s="176" t="s">
+      <c r="I95" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="J95" s="176">
+      <c r="J95" s="166">
         <f t="shared" si="0"/>
         <v>22158.782653999999</v>
       </c>
-      <c r="K95" s="179">
+      <c r="K95" s="169">
         <f t="shared" si="1"/>
         <v>0.62109999999999999</v>
       </c>
-      <c r="L95" s="177">
+      <c r="L95" s="167">
         <f t="shared" si="2"/>
         <v>13762.8199063994</v>
       </c>
-      <c r="M95" s="176"/>
+      <c r="M95" s="166"/>
       <c r="N95" s="130"/>
       <c r="O95" s="130"/>
       <c r="P95" s="124"/>
@@ -26086,30 +26059,30 @@
       <c r="AM95" s="113"/>
     </row>
     <row r="96" spans="1:39" ht="16">
-      <c r="A96" s="171"/>
-      <c r="B96" s="171"/>
-      <c r="C96" s="171"/>
-      <c r="D96" s="171"/>
-      <c r="E96" s="171"/>
-      <c r="F96" s="171"/>
+      <c r="A96" s="161"/>
+      <c r="B96" s="161"/>
+      <c r="C96" s="161"/>
+      <c r="D96" s="161"/>
+      <c r="E96" s="161"/>
+      <c r="F96" s="161"/>
       <c r="G96" s="128"/>
       <c r="H96" s="129"/>
-      <c r="I96" s="176" t="s">
+      <c r="I96" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="J96" s="176">
+      <c r="J96" s="166">
         <f t="shared" si="0"/>
         <v>5708.1906399999998</v>
       </c>
-      <c r="K96" s="179">
+      <c r="K96" s="169">
         <f t="shared" si="1"/>
         <v>0.61180000000000001</v>
       </c>
-      <c r="L96" s="177">
+      <c r="L96" s="167">
         <f t="shared" si="2"/>
         <v>3492.2710335520001</v>
       </c>
-      <c r="M96" s="176"/>
+      <c r="M96" s="166"/>
       <c r="N96" s="130"/>
       <c r="O96" s="130"/>
       <c r="P96" s="124"/>
@@ -26138,30 +26111,30 @@
       <c r="AM96" s="113"/>
     </row>
     <row r="97" spans="1:39" ht="16">
-      <c r="A97" s="171"/>
-      <c r="B97" s="171"/>
-      <c r="C97" s="171"/>
-      <c r="D97" s="171"/>
-      <c r="E97" s="171"/>
-      <c r="F97" s="171"/>
+      <c r="A97" s="161"/>
+      <c r="B97" s="161"/>
+      <c r="C97" s="161"/>
+      <c r="D97" s="161"/>
+      <c r="E97" s="161"/>
+      <c r="F97" s="161"/>
       <c r="G97" s="128"/>
       <c r="H97" s="129"/>
-      <c r="I97" s="176" t="s">
+      <c r="I97" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="J97" s="176">
+      <c r="J97" s="166">
         <f t="shared" si="0"/>
         <v>10808.07805</v>
       </c>
-      <c r="K97" s="179">
+      <c r="K97" s="169">
         <f t="shared" si="1"/>
         <v>0.61070000000000002</v>
       </c>
-      <c r="L97" s="177">
+      <c r="L97" s="167">
         <f t="shared" si="2"/>
         <v>6600.493265135</v>
       </c>
-      <c r="M97" s="176"/>
+      <c r="M97" s="166"/>
       <c r="N97" s="130"/>
       <c r="O97" s="130"/>
       <c r="P97" s="124"/>
@@ -26190,30 +26163,30 @@
       <c r="AM97" s="113"/>
     </row>
     <row r="98" spans="1:39" ht="16">
-      <c r="A98" s="171"/>
-      <c r="B98" s="171"/>
-      <c r="C98" s="171"/>
-      <c r="D98" s="171"/>
-      <c r="E98" s="171"/>
-      <c r="F98" s="171"/>
+      <c r="A98" s="161"/>
+      <c r="B98" s="161"/>
+      <c r="C98" s="161"/>
+      <c r="D98" s="161"/>
+      <c r="E98" s="161"/>
+      <c r="F98" s="161"/>
       <c r="G98" s="128"/>
       <c r="H98" s="129"/>
-      <c r="I98" s="176" t="s">
+      <c r="I98" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="J98" s="176">
+      <c r="J98" s="166">
         <f t="shared" si="0"/>
         <v>417.69489800000002</v>
       </c>
-      <c r="K98" s="179">
+      <c r="K98" s="169">
         <f t="shared" si="1"/>
         <v>0.56729999999999992</v>
       </c>
-      <c r="L98" s="177">
+      <c r="L98" s="167">
         <f t="shared" si="2"/>
         <v>236.95831563539997</v>
       </c>
-      <c r="M98" s="176"/>
+      <c r="M98" s="166"/>
       <c r="N98" s="130"/>
       <c r="O98" s="130"/>
       <c r="P98" s="124"/>
@@ -26242,30 +26215,30 @@
       <c r="AM98" s="113"/>
     </row>
     <row r="99" spans="1:39" ht="16">
-      <c r="A99" s="172"/>
-      <c r="B99" s="172"/>
-      <c r="C99" s="173"/>
-      <c r="D99" s="171"/>
-      <c r="E99" s="171"/>
-      <c r="F99" s="174"/>
+      <c r="A99" s="162"/>
+      <c r="B99" s="162"/>
+      <c r="C99" s="163"/>
+      <c r="D99" s="161"/>
+      <c r="E99" s="161"/>
+      <c r="F99" s="164"/>
       <c r="G99" s="128"/>
       <c r="H99" s="129"/>
-      <c r="I99" s="176" t="s">
+      <c r="I99" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="J99" s="176">
+      <c r="J99" s="166">
         <f t="shared" si="0"/>
         <v>11225.772948</v>
       </c>
-      <c r="K99" s="179">
+      <c r="K99" s="169">
         <f t="shared" si="1"/>
         <v>0.60908499999999999</v>
       </c>
-      <c r="L99" s="177">
+      <c r="L99" s="167">
         <f t="shared" si="2"/>
         <v>6837.4499160325795</v>
       </c>
-      <c r="M99" s="176"/>
+      <c r="M99" s="166"/>
       <c r="N99" s="130"/>
       <c r="O99" s="130"/>
       <c r="P99" s="124"/>
@@ -26294,30 +26267,30 @@
       <c r="AM99" s="113"/>
     </row>
     <row r="100" spans="1:39" ht="16">
-      <c r="A100" s="171"/>
-      <c r="B100" s="171"/>
-      <c r="C100" s="171"/>
-      <c r="D100" s="171"/>
-      <c r="E100" s="171"/>
-      <c r="F100" s="171"/>
+      <c r="A100" s="161"/>
+      <c r="B100" s="161"/>
+      <c r="C100" s="161"/>
+      <c r="D100" s="161"/>
+      <c r="E100" s="161"/>
+      <c r="F100" s="161"/>
       <c r="G100" s="128"/>
       <c r="H100" s="129"/>
-      <c r="I100" s="176" t="s">
+      <c r="I100" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="J100" s="176">
+      <c r="J100" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K100" s="179">
+      <c r="K100" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L100" s="177">
+      <c r="L100" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M100" s="176"/>
+      <c r="M100" s="166"/>
       <c r="N100" s="130"/>
       <c r="O100" s="130"/>
       <c r="P100" s="124"/>
@@ -26346,30 +26319,30 @@
       <c r="AM100" s="113"/>
     </row>
     <row r="101" spans="1:39" ht="16">
-      <c r="A101" s="171"/>
-      <c r="B101" s="171"/>
-      <c r="C101" s="171"/>
-      <c r="D101" s="171"/>
-      <c r="E101" s="171"/>
-      <c r="F101" s="171"/>
+      <c r="A101" s="161"/>
+      <c r="B101" s="161"/>
+      <c r="C101" s="161"/>
+      <c r="D101" s="161"/>
+      <c r="E101" s="161"/>
+      <c r="F101" s="161"/>
       <c r="G101" s="128"/>
       <c r="H101" s="129"/>
-      <c r="I101" s="176" t="s">
+      <c r="I101" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="J101" s="176">
+      <c r="J101" s="166">
         <f t="shared" si="0"/>
         <v>11681.220740000001</v>
       </c>
-      <c r="K101" s="179">
+      <c r="K101" s="169">
         <f t="shared" si="1"/>
         <v>0.36930000000000002</v>
       </c>
-      <c r="L101" s="177">
+      <c r="L101" s="167">
         <f t="shared" si="2"/>
         <v>4313.8748192820003</v>
       </c>
-      <c r="M101" s="176"/>
+      <c r="M101" s="166"/>
       <c r="N101" s="130"/>
       <c r="O101" s="130"/>
       <c r="P101" s="124"/>
@@ -26398,30 +26371,30 @@
       <c r="AM101" s="113"/>
     </row>
     <row r="102" spans="1:39" ht="16">
-      <c r="A102" s="172"/>
-      <c r="B102" s="172"/>
-      <c r="C102" s="173"/>
-      <c r="D102" s="171"/>
-      <c r="E102" s="171"/>
-      <c r="F102" s="174"/>
+      <c r="A102" s="162"/>
+      <c r="B102" s="162"/>
+      <c r="C102" s="163"/>
+      <c r="D102" s="161"/>
+      <c r="E102" s="161"/>
+      <c r="F102" s="164"/>
       <c r="G102" s="128"/>
       <c r="H102" s="129"/>
-      <c r="I102" s="176" t="s">
+      <c r="I102" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="J102" s="176">
+      <c r="J102" s="166">
         <f t="shared" si="0"/>
         <v>2189.3000000000002</v>
       </c>
-      <c r="K102" s="179">
+      <c r="K102" s="169">
         <f t="shared" si="1"/>
         <v>0.35822100000000001</v>
       </c>
-      <c r="L102" s="177">
+      <c r="L102" s="167">
         <f t="shared" si="2"/>
         <v>784.25323530000014</v>
       </c>
-      <c r="M102" s="176"/>
+      <c r="M102" s="166"/>
       <c r="N102" s="130"/>
       <c r="O102" s="130"/>
       <c r="P102" s="124"/>
@@ -26450,30 +26423,30 @@
       <c r="AM102" s="113"/>
     </row>
     <row r="103" spans="1:39" ht="16">
-      <c r="A103" s="171"/>
-      <c r="B103" s="171"/>
-      <c r="C103" s="171"/>
-      <c r="D103" s="171"/>
-      <c r="E103" s="171"/>
-      <c r="F103" s="171"/>
+      <c r="A103" s="161"/>
+      <c r="B103" s="161"/>
+      <c r="C103" s="161"/>
+      <c r="D103" s="161"/>
+      <c r="E103" s="161"/>
+      <c r="F103" s="161"/>
       <c r="G103" s="128"/>
       <c r="H103" s="129"/>
-      <c r="I103" s="176" t="s">
+      <c r="I103" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="J103" s="176">
+      <c r="J103" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K103" s="179">
+      <c r="K103" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L103" s="177">
+      <c r="L103" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M103" s="176"/>
+      <c r="M103" s="166"/>
       <c r="N103" s="130"/>
       <c r="O103" s="130"/>
       <c r="P103" s="124"/>
@@ -26502,30 +26475,30 @@
       <c r="AM103" s="113"/>
     </row>
     <row r="104" spans="1:39" ht="16">
-      <c r="A104" s="172"/>
-      <c r="B104" s="172"/>
-      <c r="C104" s="173"/>
-      <c r="D104" s="171"/>
-      <c r="E104" s="171"/>
-      <c r="F104" s="174"/>
+      <c r="A104" s="162"/>
+      <c r="B104" s="162"/>
+      <c r="C104" s="163"/>
+      <c r="D104" s="161"/>
+      <c r="E104" s="161"/>
+      <c r="F104" s="164"/>
       <c r="G104" s="128"/>
       <c r="H104" s="129"/>
-      <c r="I104" s="176" t="s">
+      <c r="I104" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="J104" s="176">
+      <c r="J104" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K104" s="179">
+      <c r="K104" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L104" s="177">
+      <c r="L104" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M104" s="176"/>
+      <c r="M104" s="166"/>
       <c r="N104" s="130"/>
       <c r="O104" s="130"/>
       <c r="P104" s="124"/>
@@ -26554,30 +26527,30 @@
       <c r="AM104" s="113"/>
     </row>
     <row r="105" spans="1:39" ht="16">
-      <c r="A105" s="171"/>
-      <c r="B105" s="171"/>
-      <c r="C105" s="171"/>
-      <c r="D105" s="171"/>
-      <c r="E105" s="171"/>
-      <c r="F105" s="171"/>
+      <c r="A105" s="161"/>
+      <c r="B105" s="161"/>
+      <c r="C105" s="161"/>
+      <c r="D105" s="161"/>
+      <c r="E105" s="161"/>
+      <c r="F105" s="161"/>
       <c r="G105" s="128"/>
       <c r="H105" s="129"/>
-      <c r="I105" s="176" t="s">
+      <c r="I105" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="J105" s="176">
+      <c r="J105" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K105" s="179">
+      <c r="K105" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L105" s="177">
+      <c r="L105" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M105" s="176"/>
+      <c r="M105" s="166"/>
       <c r="N105" s="130"/>
       <c r="O105" s="130"/>
       <c r="P105" s="124"/>
@@ -26606,30 +26579,30 @@
       <c r="AM105" s="113"/>
     </row>
     <row r="106" spans="1:39" ht="16">
-      <c r="A106" s="172"/>
-      <c r="B106" s="172"/>
-      <c r="C106" s="173"/>
-      <c r="D106" s="171"/>
-      <c r="E106" s="171"/>
-      <c r="F106" s="171"/>
+      <c r="A106" s="162"/>
+      <c r="B106" s="162"/>
+      <c r="C106" s="163"/>
+      <c r="D106" s="161"/>
+      <c r="E106" s="161"/>
+      <c r="F106" s="161"/>
       <c r="G106" s="128"/>
       <c r="H106" s="129"/>
-      <c r="I106" s="176" t="s">
+      <c r="I106" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="J106" s="176">
+      <c r="J106" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K106" s="179">
+      <c r="K106" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L106" s="177">
+      <c r="L106" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M106" s="176"/>
+      <c r="M106" s="166"/>
       <c r="N106" s="130"/>
       <c r="O106" s="130"/>
       <c r="P106" s="124"/>
@@ -26658,30 +26631,30 @@
       <c r="AM106" s="113"/>
     </row>
     <row r="107" spans="1:39" ht="16">
-      <c r="A107" s="172"/>
-      <c r="B107" s="172"/>
-      <c r="C107" s="173"/>
-      <c r="D107" s="171"/>
-      <c r="E107" s="171"/>
-      <c r="F107" s="171"/>
+      <c r="A107" s="162"/>
+      <c r="B107" s="162"/>
+      <c r="C107" s="163"/>
+      <c r="D107" s="161"/>
+      <c r="E107" s="161"/>
+      <c r="F107" s="161"/>
       <c r="G107" s="128"/>
       <c r="H107" s="129"/>
-      <c r="I107" s="176" t="s">
+      <c r="I107" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="J107" s="176">
+      <c r="J107" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K107" s="179">
+      <c r="K107" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L107" s="177">
+      <c r="L107" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M107" s="176"/>
+      <c r="M107" s="166"/>
       <c r="N107" s="130"/>
       <c r="O107" s="130"/>
       <c r="P107" s="124"/>
@@ -26710,30 +26683,30 @@
       <c r="AM107" s="113"/>
     </row>
     <row r="108" spans="1:39" ht="16">
-      <c r="A108" s="171"/>
-      <c r="B108" s="171"/>
-      <c r="C108" s="171"/>
-      <c r="D108" s="171"/>
-      <c r="E108" s="171"/>
-      <c r="F108" s="171"/>
+      <c r="A108" s="161"/>
+      <c r="B108" s="161"/>
+      <c r="C108" s="161"/>
+      <c r="D108" s="161"/>
+      <c r="E108" s="161"/>
+      <c r="F108" s="161"/>
       <c r="G108" s="128"/>
       <c r="H108" s="129"/>
-      <c r="I108" s="176" t="s">
+      <c r="I108" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="J108" s="176">
+      <c r="J108" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K108" s="179">
+      <c r="K108" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L108" s="177">
+      <c r="L108" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M108" s="176"/>
+      <c r="M108" s="166"/>
       <c r="N108" s="130"/>
       <c r="O108" s="130"/>
       <c r="P108" s="124"/>
@@ -26762,30 +26735,30 @@
       <c r="AM108" s="113"/>
     </row>
     <row r="109" spans="1:39" ht="16">
-      <c r="A109" s="171"/>
-      <c r="B109" s="171"/>
-      <c r="C109" s="171"/>
-      <c r="D109" s="171"/>
-      <c r="E109" s="171"/>
-      <c r="F109" s="171"/>
+      <c r="A109" s="161"/>
+      <c r="B109" s="161"/>
+      <c r="C109" s="161"/>
+      <c r="D109" s="161"/>
+      <c r="E109" s="161"/>
+      <c r="F109" s="161"/>
       <c r="G109" s="128"/>
       <c r="H109" s="129"/>
-      <c r="I109" s="176" t="s">
+      <c r="I109" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="J109" s="176">
+      <c r="J109" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K109" s="179">
+      <c r="K109" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L109" s="177">
+      <c r="L109" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M109" s="176"/>
+      <c r="M109" s="166"/>
       <c r="N109" s="130"/>
       <c r="O109" s="130"/>
       <c r="P109" s="124"/>
@@ -26814,30 +26787,30 @@
       <c r="AM109" s="113"/>
     </row>
     <row r="110" spans="1:39" ht="16">
-      <c r="A110" s="172"/>
-      <c r="B110" s="172"/>
-      <c r="C110" s="173"/>
-      <c r="D110" s="171"/>
-      <c r="E110" s="171"/>
-      <c r="F110" s="174"/>
+      <c r="A110" s="162"/>
+      <c r="B110" s="162"/>
+      <c r="C110" s="163"/>
+      <c r="D110" s="161"/>
+      <c r="E110" s="161"/>
+      <c r="F110" s="164"/>
       <c r="G110" s="128"/>
       <c r="H110" s="129"/>
-      <c r="I110" s="176" t="s">
+      <c r="I110" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="J110" s="176">
+      <c r="J110" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K110" s="179">
+      <c r="K110" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L110" s="177">
+      <c r="L110" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="176"/>
+      <c r="M110" s="166"/>
       <c r="N110" s="130"/>
       <c r="O110" s="130"/>
       <c r="P110" s="124"/>
@@ -26866,30 +26839,30 @@
       <c r="AM110" s="113"/>
     </row>
     <row r="111" spans="1:39" ht="16">
-      <c r="A111" s="171"/>
-      <c r="B111" s="171"/>
-      <c r="C111" s="171"/>
-      <c r="D111" s="171"/>
-      <c r="E111" s="171"/>
-      <c r="F111" s="171"/>
+      <c r="A111" s="161"/>
+      <c r="B111" s="161"/>
+      <c r="C111" s="161"/>
+      <c r="D111" s="161"/>
+      <c r="E111" s="161"/>
+      <c r="F111" s="161"/>
       <c r="G111" s="128"/>
       <c r="H111" s="129"/>
-      <c r="I111" s="176" t="s">
+      <c r="I111" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="J111" s="176">
+      <c r="J111" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K111" s="179">
+      <c r="K111" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L111" s="177">
+      <c r="L111" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="176"/>
+      <c r="M111" s="166"/>
       <c r="N111" s="130"/>
       <c r="O111" s="130"/>
       <c r="P111" s="124"/>
@@ -26918,30 +26891,30 @@
       <c r="AM111" s="113"/>
     </row>
     <row r="112" spans="1:39" ht="16">
-      <c r="A112" s="171"/>
-      <c r="B112" s="171"/>
-      <c r="C112" s="171"/>
-      <c r="D112" s="171"/>
-      <c r="E112" s="171"/>
-      <c r="F112" s="171"/>
+      <c r="A112" s="161"/>
+      <c r="B112" s="161"/>
+      <c r="C112" s="161"/>
+      <c r="D112" s="161"/>
+      <c r="E112" s="161"/>
+      <c r="F112" s="161"/>
       <c r="G112" s="128"/>
       <c r="H112" s="129"/>
-      <c r="I112" s="176" t="s">
+      <c r="I112" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="J112" s="176">
+      <c r="J112" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K112" s="179">
+      <c r="K112" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L112" s="177">
+      <c r="L112" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="176"/>
+      <c r="M112" s="166"/>
       <c r="N112" s="130"/>
       <c r="O112" s="130"/>
       <c r="P112" s="124"/>
@@ -26970,30 +26943,30 @@
       <c r="AM112" s="113"/>
     </row>
     <row r="113" spans="1:39" ht="16">
-      <c r="A113" s="172"/>
-      <c r="B113" s="172"/>
-      <c r="C113" s="173"/>
-      <c r="D113" s="171"/>
-      <c r="E113" s="171"/>
-      <c r="F113" s="174"/>
+      <c r="A113" s="162"/>
+      <c r="B113" s="162"/>
+      <c r="C113" s="163"/>
+      <c r="D113" s="161"/>
+      <c r="E113" s="161"/>
+      <c r="F113" s="164"/>
       <c r="G113" s="128"/>
       <c r="H113" s="129"/>
-      <c r="I113" s="176" t="s">
+      <c r="I113" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="J113" s="176">
+      <c r="J113" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K113" s="179">
+      <c r="K113" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L113" s="177">
+      <c r="L113" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="176"/>
+      <c r="M113" s="166"/>
       <c r="N113" s="130"/>
       <c r="O113" s="130"/>
       <c r="P113" s="124"/>
@@ -27022,30 +26995,30 @@
       <c r="AM113" s="113"/>
     </row>
     <row r="114" spans="1:39" ht="16">
-      <c r="A114" s="171"/>
-      <c r="B114" s="171"/>
-      <c r="C114" s="171"/>
-      <c r="D114" s="171"/>
-      <c r="E114" s="171"/>
-      <c r="F114" s="171"/>
+      <c r="A114" s="161"/>
+      <c r="B114" s="161"/>
+      <c r="C114" s="161"/>
+      <c r="D114" s="161"/>
+      <c r="E114" s="161"/>
+      <c r="F114" s="161"/>
       <c r="G114" s="128"/>
       <c r="H114" s="129"/>
-      <c r="I114" s="176" t="s">
+      <c r="I114" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="J114" s="176">
+      <c r="J114" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K114" s="179">
+      <c r="K114" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L114" s="177">
+      <c r="L114" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M114" s="176"/>
+      <c r="M114" s="166"/>
       <c r="N114" s="130"/>
       <c r="O114" s="130"/>
       <c r="P114" s="124"/>
@@ -27074,30 +27047,30 @@
       <c r="AM114" s="113"/>
     </row>
     <row r="115" spans="1:39" ht="16">
-      <c r="A115" s="171"/>
-      <c r="B115" s="171"/>
-      <c r="C115" s="171"/>
-      <c r="D115" s="171"/>
-      <c r="E115" s="171"/>
-      <c r="F115" s="171"/>
+      <c r="A115" s="161"/>
+      <c r="B115" s="161"/>
+      <c r="C115" s="161"/>
+      <c r="D115" s="161"/>
+      <c r="E115" s="161"/>
+      <c r="F115" s="161"/>
       <c r="G115" s="128"/>
       <c r="H115" s="129"/>
-      <c r="I115" s="176" t="s">
+      <c r="I115" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="J115" s="176">
+      <c r="J115" s="166">
         <f t="shared" si="0"/>
         <v>61164.541878000004</v>
       </c>
-      <c r="K115" s="179">
+      <c r="K115" s="169">
         <f t="shared" si="1"/>
         <v>0.52298200000000006</v>
       </c>
-      <c r="L115" s="177">
+      <c r="L115" s="167">
         <f t="shared" si="2"/>
         <v>31987.9544404402</v>
       </c>
-      <c r="M115" s="176"/>
+      <c r="M115" s="166"/>
       <c r="N115" s="130"/>
       <c r="O115" s="130"/>
       <c r="P115" s="124"/>
@@ -27126,30 +27099,30 @@
       <c r="AM115" s="113"/>
     </row>
     <row r="116" spans="1:39" ht="16">
-      <c r="A116" s="171"/>
-      <c r="B116" s="171"/>
-      <c r="C116" s="171"/>
-      <c r="D116" s="171"/>
-      <c r="E116" s="171"/>
-      <c r="F116" s="171"/>
+      <c r="A116" s="161"/>
+      <c r="B116" s="161"/>
+      <c r="C116" s="161"/>
+      <c r="D116" s="161"/>
+      <c r="E116" s="161"/>
+      <c r="F116" s="161"/>
       <c r="G116" s="116"/>
       <c r="H116" s="124"/>
-      <c r="I116" s="176" t="s">
+      <c r="I116" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="J116" s="176">
+      <c r="J116" s="166">
         <f t="shared" si="0"/>
         <v>61164.541878000004</v>
       </c>
-      <c r="K116" s="179">
+      <c r="K116" s="169">
         <f t="shared" si="1"/>
         <v>0.52298200000000006</v>
       </c>
-      <c r="L116" s="177">
+      <c r="L116" s="167">
         <f t="shared" si="2"/>
         <v>31987.9544404402</v>
       </c>
-      <c r="M116" s="176"/>
+      <c r="M116" s="166"/>
       <c r="N116" s="130"/>
       <c r="O116" s="130"/>
       <c r="P116" s="124"/>
@@ -27178,19 +27151,19 @@
       <c r="AM116" s="113"/>
     </row>
     <row r="117" spans="1:39">
-      <c r="A117" s="171"/>
-      <c r="B117" s="171"/>
-      <c r="C117" s="171"/>
-      <c r="D117" s="171"/>
-      <c r="E117" s="171"/>
-      <c r="F117" s="171"/>
+      <c r="A117" s="161"/>
+      <c r="B117" s="161"/>
+      <c r="C117" s="161"/>
+      <c r="D117" s="161"/>
+      <c r="E117" s="161"/>
+      <c r="F117" s="161"/>
       <c r="G117" s="113"/>
       <c r="H117" s="113"/>
-      <c r="I117" s="176"/>
-      <c r="J117" s="176"/>
-      <c r="K117" s="176"/>
-      <c r="L117" s="176"/>
-      <c r="M117" s="176"/>
+      <c r="I117" s="166"/>
+      <c r="J117" s="166"/>
+      <c r="K117" s="166"/>
+      <c r="L117" s="166"/>
+      <c r="M117" s="166"/>
       <c r="N117" s="113"/>
       <c r="O117" s="113"/>
       <c r="P117" s="113"/>
@@ -27219,19 +27192,19 @@
       <c r="AM117" s="113"/>
     </row>
     <row r="118" spans="1:39">
-      <c r="A118" s="171"/>
-      <c r="B118" s="171"/>
-      <c r="C118" s="171"/>
-      <c r="D118" s="171"/>
-      <c r="E118" s="171"/>
-      <c r="F118" s="171"/>
-      <c r="G118" s="256"/>
-      <c r="H118" s="256"/>
-      <c r="I118" s="176"/>
-      <c r="J118" s="181"/>
-      <c r="K118" s="181"/>
-      <c r="L118" s="176"/>
-      <c r="M118" s="176"/>
+      <c r="A118" s="161"/>
+      <c r="B118" s="161"/>
+      <c r="C118" s="161"/>
+      <c r="D118" s="161"/>
+      <c r="E118" s="161"/>
+      <c r="F118" s="161"/>
+      <c r="G118" s="241"/>
+      <c r="H118" s="241"/>
+      <c r="I118" s="166"/>
+      <c r="J118" s="171"/>
+      <c r="K118" s="171"/>
+      <c r="L118" s="166"/>
+      <c r="M118" s="166"/>
       <c r="N118" s="113"/>
       <c r="O118" s="113"/>
       <c r="P118" s="113"/>
@@ -27260,12 +27233,12 @@
       <c r="AM118" s="113"/>
     </row>
     <row r="119" spans="1:39">
-      <c r="A119" s="171"/>
-      <c r="B119" s="171"/>
-      <c r="C119" s="171"/>
-      <c r="D119" s="171"/>
-      <c r="E119" s="171"/>
-      <c r="F119" s="171"/>
+      <c r="A119" s="161"/>
+      <c r="B119" s="161"/>
+      <c r="C119" s="161"/>
+      <c r="D119" s="161"/>
+      <c r="E119" s="161"/>
+      <c r="F119" s="161"/>
       <c r="G119" s="126"/>
       <c r="H119" s="126"/>
       <c r="I119" s="113"/>
@@ -27301,12 +27274,12 @@
       <c r="AM119" s="113"/>
     </row>
     <row r="120" spans="1:39">
-      <c r="A120" s="171"/>
-      <c r="B120" s="171"/>
-      <c r="C120" s="171"/>
-      <c r="D120" s="171"/>
-      <c r="E120" s="171"/>
-      <c r="F120" s="171"/>
+      <c r="A120" s="161"/>
+      <c r="B120" s="161"/>
+      <c r="C120" s="161"/>
+      <c r="D120" s="161"/>
+      <c r="E120" s="161"/>
+      <c r="F120" s="161"/>
       <c r="G120" s="113"/>
       <c r="H120" s="113"/>
       <c r="I120" s="113"/>
@@ -27342,12 +27315,12 @@
       <c r="AM120" s="113"/>
     </row>
     <row r="121" spans="1:39">
-      <c r="A121" s="171"/>
-      <c r="B121" s="171"/>
-      <c r="C121" s="171"/>
-      <c r="D121" s="171"/>
-      <c r="E121" s="171"/>
-      <c r="F121" s="171"/>
+      <c r="A121" s="161"/>
+      <c r="B121" s="161"/>
+      <c r="C121" s="161"/>
+      <c r="D121" s="161"/>
+      <c r="E121" s="161"/>
+      <c r="F121" s="161"/>
       <c r="G121" s="113"/>
       <c r="H121" s="113"/>
       <c r="I121" s="113"/>
@@ -27383,12 +27356,12 @@
       <c r="AM121" s="113"/>
     </row>
     <row r="122" spans="1:39">
-      <c r="A122" s="171"/>
-      <c r="B122" s="171"/>
-      <c r="C122" s="171"/>
-      <c r="D122" s="171"/>
-      <c r="E122" s="171"/>
-      <c r="F122" s="171"/>
+      <c r="A122" s="161"/>
+      <c r="B122" s="161"/>
+      <c r="C122" s="161"/>
+      <c r="D122" s="161"/>
+      <c r="E122" s="161"/>
+      <c r="F122" s="161"/>
       <c r="G122" s="113"/>
       <c r="H122" s="113"/>
       <c r="I122" s="113"/>
@@ -27424,12 +27397,12 @@
       <c r="AM122" s="113"/>
     </row>
     <row r="123" spans="1:39">
-      <c r="A123" s="171"/>
-      <c r="B123" s="171"/>
-      <c r="C123" s="171"/>
-      <c r="D123" s="171"/>
-      <c r="E123" s="171"/>
-      <c r="F123" s="171"/>
+      <c r="A123" s="161"/>
+      <c r="B123" s="161"/>
+      <c r="C123" s="161"/>
+      <c r="D123" s="161"/>
+      <c r="E123" s="161"/>
+      <c r="F123" s="161"/>
       <c r="G123" s="113"/>
       <c r="H123" s="113"/>
       <c r="I123" s="113"/>
@@ -27465,12 +27438,12 @@
       <c r="AM123" s="113"/>
     </row>
     <row r="124" spans="1:39">
-      <c r="A124" s="171"/>
-      <c r="B124" s="171"/>
-      <c r="C124" s="171"/>
-      <c r="D124" s="171"/>
-      <c r="E124" s="171"/>
-      <c r="F124" s="171"/>
+      <c r="A124" s="161"/>
+      <c r="B124" s="161"/>
+      <c r="C124" s="161"/>
+      <c r="D124" s="161"/>
+      <c r="E124" s="161"/>
+      <c r="F124" s="161"/>
       <c r="G124" s="113"/>
       <c r="H124" s="113"/>
       <c r="I124" s="113"/>
@@ -27506,12 +27479,12 @@
       <c r="AM124" s="113"/>
     </row>
     <row r="125" spans="1:39">
-      <c r="A125" s="171"/>
-      <c r="B125" s="171"/>
-      <c r="C125" s="171"/>
-      <c r="D125" s="171"/>
-      <c r="E125" s="171"/>
-      <c r="F125" s="171"/>
+      <c r="A125" s="161"/>
+      <c r="B125" s="161"/>
+      <c r="C125" s="161"/>
+      <c r="D125" s="161"/>
+      <c r="E125" s="161"/>
+      <c r="F125" s="161"/>
       <c r="G125" s="113"/>
       <c r="H125" s="113"/>
       <c r="I125" s="113"/>
@@ -27547,12 +27520,12 @@
       <c r="AM125" s="113"/>
     </row>
     <row r="126" spans="1:39">
-      <c r="A126" s="171"/>
-      <c r="B126" s="171"/>
-      <c r="C126" s="171"/>
-      <c r="D126" s="171"/>
-      <c r="E126" s="171"/>
-      <c r="F126" s="171"/>
+      <c r="A126" s="161"/>
+      <c r="B126" s="161"/>
+      <c r="C126" s="161"/>
+      <c r="D126" s="161"/>
+      <c r="E126" s="161"/>
+      <c r="F126" s="161"/>
       <c r="G126" s="113"/>
       <c r="H126" s="113"/>
       <c r="I126" s="113"/>
@@ -27588,12 +27561,12 @@
       <c r="AM126" s="113"/>
     </row>
     <row r="127" spans="1:39">
-      <c r="A127" s="171"/>
-      <c r="B127" s="171"/>
-      <c r="C127" s="171"/>
-      <c r="D127" s="171"/>
-      <c r="E127" s="171"/>
-      <c r="F127" s="171"/>
+      <c r="A127" s="161"/>
+      <c r="B127" s="161"/>
+      <c r="C127" s="161"/>
+      <c r="D127" s="161"/>
+      <c r="E127" s="161"/>
+      <c r="F127" s="161"/>
       <c r="G127" s="113"/>
       <c r="H127" s="113"/>
       <c r="I127" s="113"/>
@@ -27629,12 +27602,12 @@
       <c r="AM127" s="113"/>
     </row>
     <row r="128" spans="1:39">
-      <c r="A128" s="171"/>
-      <c r="B128" s="171"/>
-      <c r="C128" s="171"/>
-      <c r="D128" s="171"/>
-      <c r="E128" s="171"/>
-      <c r="F128" s="171"/>
+      <c r="A128" s="161"/>
+      <c r="B128" s="161"/>
+      <c r="C128" s="161"/>
+      <c r="D128" s="161"/>
+      <c r="E128" s="161"/>
+      <c r="F128" s="161"/>
       <c r="G128" s="113"/>
       <c r="H128" s="113"/>
       <c r="I128" s="113"/>
@@ -27670,12 +27643,12 @@
       <c r="AM128" s="113"/>
     </row>
     <row r="129" spans="1:39">
-      <c r="A129" s="171"/>
-      <c r="B129" s="171"/>
-      <c r="C129" s="171"/>
-      <c r="D129" s="171"/>
-      <c r="E129" s="171"/>
-      <c r="F129" s="171"/>
+      <c r="A129" s="161"/>
+      <c r="B129" s="161"/>
+      <c r="C129" s="161"/>
+      <c r="D129" s="161"/>
+      <c r="E129" s="161"/>
+      <c r="F129" s="161"/>
       <c r="G129" s="113"/>
       <c r="H129" s="113"/>
       <c r="I129" s="113"/>
@@ -27711,12 +27684,12 @@
       <c r="AM129" s="113"/>
     </row>
     <row r="130" spans="1:39">
-      <c r="A130" s="171"/>
-      <c r="B130" s="171"/>
-      <c r="C130" s="171"/>
-      <c r="D130" s="171"/>
-      <c r="E130" s="171"/>
-      <c r="F130" s="171"/>
+      <c r="A130" s="161"/>
+      <c r="B130" s="161"/>
+      <c r="C130" s="161"/>
+      <c r="D130" s="161"/>
+      <c r="E130" s="161"/>
+      <c r="F130" s="161"/>
       <c r="G130" s="113"/>
       <c r="H130" s="113"/>
       <c r="I130" s="113"/>
@@ -27752,12 +27725,12 @@
       <c r="AM130" s="113"/>
     </row>
     <row r="131" spans="1:39">
-      <c r="A131" s="171"/>
-      <c r="B131" s="171"/>
-      <c r="C131" s="171"/>
-      <c r="D131" s="171"/>
-      <c r="E131" s="171"/>
-      <c r="F131" s="171"/>
+      <c r="A131" s="161"/>
+      <c r="B131" s="161"/>
+      <c r="C131" s="161"/>
+      <c r="D131" s="161"/>
+      <c r="E131" s="161"/>
+      <c r="F131" s="161"/>
       <c r="G131" s="113"/>
       <c r="H131" s="113"/>
       <c r="I131" s="113"/>
@@ -27793,12 +27766,12 @@
       <c r="AM131" s="113"/>
     </row>
     <row r="132" spans="1:39">
-      <c r="A132" s="171"/>
-      <c r="B132" s="171"/>
-      <c r="C132" s="171"/>
-      <c r="D132" s="171"/>
-      <c r="E132" s="171"/>
-      <c r="F132" s="171"/>
+      <c r="A132" s="161"/>
+      <c r="B132" s="161"/>
+      <c r="C132" s="161"/>
+      <c r="D132" s="161"/>
+      <c r="E132" s="161"/>
+      <c r="F132" s="161"/>
       <c r="G132" s="113"/>
       <c r="H132" s="113"/>
       <c r="I132" s="113"/>
@@ -27818,12 +27791,12 @@
       <c r="W132" s="119"/>
     </row>
     <row r="133" spans="1:39">
-      <c r="A133" s="171"/>
-      <c r="B133" s="171"/>
-      <c r="C133" s="171"/>
-      <c r="D133" s="171"/>
-      <c r="E133" s="171"/>
-      <c r="F133" s="171"/>
+      <c r="A133" s="161"/>
+      <c r="B133" s="161"/>
+      <c r="C133" s="161"/>
+      <c r="D133" s="161"/>
+      <c r="E133" s="161"/>
+      <c r="F133" s="161"/>
       <c r="G133" s="113"/>
       <c r="H133" s="113"/>
       <c r="I133" s="113"/>
@@ -27843,12 +27816,12 @@
       <c r="W133" s="119"/>
     </row>
     <row r="134" spans="1:39">
-      <c r="A134" s="171"/>
-      <c r="B134" s="171"/>
-      <c r="C134" s="171"/>
-      <c r="D134" s="171"/>
-      <c r="E134" s="171"/>
-      <c r="F134" s="171"/>
+      <c r="A134" s="161"/>
+      <c r="B134" s="161"/>
+      <c r="C134" s="161"/>
+      <c r="D134" s="161"/>
+      <c r="E134" s="161"/>
+      <c r="F134" s="161"/>
       <c r="G134" s="113"/>
       <c r="H134" s="113"/>
       <c r="I134" s="113"/>
@@ -27868,12 +27841,12 @@
       <c r="W134" s="119"/>
     </row>
     <row r="135" spans="1:39">
-      <c r="A135" s="171"/>
-      <c r="B135" s="171"/>
-      <c r="C135" s="171"/>
-      <c r="D135" s="171"/>
-      <c r="E135" s="171"/>
-      <c r="F135" s="171"/>
+      <c r="A135" s="161"/>
+      <c r="B135" s="161"/>
+      <c r="C135" s="161"/>
+      <c r="D135" s="161"/>
+      <c r="E135" s="161"/>
+      <c r="F135" s="161"/>
       <c r="G135" s="113"/>
       <c r="H135" s="113"/>
       <c r="I135" s="113"/>
@@ -27893,12 +27866,12 @@
       <c r="W135" s="119"/>
     </row>
     <row r="136" spans="1:39">
-      <c r="A136" s="171"/>
-      <c r="B136" s="171"/>
-      <c r="C136" s="171"/>
-      <c r="D136" s="171"/>
-      <c r="E136" s="171"/>
-      <c r="F136" s="171"/>
+      <c r="A136" s="161"/>
+      <c r="B136" s="161"/>
+      <c r="C136" s="161"/>
+      <c r="D136" s="161"/>
+      <c r="E136" s="161"/>
+      <c r="F136" s="161"/>
       <c r="G136" s="113"/>
       <c r="H136" s="113"/>
       <c r="I136" s="113"/>
@@ -27909,12 +27882,12 @@
       <c r="N136" s="113"/>
     </row>
     <row r="137" spans="1:39">
-      <c r="A137" s="171"/>
-      <c r="B137" s="171"/>
-      <c r="C137" s="171"/>
-      <c r="D137" s="171"/>
-      <c r="E137" s="171"/>
-      <c r="F137" s="171"/>
+      <c r="A137" s="161"/>
+      <c r="B137" s="161"/>
+      <c r="C137" s="161"/>
+      <c r="D137" s="161"/>
+      <c r="E137" s="161"/>
+      <c r="F137" s="161"/>
       <c r="G137" s="113"/>
       <c r="H137" s="113"/>
       <c r="I137" s="113"/>
@@ -27925,12 +27898,12 @@
       <c r="N137" s="113"/>
     </row>
     <row r="138" spans="1:39">
-      <c r="A138" s="171"/>
-      <c r="B138" s="171"/>
-      <c r="C138" s="171"/>
-      <c r="D138" s="171"/>
-      <c r="E138" s="171"/>
-      <c r="F138" s="171"/>
+      <c r="A138" s="161"/>
+      <c r="B138" s="161"/>
+      <c r="C138" s="161"/>
+      <c r="D138" s="161"/>
+      <c r="E138" s="161"/>
+      <c r="F138" s="161"/>
       <c r="G138" s="113"/>
       <c r="H138" s="113"/>
       <c r="I138" s="113"/>
@@ -27941,12 +27914,12 @@
       <c r="N138" s="113"/>
     </row>
     <row r="139" spans="1:39">
-      <c r="A139" s="171"/>
-      <c r="B139" s="171"/>
-      <c r="C139" s="171"/>
-      <c r="D139" s="171"/>
-      <c r="E139" s="171"/>
-      <c r="F139" s="171"/>
+      <c r="A139" s="161"/>
+      <c r="B139" s="161"/>
+      <c r="C139" s="161"/>
+      <c r="D139" s="161"/>
+      <c r="E139" s="161"/>
+      <c r="F139" s="161"/>
       <c r="G139" s="113"/>
       <c r="H139" s="113"/>
       <c r="I139" s="113"/>
@@ -27957,12 +27930,12 @@
       <c r="N139" s="113"/>
     </row>
     <row r="140" spans="1:39">
-      <c r="A140" s="171"/>
-      <c r="B140" s="171"/>
-      <c r="C140" s="171"/>
-      <c r="D140" s="171"/>
-      <c r="E140" s="171"/>
-      <c r="F140" s="171"/>
+      <c r="A140" s="161"/>
+      <c r="B140" s="161"/>
+      <c r="C140" s="161"/>
+      <c r="D140" s="161"/>
+      <c r="E140" s="161"/>
+      <c r="F140" s="161"/>
       <c r="G140" s="113"/>
       <c r="H140" s="113"/>
       <c r="I140" s="113"/>
@@ -27973,12 +27946,12 @@
       <c r="N140" s="113"/>
     </row>
     <row r="141" spans="1:39">
-      <c r="A141" s="171"/>
-      <c r="B141" s="171"/>
-      <c r="C141" s="171"/>
-      <c r="D141" s="171"/>
-      <c r="E141" s="171"/>
-      <c r="F141" s="171"/>
+      <c r="A141" s="161"/>
+      <c r="B141" s="161"/>
+      <c r="C141" s="161"/>
+      <c r="D141" s="161"/>
+      <c r="E141" s="161"/>
+      <c r="F141" s="161"/>
       <c r="G141" s="113"/>
       <c r="H141" s="113"/>
       <c r="I141" s="113"/>
@@ -27989,12 +27962,12 @@
       <c r="N141" s="113"/>
     </row>
     <row r="142" spans="1:39">
-      <c r="A142" s="171"/>
-      <c r="B142" s="171"/>
-      <c r="C142" s="171"/>
-      <c r="D142" s="171"/>
-      <c r="E142" s="171"/>
-      <c r="F142" s="171"/>
+      <c r="A142" s="161"/>
+      <c r="B142" s="161"/>
+      <c r="C142" s="161"/>
+      <c r="D142" s="161"/>
+      <c r="E142" s="161"/>
+      <c r="F142" s="161"/>
       <c r="G142" s="113"/>
       <c r="H142" s="113"/>
       <c r="I142" s="113"/>
@@ -28005,12 +27978,12 @@
       <c r="N142" s="113"/>
     </row>
     <row r="143" spans="1:39">
-      <c r="A143" s="171"/>
-      <c r="B143" s="171"/>
-      <c r="C143" s="171"/>
-      <c r="D143" s="171"/>
-      <c r="E143" s="171"/>
-      <c r="F143" s="171"/>
+      <c r="A143" s="161"/>
+      <c r="B143" s="161"/>
+      <c r="C143" s="161"/>
+      <c r="D143" s="161"/>
+      <c r="E143" s="161"/>
+      <c r="F143" s="161"/>
       <c r="G143" s="113"/>
       <c r="H143" s="113"/>
       <c r="I143" s="113"/>
@@ -28021,12 +27994,12 @@
       <c r="N143" s="113"/>
     </row>
     <row r="144" spans="1:39">
-      <c r="A144" s="171"/>
-      <c r="B144" s="171"/>
-      <c r="C144" s="171"/>
-      <c r="D144" s="171"/>
-      <c r="E144" s="171"/>
-      <c r="F144" s="171"/>
+      <c r="A144" s="161"/>
+      <c r="B144" s="161"/>
+      <c r="C144" s="161"/>
+      <c r="D144" s="161"/>
+      <c r="E144" s="161"/>
+      <c r="F144" s="161"/>
       <c r="G144" s="113"/>
       <c r="H144" s="113"/>
       <c r="I144" s="113"/>
@@ -28037,12 +28010,12 @@
       <c r="N144" s="113"/>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="171"/>
-      <c r="B145" s="171"/>
-      <c r="C145" s="171"/>
-      <c r="D145" s="171"/>
-      <c r="E145" s="171"/>
-      <c r="F145" s="171"/>
+      <c r="A145" s="161"/>
+      <c r="B145" s="161"/>
+      <c r="C145" s="161"/>
+      <c r="D145" s="161"/>
+      <c r="E145" s="161"/>
+      <c r="F145" s="161"/>
       <c r="G145" s="113"/>
       <c r="H145" s="113"/>
       <c r="I145" s="113"/>
@@ -28053,12 +28026,12 @@
       <c r="N145" s="113"/>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="171"/>
-      <c r="B146" s="171"/>
-      <c r="C146" s="171"/>
-      <c r="D146" s="171"/>
-      <c r="E146" s="171"/>
-      <c r="F146" s="171"/>
+      <c r="A146" s="161"/>
+      <c r="B146" s="161"/>
+      <c r="C146" s="161"/>
+      <c r="D146" s="161"/>
+      <c r="E146" s="161"/>
+      <c r="F146" s="161"/>
       <c r="G146" s="113"/>
       <c r="H146" s="113"/>
       <c r="I146" s="113"/>
@@ -28069,12 +28042,12 @@
       <c r="N146" s="113"/>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="171"/>
-      <c r="B147" s="171"/>
-      <c r="C147" s="171"/>
-      <c r="D147" s="171"/>
-      <c r="E147" s="171"/>
-      <c r="F147" s="171"/>
+      <c r="A147" s="161"/>
+      <c r="B147" s="161"/>
+      <c r="C147" s="161"/>
+      <c r="D147" s="161"/>
+      <c r="E147" s="161"/>
+      <c r="F147" s="161"/>
       <c r="G147" s="113"/>
       <c r="H147" s="113"/>
       <c r="I147" s="113"/>
@@ -28085,12 +28058,12 @@
       <c r="N147" s="113"/>
     </row>
     <row r="148" spans="1:14">
-      <c r="A148" s="171"/>
-      <c r="B148" s="171"/>
-      <c r="C148" s="171"/>
-      <c r="D148" s="171"/>
-      <c r="E148" s="171"/>
-      <c r="F148" s="171"/>
+      <c r="A148" s="161"/>
+      <c r="B148" s="161"/>
+      <c r="C148" s="161"/>
+      <c r="D148" s="161"/>
+      <c r="E148" s="161"/>
+      <c r="F148" s="161"/>
       <c r="G148" s="113"/>
       <c r="H148" s="113"/>
       <c r="I148" s="113"/>
@@ -28101,12 +28074,12 @@
       <c r="N148" s="113"/>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="171"/>
-      <c r="B149" s="171"/>
-      <c r="C149" s="171"/>
-      <c r="D149" s="171"/>
-      <c r="E149" s="171"/>
-      <c r="F149" s="171"/>
+      <c r="A149" s="161"/>
+      <c r="B149" s="161"/>
+      <c r="C149" s="161"/>
+      <c r="D149" s="161"/>
+      <c r="E149" s="161"/>
+      <c r="F149" s="161"/>
       <c r="G149" s="113"/>
       <c r="H149" s="113"/>
       <c r="I149" s="113"/>
@@ -28117,12 +28090,12 @@
       <c r="N149" s="113"/>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="171"/>
-      <c r="B150" s="171"/>
-      <c r="C150" s="171"/>
-      <c r="D150" s="171"/>
-      <c r="E150" s="171"/>
-      <c r="F150" s="171"/>
+      <c r="A150" s="161"/>
+      <c r="B150" s="161"/>
+      <c r="C150" s="161"/>
+      <c r="D150" s="161"/>
+      <c r="E150" s="161"/>
+      <c r="F150" s="161"/>
       <c r="G150" s="113"/>
       <c r="H150" s="113"/>
       <c r="I150" s="113"/>
@@ -28133,12 +28106,12 @@
       <c r="N150" s="113"/>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="171"/>
-      <c r="B151" s="171"/>
-      <c r="C151" s="171"/>
-      <c r="D151" s="171"/>
-      <c r="E151" s="171"/>
-      <c r="F151" s="171"/>
+      <c r="A151" s="161"/>
+      <c r="B151" s="161"/>
+      <c r="C151" s="161"/>
+      <c r="D151" s="161"/>
+      <c r="E151" s="161"/>
+      <c r="F151" s="161"/>
       <c r="G151" s="113"/>
       <c r="H151" s="113"/>
       <c r="I151" s="113"/>
@@ -28149,12 +28122,12 @@
       <c r="N151" s="113"/>
     </row>
     <row r="152" spans="1:14">
-      <c r="A152" s="171"/>
-      <c r="B152" s="171"/>
-      <c r="C152" s="171"/>
-      <c r="D152" s="171"/>
-      <c r="E152" s="171"/>
-      <c r="F152" s="171"/>
+      <c r="A152" s="161"/>
+      <c r="B152" s="161"/>
+      <c r="C152" s="161"/>
+      <c r="D152" s="161"/>
+      <c r="E152" s="161"/>
+      <c r="F152" s="161"/>
       <c r="G152" s="113"/>
       <c r="H152" s="113"/>
       <c r="I152" s="113"/>
@@ -28165,12 +28138,12 @@
       <c r="N152" s="113"/>
     </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="171"/>
-      <c r="B153" s="171"/>
-      <c r="C153" s="171"/>
-      <c r="D153" s="171"/>
-      <c r="E153" s="171"/>
-      <c r="F153" s="171"/>
+      <c r="A153" s="161"/>
+      <c r="B153" s="161"/>
+      <c r="C153" s="161"/>
+      <c r="D153" s="161"/>
+      <c r="E153" s="161"/>
+      <c r="F153" s="161"/>
       <c r="G153" s="113"/>
       <c r="H153" s="113"/>
       <c r="I153" s="113"/>
@@ -28181,12 +28154,12 @@
       <c r="N153" s="113"/>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="171"/>
-      <c r="B154" s="171"/>
-      <c r="C154" s="171"/>
-      <c r="D154" s="171"/>
-      <c r="E154" s="171"/>
-      <c r="F154" s="171"/>
+      <c r="A154" s="161"/>
+      <c r="B154" s="161"/>
+      <c r="C154" s="161"/>
+      <c r="D154" s="161"/>
+      <c r="E154" s="161"/>
+      <c r="F154" s="161"/>
       <c r="G154" s="113"/>
       <c r="H154" s="113"/>
       <c r="I154" s="113"/>
@@ -28197,12 +28170,12 @@
       <c r="N154" s="113"/>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="171"/>
-      <c r="B155" s="171"/>
-      <c r="C155" s="171"/>
-      <c r="D155" s="171"/>
-      <c r="E155" s="171"/>
-      <c r="F155" s="171"/>
+      <c r="A155" s="161"/>
+      <c r="B155" s="161"/>
+      <c r="C155" s="161"/>
+      <c r="D155" s="161"/>
+      <c r="E155" s="161"/>
+      <c r="F155" s="161"/>
       <c r="G155" s="113"/>
       <c r="H155" s="113"/>
       <c r="I155" s="113"/>
@@ -28213,12 +28186,12 @@
       <c r="N155" s="113"/>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="171"/>
-      <c r="B156" s="171"/>
-      <c r="C156" s="171"/>
-      <c r="D156" s="171"/>
-      <c r="E156" s="171"/>
-      <c r="F156" s="171"/>
+      <c r="A156" s="161"/>
+      <c r="B156" s="161"/>
+      <c r="C156" s="161"/>
+      <c r="D156" s="161"/>
+      <c r="E156" s="161"/>
+      <c r="F156" s="161"/>
       <c r="G156" s="113"/>
       <c r="H156" s="113"/>
       <c r="I156" s="113"/>
@@ -28229,12 +28202,12 @@
       <c r="N156" s="113"/>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="171"/>
-      <c r="B157" s="171"/>
-      <c r="C157" s="171"/>
-      <c r="D157" s="171"/>
-      <c r="E157" s="171"/>
-      <c r="F157" s="171"/>
+      <c r="A157" s="161"/>
+      <c r="B157" s="161"/>
+      <c r="C157" s="161"/>
+      <c r="D157" s="161"/>
+      <c r="E157" s="161"/>
+      <c r="F157" s="161"/>
       <c r="G157" s="113"/>
       <c r="H157" s="113"/>
       <c r="I157" s="113"/>
@@ -28245,12 +28218,12 @@
       <c r="N157" s="113"/>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="171"/>
-      <c r="B158" s="171"/>
-      <c r="C158" s="171"/>
-      <c r="D158" s="171"/>
-      <c r="E158" s="171"/>
-      <c r="F158" s="171"/>
+      <c r="A158" s="161"/>
+      <c r="B158" s="161"/>
+      <c r="C158" s="161"/>
+      <c r="D158" s="161"/>
+      <c r="E158" s="161"/>
+      <c r="F158" s="161"/>
       <c r="G158" s="113"/>
       <c r="H158" s="113"/>
       <c r="I158" s="113"/>
@@ -30856,163 +30829,163 @@
       </c>
     </row>
     <row r="96" spans="2:19" ht="25.5" customHeight="1">
-      <c r="G96" s="273" t="s">
+      <c r="G96" s="243" t="s">
         <v>71</v>
       </c>
-      <c r="H96" s="273"/>
-      <c r="I96" s="274"/>
-      <c r="J96" s="275" t="s">
+      <c r="H96" s="243"/>
+      <c r="I96" s="244"/>
+      <c r="J96" s="245" t="s">
         <v>72</v>
       </c>
-      <c r="K96" s="275"/>
-      <c r="L96" s="275"/>
-      <c r="M96" s="276" t="s">
+      <c r="K96" s="245"/>
+      <c r="L96" s="245"/>
+      <c r="M96" s="246" t="s">
         <v>73</v>
       </c>
-      <c r="N96" s="276"/>
-      <c r="O96" s="276"/>
-      <c r="P96" s="276"/>
+      <c r="N96" s="246"/>
+      <c r="O96" s="246"/>
+      <c r="P96" s="246"/>
     </row>
     <row r="97" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G97" s="266" t="s">
+      <c r="G97" s="247" t="s">
         <v>74</v>
       </c>
-      <c r="H97" s="267"/>
+      <c r="H97" s="248"/>
       <c r="I97" s="22">
         <f>+E6</f>
         <v>86233.752800000002</v>
       </c>
-      <c r="J97" s="272" t="s">
+      <c r="J97" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="259"/>
+      <c r="K97" s="242"/>
       <c r="L97" s="11">
         <f>+Utilidad!J67</f>
         <v>43948.767596999998</v>
       </c>
-      <c r="M97" s="259" t="s">
+      <c r="M97" s="242" t="s">
         <v>75</v>
       </c>
-      <c r="N97" s="259"/>
-      <c r="O97" s="259"/>
+      <c r="N97" s="242"/>
+      <c r="O97" s="242"/>
       <c r="P97" s="11">
         <f>+G15</f>
         <v>15727.04054</v>
       </c>
     </row>
     <row r="98" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G98" s="266" t="s">
+      <c r="G98" s="247" t="s">
         <v>76</v>
       </c>
-      <c r="H98" s="267"/>
+      <c r="H98" s="248"/>
       <c r="I98" s="22">
         <f>+C12</f>
         <v>11681.220740000001</v>
       </c>
-      <c r="J98" s="259" t="s">
+      <c r="J98" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="K98" s="259"/>
+      <c r="K98" s="242"/>
       <c r="L98" s="11">
         <f>+Utilidad!J75</f>
         <v>-1947.6210599999999</v>
       </c>
-      <c r="M98" s="259" t="s">
+      <c r="M98" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="N98" s="259"/>
-      <c r="O98" s="259"/>
+      <c r="N98" s="242"/>
+      <c r="O98" s="242"/>
       <c r="P98" s="11">
         <f>+Q7</f>
         <v>13968.63</v>
       </c>
     </row>
     <row r="99" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G99" s="266" t="s">
+      <c r="G99" s="247" t="s">
         <v>77</v>
       </c>
-      <c r="H99" s="267"/>
+      <c r="H99" s="248"/>
       <c r="I99" s="22">
         <f>+H13</f>
         <v>26763.689249999999</v>
       </c>
-      <c r="J99" s="259" t="s">
+      <c r="J99" s="242" t="s">
         <v>78</v>
       </c>
-      <c r="K99" s="259"/>
+      <c r="K99" s="242"/>
       <c r="L99" s="11">
         <f>+Utilidad!J79</f>
         <v>73.660909465000003</v>
       </c>
-      <c r="M99" s="259" t="s">
+      <c r="M99" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="N99" s="259"/>
-      <c r="O99" s="259"/>
+      <c r="N99" s="242"/>
+      <c r="O99" s="242"/>
       <c r="P99" s="11">
         <f>+Q11</f>
         <v>6086.9213650000002</v>
       </c>
     </row>
     <row r="100" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G100" s="257" t="s">
+      <c r="G100" s="250" t="s">
         <v>79</v>
       </c>
-      <c r="H100" s="258"/>
+      <c r="H100" s="251"/>
       <c r="I100" s="22">
         <f>+C26</f>
         <v>0</v>
       </c>
-      <c r="J100" s="259" t="s">
+      <c r="J100" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="259"/>
+      <c r="K100" s="242"/>
       <c r="L100" s="11">
         <f>+Utilidad!J81</f>
         <v>-383.42565624999997</v>
       </c>
-      <c r="M100" s="259" t="s">
+      <c r="M100" s="242" t="s">
         <v>80</v>
       </c>
-      <c r="N100" s="259"/>
-      <c r="O100" s="259"/>
+      <c r="N100" s="242"/>
+      <c r="O100" s="242"/>
       <c r="P100" s="11">
         <f>+I30</f>
         <v>29812.163530000002</v>
       </c>
     </row>
     <row r="101" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G101" s="257" t="s">
+      <c r="G101" s="250" t="s">
         <v>57</v>
       </c>
-      <c r="H101" s="258"/>
+      <c r="H101" s="251"/>
       <c r="I101" s="22">
         <f>+C35</f>
         <v>0</v>
       </c>
-      <c r="J101" s="259" t="s">
+      <c r="J101" s="242" t="s">
         <v>81</v>
       </c>
-      <c r="K101" s="259"/>
+      <c r="K101" s="242"/>
       <c r="L101" s="11">
         <f>+Utilidad!J91</f>
         <v>0</v>
       </c>
-      <c r="M101" s="259" t="s">
+      <c r="M101" s="242" t="s">
         <v>82</v>
       </c>
-      <c r="N101" s="259"/>
-      <c r="O101" s="259"/>
+      <c r="N101" s="242"/>
+      <c r="O101" s="242"/>
       <c r="P101" s="11">
         <f>+M58</f>
         <v>1003.6487</v>
       </c>
     </row>
     <row r="102" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G102" s="257" t="s">
+      <c r="G102" s="250" t="s">
         <v>60</v>
       </c>
-      <c r="H102" s="258"/>
+      <c r="H102" s="251"/>
       <c r="I102" s="22">
         <f>+C44</f>
         <v>0</v>
@@ -31025,21 +30998,21 @@
         <f>+Utilidad!J104</f>
         <v>0</v>
       </c>
-      <c r="M102" s="259" t="s">
+      <c r="M102" s="242" t="s">
         <v>84</v>
       </c>
-      <c r="N102" s="259"/>
-      <c r="O102" s="259"/>
+      <c r="N102" s="242"/>
+      <c r="O102" s="242"/>
       <c r="P102" s="11">
         <f>+O63</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G103" s="257" t="s">
+      <c r="G103" s="250" t="s">
         <v>85</v>
       </c>
-      <c r="H103" s="258"/>
+      <c r="H103" s="251"/>
       <c r="I103" s="22">
         <f>+C54</f>
         <v>0</v>
@@ -31052,21 +31025,21 @@
         <f>+Utilidad!J107</f>
         <v>0</v>
       </c>
-      <c r="M103" s="259" t="s">
+      <c r="M103" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="N103" s="259"/>
-      <c r="O103" s="259"/>
+      <c r="N103" s="242"/>
+      <c r="O103" s="242"/>
       <c r="P103" s="11">
         <f>+O67</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G104" s="257" t="s">
+      <c r="G104" s="250" t="s">
         <v>88</v>
       </c>
-      <c r="H104" s="258"/>
+      <c r="H104" s="251"/>
       <c r="I104" s="22">
         <f>+C62</f>
         <v>61164.541878000004</v>
@@ -31079,21 +31052,21 @@
         <f>+Utilidad!J110</f>
         <v>0</v>
       </c>
-      <c r="M104" s="259" t="s">
+      <c r="M104" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="N104" s="259"/>
-      <c r="O104" s="259"/>
+      <c r="N104" s="242"/>
+      <c r="O104" s="242"/>
       <c r="P104" s="11">
         <f>+O74</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G105" s="257" t="s">
+      <c r="G105" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="H105" s="258"/>
+      <c r="H105" s="251"/>
       <c r="I105" s="22">
         <f>+H70</f>
         <v>0</v>
@@ -31106,36 +31079,36 @@
         <f>+Utilidad!J113</f>
         <v>0</v>
       </c>
-      <c r="M105" s="259" t="s">
+      <c r="M105" s="242" t="s">
         <v>92</v>
       </c>
-      <c r="N105" s="259"/>
-      <c r="O105" s="259"/>
+      <c r="N105" s="242"/>
+      <c r="O105" s="242"/>
       <c r="P105" s="11">
         <f>+O84</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G106" s="257" t="s">
+      <c r="G106" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="H106" s="258"/>
+      <c r="H106" s="251"/>
       <c r="I106" s="22">
         <f>+H75</f>
         <v>0</v>
       </c>
-      <c r="J106" s="259" t="s">
+      <c r="J106" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="K106" s="259"/>
+      <c r="K106" s="242"/>
       <c r="L106" s="11">
         <f>+Utilidad!J102</f>
         <v>2189.3000000000002</v>
       </c>
-      <c r="M106" s="259"/>
-      <c r="N106" s="259"/>
-      <c r="O106" s="259"/>
+      <c r="M106" s="242"/>
+      <c r="N106" s="242"/>
+      <c r="O106" s="242"/>
       <c r="P106" s="11"/>
     </row>
     <row r="107" spans="7:16" ht="25.5" customHeight="1">
@@ -31155,9 +31128,9 @@
         <f>+Utilidad!J86</f>
         <v>74744.589250000005</v>
       </c>
-      <c r="M107" s="263"/>
-      <c r="N107" s="264"/>
-      <c r="O107" s="265"/>
+      <c r="M107" s="255"/>
+      <c r="N107" s="256"/>
+      <c r="O107" s="257"/>
       <c r="P107" s="11"/>
     </row>
     <row r="108" spans="7:16" ht="25.5" customHeight="1">
@@ -31169,17 +31142,17 @@
         <f>+L78</f>
         <v>5708.1906399999998</v>
       </c>
-      <c r="J108" s="259" t="s">
+      <c r="J108" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="K108" s="259"/>
+      <c r="K108" s="242"/>
       <c r="L108" s="11">
         <f>+Utilidad!J94</f>
         <v>27866.973293999999</v>
       </c>
-      <c r="M108" s="263"/>
-      <c r="N108" s="264"/>
-      <c r="O108" s="265"/>
+      <c r="M108" s="255"/>
+      <c r="N108" s="256"/>
+      <c r="O108" s="257"/>
       <c r="P108" s="11"/>
     </row>
     <row r="109" spans="7:16" ht="25.5" customHeight="1">
@@ -31191,58 +31164,58 @@
         <f>+K86</f>
         <v>417.69489800000002</v>
       </c>
-      <c r="J109" s="259" t="s">
+      <c r="J109" s="242" t="s">
         <v>10</v>
       </c>
-      <c r="K109" s="259"/>
+      <c r="K109" s="242"/>
       <c r="L109" s="11">
         <f>+Utilidad!J99</f>
         <v>11225.772948</v>
       </c>
-      <c r="M109" s="263"/>
-      <c r="N109" s="264"/>
-      <c r="O109" s="265"/>
+      <c r="M109" s="255"/>
+      <c r="N109" s="256"/>
+      <c r="O109" s="257"/>
       <c r="P109" s="11"/>
     </row>
     <row r="110" spans="7:16" ht="25.5" customHeight="1">
-      <c r="G110" s="257" t="s">
+      <c r="G110" s="250" t="s">
         <v>98</v>
       </c>
-      <c r="H110" s="258"/>
+      <c r="H110" s="251"/>
       <c r="I110" s="22">
         <f>+L90</f>
         <v>10808.07805</v>
       </c>
-      <c r="J110" s="259"/>
-      <c r="K110" s="259"/>
+      <c r="J110" s="242"/>
+      <c r="K110" s="242"/>
       <c r="L110" s="11"/>
-      <c r="M110" s="259"/>
-      <c r="N110" s="259"/>
-      <c r="O110" s="259"/>
+      <c r="M110" s="242"/>
+      <c r="N110" s="242"/>
+      <c r="O110" s="242"/>
       <c r="P110" s="11"/>
     </row>
     <row r="111" spans="7:16" ht="19">
-      <c r="G111" s="260" t="s">
+      <c r="G111" s="252" t="s">
         <v>99</v>
       </c>
-      <c r="H111" s="261"/>
+      <c r="H111" s="253"/>
       <c r="I111" s="13">
         <f>+SUM(I97:I110)</f>
         <v>224935.95090999999</v>
       </c>
-      <c r="J111" s="262" t="s">
+      <c r="J111" s="254" t="s">
         <v>100</v>
       </c>
-      <c r="K111" s="262"/>
+      <c r="K111" s="254"/>
       <c r="L111" s="14">
         <f>+SUM(L97:L110)</f>
         <v>157718.01728221501</v>
       </c>
-      <c r="M111" s="262" t="s">
+      <c r="M111" s="254" t="s">
         <v>101</v>
       </c>
-      <c r="N111" s="262"/>
-      <c r="O111" s="262"/>
+      <c r="N111" s="254"/>
+      <c r="O111" s="254"/>
       <c r="P111" s="13">
         <f>+SUM(P97:P110)</f>
         <v>66598.404135000004</v>
@@ -31283,163 +31256,163 @@
       </c>
     </row>
     <row r="117" spans="7:16" ht="19">
-      <c r="G117" s="268" t="s">
+      <c r="G117" s="258" t="s">
         <v>71</v>
       </c>
-      <c r="H117" s="268"/>
-      <c r="I117" s="269"/>
-      <c r="J117" s="270" t="s">
+      <c r="H117" s="258"/>
+      <c r="I117" s="259"/>
+      <c r="J117" s="260" t="s">
         <v>72</v>
       </c>
-      <c r="K117" s="270"/>
-      <c r="L117" s="270"/>
-      <c r="M117" s="271" t="s">
+      <c r="K117" s="260"/>
+      <c r="L117" s="260"/>
+      <c r="M117" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="N117" s="271"/>
-      <c r="O117" s="271"/>
-      <c r="P117" s="271"/>
+      <c r="N117" s="261"/>
+      <c r="O117" s="261"/>
+      <c r="P117" s="261"/>
     </row>
     <row r="118" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G118" s="266" t="s">
+      <c r="G118" s="247" t="s">
         <v>74</v>
       </c>
-      <c r="H118" s="267"/>
+      <c r="H118" s="248"/>
       <c r="I118" s="22">
         <f>+E8</f>
         <v>31362.439789584805</v>
       </c>
-      <c r="J118" s="272" t="s">
+      <c r="J118" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="K118" s="259"/>
+      <c r="K118" s="242"/>
       <c r="L118" s="11">
         <f>+Utilidad!L67</f>
         <v>18629.618891762719</v>
       </c>
-      <c r="M118" s="259" t="s">
+      <c r="M118" s="242" t="s">
         <v>75</v>
       </c>
-      <c r="N118" s="259"/>
-      <c r="O118" s="259"/>
+      <c r="N118" s="242"/>
+      <c r="O118" s="242"/>
       <c r="P118" s="11">
         <f>+G17</f>
         <v>2683.8509222320799</v>
       </c>
     </row>
     <row r="119" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G119" s="266" t="s">
+      <c r="G119" s="247" t="s">
         <v>76</v>
       </c>
-      <c r="H119" s="267"/>
+      <c r="H119" s="248"/>
       <c r="I119" s="22">
         <f>+C14</f>
         <v>4313.8748192820003</v>
       </c>
-      <c r="J119" s="259" t="s">
+      <c r="J119" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="K119" s="259"/>
+      <c r="K119" s="242"/>
       <c r="L119" s="11">
         <f>+Utilidad!L75</f>
         <v>-952.49381749830002</v>
       </c>
-      <c r="M119" s="259" t="s">
+      <c r="M119" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="N119" s="259"/>
-      <c r="O119" s="259"/>
+      <c r="N119" s="242"/>
+      <c r="O119" s="242"/>
       <c r="P119" s="11">
         <f>+Q9</f>
         <v>3832.16792283</v>
       </c>
     </row>
     <row r="120" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G120" s="266" t="s">
+      <c r="G120" s="247" t="s">
         <v>77</v>
       </c>
-      <c r="H120" s="267"/>
+      <c r="H120" s="248"/>
       <c r="I120" s="22">
         <f>+H15</f>
         <v>13210.021740015</v>
       </c>
-      <c r="J120" s="259" t="s">
+      <c r="J120" s="242" t="s">
         <v>78</v>
       </c>
-      <c r="K120" s="259"/>
+      <c r="K120" s="242"/>
       <c r="L120" s="11">
         <f>+Utilidad!L79</f>
         <v>48.899868409249713</v>
       </c>
-      <c r="M120" s="259" t="s">
+      <c r="M120" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="N120" s="259"/>
-      <c r="O120" s="259"/>
+      <c r="N120" s="242"/>
+      <c r="O120" s="242"/>
       <c r="P120" s="11">
         <f>+Q13</f>
         <v>878.98796663419012</v>
       </c>
     </row>
     <row r="121" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G121" s="257" t="s">
+      <c r="G121" s="250" t="s">
         <v>79</v>
       </c>
-      <c r="H121" s="258"/>
+      <c r="H121" s="251"/>
       <c r="I121" s="22">
         <f>+C28</f>
         <v>0</v>
       </c>
-      <c r="J121" s="259" t="s">
+      <c r="J121" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="259"/>
+      <c r="K121" s="242"/>
       <c r="L121" s="11">
         <f>+Utilidad!L81</f>
         <v>-262.31146050768751</v>
       </c>
-      <c r="M121" s="259" t="s">
+      <c r="M121" s="242" t="s">
         <v>80</v>
       </c>
-      <c r="N121" s="259"/>
-      <c r="O121" s="259"/>
+      <c r="N121" s="242"/>
+      <c r="O121" s="242"/>
       <c r="P121" s="11">
         <f>+I32</f>
         <v>2984.67456396948</v>
       </c>
     </row>
     <row r="122" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G122" s="257" t="s">
+      <c r="G122" s="250" t="s">
         <v>57</v>
       </c>
-      <c r="H122" s="258"/>
+      <c r="H122" s="251"/>
       <c r="I122" s="22">
         <f>+C37</f>
         <v>0</v>
       </c>
-      <c r="J122" s="259" t="s">
+      <c r="J122" s="242" t="s">
         <v>81</v>
       </c>
-      <c r="K122" s="259"/>
+      <c r="K122" s="242"/>
       <c r="L122" s="11">
         <f>+Utilidad!L91</f>
         <v>0</v>
       </c>
-      <c r="M122" s="259" t="s">
+      <c r="M122" s="242" t="s">
         <v>82</v>
       </c>
-      <c r="N122" s="259"/>
-      <c r="O122" s="259"/>
+      <c r="N122" s="242"/>
+      <c r="O122" s="242"/>
       <c r="P122" s="11">
         <f>+M60</f>
         <v>685.12874127060002</v>
       </c>
     </row>
     <row r="123" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G123" s="257" t="s">
+      <c r="G123" s="250" t="s">
         <v>60</v>
       </c>
-      <c r="H123" s="258"/>
+      <c r="H123" s="251"/>
       <c r="I123" s="22">
         <f>+C46</f>
         <v>0</v>
@@ -31452,21 +31425,21 @@
         <f>+Utilidad!L104</f>
         <v>0</v>
       </c>
-      <c r="M123" s="259" t="s">
+      <c r="M123" s="242" t="s">
         <v>84</v>
       </c>
-      <c r="N123" s="259"/>
-      <c r="O123" s="259"/>
+      <c r="N123" s="242"/>
+      <c r="O123" s="242"/>
       <c r="P123" s="11">
         <f>+O65</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G124" s="257" t="s">
+      <c r="G124" s="250" t="s">
         <v>85</v>
       </c>
-      <c r="H124" s="258"/>
+      <c r="H124" s="251"/>
       <c r="I124" s="22">
         <f>+C56</f>
         <v>0</v>
@@ -31479,21 +31452,21 @@
         <f>+Utilidad!L107</f>
         <v>0</v>
       </c>
-      <c r="M124" s="259" t="s">
+      <c r="M124" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="N124" s="259"/>
-      <c r="O124" s="259"/>
+      <c r="N124" s="242"/>
+      <c r="O124" s="242"/>
       <c r="P124" s="11">
         <f>+O69</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G125" s="257" t="s">
+      <c r="G125" s="250" t="s">
         <v>88</v>
       </c>
-      <c r="H125" s="258"/>
+      <c r="H125" s="251"/>
       <c r="I125" s="22">
         <f>C64</f>
         <v>31987.9544404402</v>
@@ -31506,21 +31479,21 @@
         <f>+Utilidad!L110</f>
         <v>0</v>
       </c>
-      <c r="M125" s="259" t="s">
+      <c r="M125" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="N125" s="259"/>
-      <c r="O125" s="259"/>
+      <c r="N125" s="242"/>
+      <c r="O125" s="242"/>
       <c r="P125" s="11">
         <f>+O76</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G126" s="257" t="s">
+      <c r="G126" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="H126" s="258"/>
+      <c r="H126" s="251"/>
       <c r="I126" s="22">
         <f>+H72</f>
         <v>0</v>
@@ -31533,36 +31506,36 @@
         <f>+Utilidad!L113</f>
         <v>0</v>
       </c>
-      <c r="M126" s="259" t="s">
+      <c r="M126" s="242" t="s">
         <v>92</v>
       </c>
-      <c r="N126" s="259"/>
-      <c r="O126" s="259"/>
+      <c r="N126" s="242"/>
+      <c r="O126" s="242"/>
       <c r="P126" s="11">
         <f>+O86</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G127" s="257" t="s">
+      <c r="G127" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="H127" s="258"/>
+      <c r="H127" s="251"/>
       <c r="I127" s="22">
         <f>+H77</f>
         <v>0</v>
       </c>
-      <c r="J127" s="259" t="s">
+      <c r="J127" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="K127" s="259"/>
+      <c r="K127" s="242"/>
       <c r="L127" s="11">
         <f>+Utilidad!L102</f>
         <v>784.25323530000014</v>
       </c>
-      <c r="M127" s="259"/>
-      <c r="N127" s="259"/>
-      <c r="O127" s="259"/>
+      <c r="M127" s="242"/>
+      <c r="N127" s="242"/>
+      <c r="O127" s="242"/>
       <c r="P127" s="11"/>
     </row>
     <row r="128" spans="7:16" ht="27.75" customHeight="1">
@@ -31582,9 +31555,9 @@
         <f>+Utilidad!L86</f>
         <v>51134.716865245508</v>
       </c>
-      <c r="M128" s="263"/>
-      <c r="N128" s="264"/>
-      <c r="O128" s="265"/>
+      <c r="M128" s="255"/>
+      <c r="N128" s="256"/>
+      <c r="O128" s="257"/>
       <c r="P128" s="11"/>
     </row>
     <row r="129" spans="7:16" ht="27.75" customHeight="1">
@@ -31596,17 +31569,17 @@
         <f>+L80</f>
         <v>3492.2710335520001</v>
       </c>
-      <c r="J129" s="259" t="s">
+      <c r="J129" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="K129" s="259"/>
+      <c r="K129" s="242"/>
       <c r="L129" s="11">
         <f>+Utilidad!L94</f>
         <v>17255.090528778328</v>
       </c>
-      <c r="M129" s="263"/>
-      <c r="N129" s="264"/>
-      <c r="O129" s="265"/>
+      <c r="M129" s="255"/>
+      <c r="N129" s="256"/>
+      <c r="O129" s="257"/>
       <c r="P129" s="11"/>
     </row>
     <row r="130" spans="7:16" ht="27.75" customHeight="1">
@@ -31618,58 +31591,58 @@
         <f>+K88</f>
         <v>236.95831563539997</v>
       </c>
-      <c r="J130" s="259" t="s">
+      <c r="J130" s="242" t="s">
         <v>10</v>
       </c>
-      <c r="K130" s="259"/>
+      <c r="K130" s="242"/>
       <c r="L130" s="11">
         <f>+Utilidad!L99</f>
         <v>6837.4499160325795</v>
       </c>
-      <c r="M130" s="263"/>
-      <c r="N130" s="264"/>
-      <c r="O130" s="265"/>
+      <c r="M130" s="255"/>
+      <c r="N130" s="256"/>
+      <c r="O130" s="257"/>
       <c r="P130" s="11"/>
     </row>
     <row r="131" spans="7:16" ht="27.75" customHeight="1">
-      <c r="G131" s="257" t="s">
+      <c r="G131" s="250" t="s">
         <v>98</v>
       </c>
-      <c r="H131" s="258"/>
+      <c r="H131" s="251"/>
       <c r="I131" s="22">
         <f>+L92</f>
         <v>6600.493265135</v>
       </c>
-      <c r="J131" s="259"/>
-      <c r="K131" s="259"/>
+      <c r="J131" s="242"/>
+      <c r="K131" s="242"/>
       <c r="L131" s="11"/>
-      <c r="M131" s="259"/>
-      <c r="N131" s="259"/>
-      <c r="O131" s="259"/>
+      <c r="M131" s="242"/>
+      <c r="N131" s="242"/>
+      <c r="O131" s="242"/>
       <c r="P131" s="11"/>
     </row>
     <row r="132" spans="7:16" ht="19">
-      <c r="G132" s="260" t="s">
+      <c r="G132" s="252" t="s">
         <v>99</v>
       </c>
-      <c r="H132" s="261"/>
+      <c r="H132" s="253"/>
       <c r="I132" s="13">
         <f>+SUM(I118:I131)</f>
         <v>104966.8333100438</v>
       </c>
-      <c r="J132" s="262" t="s">
+      <c r="J132" s="254" t="s">
         <v>100</v>
       </c>
-      <c r="K132" s="262"/>
+      <c r="K132" s="254"/>
       <c r="L132" s="14">
         <f>+SUM(L118:L131)</f>
         <v>93475.224027522388</v>
       </c>
-      <c r="M132" s="262" t="s">
+      <c r="M132" s="254" t="s">
         <v>101</v>
       </c>
-      <c r="N132" s="262"/>
-      <c r="O132" s="262"/>
+      <c r="N132" s="254"/>
+      <c r="O132" s="254"/>
       <c r="P132" s="13">
         <f>+SUM(P118:P131)</f>
         <v>11064.810116936351</v>
@@ -31689,34 +31662,46 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="M97:O97"/>
-    <mergeCell ref="M99:O99"/>
-    <mergeCell ref="M100:O100"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="M102:O102"/>
-    <mergeCell ref="M103:O103"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="M104:O104"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="M96:P96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="M131:O131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="M128:O128"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="M130:O130"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="M117:P117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="M118:O118"/>
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="G110:H110"/>
     <mergeCell ref="J110:K110"/>
@@ -31729,46 +31714,34 @@
     <mergeCell ref="M107:O107"/>
     <mergeCell ref="M108:O108"/>
     <mergeCell ref="M109:O109"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="M117:P117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="M124:O124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="M126:O126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="M127:O127"/>
-    <mergeCell ref="M128:O128"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="M129:O129"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="M130:O130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="M131:O131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="M96:P96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="M104:O104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32052,7 +32025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731AE742-D316-A04E-A3DB-C52263974828}">
   <dimension ref="B2:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -32065,20 +32038,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20">
-      <c r="B2" s="277" t="s">
+      <c r="B2" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="F2" s="277" t="s">
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="F2" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="J2" s="278" t="s">
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="J2" s="263" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="279"/>
+      <c r="K2" s="264"/>
       <c r="L2" s="143"/>
       <c r="M2" s="144" t="s">
         <v>148</v>
@@ -34346,225 +34319,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFFF4F9-97DA-0445-9F68-74756A3E2648}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.1640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="187" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="172" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="153">
+      <c r="B1" s="266">
         <v>3309.8669999999738</v>
       </c>
-      <c r="C1" s="182">
+      <c r="C1" s="267">
         <v>0.5</v>
       </c>
-      <c r="D1" s="154">
+      <c r="D1" s="268">
         <v>0.01</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="155">
+      <c r="B2" s="269">
         <v>25692.717600000025</v>
       </c>
-      <c r="C2" s="182">
+      <c r="C2" s="267">
         <v>0.5</v>
       </c>
-      <c r="D2" s="156">
+      <c r="D2" s="270">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="155">
+      <c r="B3" s="269">
         <v>1265.6375</v>
       </c>
-      <c r="C3" s="182">
+      <c r="C3" s="267">
         <v>0.5</v>
       </c>
-      <c r="D3" s="156">
+      <c r="D3" s="270">
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="265" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="155">
+      <c r="B4" s="269">
         <v>149.92314000000002</v>
       </c>
-      <c r="C4" s="182">
+      <c r="C4" s="267">
         <v>0.5</v>
       </c>
-      <c r="D4" s="156">
+      <c r="D4" s="270">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="155">
+      <c r="B5" s="269">
         <v>36413.125499999987</v>
       </c>
-      <c r="C5" s="182">
+      <c r="C5" s="267">
         <v>0.5</v>
       </c>
-      <c r="D5" s="156">
+      <c r="D5" s="270">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="265" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="155">
+      <c r="B6" s="269">
         <v>9870.2511899999809</v>
       </c>
-      <c r="C6" s="182">
+      <c r="C6" s="267">
         <v>0.5</v>
       </c>
-      <c r="D6" s="156">
+      <c r="D6" s="270">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="265" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="155">
+      <c r="B7" s="269">
         <v>66352.984889999992</v>
       </c>
-      <c r="C7" s="182">
+      <c r="C7" s="267">
         <v>0.5</v>
       </c>
-      <c r="D7" s="156">
+      <c r="D7" s="270">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="158">
+      <c r="B8" s="271">
         <v>140332.26200000002</v>
       </c>
-      <c r="C8" s="183">
+      <c r="C8" s="272">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D8" s="159">
+      <c r="D8" s="273">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="265" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="158">
+      <c r="B9" s="271">
         <v>142107.27499999999</v>
       </c>
-      <c r="C9" s="183">
+      <c r="C9" s="272">
         <v>0.68410599999999999</v>
       </c>
-      <c r="D9" s="159">
+      <c r="D9" s="273">
         <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="265" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="155">
+      <c r="B10" s="269">
         <v>21525.51</v>
       </c>
-      <c r="C10" s="184">
+      <c r="C10" s="274">
         <v>0.62109999999999999</v>
       </c>
-      <c r="D10" s="159">
+      <c r="D10" s="273">
         <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="155">
+      <c r="B11" s="269">
         <v>5708.1906400000007</v>
       </c>
-      <c r="C11" s="185">
+      <c r="C11" s="274">
         <v>0.62109999999999999</v>
       </c>
-      <c r="D11" s="159">
+      <c r="D11" s="273">
         <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="265" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="155">
+      <c r="B12" s="269">
         <v>769.05863999999997</v>
       </c>
-      <c r="C12" s="184">
+      <c r="C12" s="274">
         <v>0.6099</v>
       </c>
-      <c r="D12" s="159">
+      <c r="D12" s="273">
         <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="265" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="155">
+      <c r="B13" s="269">
         <v>10808.078050000002</v>
       </c>
-      <c r="C13" s="185">
+      <c r="C13" s="274">
         <v>0.61070000000000002</v>
       </c>
-      <c r="D13" s="159">
+      <c r="D13" s="273">
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="265" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="158">
+      <c r="B14" s="271">
         <v>1</v>
       </c>
-      <c r="C14" s="186">
+      <c r="C14" s="267">
         <v>0.5</v>
       </c>
-      <c r="D14" s="159">
+      <c r="D14" s="273">
         <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24">
-      <c r="A15" s="161" t="s">
+      <c r="A15" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="158">
-        <v>0</v>
-      </c>
-      <c r="C15" s="186">
+      <c r="B15" s="271">
+        <v>0</v>
+      </c>
+      <c r="C15" s="267">
         <v>0.5</v>
       </c>
-      <c r="D15" s="159">
+      <c r="D15" s="273">
         <v>0.01</v>
       </c>
     </row>
@@ -34574,12 +34547,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f53f264-df38-4c5e-a089-ad7f07a2b911">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1490ee3b-8825-4a14-a799-bb3413729370" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34812,20 +34787,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f53f264-df38-4c5e-a089-ad7f07a2b911">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1490ee3b-8825-4a14-a799-bb3413729370" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFCA9A7-8661-43F7-BFD7-3C6B027F5CB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79956576-308D-4576-AFE1-2F4C0F3C33E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1490ee3b-8825-4a14-a799-bb3413729370"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6f53f264-df38-4c5e-a089-ad7f07a2b911"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34850,18 +34832,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79956576-308D-4576-AFE1-2F4C0F3C33E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFCA9A7-8661-43F7-BFD7-3C6B027F5CB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1490ee3b-8825-4a14-a799-bb3413729370"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6f53f264-df38-4c5e-a089-ad7f07a2b911"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/Export/Exportar_Elqui_Elqui.xlsx
+++ b/public/Export/Exportar_Elqui_Elqui.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernando/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55124070-94C8-B749-9E4E-2F23ED486F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{827279A6-BA4F-9944-8641-06DC87AFF704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" tabRatio="702" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="163">
   <si>
     <t>%FeT</t>
   </si>
@@ -851,9 +851,6 @@
   <si>
     <t>Recep Infiernillo</t>
   </si>
-  <si>
-    <t>=</t>
-  </si>
 </sst>
 </file>
 
@@ -869,7 +866,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
     <numFmt numFmtId="170" formatCode="#,##0.0000000_ ;\-#,##0.0000000\ "/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,13 +1017,6 @@
     <font>
       <sz val="8"/>
       <color theme="8" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1836,7 +1826,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2120,13 +2110,13 @@
     <xf numFmtId="166" fontId="17" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2154,16 +2144,16 @@
     <xf numFmtId="166" fontId="17" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2187,68 +2177,152 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="7" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="14" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2263,59 +2337,131 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2392,179 +2538,9 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="7" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="14" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Millares 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2575,7 +2551,7 @@
     <cellStyle name="Percent 2" xfId="6" xr:uid="{16367BE4-A648-A043-AF41-6B7CB9CDD3FF}"/>
     <cellStyle name="Porcentaje 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="21">
     <dxf>
       <font>
         <b/>
@@ -2589,33 +2565,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFC55A11"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFC55A11"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFC55A11"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -18299,14 +18248,14 @@
       <c r="D60" s="123"/>
       <c r="E60" s="123"/>
       <c r="F60" s="123"/>
-      <c r="J60" s="177" t="s">
+      <c r="J60" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="K60" s="177"/>
-      <c r="L60" s="177"/>
+      <c r="K60" s="191"/>
+      <c r="L60" s="191"/>
       <c r="M60" s="127"/>
-      <c r="N60" s="178"/>
-      <c r="O60" s="178"/>
+      <c r="N60" s="192"/>
+      <c r="O60" s="192"/>
       <c r="R60" s="103"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="3"/>
@@ -18451,8 +18400,8 @@
       <c r="D65" s="123"/>
       <c r="E65" s="123"/>
       <c r="F65" s="123"/>
-      <c r="G65" s="273"/>
-      <c r="H65" s="274"/>
+      <c r="G65" s="178"/>
+      <c r="H65" s="179"/>
       <c r="I65" s="139" t="s">
         <v>17</v>
       </c>
@@ -18488,8 +18437,8 @@
       <c r="D66" s="123"/>
       <c r="E66" s="123"/>
       <c r="F66" s="123"/>
-      <c r="G66" s="273"/>
-      <c r="H66" s="274"/>
+      <c r="G66" s="178"/>
+      <c r="H66" s="179"/>
       <c r="I66" s="139" t="s">
         <v>18</v>
       </c>
@@ -18525,8 +18474,8 @@
       <c r="D67" s="123"/>
       <c r="E67" s="123"/>
       <c r="F67" s="126"/>
-      <c r="G67" s="273"/>
-      <c r="H67" s="274"/>
+      <c r="G67" s="178"/>
+      <c r="H67" s="179"/>
       <c r="I67" s="139" t="s">
         <v>19</v>
       </c>
@@ -18562,8 +18511,8 @@
       <c r="D68" s="123"/>
       <c r="E68" s="123"/>
       <c r="F68" s="123"/>
-      <c r="G68" s="273"/>
-      <c r="H68" s="274"/>
+      <c r="G68" s="178"/>
+      <c r="H68" s="179"/>
       <c r="I68" s="139" t="s">
         <v>20</v>
       </c>
@@ -18599,8 +18548,8 @@
       <c r="D69" s="123"/>
       <c r="E69" s="123"/>
       <c r="F69" s="123"/>
-      <c r="G69" s="273"/>
-      <c r="H69" s="274"/>
+      <c r="G69" s="178"/>
+      <c r="H69" s="179"/>
       <c r="I69" s="139" t="s">
         <v>21</v>
       </c>
@@ -18630,14 +18579,14 @@
       <c r="AF69" s="3"/>
     </row>
     <row r="70" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="269"/>
-      <c r="B70" s="269"/>
-      <c r="C70" s="269"/>
-      <c r="D70" s="269"/>
-      <c r="E70" s="269"/>
-      <c r="F70" s="269"/>
-      <c r="G70" s="273"/>
-      <c r="H70" s="274"/>
+      <c r="A70" s="174"/>
+      <c r="B70" s="174"/>
+      <c r="C70" s="174"/>
+      <c r="D70" s="174"/>
+      <c r="E70" s="174"/>
+      <c r="F70" s="174"/>
+      <c r="G70" s="178"/>
+      <c r="H70" s="179"/>
       <c r="I70" s="139" t="s">
         <v>22</v>
       </c>
@@ -18667,14 +18616,14 @@
       <c r="AF70" s="3"/>
     </row>
     <row r="71" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="269"/>
-      <c r="B71" s="269"/>
-      <c r="C71" s="269"/>
-      <c r="D71" s="269"/>
-      <c r="E71" s="269"/>
-      <c r="F71" s="269"/>
-      <c r="G71" s="272"/>
-      <c r="H71" s="274"/>
+      <c r="A71" s="174"/>
+      <c r="B71" s="174"/>
+      <c r="C71" s="174"/>
+      <c r="D71" s="174"/>
+      <c r="E71" s="174"/>
+      <c r="F71" s="174"/>
+      <c r="G71" s="177"/>
+      <c r="H71" s="179"/>
       <c r="I71" s="139" t="s">
         <v>23</v>
       </c>
@@ -18704,14 +18653,14 @@
       <c r="AF71" s="3"/>
     </row>
     <row r="72" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="269"/>
-      <c r="B72" s="269"/>
-      <c r="C72" s="269"/>
-      <c r="D72" s="269"/>
-      <c r="E72" s="269"/>
-      <c r="F72" s="269"/>
-      <c r="G72" s="273"/>
-      <c r="H72" s="274"/>
+      <c r="A72" s="174"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="174"/>
+      <c r="D72" s="174"/>
+      <c r="E72" s="174"/>
+      <c r="F72" s="174"/>
+      <c r="G72" s="178"/>
+      <c r="H72" s="179"/>
       <c r="I72" s="139" t="s">
         <v>24</v>
       </c>
@@ -18741,14 +18690,14 @@
       <c r="AF72" s="3"/>
     </row>
     <row r="73" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="269"/>
-      <c r="B73" s="269"/>
-      <c r="C73" s="269"/>
-      <c r="D73" s="269"/>
-      <c r="E73" s="269"/>
-      <c r="F73" s="269"/>
-      <c r="G73" s="273"/>
-      <c r="H73" s="274"/>
+      <c r="A73" s="174"/>
+      <c r="B73" s="174"/>
+      <c r="C73" s="174"/>
+      <c r="D73" s="174"/>
+      <c r="E73" s="174"/>
+      <c r="F73" s="174"/>
+      <c r="G73" s="178"/>
+      <c r="H73" s="179"/>
       <c r="I73" s="139" t="s">
         <v>25</v>
       </c>
@@ -18778,14 +18727,14 @@
       <c r="AF73" s="3"/>
     </row>
     <row r="74" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="269"/>
-      <c r="B74" s="269"/>
-      <c r="C74" s="269"/>
-      <c r="D74" s="269"/>
-      <c r="E74" s="269"/>
-      <c r="F74" s="269"/>
-      <c r="G74" s="273"/>
-      <c r="H74" s="274"/>
+      <c r="A74" s="174"/>
+      <c r="B74" s="174"/>
+      <c r="C74" s="174"/>
+      <c r="D74" s="174"/>
+      <c r="E74" s="174"/>
+      <c r="F74" s="174"/>
+      <c r="G74" s="178"/>
+      <c r="H74" s="179"/>
       <c r="I74" s="139" t="s">
         <v>2</v>
       </c>
@@ -18815,14 +18764,14 @@
       <c r="AF74" s="3"/>
     </row>
     <row r="75" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="272"/>
-      <c r="B75" s="272"/>
-      <c r="C75" s="270"/>
-      <c r="D75" s="269"/>
-      <c r="E75" s="269"/>
-      <c r="F75" s="275"/>
-      <c r="G75" s="273"/>
-      <c r="H75" s="274"/>
+      <c r="A75" s="177"/>
+      <c r="B75" s="177"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="174"/>
+      <c r="E75" s="174"/>
+      <c r="F75" s="180"/>
+      <c r="G75" s="178"/>
+      <c r="H75" s="179"/>
       <c r="I75" s="139" t="s">
         <v>26</v>
       </c>
@@ -18852,14 +18801,14 @@
       <c r="AF75" s="3"/>
     </row>
     <row r="76" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="269"/>
-      <c r="B76" s="269"/>
-      <c r="C76" s="269"/>
-      <c r="D76" s="269"/>
-      <c r="E76" s="269"/>
-      <c r="F76" s="269"/>
-      <c r="G76" s="273"/>
-      <c r="H76" s="274"/>
+      <c r="A76" s="174"/>
+      <c r="B76" s="174"/>
+      <c r="C76" s="174"/>
+      <c r="D76" s="174"/>
+      <c r="E76" s="174"/>
+      <c r="F76" s="174"/>
+      <c r="G76" s="178"/>
+      <c r="H76" s="179"/>
       <c r="I76" s="139" t="s">
         <v>27</v>
       </c>
@@ -18889,14 +18838,14 @@
       <c r="AF76" s="3"/>
     </row>
     <row r="77" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="269"/>
-      <c r="B77" s="269"/>
-      <c r="C77" s="269"/>
-      <c r="D77" s="269"/>
-      <c r="E77" s="269"/>
-      <c r="F77" s="269"/>
-      <c r="G77" s="273"/>
-      <c r="H77" s="274"/>
+      <c r="A77" s="174"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="174"/>
+      <c r="E77" s="174"/>
+      <c r="F77" s="174"/>
+      <c r="G77" s="178"/>
+      <c r="H77" s="179"/>
       <c r="I77" s="139" t="s">
         <v>28</v>
       </c>
@@ -18926,14 +18875,14 @@
       <c r="AF77" s="3"/>
     </row>
     <row r="78" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="269"/>
-      <c r="B78" s="269"/>
-      <c r="C78" s="269"/>
-      <c r="D78" s="269"/>
-      <c r="E78" s="269"/>
-      <c r="F78" s="269"/>
-      <c r="G78" s="272"/>
-      <c r="H78" s="274"/>
+      <c r="A78" s="174"/>
+      <c r="B78" s="174"/>
+      <c r="C78" s="174"/>
+      <c r="D78" s="174"/>
+      <c r="E78" s="174"/>
+      <c r="F78" s="174"/>
+      <c r="G78" s="177"/>
+      <c r="H78" s="179"/>
       <c r="I78" s="139" t="s">
         <v>29</v>
       </c>
@@ -18963,14 +18912,14 @@
       <c r="AF78" s="3"/>
     </row>
     <row r="79" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="272"/>
-      <c r="B79" s="272"/>
-      <c r="C79" s="270"/>
-      <c r="D79" s="269"/>
-      <c r="E79" s="269"/>
-      <c r="F79" s="275"/>
-      <c r="G79" s="273"/>
-      <c r="H79" s="274"/>
+      <c r="A79" s="177"/>
+      <c r="B79" s="177"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="174"/>
+      <c r="E79" s="174"/>
+      <c r="F79" s="180"/>
+      <c r="G79" s="178"/>
+      <c r="H79" s="179"/>
       <c r="I79" s="139" t="s">
         <v>30</v>
       </c>
@@ -18998,14 +18947,14 @@
       <c r="AF79" s="3"/>
     </row>
     <row r="80" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="269"/>
-      <c r="B80" s="269"/>
-      <c r="C80" s="269"/>
-      <c r="D80" s="269"/>
-      <c r="E80" s="269"/>
-      <c r="F80" s="269"/>
-      <c r="G80" s="272"/>
-      <c r="H80" s="274"/>
+      <c r="A80" s="174"/>
+      <c r="B80" s="174"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="174"/>
+      <c r="E80" s="174"/>
+      <c r="F80" s="174"/>
+      <c r="G80" s="177"/>
+      <c r="H80" s="179"/>
       <c r="I80" s="139" t="s">
         <v>31</v>
       </c>
@@ -19030,14 +18979,14 @@
       <c r="S80" s="101"/>
     </row>
     <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="272"/>
-      <c r="B81" s="272"/>
-      <c r="C81" s="270"/>
-      <c r="D81" s="269"/>
-      <c r="E81" s="269"/>
-      <c r="F81" s="275"/>
-      <c r="G81" s="273"/>
-      <c r="H81" s="274"/>
+      <c r="A81" s="177"/>
+      <c r="B81" s="177"/>
+      <c r="C81" s="175"/>
+      <c r="D81" s="174"/>
+      <c r="E81" s="174"/>
+      <c r="F81" s="180"/>
+      <c r="G81" s="178"/>
+      <c r="H81" s="179"/>
       <c r="I81" s="139" t="s">
         <v>32</v>
       </c>
@@ -19062,14 +19011,14 @@
       <c r="S81" s="101"/>
     </row>
     <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="269"/>
-      <c r="B82" s="269"/>
-      <c r="C82" s="269"/>
-      <c r="D82" s="269"/>
-      <c r="E82" s="269"/>
-      <c r="F82" s="269"/>
-      <c r="G82" s="273"/>
-      <c r="H82" s="274"/>
+      <c r="A82" s="174"/>
+      <c r="B82" s="174"/>
+      <c r="C82" s="174"/>
+      <c r="D82" s="174"/>
+      <c r="E82" s="174"/>
+      <c r="F82" s="174"/>
+      <c r="G82" s="178"/>
+      <c r="H82" s="179"/>
       <c r="I82" s="139" t="s">
         <v>33</v>
       </c>
@@ -19094,14 +19043,14 @@
       <c r="S82" s="101"/>
     </row>
     <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="269"/>
-      <c r="B83" s="269"/>
-      <c r="C83" s="269"/>
-      <c r="D83" s="269"/>
-      <c r="E83" s="269"/>
-      <c r="F83" s="269"/>
-      <c r="G83" s="273"/>
-      <c r="H83" s="274"/>
+      <c r="A83" s="174"/>
+      <c r="B83" s="174"/>
+      <c r="C83" s="174"/>
+      <c r="D83" s="174"/>
+      <c r="E83" s="174"/>
+      <c r="F83" s="174"/>
+      <c r="G83" s="178"/>
+      <c r="H83" s="179"/>
       <c r="I83" s="139" t="s">
         <v>35</v>
       </c>
@@ -19126,14 +19075,14 @@
       <c r="S83" s="101"/>
     </row>
     <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="269"/>
-      <c r="B84" s="269"/>
-      <c r="C84" s="269"/>
-      <c r="D84" s="269"/>
-      <c r="E84" s="269"/>
-      <c r="F84" s="269"/>
-      <c r="G84" s="272"/>
-      <c r="H84" s="270"/>
+      <c r="A84" s="174"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
+      <c r="G84" s="177"/>
+      <c r="H84" s="175"/>
       <c r="I84" s="139" t="s">
         <v>36</v>
       </c>
@@ -19158,14 +19107,14 @@
       <c r="S84" s="101"/>
     </row>
     <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="269"/>
-      <c r="B85" s="269"/>
-      <c r="C85" s="269"/>
-      <c r="D85" s="269"/>
-      <c r="E85" s="269"/>
-      <c r="F85" s="269"/>
-      <c r="G85" s="273"/>
-      <c r="H85" s="274"/>
+      <c r="A85" s="174"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="174"/>
+      <c r="D85" s="174"/>
+      <c r="E85" s="174"/>
+      <c r="F85" s="174"/>
+      <c r="G85" s="178"/>
+      <c r="H85" s="179"/>
       <c r="I85" s="139" t="s">
         <v>37</v>
       </c>
@@ -19190,14 +19139,14 @@
       <c r="S85" s="101"/>
     </row>
     <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="272"/>
-      <c r="B86" s="272"/>
-      <c r="C86" s="276"/>
-      <c r="D86" s="269"/>
-      <c r="E86" s="269"/>
-      <c r="F86" s="275"/>
-      <c r="G86" s="273"/>
-      <c r="H86" s="274"/>
+      <c r="A86" s="177"/>
+      <c r="B86" s="177"/>
+      <c r="C86" s="181"/>
+      <c r="D86" s="174"/>
+      <c r="E86" s="174"/>
+      <c r="F86" s="180"/>
+      <c r="G86" s="178"/>
+      <c r="H86" s="179"/>
       <c r="I86" s="139" t="s">
         <v>38</v>
       </c>
@@ -19222,14 +19171,14 @@
       <c r="S86" s="101"/>
     </row>
     <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="269"/>
-      <c r="B87" s="269"/>
-      <c r="C87" s="269"/>
-      <c r="D87" s="269"/>
-      <c r="E87" s="269"/>
-      <c r="F87" s="275"/>
-      <c r="G87" s="273"/>
-      <c r="H87" s="274"/>
+      <c r="A87" s="174"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="174"/>
+      <c r="D87" s="174"/>
+      <c r="E87" s="174"/>
+      <c r="F87" s="180"/>
+      <c r="G87" s="178"/>
+      <c r="H87" s="179"/>
       <c r="I87" s="139" t="s">
         <v>39</v>
       </c>
@@ -19254,14 +19203,14 @@
       <c r="S87" s="101"/>
     </row>
     <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="269"/>
-      <c r="B88" s="269"/>
-      <c r="C88" s="269"/>
-      <c r="D88" s="269"/>
-      <c r="E88" s="269"/>
-      <c r="F88" s="269"/>
-      <c r="G88" s="273"/>
-      <c r="H88" s="274"/>
+      <c r="A88" s="174"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="174"/>
+      <c r="G88" s="178"/>
+      <c r="H88" s="179"/>
       <c r="I88" s="139" t="s">
         <v>140</v>
       </c>
@@ -19286,14 +19235,14 @@
       <c r="S88" s="101"/>
     </row>
     <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="269"/>
-      <c r="B89" s="269"/>
-      <c r="C89" s="269"/>
-      <c r="D89" s="269"/>
-      <c r="E89" s="269"/>
-      <c r="F89" s="269"/>
-      <c r="G89" s="273"/>
-      <c r="H89" s="274"/>
+      <c r="A89" s="174"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="174"/>
+      <c r="F89" s="174"/>
+      <c r="G89" s="178"/>
+      <c r="H89" s="179"/>
       <c r="I89" s="139" t="s">
         <v>40</v>
       </c>
@@ -19318,14 +19267,14 @@
       <c r="S89" s="101"/>
     </row>
     <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="269"/>
-      <c r="B90" s="269"/>
-      <c r="C90" s="269"/>
-      <c r="D90" s="269"/>
-      <c r="E90" s="269"/>
-      <c r="F90" s="269"/>
-      <c r="G90" s="273"/>
-      <c r="H90" s="274"/>
+      <c r="A90" s="174"/>
+      <c r="B90" s="174"/>
+      <c r="C90" s="174"/>
+      <c r="D90" s="174"/>
+      <c r="E90" s="174"/>
+      <c r="F90" s="174"/>
+      <c r="G90" s="178"/>
+      <c r="H90" s="179"/>
       <c r="I90" s="139" t="s">
         <v>41</v>
       </c>
@@ -19350,14 +19299,14 @@
       <c r="S90" s="101"/>
     </row>
     <row r="91" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A91" s="272"/>
-      <c r="B91" s="272"/>
-      <c r="C91" s="270"/>
-      <c r="D91" s="269"/>
-      <c r="E91" s="269"/>
-      <c r="F91" s="275"/>
-      <c r="G91" s="273"/>
-      <c r="H91" s="277"/>
+      <c r="A91" s="177"/>
+      <c r="B91" s="177"/>
+      <c r="C91" s="175"/>
+      <c r="D91" s="174"/>
+      <c r="E91" s="174"/>
+      <c r="F91" s="180"/>
+      <c r="G91" s="178"/>
+      <c r="H91" s="182"/>
       <c r="I91" s="139" t="s">
         <v>42</v>
       </c>
@@ -19382,14 +19331,14 @@
       <c r="S91" s="101"/>
     </row>
     <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="269"/>
-      <c r="B92" s="269"/>
-      <c r="C92" s="269"/>
-      <c r="D92" s="269"/>
-      <c r="E92" s="269"/>
-      <c r="F92" s="269"/>
-      <c r="G92" s="273"/>
-      <c r="H92" s="274"/>
+      <c r="A92" s="174"/>
+      <c r="B92" s="174"/>
+      <c r="C92" s="174"/>
+      <c r="D92" s="174"/>
+      <c r="E92" s="174"/>
+      <c r="F92" s="174"/>
+      <c r="G92" s="178"/>
+      <c r="H92" s="179"/>
       <c r="I92" s="139" t="s">
         <v>43</v>
       </c>
@@ -19414,14 +19363,14 @@
       <c r="S92" s="101"/>
     </row>
     <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="269"/>
-      <c r="B93" s="269"/>
-      <c r="C93" s="269"/>
-      <c r="D93" s="269"/>
-      <c r="E93" s="269"/>
-      <c r="F93" s="269"/>
-      <c r="G93" s="273"/>
-      <c r="H93" s="274"/>
+      <c r="A93" s="174"/>
+      <c r="B93" s="174"/>
+      <c r="C93" s="174"/>
+      <c r="D93" s="174"/>
+      <c r="E93" s="174"/>
+      <c r="F93" s="174"/>
+      <c r="G93" s="178"/>
+      <c r="H93" s="179"/>
       <c r="I93" s="139" t="s">
         <v>139</v>
       </c>
@@ -19446,14 +19395,14 @@
       <c r="S93" s="101"/>
     </row>
     <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="272"/>
-      <c r="B94" s="272"/>
-      <c r="C94" s="276"/>
-      <c r="D94" s="269"/>
-      <c r="E94" s="269"/>
-      <c r="F94" s="275"/>
-      <c r="G94" s="273"/>
-      <c r="H94" s="274"/>
+      <c r="A94" s="177"/>
+      <c r="B94" s="177"/>
+      <c r="C94" s="181"/>
+      <c r="D94" s="174"/>
+      <c r="E94" s="174"/>
+      <c r="F94" s="180"/>
+      <c r="G94" s="178"/>
+      <c r="H94" s="179"/>
       <c r="I94" s="139" t="s">
         <v>45</v>
       </c>
@@ -19478,14 +19427,14 @@
       <c r="S94" s="101"/>
     </row>
     <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="269"/>
-      <c r="B95" s="269"/>
-      <c r="C95" s="269"/>
-      <c r="D95" s="269"/>
-      <c r="E95" s="269"/>
-      <c r="F95" s="269"/>
-      <c r="G95" s="273"/>
-      <c r="H95" s="274"/>
+      <c r="A95" s="174"/>
+      <c r="B95" s="174"/>
+      <c r="C95" s="174"/>
+      <c r="D95" s="174"/>
+      <c r="E95" s="174"/>
+      <c r="F95" s="174"/>
+      <c r="G95" s="178"/>
+      <c r="H95" s="179"/>
       <c r="I95" s="139" t="s">
         <v>46</v>
       </c>
@@ -19510,14 +19459,14 @@
       <c r="S95" s="101"/>
     </row>
     <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="269"/>
-      <c r="B96" s="269"/>
-      <c r="C96" s="269"/>
-      <c r="D96" s="269"/>
-      <c r="E96" s="269"/>
-      <c r="F96" s="269"/>
-      <c r="G96" s="273"/>
-      <c r="H96" s="274"/>
+      <c r="A96" s="174"/>
+      <c r="B96" s="174"/>
+      <c r="C96" s="174"/>
+      <c r="D96" s="174"/>
+      <c r="E96" s="174"/>
+      <c r="F96" s="174"/>
+      <c r="G96" s="178"/>
+      <c r="H96" s="179"/>
       <c r="I96" s="139" t="s">
         <v>47</v>
       </c>
@@ -19542,14 +19491,14 @@
       <c r="S96" s="101"/>
     </row>
     <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="269"/>
-      <c r="B97" s="269"/>
-      <c r="C97" s="269"/>
-      <c r="D97" s="269"/>
-      <c r="E97" s="269"/>
-      <c r="F97" s="269"/>
-      <c r="G97" s="273"/>
-      <c r="H97" s="274"/>
+      <c r="A97" s="174"/>
+      <c r="B97" s="174"/>
+      <c r="C97" s="174"/>
+      <c r="D97" s="174"/>
+      <c r="E97" s="174"/>
+      <c r="F97" s="174"/>
+      <c r="G97" s="178"/>
+      <c r="H97" s="179"/>
       <c r="I97" s="139" t="s">
         <v>48</v>
       </c>
@@ -19574,14 +19523,14 @@
       <c r="S97" s="101"/>
     </row>
     <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="269"/>
-      <c r="B98" s="269"/>
-      <c r="C98" s="269"/>
-      <c r="D98" s="269"/>
-      <c r="E98" s="269"/>
-      <c r="F98" s="269"/>
-      <c r="G98" s="273"/>
-      <c r="H98" s="274"/>
+      <c r="A98" s="174"/>
+      <c r="B98" s="174"/>
+      <c r="C98" s="174"/>
+      <c r="D98" s="174"/>
+      <c r="E98" s="174"/>
+      <c r="F98" s="174"/>
+      <c r="G98" s="178"/>
+      <c r="H98" s="179"/>
       <c r="I98" s="139" t="s">
         <v>49</v>
       </c>
@@ -19606,14 +19555,14 @@
       <c r="S98" s="101"/>
     </row>
     <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="272"/>
-      <c r="B99" s="272"/>
-      <c r="C99" s="270"/>
-      <c r="D99" s="269"/>
-      <c r="E99" s="269"/>
-      <c r="F99" s="275"/>
-      <c r="G99" s="273"/>
-      <c r="H99" s="274"/>
+      <c r="A99" s="177"/>
+      <c r="B99" s="177"/>
+      <c r="C99" s="175"/>
+      <c r="D99" s="174"/>
+      <c r="E99" s="174"/>
+      <c r="F99" s="180"/>
+      <c r="G99" s="178"/>
+      <c r="H99" s="179"/>
       <c r="I99" s="139" t="s">
         <v>50</v>
       </c>
@@ -19638,14 +19587,14 @@
       <c r="S99" s="101"/>
     </row>
     <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="269"/>
-      <c r="B100" s="269"/>
-      <c r="C100" s="269"/>
-      <c r="D100" s="269"/>
-      <c r="E100" s="269"/>
-      <c r="F100" s="269"/>
-      <c r="G100" s="273"/>
-      <c r="H100" s="274"/>
+      <c r="A100" s="174"/>
+      <c r="B100" s="174"/>
+      <c r="C100" s="174"/>
+      <c r="D100" s="174"/>
+      <c r="E100" s="174"/>
+      <c r="F100" s="174"/>
+      <c r="G100" s="178"/>
+      <c r="H100" s="179"/>
       <c r="I100" s="139" t="s">
         <v>51</v>
       </c>
@@ -19670,14 +19619,14 @@
       <c r="S100" s="101"/>
     </row>
     <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="269"/>
-      <c r="B101" s="269"/>
-      <c r="C101" s="269"/>
-      <c r="D101" s="269"/>
-      <c r="E101" s="269"/>
-      <c r="F101" s="269"/>
-      <c r="G101" s="273"/>
-      <c r="H101" s="274"/>
+      <c r="A101" s="174"/>
+      <c r="B101" s="174"/>
+      <c r="C101" s="174"/>
+      <c r="D101" s="174"/>
+      <c r="E101" s="174"/>
+      <c r="F101" s="174"/>
+      <c r="G101" s="178"/>
+      <c r="H101" s="179"/>
       <c r="I101" s="139" t="s">
         <v>52</v>
       </c>
@@ -19702,14 +19651,14 @@
       <c r="S101" s="101"/>
     </row>
     <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="272"/>
-      <c r="B102" s="272"/>
-      <c r="C102" s="270"/>
-      <c r="D102" s="269"/>
-      <c r="E102" s="269"/>
-      <c r="F102" s="275"/>
-      <c r="G102" s="273"/>
-      <c r="H102" s="274"/>
+      <c r="A102" s="177"/>
+      <c r="B102" s="177"/>
+      <c r="C102" s="175"/>
+      <c r="D102" s="174"/>
+      <c r="E102" s="174"/>
+      <c r="F102" s="180"/>
+      <c r="G102" s="178"/>
+      <c r="H102" s="179"/>
       <c r="I102" s="139" t="s">
         <v>53</v>
       </c>
@@ -19734,14 +19683,14 @@
       <c r="S102" s="101"/>
     </row>
     <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="269"/>
-      <c r="B103" s="269"/>
-      <c r="C103" s="269"/>
-      <c r="D103" s="269"/>
-      <c r="E103" s="269"/>
-      <c r="F103" s="269"/>
-      <c r="G103" s="273"/>
-      <c r="H103" s="274"/>
+      <c r="A103" s="174"/>
+      <c r="B103" s="174"/>
+      <c r="C103" s="174"/>
+      <c r="D103" s="174"/>
+      <c r="E103" s="174"/>
+      <c r="F103" s="174"/>
+      <c r="G103" s="178"/>
+      <c r="H103" s="179"/>
       <c r="I103" s="139" t="s">
         <v>54</v>
       </c>
@@ -19766,14 +19715,14 @@
       <c r="S103" s="101"/>
     </row>
     <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="272"/>
-      <c r="B104" s="272"/>
-      <c r="C104" s="270"/>
-      <c r="D104" s="269"/>
-      <c r="E104" s="269"/>
-      <c r="F104" s="275"/>
-      <c r="G104" s="273"/>
-      <c r="H104" s="274"/>
+      <c r="A104" s="177"/>
+      <c r="B104" s="177"/>
+      <c r="C104" s="175"/>
+      <c r="D104" s="174"/>
+      <c r="E104" s="174"/>
+      <c r="F104" s="180"/>
+      <c r="G104" s="178"/>
+      <c r="H104" s="179"/>
       <c r="I104" s="139" t="s">
         <v>55</v>
       </c>
@@ -19798,14 +19747,14 @@
       <c r="S104" s="101"/>
     </row>
     <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="269"/>
-      <c r="B105" s="269"/>
-      <c r="C105" s="269"/>
-      <c r="D105" s="269"/>
-      <c r="E105" s="269"/>
-      <c r="F105" s="269"/>
-      <c r="G105" s="273"/>
-      <c r="H105" s="274"/>
+      <c r="A105" s="174"/>
+      <c r="B105" s="174"/>
+      <c r="C105" s="174"/>
+      <c r="D105" s="174"/>
+      <c r="E105" s="174"/>
+      <c r="F105" s="174"/>
+      <c r="G105" s="178"/>
+      <c r="H105" s="179"/>
       <c r="I105" s="139" t="s">
         <v>56</v>
       </c>
@@ -19830,14 +19779,14 @@
       <c r="S105" s="101"/>
     </row>
     <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="272"/>
-      <c r="B106" s="272"/>
-      <c r="C106" s="270"/>
-      <c r="D106" s="269"/>
-      <c r="E106" s="269"/>
-      <c r="F106" s="269"/>
-      <c r="G106" s="273"/>
-      <c r="H106" s="274"/>
+      <c r="A106" s="177"/>
+      <c r="B106" s="177"/>
+      <c r="C106" s="175"/>
+      <c r="D106" s="174"/>
+      <c r="E106" s="174"/>
+      <c r="F106" s="174"/>
+      <c r="G106" s="178"/>
+      <c r="H106" s="179"/>
       <c r="I106" s="139" t="s">
         <v>57</v>
       </c>
@@ -19862,14 +19811,14 @@
       <c r="S106" s="101"/>
     </row>
     <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="272"/>
-      <c r="B107" s="272"/>
-      <c r="C107" s="270"/>
-      <c r="D107" s="269"/>
-      <c r="E107" s="269"/>
-      <c r="F107" s="269"/>
-      <c r="G107" s="273"/>
-      <c r="H107" s="274"/>
+      <c r="A107" s="177"/>
+      <c r="B107" s="177"/>
+      <c r="C107" s="175"/>
+      <c r="D107" s="174"/>
+      <c r="E107" s="174"/>
+      <c r="F107" s="174"/>
+      <c r="G107" s="178"/>
+      <c r="H107" s="179"/>
       <c r="I107" s="139" t="s">
         <v>58</v>
       </c>
@@ -19894,14 +19843,14 @@
       <c r="S107" s="101"/>
     </row>
     <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="269"/>
-      <c r="B108" s="269"/>
-      <c r="C108" s="269"/>
-      <c r="D108" s="269"/>
-      <c r="E108" s="269"/>
-      <c r="F108" s="269"/>
-      <c r="G108" s="273"/>
-      <c r="H108" s="274"/>
+      <c r="A108" s="174"/>
+      <c r="B108" s="174"/>
+      <c r="C108" s="174"/>
+      <c r="D108" s="174"/>
+      <c r="E108" s="174"/>
+      <c r="F108" s="174"/>
+      <c r="G108" s="178"/>
+      <c r="H108" s="179"/>
       <c r="I108" s="139" t="s">
         <v>59</v>
       </c>
@@ -19926,14 +19875,14 @@
       <c r="S108" s="101"/>
     </row>
     <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="269"/>
-      <c r="B109" s="269"/>
-      <c r="C109" s="269"/>
-      <c r="D109" s="269"/>
-      <c r="E109" s="269"/>
-      <c r="F109" s="269"/>
-      <c r="G109" s="273"/>
-      <c r="H109" s="274"/>
+      <c r="A109" s="174"/>
+      <c r="B109" s="174"/>
+      <c r="C109" s="174"/>
+      <c r="D109" s="174"/>
+      <c r="E109" s="174"/>
+      <c r="F109" s="174"/>
+      <c r="G109" s="178"/>
+      <c r="H109" s="179"/>
       <c r="I109" s="139" t="s">
         <v>60</v>
       </c>
@@ -19958,14 +19907,14 @@
       <c r="S109" s="101"/>
     </row>
     <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="272"/>
-      <c r="B110" s="272"/>
-      <c r="C110" s="270"/>
-      <c r="D110" s="269"/>
-      <c r="E110" s="269"/>
-      <c r="F110" s="275"/>
-      <c r="G110" s="273"/>
-      <c r="H110" s="274"/>
+      <c r="A110" s="177"/>
+      <c r="B110" s="177"/>
+      <c r="C110" s="175"/>
+      <c r="D110" s="174"/>
+      <c r="E110" s="174"/>
+      <c r="F110" s="180"/>
+      <c r="G110" s="178"/>
+      <c r="H110" s="179"/>
       <c r="I110" s="139" t="s">
         <v>61</v>
       </c>
@@ -19990,14 +19939,14 @@
       <c r="S110" s="101"/>
     </row>
     <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="269"/>
-      <c r="B111" s="269"/>
-      <c r="C111" s="269"/>
-      <c r="D111" s="269"/>
-      <c r="E111" s="269"/>
-      <c r="F111" s="269"/>
-      <c r="G111" s="273"/>
-      <c r="H111" s="274"/>
+      <c r="A111" s="174"/>
+      <c r="B111" s="174"/>
+      <c r="C111" s="174"/>
+      <c r="D111" s="174"/>
+      <c r="E111" s="174"/>
+      <c r="F111" s="174"/>
+      <c r="G111" s="178"/>
+      <c r="H111" s="179"/>
       <c r="I111" s="139" t="s">
         <v>62</v>
       </c>
@@ -20022,14 +19971,14 @@
       <c r="S111" s="101"/>
     </row>
     <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="269"/>
-      <c r="B112" s="269"/>
-      <c r="C112" s="269"/>
-      <c r="D112" s="269"/>
-      <c r="E112" s="269"/>
-      <c r="F112" s="269"/>
-      <c r="G112" s="273"/>
-      <c r="H112" s="274"/>
+      <c r="A112" s="174"/>
+      <c r="B112" s="174"/>
+      <c r="C112" s="174"/>
+      <c r="D112" s="174"/>
+      <c r="E112" s="174"/>
+      <c r="F112" s="174"/>
+      <c r="G112" s="178"/>
+      <c r="H112" s="179"/>
       <c r="I112" s="139" t="s">
         <v>63</v>
       </c>
@@ -20054,14 +20003,14 @@
       <c r="S112" s="101"/>
     </row>
     <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="272"/>
-      <c r="B113" s="272"/>
-      <c r="C113" s="270"/>
-      <c r="D113" s="269"/>
-      <c r="E113" s="269"/>
-      <c r="F113" s="275"/>
-      <c r="G113" s="273"/>
-      <c r="H113" s="274"/>
+      <c r="A113" s="177"/>
+      <c r="B113" s="177"/>
+      <c r="C113" s="175"/>
+      <c r="D113" s="174"/>
+      <c r="E113" s="174"/>
+      <c r="F113" s="180"/>
+      <c r="G113" s="178"/>
+      <c r="H113" s="179"/>
       <c r="I113" s="139" t="s">
         <v>64</v>
       </c>
@@ -20086,14 +20035,14 @@
       <c r="S113" s="101"/>
     </row>
     <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="269"/>
-      <c r="B114" s="269"/>
-      <c r="C114" s="269"/>
-      <c r="D114" s="269"/>
-      <c r="E114" s="269"/>
-      <c r="F114" s="269"/>
-      <c r="G114" s="273"/>
-      <c r="H114" s="274"/>
+      <c r="A114" s="174"/>
+      <c r="B114" s="174"/>
+      <c r="C114" s="174"/>
+      <c r="D114" s="174"/>
+      <c r="E114" s="174"/>
+      <c r="F114" s="174"/>
+      <c r="G114" s="178"/>
+      <c r="H114" s="179"/>
       <c r="I114" s="139" t="s">
         <v>65</v>
       </c>
@@ -20118,14 +20067,14 @@
       <c r="S114" s="101"/>
     </row>
     <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="269"/>
-      <c r="B115" s="269"/>
-      <c r="C115" s="269"/>
-      <c r="D115" s="269"/>
-      <c r="E115" s="269"/>
-      <c r="F115" s="269"/>
-      <c r="G115" s="273"/>
-      <c r="H115" s="274"/>
+      <c r="A115" s="174"/>
+      <c r="B115" s="174"/>
+      <c r="C115" s="174"/>
+      <c r="D115" s="174"/>
+      <c r="E115" s="174"/>
+      <c r="F115" s="174"/>
+      <c r="G115" s="178"/>
+      <c r="H115" s="179"/>
       <c r="I115" s="139" t="s">
         <v>66</v>
       </c>
@@ -20150,14 +20099,14 @@
       <c r="S115" s="101"/>
     </row>
     <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="269"/>
-      <c r="B116" s="269"/>
-      <c r="C116" s="269"/>
-      <c r="D116" s="269"/>
-      <c r="E116" s="269"/>
-      <c r="F116" s="269"/>
-      <c r="G116" s="272"/>
-      <c r="H116" s="270"/>
+      <c r="A116" s="174"/>
+      <c r="B116" s="174"/>
+      <c r="C116" s="174"/>
+      <c r="D116" s="174"/>
+      <c r="E116" s="174"/>
+      <c r="F116" s="174"/>
+      <c r="G116" s="177"/>
+      <c r="H116" s="175"/>
       <c r="I116" s="139" t="s">
         <v>67</v>
       </c>
@@ -20182,14 +20131,14 @@
       <c r="S116" s="101"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A117" s="269"/>
-      <c r="B117" s="269"/>
-      <c r="C117" s="269"/>
-      <c r="D117" s="269"/>
-      <c r="E117" s="269"/>
-      <c r="F117" s="269"/>
-      <c r="G117" s="269"/>
-      <c r="H117" s="269"/>
+      <c r="A117" s="174"/>
+      <c r="B117" s="174"/>
+      <c r="C117" s="174"/>
+      <c r="D117" s="174"/>
+      <c r="E117" s="174"/>
+      <c r="F117" s="174"/>
+      <c r="G117" s="174"/>
+      <c r="H117" s="174"/>
       <c r="I117" s="139"/>
       <c r="J117" s="139"/>
       <c r="K117" s="139"/>
@@ -20197,14 +20146,14 @@
       <c r="M117" s="127"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A118" s="269"/>
-      <c r="B118" s="269"/>
-      <c r="C118" s="269"/>
-      <c r="D118" s="269"/>
-      <c r="E118" s="269"/>
-      <c r="F118" s="269"/>
-      <c r="G118" s="278"/>
-      <c r="H118" s="279"/>
+      <c r="A118" s="174"/>
+      <c r="B118" s="174"/>
+      <c r="C118" s="174"/>
+      <c r="D118" s="174"/>
+      <c r="E118" s="174"/>
+      <c r="F118" s="174"/>
+      <c r="G118" s="193"/>
+      <c r="H118" s="194"/>
       <c r="I118" s="139"/>
       <c r="J118" s="144"/>
       <c r="K118" s="144"/>
@@ -20212,418 +20161,418 @@
       <c r="M118" s="127"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A119" s="269"/>
-      <c r="B119" s="269"/>
-      <c r="C119" s="269"/>
-      <c r="D119" s="269"/>
-      <c r="E119" s="269"/>
-      <c r="F119" s="269"/>
-      <c r="G119" s="271"/>
-      <c r="H119" s="271"/>
+      <c r="A119" s="174"/>
+      <c r="B119" s="174"/>
+      <c r="C119" s="174"/>
+      <c r="D119" s="174"/>
+      <c r="E119" s="174"/>
+      <c r="F119" s="174"/>
+      <c r="G119" s="176"/>
+      <c r="H119" s="176"/>
       <c r="I119" s="139"/>
       <c r="J119" s="144"/>
       <c r="K119" s="144"/>
       <c r="L119" s="139"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A120" s="269"/>
-      <c r="B120" s="269"/>
-      <c r="C120" s="269"/>
-      <c r="D120" s="269"/>
-      <c r="E120" s="269"/>
-      <c r="F120" s="269"/>
-      <c r="G120" s="269"/>
-      <c r="H120" s="269"/>
+      <c r="A120" s="174"/>
+      <c r="B120" s="174"/>
+      <c r="C120" s="174"/>
+      <c r="D120" s="174"/>
+      <c r="E120" s="174"/>
+      <c r="F120" s="174"/>
+      <c r="G120" s="174"/>
+      <c r="H120" s="174"/>
       <c r="I120" s="139"/>
       <c r="J120" s="142"/>
       <c r="K120" s="143"/>
       <c r="L120" s="139"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A121" s="269"/>
-      <c r="B121" s="269"/>
-      <c r="C121" s="269"/>
-      <c r="D121" s="269"/>
-      <c r="E121" s="269"/>
-      <c r="F121" s="269"/>
-      <c r="G121" s="269"/>
-      <c r="H121" s="269"/>
+      <c r="A121" s="174"/>
+      <c r="B121" s="174"/>
+      <c r="C121" s="174"/>
+      <c r="D121" s="174"/>
+      <c r="E121" s="174"/>
+      <c r="F121" s="174"/>
+      <c r="G121" s="174"/>
+      <c r="H121" s="174"/>
       <c r="I121" s="139"/>
       <c r="J121" s="142"/>
       <c r="K121" s="143"/>
       <c r="L121" s="139"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A122" s="269"/>
-      <c r="B122" s="269"/>
-      <c r="C122" s="269"/>
-      <c r="D122" s="269"/>
-      <c r="E122" s="269"/>
-      <c r="F122" s="269"/>
-      <c r="G122" s="269"/>
-      <c r="H122" s="269"/>
+      <c r="A122" s="174"/>
+      <c r="B122" s="174"/>
+      <c r="C122" s="174"/>
+      <c r="D122" s="174"/>
+      <c r="E122" s="174"/>
+      <c r="F122" s="174"/>
+      <c r="G122" s="174"/>
+      <c r="H122" s="174"/>
       <c r="I122" s="139"/>
       <c r="J122" s="142"/>
       <c r="K122" s="143"/>
       <c r="L122" s="139"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A123" s="269"/>
-      <c r="B123" s="269"/>
-      <c r="C123" s="269"/>
-      <c r="D123" s="269"/>
-      <c r="E123" s="269"/>
-      <c r="F123" s="269"/>
+      <c r="A123" s="174"/>
+      <c r="B123" s="174"/>
+      <c r="C123" s="174"/>
+      <c r="D123" s="174"/>
+      <c r="E123" s="174"/>
+      <c r="F123" s="174"/>
       <c r="J123" s="2"/>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A124" s="269"/>
-      <c r="B124" s="269"/>
-      <c r="C124" s="269"/>
-      <c r="D124" s="269"/>
-      <c r="E124" s="269"/>
-      <c r="F124" s="269"/>
+      <c r="A124" s="174"/>
+      <c r="B124" s="174"/>
+      <c r="C124" s="174"/>
+      <c r="D124" s="174"/>
+      <c r="E124" s="174"/>
+      <c r="F124" s="174"/>
       <c r="J124" s="2"/>
       <c r="K124" s="1"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A125" s="269"/>
-      <c r="B125" s="269"/>
-      <c r="C125" s="269"/>
-      <c r="D125" s="269"/>
-      <c r="E125" s="269"/>
-      <c r="F125" s="269"/>
+      <c r="A125" s="174"/>
+      <c r="B125" s="174"/>
+      <c r="C125" s="174"/>
+      <c r="D125" s="174"/>
+      <c r="E125" s="174"/>
+      <c r="F125" s="174"/>
       <c r="J125" s="2"/>
       <c r="K125" s="1"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A126" s="269"/>
-      <c r="B126" s="269"/>
-      <c r="C126" s="269"/>
-      <c r="D126" s="269"/>
-      <c r="E126" s="269"/>
-      <c r="F126" s="269"/>
+      <c r="A126" s="174"/>
+      <c r="B126" s="174"/>
+      <c r="C126" s="174"/>
+      <c r="D126" s="174"/>
+      <c r="E126" s="174"/>
+      <c r="F126" s="174"/>
       <c r="J126" s="2"/>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A127" s="269"/>
-      <c r="B127" s="269"/>
-      <c r="C127" s="269"/>
-      <c r="D127" s="269"/>
-      <c r="E127" s="269"/>
-      <c r="F127" s="269"/>
+      <c r="A127" s="174"/>
+      <c r="B127" s="174"/>
+      <c r="C127" s="174"/>
+      <c r="D127" s="174"/>
+      <c r="E127" s="174"/>
+      <c r="F127" s="174"/>
       <c r="J127" s="2"/>
       <c r="K127" s="1"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A128" s="269"/>
-      <c r="B128" s="269"/>
-      <c r="C128" s="269"/>
-      <c r="D128" s="269"/>
-      <c r="E128" s="269"/>
-      <c r="F128" s="269"/>
+      <c r="A128" s="174"/>
+      <c r="B128" s="174"/>
+      <c r="C128" s="174"/>
+      <c r="D128" s="174"/>
+      <c r="E128" s="174"/>
+      <c r="F128" s="174"/>
       <c r="J128" s="2"/>
       <c r="K128" s="1"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="269"/>
-      <c r="B129" s="269"/>
-      <c r="C129" s="269"/>
-      <c r="D129" s="269"/>
-      <c r="E129" s="269"/>
-      <c r="F129" s="269"/>
+      <c r="A129" s="174"/>
+      <c r="B129" s="174"/>
+      <c r="C129" s="174"/>
+      <c r="D129" s="174"/>
+      <c r="E129" s="174"/>
+      <c r="F129" s="174"/>
       <c r="J129" s="2"/>
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="269"/>
-      <c r="B130" s="269"/>
-      <c r="C130" s="269"/>
-      <c r="D130" s="269"/>
-      <c r="E130" s="269"/>
-      <c r="F130" s="269"/>
+      <c r="A130" s="174"/>
+      <c r="B130" s="174"/>
+      <c r="C130" s="174"/>
+      <c r="D130" s="174"/>
+      <c r="E130" s="174"/>
+      <c r="F130" s="174"/>
       <c r="J130" s="2"/>
       <c r="K130" s="1"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="269"/>
-      <c r="B131" s="269"/>
-      <c r="C131" s="269"/>
-      <c r="D131" s="269"/>
-      <c r="E131" s="269"/>
-      <c r="F131" s="269"/>
+      <c r="A131" s="174"/>
+      <c r="B131" s="174"/>
+      <c r="C131" s="174"/>
+      <c r="D131" s="174"/>
+      <c r="E131" s="174"/>
+      <c r="F131" s="174"/>
       <c r="J131" s="2"/>
       <c r="K131" s="1"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="269"/>
-      <c r="B132" s="269"/>
-      <c r="C132" s="269"/>
-      <c r="D132" s="269"/>
-      <c r="E132" s="269"/>
-      <c r="F132" s="269"/>
+      <c r="A132" s="174"/>
+      <c r="B132" s="174"/>
+      <c r="C132" s="174"/>
+      <c r="D132" s="174"/>
+      <c r="E132" s="174"/>
+      <c r="F132" s="174"/>
       <c r="J132" s="2"/>
       <c r="K132" s="1"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="269"/>
-      <c r="B133" s="269"/>
-      <c r="C133" s="269"/>
-      <c r="D133" s="269"/>
-      <c r="E133" s="269"/>
-      <c r="F133" s="269"/>
+      <c r="A133" s="174"/>
+      <c r="B133" s="174"/>
+      <c r="C133" s="174"/>
+      <c r="D133" s="174"/>
+      <c r="E133" s="174"/>
+      <c r="F133" s="174"/>
       <c r="J133" s="2"/>
       <c r="K133" s="1"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="269"/>
-      <c r="B134" s="269"/>
-      <c r="C134" s="269"/>
-      <c r="D134" s="269"/>
-      <c r="E134" s="269"/>
-      <c r="F134" s="269"/>
+      <c r="A134" s="174"/>
+      <c r="B134" s="174"/>
+      <c r="C134" s="174"/>
+      <c r="D134" s="174"/>
+      <c r="E134" s="174"/>
+      <c r="F134" s="174"/>
       <c r="J134" s="2"/>
       <c r="K134" s="1"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="269"/>
-      <c r="B135" s="269"/>
-      <c r="C135" s="269"/>
-      <c r="D135" s="269"/>
-      <c r="E135" s="269"/>
-      <c r="F135" s="269"/>
+      <c r="A135" s="174"/>
+      <c r="B135" s="174"/>
+      <c r="C135" s="174"/>
+      <c r="D135" s="174"/>
+      <c r="E135" s="174"/>
+      <c r="F135" s="174"/>
       <c r="J135" s="2"/>
       <c r="K135" s="1"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="269"/>
-      <c r="B136" s="269"/>
-      <c r="C136" s="269"/>
-      <c r="D136" s="269"/>
-      <c r="E136" s="269"/>
-      <c r="F136" s="269"/>
+      <c r="A136" s="174"/>
+      <c r="B136" s="174"/>
+      <c r="C136" s="174"/>
+      <c r="D136" s="174"/>
+      <c r="E136" s="174"/>
+      <c r="F136" s="174"/>
       <c r="J136" s="2"/>
       <c r="K136" s="1"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="269"/>
-      <c r="B137" s="269"/>
-      <c r="C137" s="269"/>
-      <c r="D137" s="269"/>
-      <c r="E137" s="269"/>
-      <c r="F137" s="269"/>
+      <c r="A137" s="174"/>
+      <c r="B137" s="174"/>
+      <c r="C137" s="174"/>
+      <c r="D137" s="174"/>
+      <c r="E137" s="174"/>
+      <c r="F137" s="174"/>
       <c r="J137" s="2"/>
       <c r="K137" s="1"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="269"/>
-      <c r="B138" s="269"/>
-      <c r="C138" s="269"/>
-      <c r="D138" s="269"/>
-      <c r="E138" s="269"/>
-      <c r="F138" s="269"/>
+      <c r="A138" s="174"/>
+      <c r="B138" s="174"/>
+      <c r="C138" s="174"/>
+      <c r="D138" s="174"/>
+      <c r="E138" s="174"/>
+      <c r="F138" s="174"/>
       <c r="J138" s="2"/>
       <c r="K138" s="1"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="269"/>
-      <c r="B139" s="269"/>
-      <c r="C139" s="269"/>
-      <c r="D139" s="269"/>
-      <c r="E139" s="269"/>
-      <c r="F139" s="269"/>
+      <c r="A139" s="174"/>
+      <c r="B139" s="174"/>
+      <c r="C139" s="174"/>
+      <c r="D139" s="174"/>
+      <c r="E139" s="174"/>
+      <c r="F139" s="174"/>
       <c r="J139" s="2"/>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="269"/>
-      <c r="B140" s="269"/>
-      <c r="C140" s="269"/>
-      <c r="D140" s="269"/>
-      <c r="E140" s="269"/>
-      <c r="F140" s="269"/>
+      <c r="A140" s="174"/>
+      <c r="B140" s="174"/>
+      <c r="C140" s="174"/>
+      <c r="D140" s="174"/>
+      <c r="E140" s="174"/>
+      <c r="F140" s="174"/>
       <c r="J140" s="2"/>
       <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="269"/>
-      <c r="B141" s="269"/>
-      <c r="C141" s="269"/>
-      <c r="D141" s="269"/>
-      <c r="E141" s="269"/>
-      <c r="F141" s="269"/>
+      <c r="A141" s="174"/>
+      <c r="B141" s="174"/>
+      <c r="C141" s="174"/>
+      <c r="D141" s="174"/>
+      <c r="E141" s="174"/>
+      <c r="F141" s="174"/>
       <c r="J141" s="2"/>
       <c r="K141" s="1"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="269"/>
-      <c r="B142" s="269"/>
-      <c r="C142" s="269"/>
-      <c r="D142" s="269"/>
-      <c r="E142" s="269"/>
-      <c r="F142" s="269"/>
+      <c r="A142" s="174"/>
+      <c r="B142" s="174"/>
+      <c r="C142" s="174"/>
+      <c r="D142" s="174"/>
+      <c r="E142" s="174"/>
+      <c r="F142" s="174"/>
       <c r="J142" s="2"/>
       <c r="K142" s="1"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="269"/>
-      <c r="B143" s="269"/>
-      <c r="C143" s="269"/>
-      <c r="D143" s="269"/>
-      <c r="E143" s="269"/>
-      <c r="F143" s="269"/>
+      <c r="A143" s="174"/>
+      <c r="B143" s="174"/>
+      <c r="C143" s="174"/>
+      <c r="D143" s="174"/>
+      <c r="E143" s="174"/>
+      <c r="F143" s="174"/>
       <c r="J143" s="2"/>
       <c r="K143" s="1"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="269"/>
-      <c r="B144" s="269"/>
-      <c r="C144" s="269"/>
-      <c r="D144" s="269"/>
-      <c r="E144" s="269"/>
-      <c r="F144" s="269"/>
+      <c r="A144" s="174"/>
+      <c r="B144" s="174"/>
+      <c r="C144" s="174"/>
+      <c r="D144" s="174"/>
+      <c r="E144" s="174"/>
+      <c r="F144" s="174"/>
       <c r="J144" s="2"/>
       <c r="K144" s="1"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="269"/>
-      <c r="B145" s="269"/>
-      <c r="C145" s="269"/>
-      <c r="D145" s="269"/>
-      <c r="E145" s="269"/>
-      <c r="F145" s="269"/>
+      <c r="A145" s="174"/>
+      <c r="B145" s="174"/>
+      <c r="C145" s="174"/>
+      <c r="D145" s="174"/>
+      <c r="E145" s="174"/>
+      <c r="F145" s="174"/>
       <c r="J145" s="2"/>
       <c r="K145" s="1"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="269"/>
-      <c r="B146" s="269"/>
-      <c r="C146" s="269"/>
-      <c r="D146" s="269"/>
-      <c r="E146" s="269"/>
-      <c r="F146" s="269"/>
+      <c r="A146" s="174"/>
+      <c r="B146" s="174"/>
+      <c r="C146" s="174"/>
+      <c r="D146" s="174"/>
+      <c r="E146" s="174"/>
+      <c r="F146" s="174"/>
       <c r="J146" s="2"/>
       <c r="K146" s="1"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="269"/>
-      <c r="B147" s="269"/>
-      <c r="C147" s="269"/>
-      <c r="D147" s="269"/>
-      <c r="E147" s="269"/>
-      <c r="F147" s="269"/>
+      <c r="A147" s="174"/>
+      <c r="B147" s="174"/>
+      <c r="C147" s="174"/>
+      <c r="D147" s="174"/>
+      <c r="E147" s="174"/>
+      <c r="F147" s="174"/>
       <c r="J147" s="2"/>
       <c r="K147" s="1"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="269"/>
-      <c r="B148" s="269"/>
-      <c r="C148" s="269"/>
-      <c r="D148" s="269"/>
-      <c r="E148" s="269"/>
-      <c r="F148" s="269"/>
+      <c r="A148" s="174"/>
+      <c r="B148" s="174"/>
+      <c r="C148" s="174"/>
+      <c r="D148" s="174"/>
+      <c r="E148" s="174"/>
+      <c r="F148" s="174"/>
       <c r="J148" s="2"/>
       <c r="K148" s="1"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="269"/>
-      <c r="B149" s="269"/>
-      <c r="C149" s="269"/>
-      <c r="D149" s="269"/>
-      <c r="E149" s="269"/>
-      <c r="F149" s="269"/>
+      <c r="A149" s="174"/>
+      <c r="B149" s="174"/>
+      <c r="C149" s="174"/>
+      <c r="D149" s="174"/>
+      <c r="E149" s="174"/>
+      <c r="F149" s="174"/>
       <c r="J149" s="2"/>
       <c r="K149" s="1"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="269"/>
-      <c r="B150" s="269"/>
-      <c r="C150" s="269"/>
-      <c r="D150" s="269"/>
-      <c r="E150" s="269"/>
-      <c r="F150" s="269"/>
+      <c r="A150" s="174"/>
+      <c r="B150" s="174"/>
+      <c r="C150" s="174"/>
+      <c r="D150" s="174"/>
+      <c r="E150" s="174"/>
+      <c r="F150" s="174"/>
       <c r="J150" s="2"/>
       <c r="K150" s="1"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="269"/>
-      <c r="B151" s="269"/>
-      <c r="C151" s="269"/>
-      <c r="D151" s="269"/>
-      <c r="E151" s="269"/>
-      <c r="F151" s="269"/>
+      <c r="A151" s="174"/>
+      <c r="B151" s="174"/>
+      <c r="C151" s="174"/>
+      <c r="D151" s="174"/>
+      <c r="E151" s="174"/>
+      <c r="F151" s="174"/>
       <c r="J151" s="2"/>
       <c r="K151" s="1"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="269"/>
-      <c r="B152" s="269"/>
-      <c r="C152" s="269"/>
-      <c r="D152" s="269"/>
-      <c r="E152" s="269"/>
-      <c r="F152" s="269"/>
+      <c r="A152" s="174"/>
+      <c r="B152" s="174"/>
+      <c r="C152" s="174"/>
+      <c r="D152" s="174"/>
+      <c r="E152" s="174"/>
+      <c r="F152" s="174"/>
       <c r="J152" s="2"/>
       <c r="K152" s="1"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="269"/>
-      <c r="B153" s="269"/>
-      <c r="C153" s="269"/>
-      <c r="D153" s="269"/>
-      <c r="E153" s="269"/>
-      <c r="F153" s="269"/>
+      <c r="A153" s="174"/>
+      <c r="B153" s="174"/>
+      <c r="C153" s="174"/>
+      <c r="D153" s="174"/>
+      <c r="E153" s="174"/>
+      <c r="F153" s="174"/>
       <c r="J153" s="2"/>
       <c r="K153" s="1"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="269"/>
-      <c r="B154" s="269"/>
-      <c r="C154" s="269"/>
-      <c r="D154" s="269"/>
-      <c r="E154" s="269"/>
-      <c r="F154" s="269"/>
+      <c r="A154" s="174"/>
+      <c r="B154" s="174"/>
+      <c r="C154" s="174"/>
+      <c r="D154" s="174"/>
+      <c r="E154" s="174"/>
+      <c r="F154" s="174"/>
       <c r="J154" s="2"/>
       <c r="K154" s="1"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="269"/>
-      <c r="B155" s="269"/>
-      <c r="C155" s="269"/>
-      <c r="D155" s="269"/>
-      <c r="E155" s="269"/>
-      <c r="F155" s="269"/>
+      <c r="A155" s="174"/>
+      <c r="B155" s="174"/>
+      <c r="C155" s="174"/>
+      <c r="D155" s="174"/>
+      <c r="E155" s="174"/>
+      <c r="F155" s="174"/>
       <c r="J155" s="2"/>
       <c r="K155" s="1"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="269"/>
-      <c r="B156" s="269"/>
-      <c r="C156" s="269"/>
-      <c r="D156" s="269"/>
-      <c r="E156" s="269"/>
-      <c r="F156" s="269"/>
+      <c r="A156" s="174"/>
+      <c r="B156" s="174"/>
+      <c r="C156" s="174"/>
+      <c r="D156" s="174"/>
+      <c r="E156" s="174"/>
+      <c r="F156" s="174"/>
       <c r="J156" s="2"/>
       <c r="K156" s="1"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="269"/>
-      <c r="B157" s="269"/>
-      <c r="C157" s="269"/>
-      <c r="D157" s="269"/>
-      <c r="E157" s="269"/>
-      <c r="F157" s="269"/>
+      <c r="A157" s="174"/>
+      <c r="B157" s="174"/>
+      <c r="C157" s="174"/>
+      <c r="D157" s="174"/>
+      <c r="E157" s="174"/>
+      <c r="F157" s="174"/>
       <c r="J157" s="2"/>
       <c r="K157" s="1"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="269"/>
-      <c r="B158" s="269"/>
-      <c r="C158" s="269"/>
-      <c r="D158" s="269"/>
-      <c r="E158" s="269"/>
-      <c r="F158" s="269"/>
+      <c r="A158" s="174"/>
+      <c r="B158" s="174"/>
+      <c r="C158" s="174"/>
+      <c r="D158" s="174"/>
+      <c r="E158" s="174"/>
+      <c r="F158" s="174"/>
       <c r="J158" s="2"/>
       <c r="K158" s="1"/>
     </row>
@@ -20692,12 +20641,12 @@
       <c r="K174" s="1"/>
     </row>
     <row r="176" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G176" s="280"/>
-      <c r="H176" s="280"/>
+      <c r="G176" s="183"/>
+      <c r="H176" s="183"/>
     </row>
     <row r="177" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G177" s="280"/>
-      <c r="H177" s="280"/>
+      <c r="G177" s="183"/>
+      <c r="H177" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -20707,95 +20656,95 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J51:U52">
-    <cfRule type="expression" dxfId="23" priority="55">
+    <cfRule type="expression" dxfId="20" priority="55">
       <formula>J51&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:W58">
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="19" priority="35">
       <formula>J53&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:X27 J28:O31 Q28:X34 P29:P34 J32:N50 P35:X35 R36:X37 P36:P50 Q37:Q38 R38:T38 V38:X41 Q39:T40 S41:T41 Q41:Q50 R42:T43 W42:X47 T44:T45 R44:R50 S45:S50 W48:W52">
-    <cfRule type="expression" dxfId="21" priority="68">
+    <cfRule type="expression" dxfId="18" priority="68">
       <formula>J4&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62:O116">
-    <cfRule type="expression" dxfId="20" priority="34">
+    <cfRule type="expression" dxfId="17" priority="34">
       <formula>ABS(N62)&gt;=10%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32 O34:O50">
-    <cfRule type="expression" dxfId="19" priority="67">
+    <cfRule type="expression" dxfId="16" priority="67">
       <formula>O32&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T47:T50">
-    <cfRule type="expression" dxfId="18" priority="64">
+    <cfRule type="expression" dxfId="15" priority="64">
       <formula>T47&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38:U50">
-    <cfRule type="expression" dxfId="17" priority="57">
+    <cfRule type="expression" dxfId="14" priority="57">
       <formula>U38&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V42:V51">
-    <cfRule type="expression" dxfId="16" priority="58">
+    <cfRule type="expression" dxfId="13" priority="58">
       <formula>V42&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V61:W78">
-    <cfRule type="cellIs" dxfId="15" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="30" operator="lessThan">
       <formula>-0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="31" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X48:X58">
-    <cfRule type="expression" dxfId="13" priority="37">
+    <cfRule type="expression" dxfId="10" priority="37">
       <formula>X48&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC12 BE12:BU12">
-    <cfRule type="expression" dxfId="12" priority="28">
+    <cfRule type="expression" dxfId="9" priority="28">
       <formula>BC12&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC4:BU11 AY4:BB12 AA4:AX21 AZ13:BE13 BG13:BU13 BF13:BF21 BH14:BI14 BL14:BU14 BJ14:BK17 AY14:BE21 BO15:BU15 BI15:BI17 BM15:BN17 BG15:BH21 BP16:BU16 BL16:BL17 BO17:BP17 BI19:BL21 BS20:BW20 BM20:BR21">
-    <cfRule type="expression" dxfId="11" priority="29">
+    <cfRule type="expression" dxfId="8" priority="29">
       <formula>AA4&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI18:BU18">
-    <cfRule type="expression" dxfId="10" priority="25">
+    <cfRule type="expression" dxfId="7" priority="25">
       <formula>BI18&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM19:BV19">
-    <cfRule type="expression" dxfId="9" priority="26">
+    <cfRule type="expression" dxfId="6" priority="26">
       <formula>BM19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR17:BU17 BS21:BX21">
-    <cfRule type="expression" dxfId="8" priority="27">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>BR17&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV4:BW18">
-    <cfRule type="expression" dxfId="7" priority="23">
+    <cfRule type="expression" dxfId="4" priority="23">
       <formula>BV4&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX4:BX20">
-    <cfRule type="expression" dxfId="6" priority="24">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>BX4&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY4:CC21">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>BY4&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20820,446 +20769,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="168">
+      <c r="B1" s="165">
         <v>74334.13764999999</v>
       </c>
-      <c r="C1" s="173">
+      <c r="C1" s="170">
         <v>0.5</v>
       </c>
-      <c r="D1" s="174">
+      <c r="D1" s="171">
         <v>0.01</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="168">
+      <c r="B2" s="165">
         <v>86387.124166666676</v>
       </c>
-      <c r="C2" s="173">
+      <c r="C2" s="170">
         <v>0.5</v>
       </c>
-      <c r="D2" s="174">
+      <c r="D2" s="171">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="168">
+      <c r="B3" s="165">
         <v>826.28166666666766</v>
       </c>
-      <c r="C3" s="173">
+      <c r="C3" s="170">
         <v>0.5</v>
       </c>
-      <c r="D3" s="174">
+      <c r="D3" s="171">
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="168">
-        <v>0</v>
-      </c>
-      <c r="C4" s="173">
+      <c r="B4" s="165">
+        <v>0</v>
+      </c>
+      <c r="C4" s="170">
         <v>0.5</v>
       </c>
-      <c r="D4" s="174">
+      <c r="D4" s="171">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="168">
+      <c r="B5" s="165">
         <v>121426.04949999998</v>
       </c>
-      <c r="C5" s="173">
+      <c r="C5" s="170">
         <v>0.5</v>
       </c>
-      <c r="D5" s="174">
+      <c r="D5" s="171">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="168">
+      <c r="B6" s="165">
         <v>41594.870640000001</v>
       </c>
-      <c r="C6" s="173">
+      <c r="C6" s="170">
         <v>0.5</v>
       </c>
-      <c r="D6" s="174">
+      <c r="D6" s="171">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="169">
+      <c r="B7" s="166">
         <v>67903.538449999993</v>
       </c>
-      <c r="C7" s="173">
+      <c r="C7" s="170">
         <v>0.5</v>
       </c>
-      <c r="D7" s="173">
+      <c r="D7" s="170">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="169">
+      <c r="B8" s="166">
         <v>116566.58303612904</v>
       </c>
-      <c r="C8" s="173">
+      <c r="C8" s="170">
         <v>0.68412600000000001</v>
       </c>
-      <c r="D8" s="173">
+      <c r="D8" s="170">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="164" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="168">
+      <c r="B9" s="165">
         <v>117320.38500000001</v>
       </c>
-      <c r="C9" s="175">
+      <c r="C9" s="172">
         <v>0.68410599999999999</v>
       </c>
-      <c r="D9" s="173">
+      <c r="D9" s="170">
         <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="164" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="168">
+      <c r="B10" s="165">
         <v>8463.7718062000004</v>
       </c>
-      <c r="C10" s="175">
+      <c r="C10" s="172">
         <v>0.62109999999999999</v>
       </c>
-      <c r="D10" s="173">
+      <c r="D10" s="170">
         <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="167" t="s">
+      <c r="A11" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="168">
+      <c r="B11" s="165">
         <v>6943.5007400000004</v>
       </c>
-      <c r="C11" s="175">
+      <c r="C11" s="172">
         <v>0.61180000000000001</v>
       </c>
-      <c r="D11" s="173">
+      <c r="D11" s="170">
         <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="168">
-        <v>0</v>
-      </c>
-      <c r="C12" s="175">
+      <c r="B12" s="165">
+        <v>0</v>
+      </c>
+      <c r="C12" s="172">
         <v>0.6099</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="170">
         <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="169">
+      <c r="B13" s="166">
         <v>8560.9939799999975</v>
       </c>
-      <c r="C13" s="173">
+      <c r="C13" s="170">
         <v>0.61070000000000002</v>
       </c>
-      <c r="D13" s="173">
+      <c r="D13" s="170">
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="169">
-        <v>0</v>
-      </c>
-      <c r="C14" s="173">
+      <c r="B14" s="166">
+        <v>0</v>
+      </c>
+      <c r="C14" s="170">
         <v>0.56729999999999992</v>
       </c>
-      <c r="D14" s="173">
+      <c r="D14" s="170">
         <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="169">
+      <c r="B15" s="166">
         <v>152453.07</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="170">
         <v>0.36777300000000002</v>
       </c>
-      <c r="D15" s="173">
+      <c r="D15" s="170">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="170">
+      <c r="B16" s="167">
         <v>107865.3576</v>
       </c>
-      <c r="C16" s="176">
-        <v>0</v>
-      </c>
-      <c r="D16" s="173">
+      <c r="C16" s="173">
+        <v>0</v>
+      </c>
+      <c r="D16" s="170">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="160" t="s">
+      <c r="A17" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="169"/>
+      <c r="B17" s="167"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="166"/>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="171">
+      <c r="B18" s="168">
         <v>0.01</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="164"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
     </row>
     <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="171">
-        <v>0</v>
-      </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
+      <c r="B19" s="168">
+        <v>0</v>
+      </c>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
     </row>
     <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="171">
+      <c r="B20" s="168">
         <v>9.8680274571524181E-3</v>
       </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="164"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
     </row>
     <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="162" t="s">
+      <c r="A21" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="171">
+      <c r="B21" s="168">
         <v>2.1906666666666668E-2</v>
       </c>
-      <c r="C21" s="163"/>
-      <c r="D21" s="164"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="161"/>
     </row>
     <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="162" t="s">
+      <c r="A22" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="171">
+      <c r="B22" s="168">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="161"/>
     </row>
     <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="171">
+      <c r="B23" s="168">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="C23" s="163"/>
-      <c r="D23" s="164"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
     </row>
     <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
+      <c r="A24" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="171">
+      <c r="B24" s="168">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
     </row>
     <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="162" t="s">
+      <c r="A25" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="171">
-        <v>0</v>
-      </c>
-      <c r="C25" s="163"/>
-      <c r="D25" s="164"/>
+      <c r="B25" s="168">
+        <v>0</v>
+      </c>
+      <c r="C25" s="160"/>
+      <c r="D25" s="161"/>
     </row>
     <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="162" t="s">
+      <c r="A26" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="171">
-        <v>0</v>
-      </c>
-      <c r="C26" s="163"/>
-      <c r="D26" s="164"/>
+      <c r="B26" s="168">
+        <v>0</v>
+      </c>
+      <c r="C26" s="160"/>
+      <c r="D26" s="161"/>
     </row>
     <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="162" t="s">
+      <c r="A27" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="171">
+      <c r="B27" s="168">
         <v>8.8198064516128993E-2</v>
       </c>
-      <c r="C27" s="163"/>
-      <c r="D27" s="164"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="161"/>
     </row>
     <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A28" s="162" t="s">
+      <c r="A28" s="159" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="171">
+      <c r="B28" s="168">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C28" s="163"/>
-      <c r="D28" s="164"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="161"/>
     </row>
     <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="162" t="s">
+      <c r="A29" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="171">
+      <c r="B29" s="168">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C29" s="163"/>
-      <c r="D29" s="164"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="161"/>
     </row>
     <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="162" t="s">
+      <c r="A30" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="171">
+      <c r="B30" s="168">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C30" s="163"/>
-      <c r="D30" s="164"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
     </row>
     <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="171">
+      <c r="B31" s="168">
         <v>1.4E-2</v>
       </c>
-      <c r="C31" s="163"/>
-      <c r="D31" s="164"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
     </row>
     <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="162" t="s">
+      <c r="A32" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="171">
-        <v>0</v>
-      </c>
-      <c r="C32" s="163"/>
-      <c r="D32" s="164"/>
+      <c r="B32" s="168">
+        <v>0</v>
+      </c>
+      <c r="C32" s="160"/>
+      <c r="D32" s="161"/>
     </row>
     <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A33" s="165" t="s">
+      <c r="A33" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="171">
+      <c r="B33" s="168">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="164"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="161"/>
     </row>
     <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A34" s="165" t="s">
+      <c r="A34" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="171">
-        <v>0</v>
-      </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="164"/>
+      <c r="B34" s="168">
+        <v>0</v>
+      </c>
+      <c r="C34" s="163"/>
+      <c r="D34" s="161"/>
     </row>
     <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
+      <c r="A35" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="171">
+      <c r="B35" s="168">
         <v>0.01</v>
       </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="164"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="161"/>
     </row>
     <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A36" s="165" t="s">
+      <c r="A36" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="171">
+      <c r="B36" s="168">
         <v>0.1</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="D36" s="164"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="161"/>
     </row>
     <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A37" s="172" t="s">
+      <c r="A37" s="169" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="164">
-        <v>0</v>
-      </c>
-      <c r="C37" s="173"/>
-      <c r="D37" s="164"/>
+      <c r="B37" s="161">
+        <v>0</v>
+      </c>
+      <c r="C37" s="170"/>
+      <c r="D37" s="161"/>
     </row>
     <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="164">
-        <v>0</v>
-      </c>
-      <c r="C38" s="173"/>
-      <c r="D38" s="164"/>
+      <c r="B38" s="161">
+        <v>0</v>
+      </c>
+      <c r="C38" s="170"/>
+      <c r="D38" s="161"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21270,8 +21219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731AE742-D316-A04E-A3DB-C52263974828}">
   <dimension ref="B2:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="B25" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57:N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21283,20 +21232,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="195" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="F2" s="199" t="s">
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="F2" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="J2" s="200" t="s">
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="J2" s="196" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="201"/>
+      <c r="K2" s="197"/>
       <c r="L2" s="113"/>
       <c r="M2" s="114" t="s">
         <v>145</v>
@@ -23456,8 +23405,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="B57" s="156" t="s">
+    <row r="57" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B57" s="110" t="s">
         <v>159</v>
       </c>
       <c r="C57" s="111">
@@ -23468,8 +23417,8 @@
         <f>IF(Utilidad!C54&gt;1,Utilidad!C54/100,Utilidad!C54)</f>
         <v>0.625</v>
       </c>
-      <c r="E57" s="157"/>
-      <c r="F57" s="156" t="s">
+      <c r="E57" s="285"/>
+      <c r="F57" s="110" t="s">
         <v>159</v>
       </c>
       <c r="G57" s="111">
@@ -23480,27 +23429,27 @@
         <f>IF(Utilidad!D54&gt;1,Utilidad!D54/100,Utilidad!D54)</f>
         <v>0.625</v>
       </c>
-      <c r="I57" s="157"/>
-      <c r="J57" s="158">
+      <c r="I57" s="285"/>
+      <c r="J57" s="286">
         <f t="shared" ref="J57:J58" si="4">+IF(C57&lt;&gt;0,(G57-C57)/C57,ABS(G57-C57))</f>
         <v>0</v>
       </c>
-      <c r="K57" s="158">
+      <c r="K57" s="286">
         <f t="shared" ref="K57:K58" si="5">+IF(D57&lt;&gt;0,(H57-D57)/D57,0)</f>
         <v>0</v>
       </c>
-      <c r="L57" s="157"/>
-      <c r="M57" s="159">
+      <c r="L57" s="285"/>
+      <c r="M57" s="287">
         <f t="shared" ref="M57:M58" si="6">+IF(J57&lt;&gt;"",ABS(J57),0)</f>
         <v>0</v>
       </c>
-      <c r="N57" s="159">
+      <c r="N57" s="287">
         <f t="shared" ref="N57:N58" si="7">+IF(J57&lt;&gt;"",ABS(K57),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="B58" s="156" t="s">
+    <row r="58" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B58" s="110" t="s">
         <v>160</v>
       </c>
       <c r="C58" s="111">
@@ -23511,8 +23460,8 @@
         <f>IF(Utilidad!C55&gt;1,Utilidad!C55/100,Utilidad!C55)</f>
         <v>0.66400000000000003</v>
       </c>
-      <c r="E58" s="157"/>
-      <c r="F58" s="156" t="s">
+      <c r="E58" s="285"/>
+      <c r="F58" s="110" t="s">
         <v>160</v>
       </c>
       <c r="G58" s="111">
@@ -23523,21 +23472,21 @@
         <f>IF(Utilidad!D55&gt;1,Utilidad!D55/100,Utilidad!D55)</f>
         <v>0.66400000000000003</v>
       </c>
-      <c r="I58" s="157"/>
-      <c r="J58" s="158">
+      <c r="I58" s="285"/>
+      <c r="J58" s="286">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K58" s="158">
+      <c r="K58" s="286">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L58" s="157"/>
-      <c r="M58" s="159">
+      <c r="L58" s="285"/>
+      <c r="M58" s="287">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N58" s="159">
+      <c r="N58" s="287">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -23566,8 +23515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:S135"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G67" zoomScale="111" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="L112" sqref="L112"/>
+    <sheetView showGridLines="0" topLeftCell="G90" zoomScale="111" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23891,7 +23840,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="157"/>
+      <c r="C25" s="156"/>
       <c r="G25" s="25">
         <f>+Utilidad!J105</f>
         <v>0</v>
@@ -23900,7 +23849,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="282">
+      <c r="C26" s="184">
         <f>+Utilidad!J103</f>
         <v>0</v>
       </c>
@@ -23912,7 +23861,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="283">
+      <c r="C27" s="185">
         <f>+Utilidad!K103</f>
         <v>0</v>
       </c>
@@ -23928,7 +23877,7 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="284">
+      <c r="C28" s="186">
         <f>+Utilidad!L103</f>
         <v>0</v>
       </c>
@@ -23940,7 +23889,7 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="157"/>
+      <c r="C29" s="156"/>
       <c r="F29" s="39">
         <f>+C26-G25</f>
         <v>0</v>
@@ -23957,7 +23906,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="157"/>
+      <c r="C30" s="156"/>
       <c r="I30" s="34">
         <f>+Utilidad!J77</f>
         <v>37842.929820999998</v>
@@ -23970,7 +23919,7 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="157"/>
+      <c r="C31" s="156"/>
       <c r="I31" s="37">
         <f>+Utilidad!K77</f>
         <v>7.816002270700001E-2</v>
@@ -23979,7 +23928,7 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="157"/>
+      <c r="C32" s="156"/>
       <c r="I32" s="38">
         <f>I30*I31</f>
         <v>2957.8042541087675</v>
@@ -23988,12 +23937,12 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="157"/>
+      <c r="C33" s="156"/>
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="157"/>
+      <c r="C34" s="156"/>
       <c r="G34" s="25">
         <f>+Utilidad!J108</f>
         <v>0</v>
@@ -24003,7 +23952,7 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="282">
+      <c r="C35" s="184">
         <f>+Utilidad!J106</f>
         <v>0</v>
       </c>
@@ -24017,7 +23966,7 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="283">
+      <c r="C36" s="185">
         <f>+Utilidad!K106</f>
         <v>0</v>
       </c>
@@ -24029,7 +23978,7 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="284">
+      <c r="C37" s="186">
         <f>+Utilidad!L106</f>
         <v>0</v>
       </c>
@@ -24037,7 +23986,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
-      <c r="C38" s="157"/>
+      <c r="C38" s="156"/>
       <c r="F38" s="39">
         <f>+C35-G34</f>
         <v>0</v>
@@ -24046,7 +23995,7 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
-      <c r="C39" s="157"/>
+      <c r="C39" s="156"/>
       <c r="K39" s="40">
         <f>K28-(I53+L53)</f>
         <v>295.31679000001168</v>
@@ -24055,27 +24004,27 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
-      <c r="C40" s="157"/>
+      <c r="C40" s="156"/>
       <c r="S40" s="24"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
-      <c r="C41" s="157"/>
+      <c r="C41" s="156"/>
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
-      <c r="C42" s="157"/>
+      <c r="C42" s="156"/>
       <c r="S42" s="24"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
-      <c r="C43" s="157"/>
+      <c r="C43" s="156"/>
       <c r="S43" s="24"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
-      <c r="C44" s="282">
+      <c r="C44" s="184">
         <f>+Utilidad!J109</f>
         <v>0</v>
       </c>
@@ -24087,7 +24036,7 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
-      <c r="C45" s="283">
+      <c r="C45" s="185">
         <f>+Utilidad!K109</f>
         <v>0</v>
       </c>
@@ -24099,7 +24048,7 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
-      <c r="C46" s="284">
+      <c r="C46" s="186">
         <f>+Utilidad!L109</f>
         <v>0</v>
       </c>
@@ -24111,12 +24060,12 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
-      <c r="C47" s="157"/>
+      <c r="C47" s="156"/>
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
-      <c r="C48" s="157"/>
+      <c r="C48" s="156"/>
       <c r="F48" s="39">
         <f>+C44-G44</f>
         <v>0</v>
@@ -24125,27 +24074,27 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
-      <c r="C49" s="157"/>
+      <c r="C49" s="156"/>
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
-      <c r="C50" s="157"/>
+      <c r="C50" s="156"/>
       <c r="S50" s="24"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="7"/>
-      <c r="C51" s="157"/>
+      <c r="C51" s="156"/>
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
-      <c r="C52" s="157"/>
+      <c r="C52" s="156"/>
       <c r="S52" s="24"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="7"/>
-      <c r="C53" s="157"/>
+      <c r="C53" s="156"/>
       <c r="I53" s="31">
         <f>+Utilidad!J82</f>
         <v>0</v>
@@ -24158,7 +24107,7 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="7"/>
-      <c r="C54" s="282">
+      <c r="C54" s="184">
         <f>+Utilidad!J112</f>
         <v>0</v>
       </c>
@@ -24174,7 +24123,7 @@
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="7"/>
-      <c r="C55" s="283">
+      <c r="C55" s="185">
         <f>+Utilidad!K112</f>
         <v>0</v>
       </c>
@@ -24190,7 +24139,7 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="7"/>
-      <c r="C56" s="284">
+      <c r="C56" s="186">
         <f>+Utilidad!L112</f>
         <v>0</v>
       </c>
@@ -24430,8 +24379,6 @@
         <f>Flujos!H36</f>
         <v>0.58599999999999997</v>
       </c>
-      <c r="N79" s="281"/>
-      <c r="O79" s="281"/>
       <c r="Q79" s="31">
         <f>Flujos!G58</f>
         <v>88</v>
@@ -24444,8 +24391,6 @@
         <f>L79*L78</f>
         <v>4069.1839999999997</v>
       </c>
-      <c r="N80" s="281"/>
-      <c r="O80" s="281"/>
       <c r="Q80" s="32">
         <f>Flujos!H58</f>
         <v>0.66400000000000003</v>
@@ -24590,162 +24535,162 @@
       </c>
     </row>
     <row r="96" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G96" s="180" t="s">
+      <c r="G96" s="214" t="s">
         <v>71</v>
       </c>
-      <c r="H96" s="180"/>
-      <c r="I96" s="181"/>
-      <c r="J96" s="182" t="s">
+      <c r="H96" s="214"/>
+      <c r="I96" s="215"/>
+      <c r="J96" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="K96" s="182"/>
-      <c r="L96" s="182"/>
-      <c r="M96" s="183" t="s">
+      <c r="K96" s="216"/>
+      <c r="L96" s="216"/>
+      <c r="M96" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="N96" s="183"/>
-      <c r="O96" s="183"/>
-      <c r="P96" s="183"/>
+      <c r="N96" s="217"/>
+      <c r="O96" s="217"/>
+      <c r="P96" s="217"/>
     </row>
     <row r="97" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G97" s="184" t="s">
+      <c r="G97" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="H97" s="185"/>
+      <c r="H97" s="207"/>
       <c r="I97" s="21">
         <f>+E6</f>
         <v>109185.62587</v>
       </c>
-      <c r="J97" s="186" t="s">
+      <c r="J97" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="179"/>
+      <c r="K97" s="198"/>
       <c r="L97" s="10">
         <f>Flujos!G9</f>
         <v>37526.428143999998</v>
       </c>
-      <c r="M97" s="179" t="s">
+      <c r="M97" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="N97" s="179"/>
-      <c r="O97" s="179"/>
+      <c r="N97" s="198"/>
+      <c r="O97" s="198"/>
       <c r="P97" s="10">
         <f>+G15</f>
         <v>52102.316567000002</v>
       </c>
     </row>
     <row r="98" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G98" s="184" t="s">
+      <c r="G98" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="H98" s="185"/>
+      <c r="H98" s="207"/>
       <c r="I98" s="21">
         <f>+C12</f>
         <v>0</v>
       </c>
-      <c r="J98" s="179" t="s">
+      <c r="J98" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="K98" s="179"/>
+      <c r="K98" s="198"/>
       <c r="L98" s="10">
         <f>Flujos!G17</f>
         <v>-20540.741579000001</v>
       </c>
-      <c r="M98" s="179" t="s">
+      <c r="M98" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="N98" s="179"/>
-      <c r="O98" s="179"/>
+      <c r="N98" s="198"/>
+      <c r="O98" s="198"/>
       <c r="P98" s="10">
         <f>+Q7</f>
         <v>19798.424827999999</v>
       </c>
     </row>
     <row r="99" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G99" s="184" t="s">
+      <c r="G99" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="H99" s="185"/>
+      <c r="H99" s="207"/>
       <c r="I99" s="21">
         <f>+H13</f>
         <v>61069</v>
       </c>
-      <c r="J99" s="179" t="s">
+      <c r="J99" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="K99" s="179"/>
+      <c r="K99" s="198"/>
       <c r="L99" s="10">
         <v>0</v>
       </c>
-      <c r="M99" s="179" t="s">
+      <c r="M99" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="N99" s="179"/>
-      <c r="O99" s="179"/>
+      <c r="N99" s="198"/>
+      <c r="O99" s="198"/>
       <c r="P99" s="10">
         <f>+Q11</f>
         <v>4888.7705244999997</v>
       </c>
     </row>
     <row r="100" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G100" s="187" t="s">
+      <c r="G100" s="201" t="s">
         <v>79</v>
       </c>
-      <c r="H100" s="188"/>
+      <c r="H100" s="202"/>
       <c r="I100" s="21">
         <f>+C26</f>
         <v>0</v>
       </c>
-      <c r="J100" s="179" t="s">
+      <c r="J100" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="179"/>
+      <c r="K100" s="198"/>
       <c r="L100" s="10">
         <f>Flujos!G21</f>
         <v>295.31678174000001</v>
       </c>
-      <c r="M100" s="179" t="s">
+      <c r="M100" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="N100" s="179"/>
-      <c r="O100" s="179"/>
+      <c r="N100" s="198"/>
+      <c r="O100" s="198"/>
       <c r="P100" s="10">
         <f>+I30</f>
         <v>37842.929820999998</v>
       </c>
     </row>
     <row r="101" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G101" s="187" t="s">
+      <c r="G101" s="201" t="s">
         <v>57</v>
       </c>
-      <c r="H101" s="188"/>
+      <c r="H101" s="202"/>
       <c r="I101" s="21">
         <f>+C35</f>
         <v>0</v>
       </c>
-      <c r="J101" s="179" t="s">
+      <c r="J101" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="K101" s="179"/>
+      <c r="K101" s="198"/>
       <c r="L101" s="10">
         <f>Flujos!G31</f>
         <v>37015</v>
       </c>
-      <c r="M101" s="179" t="s">
+      <c r="M101" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="N101" s="179"/>
-      <c r="O101" s="179"/>
+      <c r="N101" s="198"/>
+      <c r="O101" s="198"/>
       <c r="P101" s="10">
         <f>+M58</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G102" s="187" t="s">
+      <c r="G102" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="H102" s="188"/>
+      <c r="H102" s="202"/>
       <c r="I102" s="21">
         <f>+C44</f>
         <v>0</v>
@@ -24758,21 +24703,21 @@
         <f>Flujos!G44</f>
         <v>0</v>
       </c>
-      <c r="M102" s="179" t="s">
+      <c r="M102" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="N102" s="179"/>
-      <c r="O102" s="179"/>
+      <c r="N102" s="198"/>
+      <c r="O102" s="198"/>
       <c r="P102" s="10">
         <f>+O63</f>
         <v>101766</v>
       </c>
     </row>
     <row r="103" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G103" s="187" t="s">
+      <c r="G103" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="H103" s="188"/>
+      <c r="H103" s="202"/>
       <c r="I103" s="21">
         <f>+C54</f>
         <v>0</v>
@@ -24785,21 +24730,21 @@
         <f>Flujos!G47</f>
         <v>0</v>
       </c>
-      <c r="M103" s="179" t="s">
+      <c r="M103" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="N103" s="179"/>
-      <c r="O103" s="179"/>
+      <c r="N103" s="198"/>
+      <c r="O103" s="198"/>
       <c r="P103" s="10">
         <f>+O67</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G104" s="187" t="s">
+      <c r="G104" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="H104" s="188"/>
+      <c r="H104" s="202"/>
       <c r="I104" s="21">
         <f>+C62</f>
         <v>80442</v>
@@ -24812,21 +24757,21 @@
         <f>Flujos!G50</f>
         <v>0</v>
       </c>
-      <c r="M104" s="179" t="s">
+      <c r="M104" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="N104" s="179"/>
-      <c r="O104" s="179"/>
+      <c r="N104" s="198"/>
+      <c r="O104" s="198"/>
       <c r="P104" s="10">
         <f>+O74</f>
         <v>59464</v>
       </c>
     </row>
     <row r="105" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G105" s="187" t="s">
+      <c r="G105" s="201" t="s">
         <v>90</v>
       </c>
-      <c r="H105" s="188"/>
+      <c r="H105" s="202"/>
       <c r="I105" s="21">
         <f>+H70</f>
         <v>8464</v>
@@ -24839,38 +24784,38 @@
         <f>Flujos!G53</f>
         <v>0</v>
       </c>
-      <c r="M105" s="179" t="s">
+      <c r="M105" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="N105" s="179"/>
-      <c r="O105" s="179"/>
+      <c r="N105" s="198"/>
+      <c r="O105" s="198"/>
       <c r="P105" s="10">
         <f>+O84</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G106" s="187" t="s">
+      <c r="G106" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="H106" s="188"/>
+      <c r="H106" s="202"/>
       <c r="I106" s="21">
         <f>+H75</f>
         <v>28551</v>
       </c>
-      <c r="J106" s="179" t="s">
+      <c r="J106" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="K106" s="179"/>
+      <c r="K106" s="198"/>
       <c r="L106" s="10">
         <f>Flujos!G42</f>
         <v>0</v>
       </c>
-      <c r="M106" s="179" t="s">
+      <c r="M106" s="198" t="s">
         <v>160</v>
       </c>
-      <c r="N106" s="179"/>
-      <c r="O106" s="179"/>
+      <c r="N106" s="198"/>
+      <c r="O106" s="198"/>
       <c r="P106" s="10">
         <f>Q79</f>
         <v>88</v>
@@ -24893,9 +24838,9 @@
         <f>Flujos!G26</f>
         <v>17017.180785</v>
       </c>
-      <c r="M107" s="192"/>
-      <c r="N107" s="193"/>
-      <c r="O107" s="194"/>
+      <c r="M107" s="203"/>
+      <c r="N107" s="204"/>
+      <c r="O107" s="205"/>
       <c r="P107" s="10"/>
     </row>
     <row r="108" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -24907,17 +24852,17 @@
         <f>+L78</f>
         <v>6944</v>
       </c>
-      <c r="J108" s="179" t="s">
+      <c r="J108" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="K108" s="179"/>
+      <c r="K108" s="198"/>
       <c r="L108" s="10">
         <f>Flujos!G34</f>
         <v>-47324</v>
       </c>
-      <c r="M108" s="192"/>
-      <c r="N108" s="193"/>
-      <c r="O108" s="194"/>
+      <c r="M108" s="203"/>
+      <c r="N108" s="204"/>
+      <c r="O108" s="205"/>
       <c r="P108" s="10"/>
     </row>
     <row r="109" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -24929,75 +24874,75 @@
         <f>+K86</f>
         <v>0</v>
       </c>
-      <c r="J109" s="179" t="s">
+      <c r="J109" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="K109" s="179"/>
+      <c r="K109" s="198"/>
       <c r="L109" s="10">
         <f>Flujos!G39</f>
         <v>8561</v>
       </c>
-      <c r="M109" s="192"/>
-      <c r="N109" s="193"/>
-      <c r="O109" s="194"/>
+      <c r="M109" s="203"/>
+      <c r="N109" s="204"/>
+      <c r="O109" s="205"/>
       <c r="P109" s="10"/>
     </row>
     <row r="110" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G110" s="187" t="s">
+      <c r="G110" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="H110" s="188"/>
+      <c r="H110" s="202"/>
       <c r="I110" s="21">
         <f>+L90</f>
         <v>8561</v>
       </c>
-      <c r="J110" s="179"/>
-      <c r="K110" s="179"/>
+      <c r="J110" s="198"/>
+      <c r="K110" s="198"/>
       <c r="L110" s="10"/>
-      <c r="M110" s="179"/>
-      <c r="N110" s="179"/>
-      <c r="O110" s="179"/>
+      <c r="M110" s="198"/>
+      <c r="N110" s="198"/>
+      <c r="O110" s="198"/>
       <c r="P110" s="10"/>
     </row>
     <row r="111" spans="7:16" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G111" s="187" t="s">
+      <c r="G111" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="H111" s="188"/>
+      <c r="H111" s="202"/>
       <c r="I111" s="21">
         <f>K82</f>
         <v>5284</v>
       </c>
-      <c r="J111" s="179"/>
-      <c r="K111" s="179"/>
+      <c r="J111" s="198"/>
+      <c r="K111" s="198"/>
       <c r="L111" s="10"/>
-      <c r="M111" s="179"/>
-      <c r="N111" s="179"/>
-      <c r="O111" s="179"/>
+      <c r="M111" s="198"/>
+      <c r="N111" s="198"/>
+      <c r="O111" s="198"/>
       <c r="P111" s="10"/>
     </row>
     <row r="112" spans="7:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="G112" s="189" t="s">
+      <c r="G112" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="H112" s="190"/>
+      <c r="H112" s="200"/>
       <c r="I112" s="12">
         <f>+SUM(I97:I111)</f>
         <v>308500.62586999999</v>
       </c>
-      <c r="J112" s="191" t="s">
+      <c r="J112" s="213" t="s">
         <v>100</v>
       </c>
-      <c r="K112" s="191"/>
-      <c r="L112" s="285">
+      <c r="K112" s="213"/>
+      <c r="L112" s="13">
         <f>+SUM(L97:L110)</f>
         <v>32550.184131739996</v>
       </c>
-      <c r="M112" s="191" t="s">
+      <c r="M112" s="213" t="s">
         <v>101</v>
       </c>
-      <c r="N112" s="191"/>
-      <c r="O112" s="191"/>
+      <c r="N112" s="213"/>
+      <c r="O112" s="213"/>
       <c r="P112" s="12">
         <f>+SUM(P97:P110)</f>
         <v>275950.44174049998</v>
@@ -25038,162 +24983,162 @@
       </c>
     </row>
     <row r="117" spans="7:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="G117" s="195" t="s">
+      <c r="G117" s="208" t="s">
         <v>71</v>
       </c>
-      <c r="H117" s="195"/>
-      <c r="I117" s="196"/>
-      <c r="J117" s="197" t="s">
+      <c r="H117" s="208"/>
+      <c r="I117" s="209"/>
+      <c r="J117" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="K117" s="197"/>
-      <c r="L117" s="197"/>
-      <c r="M117" s="198" t="s">
+      <c r="K117" s="210"/>
+      <c r="L117" s="210"/>
+      <c r="M117" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="N117" s="198"/>
-      <c r="O117" s="198"/>
-      <c r="P117" s="198"/>
+      <c r="N117" s="211"/>
+      <c r="O117" s="211"/>
+      <c r="P117" s="211"/>
     </row>
     <row r="118" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G118" s="184" t="s">
+      <c r="G118" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="H118" s="185"/>
+      <c r="H118" s="207"/>
       <c r="I118" s="21">
         <f>+E8</f>
         <v>27888.191621810874</v>
       </c>
-      <c r="J118" s="186" t="s">
+      <c r="J118" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="K118" s="179"/>
+      <c r="K118" s="198"/>
       <c r="L118" s="10">
         <f>Flujos!G9*Flujos!H9</f>
         <v>15267.49810190487</v>
       </c>
-      <c r="M118" s="179" t="s">
+      <c r="M118" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="N118" s="179"/>
-      <c r="O118" s="179"/>
+      <c r="N118" s="198"/>
+      <c r="O118" s="198"/>
       <c r="P118" s="10">
         <f>+G17</f>
         <v>8753.8198974287388</v>
       </c>
     </row>
     <row r="119" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G119" s="184" t="s">
+      <c r="G119" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="H119" s="185"/>
+      <c r="H119" s="207"/>
       <c r="I119" s="21">
         <f>+C14</f>
         <v>0</v>
       </c>
-      <c r="J119" s="179" t="s">
+      <c r="J119" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="K119" s="179"/>
+      <c r="K119" s="198"/>
       <c r="L119" s="10">
         <f>Flujos!G17*Flujos!H17</f>
         <v>-10614.543669224222</v>
       </c>
-      <c r="M119" s="179" t="s">
+      <c r="M119" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="N119" s="179"/>
-      <c r="O119" s="179"/>
+      <c r="N119" s="198"/>
+      <c r="O119" s="198"/>
       <c r="P119" s="10">
         <f>+Q9</f>
         <v>5498.6912570309214</v>
       </c>
     </row>
     <row r="120" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G120" s="184" t="s">
+      <c r="G120" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="H120" s="185"/>
+      <c r="H120" s="207"/>
       <c r="I120" s="21">
         <f>+H15</f>
         <v>30424.575799999999</v>
       </c>
-      <c r="J120" s="179" t="s">
+      <c r="J120" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="K120" s="179"/>
+      <c r="K120" s="198"/>
       <c r="L120" s="10">
         <v>0</v>
       </c>
-      <c r="M120" s="179" t="s">
+      <c r="M120" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="N120" s="179"/>
-      <c r="O120" s="179"/>
+      <c r="N120" s="198"/>
+      <c r="O120" s="198"/>
       <c r="P120" s="10">
         <f>+Q13</f>
         <v>718.55522930273912</v>
       </c>
     </row>
     <row r="121" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G121" s="187" t="s">
+      <c r="G121" s="201" t="s">
         <v>79</v>
       </c>
-      <c r="H121" s="188"/>
+      <c r="H121" s="202"/>
       <c r="I121" s="21">
         <f>+C28</f>
         <v>0</v>
       </c>
-      <c r="J121" s="179" t="s">
+      <c r="J121" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="179"/>
+      <c r="K121" s="198"/>
       <c r="L121" s="10">
         <f>Flujos!G21*Flujos!H21</f>
         <v>196.26560474353826</v>
       </c>
-      <c r="M121" s="179" t="s">
+      <c r="M121" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="N121" s="179"/>
-      <c r="O121" s="179"/>
+      <c r="N121" s="198"/>
+      <c r="O121" s="198"/>
       <c r="P121" s="10">
         <f>+I32</f>
         <v>2957.8042541087675</v>
       </c>
     </row>
     <row r="122" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G122" s="187" t="s">
+      <c r="G122" s="201" t="s">
         <v>57</v>
       </c>
-      <c r="H122" s="188"/>
+      <c r="H122" s="202"/>
       <c r="I122" s="21">
         <f>+C37</f>
         <v>0</v>
       </c>
-      <c r="J122" s="179" t="s">
+      <c r="J122" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="K122" s="179"/>
+      <c r="K122" s="198"/>
       <c r="L122" s="10">
         <f>Flujos!G31*Flujos!H31</f>
         <v>21948.047599857502</v>
       </c>
-      <c r="M122" s="179" t="s">
+      <c r="M122" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="N122" s="179"/>
-      <c r="O122" s="179"/>
+      <c r="N122" s="198"/>
+      <c r="O122" s="198"/>
       <c r="P122" s="10">
         <f>+M60</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G123" s="187" t="s">
+      <c r="G123" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="H123" s="188"/>
+      <c r="H123" s="202"/>
       <c r="I123" s="21">
         <f>+C46</f>
         <v>0</v>
@@ -25206,21 +25151,21 @@
         <f>Flujos!G44*Flujos!H44</f>
         <v>0</v>
       </c>
-      <c r="M123" s="179" t="s">
+      <c r="M123" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="N123" s="179"/>
-      <c r="O123" s="179"/>
+      <c r="N123" s="198"/>
+      <c r="O123" s="198"/>
       <c r="P123" s="10">
         <f>+O65</f>
         <v>67501.387799999997</v>
       </c>
     </row>
     <row r="124" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G124" s="187" t="s">
+      <c r="G124" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="H124" s="188"/>
+      <c r="H124" s="202"/>
       <c r="I124" s="21">
         <f>+C56</f>
         <v>0</v>
@@ -25233,21 +25178,21 @@
         <f>Flujos!G47*Flujos!H47</f>
         <v>0</v>
       </c>
-      <c r="M124" s="179" t="s">
+      <c r="M124" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="N124" s="179"/>
-      <c r="O124" s="179"/>
+      <c r="N124" s="198"/>
+      <c r="O124" s="198"/>
       <c r="P124" s="10">
         <f>+O69</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G125" s="187" t="s">
+      <c r="G125" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="H125" s="188"/>
+      <c r="H125" s="202"/>
       <c r="I125" s="21">
         <f>C64</f>
         <v>43728.271199999996</v>
@@ -25260,21 +25205,21 @@
         <f>Flujos!G50*Flujos!H50</f>
         <v>0</v>
       </c>
-      <c r="M125" s="179" t="s">
+      <c r="M125" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="N125" s="179"/>
-      <c r="O125" s="179"/>
+      <c r="N125" s="198"/>
+      <c r="O125" s="198"/>
       <c r="P125" s="10">
         <f>+O76</f>
         <v>35415.56912</v>
       </c>
     </row>
     <row r="126" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G126" s="187" t="s">
+      <c r="G126" s="201" t="s">
         <v>90</v>
       </c>
-      <c r="H126" s="188"/>
+      <c r="H126" s="202"/>
       <c r="I126" s="21">
         <f>+H72</f>
         <v>5125.7984000000006</v>
@@ -25287,40 +25232,41 @@
         <f>Flujos!G53*Flujos!H53</f>
         <v>0</v>
       </c>
-      <c r="M126" s="179" t="s">
+      <c r="M126" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="N126" s="179"/>
-      <c r="O126" s="179"/>
+      <c r="N126" s="198"/>
+      <c r="O126" s="198"/>
       <c r="P126" s="10">
-        <f>Q81</f>
-        <v>58.432000000000002</v>
+        <f>Q86</f>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G127" s="187" t="s">
+      <c r="G127" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="H127" s="188"/>
+      <c r="H127" s="202"/>
       <c r="I127" s="21">
         <f>+H77</f>
         <v>16822.249200000002</v>
       </c>
-      <c r="J127" s="179" t="s">
+      <c r="J127" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="K127" s="179"/>
+      <c r="K127" s="198"/>
       <c r="L127" s="10">
         <f>Flujos!G42*Flujos!H42</f>
         <v>0</v>
       </c>
-      <c r="M127" s="179" t="s">
+      <c r="M127" s="198" t="s">
         <v>160</v>
       </c>
-      <c r="N127" s="179"/>
-      <c r="O127" s="179"/>
-      <c r="P127" s="10" t="s">
-        <v>163</v>
+      <c r="N127" s="198"/>
+      <c r="O127" s="198"/>
+      <c r="P127" s="10">
+        <f>Q81</f>
+        <v>58.432000000000002</v>
       </c>
     </row>
     <row r="128" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25340,9 +25286,9 @@
         <f>Flujos!G26*Flujos!H26</f>
         <v>11761.560182640304</v>
       </c>
-      <c r="M128" s="192"/>
-      <c r="N128" s="193"/>
-      <c r="O128" s="194"/>
+      <c r="M128" s="203"/>
+      <c r="N128" s="204"/>
+      <c r="O128" s="205"/>
       <c r="P128" s="10"/>
     </row>
     <row r="129" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25354,17 +25300,17 @@
         <f>+L80</f>
         <v>4069.1839999999997</v>
       </c>
-      <c r="J129" s="179" t="s">
+      <c r="J129" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="K129" s="179"/>
+      <c r="K129" s="198"/>
       <c r="L129" s="10">
         <f>Flujos!G34*Flujos!H34</f>
         <v>-28102.317120046082</v>
       </c>
-      <c r="M129" s="192"/>
-      <c r="N129" s="193"/>
-      <c r="O129" s="194"/>
+      <c r="M129" s="203"/>
+      <c r="N129" s="204"/>
+      <c r="O129" s="205"/>
       <c r="P129" s="10"/>
     </row>
     <row r="130" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25376,58 +25322,58 @@
         <f>+K88</f>
         <v>0</v>
       </c>
-      <c r="J130" s="179" t="s">
+      <c r="J130" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="K130" s="179"/>
+      <c r="K130" s="198"/>
       <c r="L130" s="10">
         <f>Flujos!G39*Flujos!H39</f>
         <v>4996.1995999999999</v>
       </c>
-      <c r="M130" s="192"/>
-      <c r="N130" s="193"/>
-      <c r="O130" s="194"/>
+      <c r="M130" s="203"/>
+      <c r="N130" s="204"/>
+      <c r="O130" s="205"/>
       <c r="P130" s="10"/>
     </row>
     <row r="131" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G131" s="187" t="s">
+      <c r="G131" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="H131" s="188"/>
+      <c r="H131" s="202"/>
       <c r="I131" s="21">
         <f>+L92</f>
         <v>4996.1995999999999</v>
       </c>
-      <c r="J131" s="179"/>
-      <c r="K131" s="179"/>
+      <c r="J131" s="198"/>
+      <c r="K131" s="198"/>
       <c r="L131" s="10"/>
-      <c r="M131" s="179"/>
-      <c r="N131" s="179"/>
-      <c r="O131" s="179"/>
+      <c r="M131" s="198"/>
+      <c r="N131" s="198"/>
+      <c r="O131" s="198"/>
       <c r="P131" s="10"/>
     </row>
     <row r="132" spans="7:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G132" s="187" t="s">
+      <c r="G132" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="H132" s="188"/>
+      <c r="H132" s="202"/>
       <c r="I132" s="21">
         <f>K84</f>
         <v>3302.5</v>
       </c>
-      <c r="J132" s="179"/>
-      <c r="K132" s="179"/>
+      <c r="J132" s="198"/>
+      <c r="K132" s="198"/>
       <c r="L132" s="10"/>
-      <c r="M132" s="179"/>
-      <c r="N132" s="179"/>
-      <c r="O132" s="179"/>
+      <c r="M132" s="198"/>
+      <c r="N132" s="198"/>
+      <c r="O132" s="198"/>
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="7:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="G133" s="189" t="s">
+      <c r="G133" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="H133" s="190"/>
+      <c r="H133" s="200"/>
       <c r="I133" s="12">
         <f>+SUM(I118:I132)</f>
         <v>136356.96982181087</v>
@@ -25464,6 +25410,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="M104:O104"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="M96:P96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="M117:P117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="M125:O125"/>
     <mergeCell ref="J111:K111"/>
     <mergeCell ref="M111:O111"/>
     <mergeCell ref="G133:H133"/>
@@ -25480,74 +25494,6 @@
     <mergeCell ref="M130:O130"/>
     <mergeCell ref="G126:H126"/>
     <mergeCell ref="M126:O126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="M127:O127"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="M124:O124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="M117:P117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="M112:O112"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="M109:O109"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="M96:P96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="M97:O97"/>
-    <mergeCell ref="M99:O99"/>
-    <mergeCell ref="M100:O100"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="M102:O102"/>
-    <mergeCell ref="M103:O103"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="M104:O104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25831,8 +25777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A180942-FDE9-9742-9791-B717C09345EC}">
   <dimension ref="B1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="125" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28421,86 +28367,86 @@
     <row r="2" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="216" t="s">
+      <c r="D2" s="268"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="274" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="217"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="274"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="274"/>
+      <c r="P2" s="274"/>
+      <c r="Q2" s="275"/>
       <c r="R2" s="51"/>
     </row>
     <row r="3" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B3" s="49"/>
       <c r="C3" s="50"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="219"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
+      <c r="M3" s="276"/>
+      <c r="N3" s="276"/>
+      <c r="O3" s="276"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="277"/>
       <c r="R3" s="51"/>
     </row>
     <row r="4" spans="2:20" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="49"/>
       <c r="C4" s="50"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="218" t="s">
+      <c r="D4" s="270"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="218"/>
-      <c r="M4" s="218" t="s">
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
+      <c r="M4" s="276" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="218"/>
+      <c r="N4" s="276"/>
       <c r="O4" s="134"/>
-      <c r="P4" s="221">
+      <c r="P4" s="279">
         <f ca="1">TODAY()</f>
         <v>45184</v>
       </c>
-      <c r="Q4" s="222"/>
+      <c r="Q4" s="280"/>
       <c r="R4" s="51"/>
     </row>
     <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="49"/>
       <c r="C5" s="50"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="278"/>
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278"/>
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="278"/>
+      <c r="N5" s="278"/>
       <c r="O5" s="135"/>
-      <c r="P5" s="223"/>
-      <c r="Q5" s="224"/>
+      <c r="P5" s="281"/>
+      <c r="Q5" s="282"/>
       <c r="R5" s="51"/>
     </row>
     <row r="6" spans="2:20" thickBot="1" x14ac:dyDescent="0.25">
@@ -28523,26 +28469,26 @@
     <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="54"/>
       <c r="C7" s="55"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="225" t="s">
+      <c r="D7" s="260"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="283" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="226"/>
+      <c r="H7" s="284"/>
       <c r="I7" s="56" t="s">
         <v>111</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="206"/>
-      <c r="L7" s="207"/>
-      <c r="M7" s="207"/>
-      <c r="N7" s="225" t="s">
+      <c r="K7" s="264"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="283" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="226"/>
+      <c r="O7" s="284"/>
       <c r="P7" s="56" t="s">
         <v>111</v>
       </c>
@@ -28554,9 +28500,9 @@
     <row r="8" spans="2:20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="54"/>
       <c r="C8" s="55"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
       <c r="G8" s="58" t="s">
         <v>1</v>
       </c>
@@ -28569,9 +28515,9 @@
       <c r="J8" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="208"/>
-      <c r="L8" s="209"/>
-      <c r="M8" s="209"/>
+      <c r="K8" s="266"/>
+      <c r="L8" s="267"/>
+      <c r="M8" s="267"/>
       <c r="N8" s="58" t="s">
         <v>1</v>
       </c>
@@ -28589,24 +28535,24 @@
     <row r="9" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B9" s="54"/>
       <c r="C9" s="55"/>
-      <c r="D9" s="227" t="s">
+      <c r="D9" s="235" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="229"/>
-      <c r="K9" s="230" t="s">
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="232" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="231"/>
-      <c r="M9" s="231"/>
-      <c r="N9" s="231"/>
-      <c r="O9" s="231"/>
-      <c r="P9" s="231"/>
-      <c r="Q9" s="232"/>
+      <c r="L9" s="233"/>
+      <c r="M9" s="233"/>
+      <c r="N9" s="233"/>
+      <c r="O9" s="233"/>
+      <c r="P9" s="233"/>
+      <c r="Q9" s="234"/>
       <c r="R9" s="51"/>
     </row>
     <row r="10" spans="2:20" thickBot="1" x14ac:dyDescent="0.25">
@@ -28614,11 +28560,11 @@
       <c r="C10" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="233" t="s">
+      <c r="D10" s="218" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="234"/>
-      <c r="F10" s="235"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="240"/>
       <c r="G10" s="62">
         <f>Flujos!G4</f>
         <v>109185.62587</v>
@@ -28635,10 +28581,10 @@
         <f>+I10*G10</f>
         <v>27888.191621810874</v>
       </c>
-      <c r="K10" s="239" t="s">
+      <c r="K10" s="221" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="240"/>
+      <c r="L10" s="222"/>
       <c r="M10" s="241"/>
       <c r="N10" s="122">
         <f>Flujos!G20</f>
@@ -28662,10 +28608,10 @@
     <row r="11" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B11" s="54"/>
       <c r="C11" s="55"/>
-      <c r="D11" s="239" t="s">
+      <c r="D11" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="240"/>
+      <c r="E11" s="222"/>
       <c r="F11" s="241"/>
       <c r="G11" s="65">
         <f>Flujos!G5</f>
@@ -28683,26 +28629,26 @@
         <f>+I11*G11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="242" t="s">
+      <c r="K11" s="257" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="243"/>
-      <c r="M11" s="243"/>
-      <c r="N11" s="243"/>
-      <c r="O11" s="243"/>
-      <c r="P11" s="243"/>
-      <c r="Q11" s="244"/>
+      <c r="L11" s="258"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="259"/>
       <c r="R11" s="51"/>
       <c r="T11" s="91"/>
     </row>
     <row r="12" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
-      <c r="D12" s="233" t="s">
+      <c r="D12" s="218" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="234"/>
-      <c r="F12" s="235"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="240"/>
       <c r="G12" s="60">
         <f>Flujos!G8</f>
         <v>61069</v>
@@ -28719,11 +28665,11 @@
         <f>+I12*G12</f>
         <v>30424.575799999999</v>
       </c>
-      <c r="K12" s="245" t="s">
+      <c r="K12" s="247" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="246"/>
-      <c r="M12" s="247"/>
+      <c r="L12" s="248"/>
+      <c r="M12" s="249"/>
       <c r="N12" s="60">
         <f>Flujos!G6</f>
         <v>52102.316567000002</v>
@@ -28745,10 +28691,10 @@
     <row r="13" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B13" s="54"/>
       <c r="C13" s="55"/>
-      <c r="D13" s="239" t="s">
+      <c r="D13" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="240"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="241"/>
       <c r="G13" s="65">
         <f>Flujos!G55</f>
@@ -28766,11 +28712,11 @@
         <f>+I13*G13</f>
         <v>43728.271199999996</v>
       </c>
-      <c r="K13" s="248" t="s">
+      <c r="K13" s="250" t="s">
         <v>130</v>
       </c>
-      <c r="L13" s="249"/>
-      <c r="M13" s="250"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="252"/>
       <c r="N13" s="75">
         <f>Flujos!G12</f>
         <v>19798.424827999999</v>
@@ -28792,11 +28738,11 @@
     <row r="14" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B14" s="54"/>
       <c r="C14" s="55"/>
-      <c r="D14" s="233" t="s">
+      <c r="D14" s="218" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="234"/>
-      <c r="F14" s="235"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="240"/>
       <c r="G14" s="60">
         <f>Flujos!G31</f>
         <v>37015</v>
@@ -28813,11 +28759,11 @@
         <f>+I14*G14</f>
         <v>21948.047599857502</v>
       </c>
-      <c r="K14" s="245" t="s">
+      <c r="K14" s="247" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="246"/>
-      <c r="M14" s="247"/>
+      <c r="L14" s="248"/>
+      <c r="M14" s="249"/>
       <c r="N14" s="77">
         <f>Flujos!G13</f>
         <v>4888.7705244999997</v>
@@ -28872,18 +28818,18 @@
     <row r="16" spans="2:20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="54"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="235"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="240"/>
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
       <c r="I16" s="61"/>
       <c r="J16" s="60"/>
-      <c r="K16" s="251" t="s">
+      <c r="K16" s="238" t="s">
         <v>125</v>
       </c>
-      <c r="L16" s="252"/>
-      <c r="M16" s="252"/>
+      <c r="L16" s="239"/>
+      <c r="M16" s="239"/>
       <c r="N16" s="68">
         <f>+SUM(N12:N15)</f>
         <v>114632.4417405</v>
@@ -28902,22 +28848,22 @@
     <row r="17" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="54"/>
       <c r="C17" s="55"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="235"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="240"/>
       <c r="G17" s="60"/>
       <c r="H17" s="60"/>
       <c r="I17" s="61"/>
       <c r="J17" s="60"/>
-      <c r="K17" s="230" t="s">
+      <c r="K17" s="232" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="231"/>
-      <c r="M17" s="231"/>
-      <c r="N17" s="231"/>
-      <c r="O17" s="231"/>
-      <c r="P17" s="231"/>
-      <c r="Q17" s="232"/>
+      <c r="L17" s="233"/>
+      <c r="M17" s="233"/>
+      <c r="N17" s="233"/>
+      <c r="O17" s="233"/>
+      <c r="P17" s="233"/>
+      <c r="Q17" s="234"/>
       <c r="R17" s="51"/>
     </row>
     <row r="18" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
@@ -28925,11 +28871,11 @@
       <c r="C18" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="251" t="s">
+      <c r="D18" s="238" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="252"/>
-      <c r="F18" s="252"/>
+      <c r="E18" s="239"/>
+      <c r="F18" s="239"/>
       <c r="G18" s="68">
         <f>+SUM(G10:G17)</f>
         <v>287711.62586999999</v>
@@ -28943,11 +28889,11 @@
         <f>+SUM(J10:J17)</f>
         <v>123989.08622166837</v>
       </c>
-      <c r="K18" s="236" t="s">
+      <c r="K18" s="254" t="s">
         <v>136</v>
       </c>
-      <c r="L18" s="237"/>
-      <c r="M18" s="238"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="256"/>
       <c r="N18" s="62">
         <f>Flujos!G25</f>
         <v>118783.18078</v>
@@ -28956,7 +28902,7 @@
         <f>N18*'Datos Extra'!B27+Report!N18</f>
         <v>129259.62742186544</v>
       </c>
-      <c r="P18" s="289">
+      <c r="P18" s="63">
         <f>Flujos!H25</f>
         <v>0.66729100407999997</v>
       </c>
@@ -28971,29 +28917,29 @@
     <row r="19" spans="2:21" ht="14" x14ac:dyDescent="0.2">
       <c r="B19" s="54"/>
       <c r="C19" s="55"/>
-      <c r="D19" s="227" t="s">
+      <c r="D19" s="235" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="260"/>
-      <c r="K19" s="239" t="s">
+      <c r="E19" s="236"/>
+      <c r="F19" s="236"/>
+      <c r="G19" s="236"/>
+      <c r="H19" s="236"/>
+      <c r="I19" s="236"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="221" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="240"/>
+      <c r="L19" s="222"/>
       <c r="M19" s="241"/>
       <c r="N19" s="122">
-        <f>Flujos!G35-N21</f>
-        <v>-5284.1845112000001</v>
+        <f>Flujos!G35</f>
+        <v>0</v>
       </c>
       <c r="O19" s="122">
         <f>N19*'Datos Extra'!B30+Report!N19</f>
-        <v>-5321.1738027784004</v>
-      </c>
-      <c r="P19" s="290">
+        <v>0</v>
+      </c>
+      <c r="P19" s="67">
         <f>Flujos!H35</f>
         <v>0</v>
       </c>
@@ -29006,17 +28952,18 @@
     <row r="20" spans="2:21" ht="14" x14ac:dyDescent="0.2">
       <c r="B20" s="54"/>
       <c r="C20" s="55"/>
-      <c r="D20" s="233" t="s">
+      <c r="D20" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="234"/>
-      <c r="F20" s="235"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="240"/>
       <c r="G20" s="138">
-        <v>101765.77729999999</v>
+        <f>'Mapa de Procesos'!P102</f>
+        <v>101766</v>
       </c>
       <c r="H20" s="138">
         <f>G20*'Datos Extra'!B23+Report!G20</f>
-        <v>109917.21606172998</v>
+        <v>109917.4566</v>
       </c>
       <c r="I20" s="137">
         <f>Flujos!H27</f>
@@ -29024,13 +28971,13 @@
       </c>
       <c r="J20" s="60">
         <f>+I20*G20</f>
-        <v>67501.240083089986</v>
-      </c>
-      <c r="K20" s="233" t="s">
+        <v>67501.387799999997</v>
+      </c>
+      <c r="K20" s="218" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="234"/>
-      <c r="M20" s="235"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="240"/>
       <c r="N20" s="62">
         <f>Flujos!G36</f>
         <v>6944</v>
@@ -29039,7 +28986,7 @@
         <f>N20*'Datos Extra'!B31+Report!N20</f>
         <v>7041.2160000000003</v>
       </c>
-      <c r="P20" s="291">
+      <c r="P20" s="66">
         <f>Flujos!H36</f>
         <v>0.58599999999999997</v>
       </c>
@@ -29053,10 +29000,10 @@
     <row r="21" spans="2:21" ht="14" x14ac:dyDescent="0.2">
       <c r="B21" s="54"/>
       <c r="C21" s="55"/>
-      <c r="D21" s="239" t="s">
+      <c r="D21" s="221" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="240"/>
+      <c r="E21" s="222"/>
       <c r="F21" s="241"/>
       <c r="G21" s="73">
         <f>Flujos!G33</f>
@@ -29074,10 +29021,10 @@
         <f>+I21*G21</f>
         <v>35415.56912</v>
       </c>
-      <c r="K21" s="239" t="s">
+      <c r="K21" s="221" t="s">
         <v>138</v>
       </c>
-      <c r="L21" s="240"/>
+      <c r="L21" s="222"/>
       <c r="M21" s="241"/>
       <c r="N21" s="122">
         <v>5284.1845112000001</v>
@@ -29086,7 +29033,7 @@
         <f>N21*'Datos Extra'!B32+Report!N21</f>
         <v>5284.1845112000001</v>
       </c>
-      <c r="P21" s="292">
+      <c r="P21" s="189">
         <v>0.625</v>
       </c>
       <c r="Q21" s="122">
@@ -29099,11 +29046,11 @@
     <row r="22" spans="2:21" ht="14" x14ac:dyDescent="0.2">
       <c r="B22" s="54"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="233" t="s">
+      <c r="D22" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="234"/>
-      <c r="F22" s="235"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="240"/>
       <c r="G22" s="60">
         <f>Flujos!G40</f>
         <v>0</v>
@@ -29120,11 +29067,11 @@
         <f>+I22*G22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="233" t="s">
+      <c r="K22" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="L22" s="234"/>
-      <c r="M22" s="235"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="240"/>
       <c r="N22" s="62">
         <f>Flujos!G37</f>
         <v>8561</v>
@@ -29133,7 +29080,7 @@
         <f>Report!N22*'Datos Extra'!B33+Report!N22</f>
         <v>8612.366</v>
       </c>
-      <c r="P22" s="291">
+      <c r="P22" s="66">
         <f>Flujos!H37</f>
         <v>0.58360000000000001</v>
       </c>
@@ -29147,12 +29094,12 @@
     <row r="23" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="54"/>
       <c r="C23" s="55"/>
-      <c r="D23" s="261" t="s">
+      <c r="D23" s="242" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="262"/>
-      <c r="F23" s="263"/>
-      <c r="G23" s="286">
+      <c r="E23" s="243"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="187">
         <f>Flujos!G57</f>
         <v>5284</v>
       </c>
@@ -29160,7 +29107,7 @@
         <f>G23*'Datos Extra'!B27+Report!G23</f>
         <v>5750.0385729032259</v>
       </c>
-      <c r="I23" s="287">
+      <c r="I23" s="188">
         <f>Flujos!H57</f>
         <v>0.625</v>
       </c>
@@ -29168,20 +29115,20 @@
         <f>G23*I23</f>
         <v>3302.5</v>
       </c>
-      <c r="K23" s="239" t="s">
+      <c r="K23" s="221" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="240"/>
+      <c r="L23" s="222"/>
       <c r="M23" s="241"/>
       <c r="N23" s="122">
         <f>Flujos!G38</f>
         <v>0</v>
       </c>
-      <c r="O23" s="293">
+      <c r="O23" s="190">
         <f>N23*'Datos Extra'!B34+Report!N23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="290">
+      <c r="P23" s="67">
         <f>Flujos!H38</f>
         <v>0</v>
       </c>
@@ -29195,36 +29142,36 @@
     <row r="24" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="54"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="251" t="s">
+      <c r="D24" s="238" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="239"/>
       <c r="G24" s="68">
         <f>+SUM(G20:G23)</f>
-        <v>166513.77729999999</v>
+        <v>166514</v>
       </c>
       <c r="H24" s="68">
         <f>+SUM(H20:H23)</f>
-        <v>175666.4306346332</v>
+        <v>175666.67117290324</v>
       </c>
       <c r="I24" s="89"/>
       <c r="J24" s="68">
         <f t="shared" ref="J24" si="1">+SUM(J20:J23)</f>
-        <v>106219.30920308999</v>
-      </c>
-      <c r="K24" s="251" t="s">
+        <v>106219.45692</v>
+      </c>
+      <c r="K24" s="238" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="252"/>
-      <c r="M24" s="252"/>
+      <c r="L24" s="239"/>
+      <c r="M24" s="239"/>
       <c r="N24" s="68">
         <f>SUM(N18:N23)</f>
-        <v>134288.18078</v>
+        <v>139572.3652912</v>
       </c>
       <c r="O24" s="68">
         <f>SUM(O18,O19:O23)</f>
-        <v>144876.22013028705</v>
+        <v>150197.39393306544</v>
       </c>
       <c r="P24" s="68"/>
       <c r="Q24" s="69">
@@ -29236,9 +29183,9 @@
     <row r="25" spans="2:21" ht="14" x14ac:dyDescent="0.2">
       <c r="B25" s="54"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
+      <c r="D25" s="225"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="225"/>
       <c r="G25" s="81"/>
       <c r="H25" s="81"/>
       <c r="I25" s="82"/>
@@ -29248,23 +29195,23 @@
     <row r="26" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="54"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="264" t="s">
+      <c r="D26" s="245" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="265"/>
-      <c r="F26" s="265"/>
-      <c r="G26" s="265"/>
-      <c r="H26" s="265"/>
-      <c r="I26" s="265"/>
-      <c r="J26" s="265"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="246"/>
+      <c r="J26" s="246"/>
       <c r="R26" s="84"/>
     </row>
     <row r="27" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="54"/>
       <c r="C27" s="55"/>
-      <c r="D27" s="254"/>
-      <c r="E27" s="255"/>
-      <c r="F27" s="256"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="228"/>
       <c r="G27" s="94" t="s">
         <v>104</v>
       </c>
@@ -29283,11 +29230,11 @@
     <row r="28" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
-      <c r="D28" s="257" t="s">
+      <c r="D28" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="258"/>
-      <c r="F28" s="259"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="231"/>
       <c r="G28" s="146">
         <f>'Datos Extra'!B1</f>
         <v>74334.13764999999</v>
@@ -29310,11 +29257,11 @@
     <row r="29" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="54"/>
       <c r="C29" s="55"/>
-      <c r="D29" s="233" t="s">
+      <c r="D29" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
       <c r="G29" s="146">
         <f>'Datos Extra'!B2</f>
         <v>86387.124166666676</v>
@@ -29350,11 +29297,11 @@
     <row r="30" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="54"/>
       <c r="C30" s="55"/>
-      <c r="D30" s="233" t="s">
+      <c r="D30" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="234"/>
-      <c r="F30" s="234"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
       <c r="G30" s="146">
         <f>'Datos Extra'!B3</f>
         <v>826.28166666666766</v>
@@ -29375,12 +29322,12 @@
         <v>1</v>
       </c>
       <c r="M30" s="148">
-        <f>G18+N19+N20+N21+N22+N23+Flujos!G57</f>
-        <v>308500.62586999999</v>
+        <f>G18+N19+N20+N21+N22+N23</f>
+        <v>308500.81038119999</v>
       </c>
       <c r="N30" s="148">
         <f>G20+G21+G22+N16+'Mapa de Procesos'!P106</f>
-        <v>275950.2190405</v>
+        <v>275950.44174049998</v>
       </c>
       <c r="O30" s="152">
         <f>I35</f>
@@ -29388,7 +29335,7 @@
       </c>
       <c r="P30" s="84">
         <f>M30-N30-O30</f>
-        <v>0.2226977599930251</v>
+        <v>0.18450896001013462</v>
       </c>
       <c r="R30" s="51"/>
       <c r="U30" s="85"/>
@@ -29396,11 +29343,11 @@
     <row r="31" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="54"/>
       <c r="C31" s="55"/>
-      <c r="D31" s="233" t="s">
+      <c r="D31" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="234"/>
-      <c r="F31" s="234"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
       <c r="G31" s="146">
         <f>'Datos Extra'!B4</f>
         <v>0</v>
@@ -29425,8 +29372,8 @@
         <v>136357.08514116835</v>
       </c>
       <c r="N31" s="150">
-        <f>Q16+J20+J21+J22+'Mapa de Procesos'!P126</f>
-        <v>120904.11184096115</v>
+        <f>Q16+J20+J21+J22+'Mapa de Procesos'!P127</f>
+        <v>120904.25955787116</v>
       </c>
       <c r="O31" s="153">
         <f>J35</f>
@@ -29434,7 +29381,7 @@
       </c>
       <c r="P31" s="154">
         <f>M31-N31-O31</f>
-        <v>0.26300033129155054</v>
+        <v>0.11528342128076474</v>
       </c>
       <c r="R31" s="84"/>
       <c r="U31" s="85"/>
@@ -29442,11 +29389,11 @@
     <row r="32" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="54"/>
       <c r="C32" s="55"/>
-      <c r="D32" s="239" t="s">
+      <c r="D32" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
       <c r="G32" s="146">
         <f>'Datos Extra'!B5</f>
         <v>121426.04949999998</v>
@@ -29470,11 +29417,11 @@
     <row r="33" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="54"/>
       <c r="C33" s="55"/>
-      <c r="D33" s="239" t="s">
+      <c r="D33" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
+      <c r="E33" s="222"/>
+      <c r="F33" s="222"/>
       <c r="G33" s="146">
         <f>'Datos Extra'!B6</f>
         <v>41594.870640000001</v>
@@ -29497,11 +29444,11 @@
     <row r="34" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="54"/>
       <c r="C34" s="55"/>
-      <c r="D34" s="267" t="s">
+      <c r="D34" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="268"/>
-      <c r="F34" s="268"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
       <c r="G34" s="146">
         <f>'Datos Extra'!B7</f>
         <v>67903.538449999993</v>
@@ -29518,7 +29465,6 @@
         <f>'Mapa de Procesos'!L130</f>
         <v>4996.1995999999999</v>
       </c>
-      <c r="M34" s="288"/>
       <c r="R34" s="51"/>
       <c r="U34" s="85"/>
     </row>
@@ -29566,9 +29512,9 @@
       <c r="K40" s="90"/>
     </row>
     <row r="41" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="266"/>
-      <c r="F41" s="266"/>
-      <c r="G41" s="266"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="220"/>
       <c r="H41" s="136"/>
       <c r="I41" s="92"/>
       <c r="J41" s="131"/>
@@ -29576,12 +29522,36 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="D2:E5"/>
+    <mergeCell ref="F2:Q3"/>
+    <mergeCell ref="F4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K16:M16"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
@@ -29596,36 +29566,12 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D26:J26"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="K7:M8"/>
-    <mergeCell ref="D2:E5"/>
-    <mergeCell ref="F2:Q3"/>
-    <mergeCell ref="F4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -29635,14 +29581,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f53f264-df38-4c5e-a089-ad7f07a2b911">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1490ee3b-8825-4a14-a799-bb3413729370" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29881,27 +29825,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f53f264-df38-4c5e-a089-ad7f07a2b911">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1490ee3b-8825-4a14-a799-bb3413729370" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79956576-308D-4576-AFE1-2F4C0F3C33E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFCA9A7-8661-43F7-BFD7-3C6B027F5CB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1490ee3b-8825-4a14-a799-bb3413729370"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6f53f264-df38-4c5e-a089-ad7f07a2b911"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29926,9 +29863,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFCA9A7-8661-43F7-BFD7-3C6B027F5CB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79956576-308D-4576-AFE1-2F4C0F3C33E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1490ee3b-8825-4a14-a799-bb3413729370"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6f53f264-df38-4c5e-a089-ad7f07a2b911"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/Export/Exportar_Elqui_Elqui.xlsx
+++ b/public/Export/Exportar_Elqui_Elqui.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernando/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{827279A6-BA4F-9944-8641-06DC87AFF704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA27121E-3F01-A24E-ABC0-CAC404D7EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" tabRatio="702" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21219,7 +21219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731AE742-D316-A04E-A3DB-C52263974828}">
   <dimension ref="B2:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="I57" sqref="I57:N58"/>
     </sheetView>
   </sheetViews>
@@ -23515,8 +23515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:S135"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G90" zoomScale="111" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView showGridLines="0" topLeftCell="D121" zoomScale="111" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25238,7 +25238,7 @@
       <c r="N126" s="198"/>
       <c r="O126" s="198"/>
       <c r="P126" s="10">
-        <f>Q86</f>
+        <f>+O84</f>
         <v>0</v>
       </c>
     </row>
@@ -25777,8 +25777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A180942-FDE9-9742-9791-B717C09345EC}">
   <dimension ref="B1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="125" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29027,18 +29027,20 @@
       <c r="L21" s="222"/>
       <c r="M21" s="241"/>
       <c r="N21" s="122">
-        <v>5284.1845112000001</v>
+        <f>Flujos!G57</f>
+        <v>5284</v>
       </c>
       <c r="O21" s="122">
         <f>N21*'Datos Extra'!B32+Report!N21</f>
-        <v>5284.1845112000001</v>
+        <v>5284</v>
       </c>
       <c r="P21" s="189">
+        <f>Flujos!H57</f>
         <v>0.625</v>
       </c>
       <c r="Q21" s="122">
         <f t="shared" si="0"/>
-        <v>3302.6153195000002</v>
+        <v>3302.5</v>
       </c>
       <c r="R21" s="51"/>
       <c r="S21" s="72"/>
@@ -29060,8 +29062,8 @@
         <v>0</v>
       </c>
       <c r="I22" s="66">
-        <f>Flujos!H39</f>
-        <v>0.58360000000000001</v>
+        <f>Flujos!H40</f>
+        <v>0</v>
       </c>
       <c r="J22" s="60">
         <f>+I22*G22</f>
@@ -29167,16 +29169,16 @@
       <c r="M24" s="239"/>
       <c r="N24" s="68">
         <f>SUM(N18:N23)</f>
-        <v>139572.3652912</v>
+        <v>139572.18078</v>
       </c>
       <c r="O24" s="68">
         <f>SUM(O18,O19:O23)</f>
-        <v>150197.39393306544</v>
+        <v>150197.20942186544</v>
       </c>
       <c r="P24" s="68"/>
       <c r="Q24" s="69">
         <f>SUM(Q18,Q18:Q23)</f>
-        <v>170893.89486050472</v>
+        <v>170893.77954100471</v>
       </c>
       <c r="R24" s="51"/>
     </row>
@@ -29323,7 +29325,7 @@
       </c>
       <c r="M30" s="148">
         <f>G18+N19+N20+N21+N22+N23</f>
-        <v>308500.81038119999</v>
+        <v>308500.62586999999</v>
       </c>
       <c r="N30" s="148">
         <f>G20+G21+G22+N16+'Mapa de Procesos'!P106</f>
@@ -29335,7 +29337,7 @@
       </c>
       <c r="P30" s="84">
         <f>M30-N30-O30</f>
-        <v>0.18450896001013462</v>
+        <v>-2.2399908630177379E-6</v>
       </c>
       <c r="R30" s="51"/>
       <c r="U30" s="85"/>
@@ -29369,7 +29371,7 @@
       </c>
       <c r="M31" s="150">
         <f>J18+Q19+Q20+Q21+Q22+Q23</f>
-        <v>136357.08514116835</v>
+        <v>136356.96982166835</v>
       </c>
       <c r="N31" s="150">
         <f>Q16+J20+J21+J22+'Mapa de Procesos'!P127</f>
@@ -29381,7 +29383,7 @@
       </c>
       <c r="P31" s="154">
         <f>M31-N31-O31</f>
-        <v>0.11528342128076474</v>
+        <v>-3.6078727134736255E-5</v>
       </c>
       <c r="R31" s="84"/>
       <c r="U31" s="85"/>

--- a/public/Export/Exportar_Elqui_Elqui.xlsx
+++ b/public/Export/Exportar_Elqui_Elqui.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernando/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA27121E-3F01-A24E-ABC0-CAC404D7EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFBA3407-E4EB-564C-8748-4EB649A45A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" tabRatio="702" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,7 +322,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="vector1">Utilidad!$AK$102:$AK$106</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="169">
   <si>
     <t>%FeT</t>
   </si>
@@ -846,10 +846,28 @@
     <t>Ventas locales</t>
   </si>
   <si>
-    <t xml:space="preserve">Embarque Sinter </t>
+    <t>Recep Infiernillo</t>
   </si>
   <si>
-    <t>Recep Infiernillo</t>
+    <t>Stock Pellet Feed Guayacan</t>
+  </si>
+  <si>
+    <t>Stock Sinter Guayacan</t>
+  </si>
+  <si>
+    <t>Stock Granza Guayacan</t>
+  </si>
+  <si>
+    <t>Pellet Feed Produccion Primaria</t>
+  </si>
+  <si>
+    <t>Alimentacion Chancado Mina</t>
+  </si>
+  <si>
+    <t>Recepcion Mediana Ley Pleito</t>
+  </si>
+  <si>
+    <t>Embarque Sinter</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1844,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2255,9 +2273,6 @@
     <xf numFmtId="9" fontId="17" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="14" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2280,17 +2295,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2300,12 +2339,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2318,150 +2351,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2538,9 +2427,135 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Millares 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -16858,16 +16873,16 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="139">
-        <v>109199</v>
+        <v>0</v>
       </c>
       <c r="B1" s="139">
-        <v>109185.62587</v>
+        <v>0</v>
       </c>
       <c r="C1" s="143">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="D1" s="124">
-        <v>25.541999141000002</v>
+        <v>0</v>
       </c>
       <c r="E1" s="123">
         <v>0.01</v>
@@ -16900,16 +16915,16 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="139">
-        <v>52085</v>
+        <v>0</v>
       </c>
       <c r="B3" s="139">
-        <v>52102.316567000002</v>
+        <v>0</v>
       </c>
       <c r="C3" s="143">
-        <v>16.809999999999999</v>
+        <v>0</v>
       </c>
       <c r="D3" s="124">
-        <v>16.801210529999999</v>
+        <v>0</v>
       </c>
       <c r="E3" s="123">
         <v>0.01</v>
@@ -16954,16 +16969,16 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="139">
-        <v>57114</v>
+        <v>0</v>
       </c>
       <c r="B4" s="139">
-        <v>57083.309306000003</v>
+        <v>0</v>
       </c>
       <c r="C4" s="143">
-        <v>33.43</v>
+        <v>0</v>
       </c>
       <c r="D4" s="124">
-        <v>33.520081367000003</v>
+        <v>0</v>
       </c>
       <c r="E4" s="123">
         <v>0.01</v>
@@ -16975,19 +16990,19 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="139">
-        <v>61069</v>
+        <v>21383</v>
       </c>
       <c r="B5" s="139">
-        <v>61069</v>
+        <v>21383</v>
       </c>
       <c r="C5" s="143">
-        <v>49.82</v>
+        <v>47.31</v>
       </c>
       <c r="D5" s="124">
-        <v>49.82</v>
+        <v>47.31</v>
       </c>
       <c r="E5" s="123">
-        <v>9.8680274571524181E-3</v>
+        <v>5.9061531913753894E-3</v>
       </c>
       <c r="F5" s="123"/>
       <c r="J5" s="139"/>
@@ -16996,19 +17011,19 @@
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="139">
-        <v>37539</v>
+        <v>-45236</v>
       </c>
       <c r="B6" s="139">
-        <v>37526.428143999998</v>
+        <v>-38578.344008</v>
       </c>
       <c r="C6" s="143">
-        <v>40.81</v>
+        <v>47.31</v>
       </c>
       <c r="D6" s="124">
-        <v>40.684655739999997</v>
+        <v>42.579000000000001</v>
       </c>
       <c r="E6" s="123">
-        <v>9.931809435520942E-3</v>
+        <v>5.9061531913753894E-3</v>
       </c>
       <c r="F6" s="123"/>
       <c r="J6" s="139"/>
@@ -17017,19 +17032,19 @@
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="139">
-        <v>86600</v>
+        <v>66945</v>
       </c>
       <c r="B7" s="139">
-        <v>80625.881162000005</v>
+        <v>59961.344008</v>
       </c>
       <c r="C7" s="143">
-        <v>42.57</v>
+        <v>42.23</v>
       </c>
       <c r="D7" s="124">
-        <v>42.531565469999997</v>
+        <v>44.266136516000003</v>
       </c>
       <c r="E7" s="123">
-        <v>1.5840824581369591E-2</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="F7" s="123"/>
       <c r="J7" s="139"/>
@@ -17059,19 +17074,19 @@
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="139">
-        <v>19491</v>
+        <v>11248</v>
       </c>
       <c r="B9" s="139">
-        <v>19798.424827999999</v>
+        <v>10381.135238000001</v>
       </c>
       <c r="C9" s="143">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="D9" s="124">
-        <v>27.773377451999998</v>
+        <v>28.14</v>
       </c>
       <c r="E9" s="123">
-        <v>9.9999999999999992E-2</v>
+        <v>0.108539910447761</v>
       </c>
       <c r="F9" s="123"/>
       <c r="J9" s="139"/>
@@ -17080,16 +17095,16 @@
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="139">
-        <v>4869</v>
+        <v>9230</v>
       </c>
       <c r="B10" s="139">
-        <v>4888.7705244999997</v>
+        <v>7631.8824262999997</v>
       </c>
       <c r="C10" s="143">
-        <v>14.7</v>
+        <v>12.8</v>
       </c>
       <c r="D10" s="124">
-        <v>14.698076453000001</v>
+        <v>13.44</v>
       </c>
       <c r="E10" s="123">
         <v>0</v>
@@ -17102,19 +17117,19 @@
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="139">
-        <v>26618</v>
+        <v>29638</v>
       </c>
       <c r="B11" s="139">
-        <v>25214.029043999999</v>
+        <v>31048.020892</v>
       </c>
       <c r="C11" s="143">
-        <v>49.15</v>
+        <v>50.15</v>
       </c>
       <c r="D11" s="124">
-        <v>46.944828637999997</v>
+        <v>51.047126204999998</v>
       </c>
       <c r="E11" s="123">
-        <v>5.3520420265566603E-2</v>
+        <v>6.1525936805124221E-2</v>
       </c>
       <c r="F11" s="123"/>
       <c r="J11" s="139"/>
@@ -17123,19 +17138,19 @@
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="139">
-        <v>33462</v>
+        <v>14399</v>
       </c>
       <c r="B12" s="139">
-        <v>30724.656765</v>
+        <v>10900.305451</v>
       </c>
       <c r="C12" s="143">
-        <v>55.63</v>
+        <v>59.14</v>
       </c>
       <c r="D12" s="124">
-        <v>52.848500000000001</v>
+        <v>61.892499823000001</v>
       </c>
       <c r="E12" s="123">
-        <v>1.3000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F12" s="123"/>
       <c r="J12" s="139"/>
@@ -17144,19 +17159,19 @@
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="139">
-        <v>28325</v>
+        <v>8027</v>
       </c>
       <c r="B13" s="139">
-        <v>28128.492212000001</v>
+        <v>8027</v>
       </c>
       <c r="C13" s="143">
-        <v>51.79</v>
+        <v>52.89</v>
       </c>
       <c r="D13" s="124">
-        <v>51.519802099000003</v>
+        <v>52.89</v>
       </c>
       <c r="E13" s="123">
-        <v>1.4999999999999999E-2</v>
+        <v>7.2411402985074605E-2</v>
       </c>
       <c r="F13" s="123"/>
       <c r="J13" s="139"/>
@@ -17165,16 +17180,16 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="139">
-        <v>-21948</v>
+        <v>9136</v>
       </c>
       <c r="B14" s="139">
-        <v>-20540.741579000001</v>
+        <v>10280.020892</v>
       </c>
       <c r="C14" s="143">
-        <v>53.72</v>
+        <v>52.92</v>
       </c>
       <c r="D14" s="124">
-        <v>51.675562094</v>
+        <v>55.566000000000003</v>
       </c>
       <c r="E14" s="123">
         <v>0.01</v>
@@ -17186,19 +17201,19 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="139">
-        <v>100588</v>
+        <v>48056</v>
       </c>
       <c r="B15" s="139">
-        <v>98068.278411000007</v>
+        <v>48056</v>
       </c>
       <c r="C15" s="143">
-        <v>53.72</v>
+        <v>52.92</v>
       </c>
       <c r="D15" s="124">
-        <v>52.705884994000002</v>
+        <v>52.92</v>
       </c>
       <c r="E15" s="123">
-        <v>1.3000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F15" s="123"/>
       <c r="J15" s="139"/>
@@ -17207,16 +17222,16 @@
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="139">
-        <v>35912</v>
+        <v>14426</v>
       </c>
       <c r="B16" s="139">
-        <v>37842.929820999998</v>
+        <v>13991.305451</v>
       </c>
       <c r="C16" s="143">
-        <v>7.73</v>
+        <v>8.02</v>
       </c>
       <c r="D16" s="124">
-        <v>7.8160022707000003</v>
+        <v>8.4209999999999994</v>
       </c>
       <c r="E16" s="123">
         <v>0</v>
@@ -17229,16 +17244,16 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="139">
-        <v>117320</v>
+        <v>52992</v>
       </c>
       <c r="B17" s="139">
-        <v>119078.49757000001</v>
+        <v>52992</v>
       </c>
       <c r="C17" s="143">
-        <v>66.41</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="D17" s="124">
-        <v>66.728431413999999</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="E17" s="123">
         <v>8.5000000000000006E-2</v>
@@ -17251,19 +17266,19 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="139">
-        <v>295</v>
+        <v>12235</v>
       </c>
       <c r="B18" s="139">
-        <v>295.31678174000001</v>
+        <v>11879</v>
       </c>
       <c r="C18" s="143">
-        <v>66.41</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="D18" s="124">
-        <v>66.459347006000002</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="E18" s="123">
-        <v>8.6599032258064507E-2</v>
+        <v>8.5157649253731343E-2</v>
       </c>
       <c r="F18" s="123"/>
       <c r="J18" s="139"/>
@@ -17295,19 +17310,19 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="139">
-        <v>116567</v>
+        <v>41113</v>
       </c>
       <c r="B20" s="139">
-        <v>118783.18078</v>
+        <v>41113</v>
       </c>
       <c r="C20" s="143">
-        <v>66.400000000000006</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="D20" s="124">
-        <v>66.729100407999994</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="E20" s="123">
-        <v>8.8198064516128993E-2</v>
+        <v>8.5315298507462695E-2</v>
       </c>
       <c r="F20" s="123"/>
       <c r="J20" s="139"/>
@@ -17323,13 +17338,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="143">
-        <v>66.400000000000006</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="D21" s="124">
-        <v>66.400000000000006</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="E21" s="123">
-        <v>8.8198064516128993E-2</v>
+        <v>8.5315298507462695E-2</v>
       </c>
       <c r="F21" s="123"/>
       <c r="J21" s="139"/>
@@ -17339,19 +17354,19 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="139">
-        <v>116567</v>
+        <v>41113</v>
       </c>
       <c r="B22" s="139">
-        <v>118783.18078</v>
+        <v>41113</v>
       </c>
       <c r="C22" s="143">
-        <v>66.400000000000006</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="D22" s="124">
-        <v>66.729100407999994</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="E22" s="123">
-        <v>8.8198064516128993E-2</v>
+        <v>8.5315298507462695E-2</v>
       </c>
       <c r="F22" s="123"/>
       <c r="J22" s="139"/>
@@ -17361,19 +17376,19 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="139">
-        <v>16139</v>
+        <v>40739</v>
       </c>
       <c r="B23" s="139">
-        <v>17017.180785</v>
+        <v>41113</v>
       </c>
       <c r="C23" s="143">
-        <v>66.400000000000006</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="D23" s="124">
-        <v>69.115797330000007</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="E23" s="123">
-        <v>8.8198064516128993E-2</v>
+        <v>8.5315298507462695E-2</v>
       </c>
       <c r="F23" s="123"/>
       <c r="J23" s="139"/>
@@ -17383,19 +17398,19 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="139">
-        <v>101766</v>
+        <v>0</v>
       </c>
       <c r="B24" s="139">
-        <v>101766</v>
+        <v>0</v>
       </c>
       <c r="C24" s="143">
-        <v>66.33</v>
+        <v>0</v>
       </c>
       <c r="D24" s="124">
-        <v>66.33</v>
+        <v>0</v>
       </c>
       <c r="E24" s="123">
-        <v>8.0100000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="123"/>
       <c r="J24" s="139"/>
@@ -17433,19 +17448,19 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="139">
-        <v>8464</v>
+        <v>0</v>
       </c>
       <c r="B26" s="139">
-        <v>8464</v>
+        <v>0</v>
       </c>
       <c r="C26" s="143">
-        <v>60.56</v>
+        <v>0</v>
       </c>
       <c r="D26" s="124">
-        <v>60.56</v>
+        <v>0</v>
       </c>
       <c r="E26" s="123">
-        <v>9.9299999999999996E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="F26" s="123"/>
       <c r="J26" s="139"/>
@@ -17458,19 +17473,19 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="139">
-        <v>28551</v>
+        <v>0</v>
       </c>
       <c r="B27" s="139">
-        <v>28551</v>
+        <v>0</v>
       </c>
       <c r="C27" s="143">
-        <v>58.92</v>
+        <v>0</v>
       </c>
       <c r="D27" s="124">
-        <v>58.92</v>
+        <v>0</v>
       </c>
       <c r="E27" s="123">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="F27" s="123"/>
       <c r="J27" s="139"/>
@@ -17483,19 +17498,19 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="139">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="B28" s="139">
-        <v>37015</v>
+        <v>0</v>
       </c>
       <c r="C28" s="143">
-        <v>58.92</v>
+        <v>0</v>
       </c>
       <c r="D28" s="124">
-        <v>59.295009049999997</v>
+        <v>0</v>
       </c>
       <c r="E28" s="123">
-        <v>8.0300000000000007E-3</v>
+        <v>6.6400000000000001E-3</v>
       </c>
       <c r="F28" s="123"/>
       <c r="J28" s="139"/>
@@ -17533,19 +17548,19 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="139">
-        <v>59464</v>
+        <v>0</v>
       </c>
       <c r="B30" s="139">
-        <v>59464</v>
+        <v>0</v>
       </c>
       <c r="C30" s="143">
-        <v>61.4</v>
+        <v>0</v>
       </c>
       <c r="D30" s="124">
-        <v>59.558</v>
+        <v>0</v>
       </c>
       <c r="E30" s="123">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="F30" s="123"/>
       <c r="J30" s="139"/>
@@ -17558,16 +17573,16 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="139">
-        <v>-32971</v>
+        <v>2915</v>
       </c>
       <c r="B31" s="139">
-        <v>-47324</v>
+        <v>3551</v>
       </c>
       <c r="C31" s="143">
-        <v>50</v>
+        <v>59.09</v>
       </c>
       <c r="D31" s="124">
-        <v>59.382801792000002</v>
+        <v>59.321140524</v>
       </c>
       <c r="E31" s="123">
         <v>0</v>
@@ -17583,16 +17598,16 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="139">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B32" s="139">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C32" s="143">
-        <v>0</v>
+        <v>57.81</v>
       </c>
       <c r="D32" s="124">
-        <v>0</v>
+        <v>57.81</v>
       </c>
       <c r="E32" s="123">
         <v>6.0000000000000001E-3</v>
@@ -17608,19 +17623,19 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="139">
-        <v>6944</v>
+        <v>2731</v>
       </c>
       <c r="B33" s="139">
-        <v>6944</v>
+        <v>2731</v>
       </c>
       <c r="C33" s="143">
-        <v>58.6</v>
+        <v>59.12</v>
       </c>
       <c r="D33" s="124">
-        <v>58.6</v>
+        <v>59.12</v>
       </c>
       <c r="E33" s="123">
-        <v>1.4E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F33" s="123"/>
       <c r="J33" s="139"/>
@@ -17633,16 +17648,16 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="139">
-        <v>8561</v>
+        <v>3348</v>
       </c>
       <c r="B34" s="139">
-        <v>8561</v>
+        <v>3348</v>
       </c>
       <c r="C34" s="143">
-        <v>58.36</v>
+        <v>57.97</v>
       </c>
       <c r="D34" s="124">
-        <v>58.36</v>
+        <v>57.97</v>
       </c>
       <c r="E34" s="123">
         <v>6.0000000000000001E-3</v>
@@ -17683,16 +17698,16 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="139">
-        <v>16139</v>
+        <v>-41440</v>
       </c>
       <c r="B36" s="139">
-        <v>8561</v>
+        <v>-40267</v>
       </c>
       <c r="C36" s="143">
-        <v>58.36</v>
+        <v>57.97</v>
       </c>
       <c r="D36" s="124">
-        <v>58.36</v>
+        <v>58.869010355999997</v>
       </c>
       <c r="E36" s="123">
         <v>6.0000000000000001E-3</v>
@@ -17708,19 +17723,19 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="139">
-        <v>0</v>
+        <v>43615</v>
       </c>
       <c r="B37" s="139">
-        <v>0</v>
+        <v>43615</v>
       </c>
       <c r="C37" s="143">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="D37" s="124">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="E37" s="123">
-        <v>0</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="F37" s="123"/>
       <c r="J37" s="139"/>
@@ -18083,19 +18098,19 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="139">
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="B52" s="139">
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="C52" s="143">
-        <v>54.36</v>
+        <v>55.33</v>
       </c>
       <c r="D52" s="124">
-        <v>54.36</v>
+        <v>55.33</v>
       </c>
       <c r="E52" s="123">
-        <v>2.1906666666666668E-2</v>
+        <v>2.1033333333333334E-2</v>
       </c>
       <c r="F52" s="123"/>
       <c r="J52" s="139"/>
@@ -18108,19 +18123,19 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="139">
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="B53" s="139">
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="C53" s="143">
-        <v>54.36</v>
+        <v>55.33</v>
       </c>
       <c r="D53" s="124">
-        <v>54.36</v>
+        <v>55.33</v>
       </c>
       <c r="E53" s="123">
-        <v>2.1906666666666668E-2</v>
+        <v>2.1033333333333334E-2</v>
       </c>
       <c r="F53" s="123"/>
       <c r="J53" s="139"/>
@@ -18133,19 +18148,19 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="139">
-        <v>5284</v>
+        <v>829</v>
       </c>
       <c r="B54" s="139">
-        <v>5284</v>
+        <v>829</v>
       </c>
       <c r="C54" s="143">
-        <v>62.5</v>
+        <v>60.66</v>
       </c>
       <c r="D54" s="124">
-        <v>62.5</v>
+        <v>60.66</v>
       </c>
       <c r="E54" s="123">
-        <v>8.0300000000000007E-3</v>
+        <v>6.6400000000000001E-3</v>
       </c>
       <c r="F54" s="123"/>
       <c r="J54" s="139"/>
@@ -18158,19 +18173,19 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="139">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B55" s="139">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C55" s="143">
-        <v>66.400000000000006</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="D55" s="124">
-        <v>66.400000000000006</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="E55" s="123">
-        <v>8.8198064516128993E-2</v>
+        <v>8.5315298507462695E-2</v>
       </c>
       <c r="F55" s="123"/>
       <c r="J55" s="139"/>
@@ -18248,14 +18263,14 @@
       <c r="D60" s="123"/>
       <c r="E60" s="123"/>
       <c r="F60" s="123"/>
-      <c r="J60" s="191" t="s">
+      <c r="J60" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="K60" s="191"/>
-      <c r="L60" s="191"/>
+      <c r="K60" s="190"/>
+      <c r="L60" s="190"/>
       <c r="M60" s="127"/>
-      <c r="N60" s="192"/>
-      <c r="O60" s="192"/>
+      <c r="N60" s="191"/>
+      <c r="O60" s="191"/>
       <c r="R60" s="103"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="3"/>
@@ -18300,15 +18315,15 @@
       </c>
       <c r="J62" s="139">
         <f>B1</f>
-        <v>109185.62587</v>
+        <v>0</v>
       </c>
       <c r="K62" s="143">
         <f>IF(D1&gt;1,D1/100,D1)</f>
-        <v>0.25541999140999999</v>
+        <v>0</v>
       </c>
       <c r="L62" s="142">
         <f>+J62*K62</f>
-        <v>27888.191621810874</v>
+        <v>0</v>
       </c>
       <c r="M62" s="127"/>
       <c r="N62" s="4"/>
@@ -18370,15 +18385,15 @@
       </c>
       <c r="J64" s="139">
         <f t="shared" si="0"/>
-        <v>52102.316567000002</v>
+        <v>0</v>
       </c>
       <c r="K64" s="143">
         <f t="shared" si="1"/>
-        <v>0.16801210529999999</v>
+        <v>0</v>
       </c>
       <c r="L64" s="142">
         <f t="shared" si="2"/>
-        <v>8753.8198974287388</v>
+        <v>0</v>
       </c>
       <c r="M64" s="127"/>
       <c r="N64" s="4"/>
@@ -18407,15 +18422,15 @@
       </c>
       <c r="J65" s="139">
         <f t="shared" si="0"/>
-        <v>57083.309306000003</v>
+        <v>0</v>
       </c>
       <c r="K65" s="143">
         <f t="shared" si="1"/>
-        <v>0.33520081367000004</v>
+        <v>0</v>
       </c>
       <c r="L65" s="142">
         <f t="shared" si="2"/>
-        <v>19134.371726347486</v>
+        <v>0</v>
       </c>
       <c r="M65" s="127"/>
       <c r="N65" s="4"/>
@@ -18444,15 +18459,15 @@
       </c>
       <c r="J66" s="139">
         <f t="shared" si="0"/>
-        <v>61069</v>
+        <v>21383</v>
       </c>
       <c r="K66" s="143">
         <f t="shared" si="1"/>
-        <v>0.49819999999999998</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="L66" s="142">
         <f t="shared" si="2"/>
-        <v>30424.575799999999</v>
+        <v>10116.2973</v>
       </c>
       <c r="M66" s="127"/>
       <c r="N66" s="4"/>
@@ -18481,15 +18496,15 @@
       </c>
       <c r="J67" s="139">
         <f t="shared" si="0"/>
-        <v>37526.428143999998</v>
+        <v>-38578.344008</v>
       </c>
       <c r="K67" s="143">
         <f t="shared" si="1"/>
-        <v>0.40684655739999998</v>
+        <v>0.42579</v>
       </c>
       <c r="L67" s="142">
         <f t="shared" si="2"/>
-        <v>15267.49810190487</v>
+        <v>-16426.273095166322</v>
       </c>
       <c r="M67" s="127"/>
       <c r="N67" s="4"/>
@@ -18518,15 +18533,15 @@
       </c>
       <c r="J68" s="139">
         <f t="shared" si="0"/>
-        <v>80625.881162000005</v>
+        <v>59961.344008</v>
       </c>
       <c r="K68" s="143">
         <f t="shared" si="1"/>
-        <v>0.42531565469999999</v>
+        <v>0.44266136516000004</v>
       </c>
       <c r="L68" s="142">
         <f t="shared" si="2"/>
-        <v>34291.44943218043</v>
+        <v>26542.570395409668</v>
       </c>
       <c r="M68" s="127"/>
       <c r="N68" s="4"/>
@@ -18592,15 +18607,15 @@
       </c>
       <c r="J70" s="139">
         <f t="shared" si="0"/>
-        <v>19798.424827999999</v>
+        <v>10381.135238000001</v>
       </c>
       <c r="K70" s="143">
         <f t="shared" si="1"/>
-        <v>0.27773377451999998</v>
+        <v>0.28139999999999998</v>
       </c>
       <c r="L70" s="142">
         <f t="shared" si="2"/>
-        <v>5498.6912570309214</v>
+        <v>2921.2514559731999</v>
       </c>
       <c r="M70" s="127"/>
       <c r="N70" s="4"/>
@@ -18629,15 +18644,15 @@
       </c>
       <c r="J71" s="139">
         <f t="shared" si="0"/>
-        <v>4888.7705244999997</v>
+        <v>7631.8824262999997</v>
       </c>
       <c r="K71" s="143">
         <f t="shared" si="1"/>
-        <v>0.14698076453</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="L71" s="142">
         <f t="shared" si="2"/>
-        <v>718.55522930273912</v>
+        <v>1025.7249980947199</v>
       </c>
       <c r="M71" s="127"/>
       <c r="N71" s="4"/>
@@ -18666,15 +18681,15 @@
       </c>
       <c r="J72" s="139">
         <f t="shared" si="0"/>
-        <v>25214.029043999999</v>
+        <v>31048.020892</v>
       </c>
       <c r="K72" s="143">
         <f t="shared" si="1"/>
-        <v>0.46944828637999997</v>
+        <v>0.51047126204999993</v>
       </c>
       <c r="L72" s="142">
         <f t="shared" si="2"/>
-        <v>11836.682727441348</v>
+        <v>15849.122408894005</v>
       </c>
       <c r="M72" s="127"/>
       <c r="N72" s="4"/>
@@ -18703,15 +18718,15 @@
       </c>
       <c r="J73" s="139">
         <f t="shared" si="0"/>
-        <v>30724.656765</v>
+        <v>10900.305451</v>
       </c>
       <c r="K73" s="143">
         <f t="shared" si="1"/>
-        <v>0.52848499999999998</v>
+        <v>0.61892499823000002</v>
       </c>
       <c r="L73" s="142">
         <f t="shared" si="2"/>
-        <v>16237.520230451024</v>
+        <v>6746.4715319666348</v>
       </c>
       <c r="M73" s="127"/>
       <c r="N73" s="4"/>
@@ -18740,15 +18755,15 @@
       </c>
       <c r="J74" s="139">
         <f t="shared" si="0"/>
-        <v>28128.492212000001</v>
+        <v>8027</v>
       </c>
       <c r="K74" s="143">
         <f t="shared" si="1"/>
-        <v>0.51519802099000001</v>
+        <v>0.52890000000000004</v>
       </c>
       <c r="L74" s="142">
         <f t="shared" si="2"/>
-        <v>14491.743521055028</v>
+        <v>4245.4803000000002</v>
       </c>
       <c r="M74" s="127"/>
       <c r="N74" s="4"/>
@@ -18777,15 +18792,15 @@
       </c>
       <c r="J75" s="139">
         <f t="shared" si="0"/>
-        <v>-20540.741579000001</v>
+        <v>10280.020892</v>
       </c>
       <c r="K75" s="143">
         <f t="shared" si="1"/>
-        <v>0.51675562094000005</v>
+        <v>0.55566000000000004</v>
       </c>
       <c r="L75" s="142">
         <f t="shared" si="2"/>
-        <v>-10614.543669224222</v>
+        <v>5712.1964088487211</v>
       </c>
       <c r="M75" s="127"/>
       <c r="N75" s="4"/>
@@ -18814,15 +18829,15 @@
       </c>
       <c r="J76" s="139">
         <f t="shared" si="0"/>
-        <v>98068.278411000007</v>
+        <v>48056</v>
       </c>
       <c r="K76" s="143">
         <f t="shared" si="1"/>
-        <v>0.52705884993999996</v>
+        <v>0.5292</v>
       </c>
       <c r="L76" s="142">
         <f t="shared" si="2"/>
-        <v>51687.754034897393</v>
+        <v>25431.235199999999</v>
       </c>
       <c r="M76" s="128"/>
       <c r="N76" s="4"/>
@@ -18851,15 +18866,15 @@
       </c>
       <c r="J77" s="139">
         <f t="shared" si="0"/>
-        <v>37842.929820999998</v>
+        <v>13991.305451</v>
       </c>
       <c r="K77" s="143">
         <f t="shared" si="1"/>
-        <v>7.816002270700001E-2</v>
+        <v>8.4209999999999993E-2</v>
       </c>
       <c r="L77" s="142">
         <f t="shared" si="2"/>
-        <v>2957.8042541087675</v>
+        <v>1178.2078320287098</v>
       </c>
       <c r="M77" s="127"/>
       <c r="N77" s="4"/>
@@ -18888,15 +18903,15 @@
       </c>
       <c r="J78" s="139">
         <f t="shared" si="0"/>
-        <v>119078.49757000001</v>
+        <v>52992</v>
       </c>
       <c r="K78" s="143">
         <f t="shared" si="1"/>
-        <v>0.66728431414</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="L78" s="142">
         <f t="shared" si="2"/>
-        <v>79459.213579819116</v>
+        <v>35244.979200000002</v>
       </c>
       <c r="M78" s="127"/>
       <c r="N78" s="4"/>
@@ -18925,15 +18940,15 @@
       </c>
       <c r="J79" s="139">
         <f t="shared" si="0"/>
-        <v>295.31678174000001</v>
+        <v>11879</v>
       </c>
       <c r="K79" s="143">
         <f t="shared" si="1"/>
-        <v>0.66459347006000002</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="L79" s="142">
         <f t="shared" si="2"/>
-        <v>196.26560474353826</v>
+        <v>7900.7229000000007</v>
       </c>
       <c r="M79" s="127"/>
       <c r="N79" s="4"/>
@@ -18992,15 +19007,15 @@
       </c>
       <c r="J81" s="139">
         <f t="shared" si="0"/>
-        <v>118783.18078</v>
+        <v>41113</v>
       </c>
       <c r="K81" s="143">
         <f t="shared" si="1"/>
-        <v>0.66729100407999997</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="L81" s="142">
         <f t="shared" si="2"/>
-        <v>79262.947970502355</v>
+        <v>27344.256300000001</v>
       </c>
       <c r="M81" s="127"/>
       <c r="N81" s="4"/>
@@ -19028,7 +19043,7 @@
       </c>
       <c r="K82" s="143">
         <f t="shared" si="1"/>
-        <v>0.66400000000000003</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="L82" s="142">
         <f t="shared" si="2"/>
@@ -19056,15 +19071,15 @@
       </c>
       <c r="J83" s="139">
         <f t="shared" si="0"/>
-        <v>118783.18078</v>
+        <v>41113</v>
       </c>
       <c r="K83" s="143">
         <f t="shared" si="1"/>
-        <v>0.66729100407999997</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="L83" s="142">
         <f t="shared" si="2"/>
-        <v>79262.947970502355</v>
+        <v>27344.256300000001</v>
       </c>
       <c r="M83" s="127"/>
       <c r="N83" s="4"/>
@@ -19088,15 +19103,15 @@
       </c>
       <c r="J84" s="139">
         <f t="shared" si="0"/>
-        <v>17017.180785</v>
+        <v>41113</v>
       </c>
       <c r="K84" s="143">
         <f t="shared" si="1"/>
-        <v>0.69115797330000006</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="L84" s="142">
         <f t="shared" si="2"/>
-        <v>11761.560182640304</v>
+        <v>27344.256300000001</v>
       </c>
       <c r="M84" s="127"/>
       <c r="N84" s="4"/>
@@ -19120,15 +19135,15 @@
       </c>
       <c r="J85" s="139">
         <f t="shared" si="0"/>
-        <v>101766</v>
+        <v>0</v>
       </c>
       <c r="K85" s="143">
         <f t="shared" si="1"/>
-        <v>0.6633</v>
+        <v>0</v>
       </c>
       <c r="L85" s="142">
         <f t="shared" si="2"/>
-        <v>67501.387799999997</v>
+        <v>0</v>
       </c>
       <c r="M85" s="127"/>
       <c r="N85" s="4"/>
@@ -19184,15 +19199,15 @@
       </c>
       <c r="J87" s="139">
         <f t="shared" si="0"/>
-        <v>8464</v>
+        <v>0</v>
       </c>
       <c r="K87" s="143">
         <f t="shared" si="1"/>
-        <v>0.60560000000000003</v>
+        <v>0</v>
       </c>
       <c r="L87" s="142">
         <f t="shared" si="2"/>
-        <v>5125.7984000000006</v>
+        <v>0</v>
       </c>
       <c r="M87" s="129"/>
       <c r="N87" s="4"/>
@@ -19216,15 +19231,15 @@
       </c>
       <c r="J88" s="139">
         <f t="shared" si="0"/>
-        <v>28551</v>
+        <v>0</v>
       </c>
       <c r="K88" s="143">
         <f t="shared" si="1"/>
-        <v>0.58920000000000006</v>
+        <v>0</v>
       </c>
       <c r="L88" s="142">
         <f t="shared" si="2"/>
-        <v>16822.249200000002</v>
+        <v>0</v>
       </c>
       <c r="M88" s="127"/>
       <c r="N88" s="4"/>
@@ -19248,15 +19263,15 @@
       </c>
       <c r="J89" s="139">
         <f t="shared" si="0"/>
-        <v>37015</v>
+        <v>0</v>
       </c>
       <c r="K89" s="143">
         <f t="shared" si="1"/>
-        <v>0.59295009050000003</v>
+        <v>0</v>
       </c>
       <c r="L89" s="142">
         <f t="shared" si="2"/>
-        <v>21948.047599857502</v>
+        <v>0</v>
       </c>
       <c r="M89" s="127"/>
       <c r="N89" s="4"/>
@@ -19312,15 +19327,15 @@
       </c>
       <c r="J91" s="139">
         <f t="shared" si="0"/>
-        <v>59464</v>
+        <v>0</v>
       </c>
       <c r="K91" s="143">
         <f t="shared" si="1"/>
-        <v>0.59558</v>
+        <v>0</v>
       </c>
       <c r="L91" s="142">
         <f t="shared" si="2"/>
-        <v>35415.56912</v>
+        <v>0</v>
       </c>
       <c r="M91" s="127"/>
       <c r="N91" s="4"/>
@@ -19344,15 +19359,15 @@
       </c>
       <c r="J92" s="139">
         <f t="shared" si="0"/>
-        <v>-47324</v>
+        <v>3551</v>
       </c>
       <c r="K92" s="143">
         <f t="shared" si="1"/>
-        <v>0.59382801792000006</v>
+        <v>0.59321140524000004</v>
       </c>
       <c r="L92" s="142">
         <f t="shared" si="2"/>
-        <v>-28102.317120046082</v>
+        <v>2106.49370000724</v>
       </c>
       <c r="M92" s="127"/>
       <c r="N92" s="4"/>
@@ -19376,15 +19391,15 @@
       </c>
       <c r="J93" s="139">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K93" s="143">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.57810000000000006</v>
       </c>
       <c r="L93" s="142">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32.951700000000002</v>
       </c>
       <c r="M93" s="127"/>
       <c r="N93" s="4"/>
@@ -19408,15 +19423,15 @@
       </c>
       <c r="J94" s="139">
         <f t="shared" si="0"/>
-        <v>6944</v>
+        <v>2731</v>
       </c>
       <c r="K94" s="143">
         <f t="shared" si="1"/>
-        <v>0.58599999999999997</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="L94" s="142">
         <f t="shared" si="2"/>
-        <v>4069.1839999999997</v>
+        <v>1614.5672</v>
       </c>
       <c r="M94" s="127"/>
       <c r="N94" s="4"/>
@@ -19440,15 +19455,15 @@
       </c>
       <c r="J95" s="139">
         <f t="shared" si="0"/>
-        <v>8561</v>
+        <v>3348</v>
       </c>
       <c r="K95" s="143">
         <f t="shared" si="1"/>
-        <v>0.58360000000000001</v>
+        <v>0.57969999999999999</v>
       </c>
       <c r="L95" s="142">
         <f t="shared" si="2"/>
-        <v>4996.1995999999999</v>
+        <v>1940.8355999999999</v>
       </c>
       <c r="M95" s="127"/>
       <c r="N95" s="4"/>
@@ -19504,15 +19519,15 @@
       </c>
       <c r="J97" s="139">
         <f t="shared" si="0"/>
-        <v>8561</v>
+        <v>-40267</v>
       </c>
       <c r="K97" s="143">
         <f t="shared" si="1"/>
-        <v>0.58360000000000001</v>
+        <v>0.58869010355999996</v>
       </c>
       <c r="L97" s="142">
         <f t="shared" si="2"/>
-        <v>4996.1995999999999</v>
+        <v>-23704.784400050517</v>
       </c>
       <c r="M97" s="127"/>
       <c r="N97" s="4"/>
@@ -19536,15 +19551,15 @@
       </c>
       <c r="J98" s="139">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43615</v>
       </c>
       <c r="K98" s="143">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="L98" s="142">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25645.62</v>
       </c>
       <c r="M98" s="127"/>
       <c r="N98" s="4"/>
@@ -20016,15 +20031,15 @@
       </c>
       <c r="J113" s="139">
         <f t="shared" si="0"/>
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="K113" s="143">
         <f t="shared" si="1"/>
-        <v>0.54359999999999997</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="L113" s="142">
         <f t="shared" si="2"/>
-        <v>43728.271199999996</v>
+        <v>19539.789499999999</v>
       </c>
       <c r="M113" s="127"/>
       <c r="N113" s="4"/>
@@ -20048,15 +20063,15 @@
       </c>
       <c r="J114" s="139">
         <f t="shared" si="0"/>
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="K114" s="143">
         <f t="shared" si="1"/>
-        <v>0.54359999999999997</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="L114" s="142">
         <f t="shared" si="2"/>
-        <v>43728.271199999996</v>
+        <v>19539.789499999999</v>
       </c>
       <c r="M114" s="127"/>
       <c r="N114" s="4"/>
@@ -20080,15 +20095,15 @@
       </c>
       <c r="J115" s="139">
         <f t="shared" si="0"/>
-        <v>5284</v>
+        <v>829</v>
       </c>
       <c r="K115" s="143">
         <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.60659999999999992</v>
       </c>
       <c r="L115" s="142">
         <f t="shared" si="2"/>
-        <v>3302.5</v>
+        <v>502.87139999999994</v>
       </c>
       <c r="M115" s="127"/>
       <c r="N115" s="4"/>
@@ -20112,15 +20127,15 @@
       </c>
       <c r="J116" s="139">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="K116" s="143">
         <f t="shared" si="1"/>
-        <v>0.66400000000000003</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="L116" s="142">
         <f t="shared" si="2"/>
-        <v>58.432000000000002</v>
+        <v>43.896599999999999</v>
       </c>
       <c r="M116" s="127"/>
       <c r="N116" s="4"/>
@@ -20152,8 +20167,8 @@
       <c r="D118" s="174"/>
       <c r="E118" s="174"/>
       <c r="F118" s="174"/>
-      <c r="G118" s="193"/>
-      <c r="H118" s="194"/>
+      <c r="G118" s="192"/>
+      <c r="H118" s="193"/>
       <c r="I118" s="139"/>
       <c r="J118" s="144"/>
       <c r="K118" s="144"/>
@@ -20757,7 +20772,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20773,7 +20788,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="165">
-        <v>74334.13764999999</v>
+        <v>28354.753556249998</v>
       </c>
       <c r="C1" s="170">
         <v>0.5</v>
@@ -20787,7 +20802,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="165">
-        <v>86387.124166666676</v>
+        <v>95598.636529450974</v>
       </c>
       <c r="C2" s="170">
         <v>0.5</v>
@@ -20801,13 +20816,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="165">
-        <v>826.28166666666766</v>
+        <v>14200.716666666667</v>
       </c>
       <c r="C3" s="170">
         <v>0.5</v>
       </c>
       <c r="D3" s="171">
-        <v>8.7499999999999994E-2</v>
+        <v>8.5157649253731343E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -20826,44 +20841,44 @@
     </row>
     <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="164" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="B5" s="165">
-        <v>121426.04949999998</v>
+        <v>151805.69002220075</v>
       </c>
       <c r="C5" s="170">
         <v>0.5</v>
       </c>
       <c r="D5" s="171">
-        <v>8.8999999999999996E-2</v>
+        <v>8.5315298507462695E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="164" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B6" s="165">
-        <v>41594.870640000001</v>
+        <v>44509.82</v>
       </c>
       <c r="C6" s="170">
         <v>0.5</v>
       </c>
       <c r="D6" s="171">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="164" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="B7" s="166">
-        <v>67903.538449999993</v>
+        <v>26055.722000000002</v>
       </c>
       <c r="C7" s="170">
         <v>0.5</v>
       </c>
       <c r="D7" s="170">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -20871,7 +20886,7 @@
         <v>149</v>
       </c>
       <c r="B8" s="166">
-        <v>116566.58303612904</v>
+        <v>41113.247962686568</v>
       </c>
       <c r="C8" s="170">
         <v>0.68412600000000001</v>
@@ -20882,10 +20897,10 @@
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="164" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="B9" s="165">
-        <v>117320.38500000001</v>
+        <v>52992.224999999999</v>
       </c>
       <c r="C9" s="172">
         <v>0.68410599999999999</v>
@@ -20899,7 +20914,7 @@
         <v>150</v>
       </c>
       <c r="B10" s="165">
-        <v>8463.7718062000004</v>
+        <v>56.634775999999995</v>
       </c>
       <c r="C10" s="172">
         <v>0.62109999999999999</v>
@@ -20913,7 +20928,7 @@
         <v>151</v>
       </c>
       <c r="B11" s="165">
-        <v>6943.5007400000004</v>
+        <v>2731.4239299999999</v>
       </c>
       <c r="C11" s="172">
         <v>0.61180000000000001</v>
@@ -20941,7 +20956,7 @@
         <v>122</v>
       </c>
       <c r="B13" s="166">
-        <v>8560.9939799999975</v>
+        <v>3347.7224200000001</v>
       </c>
       <c r="C13" s="170">
         <v>0.61070000000000002</v>
@@ -20966,7 +20981,7 @@
     </row>
     <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="164" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B15" s="166">
         <v>152453.07</v>
@@ -20996,49 +21011,71 @@
       <c r="A17" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="166"/>
+      <c r="B17" s="167">
+        <v>0</v>
+      </c>
+      <c r="C17" s="158">
+        <v>0</v>
+      </c>
+      <c r="D17" s="166">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="159" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B18" s="168">
         <v>0.01</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="161"/>
+      <c r="C18" s="160">
+        <v>0</v>
+      </c>
+      <c r="D18" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="159" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="B19" s="168">
         <v>0</v>
       </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
+      <c r="C19" s="160">
+        <v>0</v>
+      </c>
+      <c r="D19" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="159" t="s">
         <v>117</v>
       </c>
       <c r="B20" s="168">
-        <v>9.8680274571524181E-3</v>
-      </c>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
+        <v>5.9061531913753894E-3</v>
+      </c>
+      <c r="C20" s="160">
+        <v>0</v>
+      </c>
+      <c r="D20" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="159" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="168">
-        <v>2.1906666666666668E-2</v>
-      </c>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
+        <v>2.1033333333333334E-2</v>
+      </c>
+      <c r="C21" s="160">
+        <v>0</v>
+      </c>
+      <c r="D21" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="159" t="s">
@@ -21047,38 +21084,54 @@
       <c r="B22" s="168">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C22" s="160"/>
-      <c r="D22" s="161"/>
+      <c r="C22" s="160">
+        <v>0</v>
+      </c>
+      <c r="D22" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="159" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="168">
-        <v>8.0100000000000005E-2</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="160">
+        <v>0</v>
+      </c>
+      <c r="D23" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="159" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B24" s="168">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="160">
+        <v>0</v>
+      </c>
+      <c r="D24" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="159" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="168">
-        <v>0</v>
-      </c>
-      <c r="C25" s="160"/>
-      <c r="D25" s="161"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="C25" s="160">
+        <v>0</v>
+      </c>
+      <c r="D25" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="159" t="s">
@@ -21087,28 +21140,40 @@
       <c r="B26" s="168">
         <v>0</v>
       </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="161"/>
+      <c r="C26" s="160">
+        <v>0</v>
+      </c>
+      <c r="D26" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
         <v>136</v>
       </c>
       <c r="B27" s="168">
-        <v>8.8198064516128993E-2</v>
-      </c>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
+        <v>8.5315298507462695E-2</v>
+      </c>
+      <c r="C27" s="160">
+        <v>0</v>
+      </c>
+      <c r="D27" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="159" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="B28" s="168">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C28" s="160"/>
-      <c r="D28" s="161"/>
+      <c r="C28" s="160">
+        <v>0</v>
+      </c>
+      <c r="D28" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="159" t="s">
@@ -21117,8 +21182,12 @@
       <c r="B29" s="168">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="161"/>
+      <c r="C29" s="160">
+        <v>0</v>
+      </c>
+      <c r="D29" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="159" t="s">
@@ -21127,28 +21196,40 @@
       <c r="B30" s="168">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
+      <c r="C30" s="160">
+        <v>0</v>
+      </c>
+      <c r="D30" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="159" t="s">
         <v>121</v>
       </c>
       <c r="B31" s="168">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C31" s="160"/>
-      <c r="D31" s="161"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C31" s="160">
+        <v>0</v>
+      </c>
+      <c r="D31" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="168">
-        <v>0</v>
-      </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="161"/>
+      <c r="B32" s="284">
+        <v>0</v>
+      </c>
+      <c r="C32" s="160">
+        <v>0</v>
+      </c>
+      <c r="D32" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="162" t="s">
@@ -21157,8 +21238,12 @@
       <c r="B33" s="168">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="161"/>
+      <c r="C33" s="163">
+        <v>0</v>
+      </c>
+      <c r="D33" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="162" t="s">
@@ -21167,8 +21252,12 @@
       <c r="B34" s="168">
         <v>0</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="161"/>
+      <c r="C34" s="163">
+        <v>0</v>
+      </c>
+      <c r="D34" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="162" t="s">
@@ -21177,18 +21266,26 @@
       <c r="B35" s="168">
         <v>0.01</v>
       </c>
-      <c r="C35" s="163"/>
-      <c r="D35" s="161"/>
+      <c r="C35" s="163">
+        <v>0</v>
+      </c>
+      <c r="D35" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="162" t="s">
         <v>130</v>
       </c>
       <c r="B36" s="168">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="161"/>
+        <v>0.108539910447761</v>
+      </c>
+      <c r="C36" s="163">
+        <v>0</v>
+      </c>
+      <c r="D36" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="169" t="s">
@@ -21197,8 +21294,12 @@
       <c r="B37" s="161">
         <v>0</v>
       </c>
-      <c r="C37" s="170"/>
-      <c r="D37" s="161"/>
+      <c r="C37" s="170">
+        <v>0</v>
+      </c>
+      <c r="D37" s="161">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="169" t="s">
@@ -21207,8 +21308,12 @@
       <c r="B38" s="161">
         <v>0</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="161"/>
+      <c r="C38" s="170">
+        <v>0</v>
+      </c>
+      <c r="D38" s="161">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21232,20 +21337,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="194" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="F2" s="195" t="s">
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="F2" s="194" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="J2" s="195" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="197"/>
+      <c r="K2" s="196"/>
       <c r="L2" s="113"/>
       <c r="M2" s="114" t="s">
         <v>145</v>
@@ -21289,39 +21394,39 @@
       </c>
       <c r="C4" s="111">
         <f>Utilidad!A1</f>
-        <v>109199</v>
+        <v>0</v>
       </c>
       <c r="D4" s="112">
         <f>IF(Utilidad!C1&gt;1,Utilidad!C1/100,Utilidad!C1)</f>
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="F4" s="110" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="111">
         <f>Utilidad!B1</f>
-        <v>109185.62587</v>
+        <v>0</v>
       </c>
       <c r="H4" s="112">
         <f>IF(Utilidad!D1&gt;1,Utilidad!D1/100,Utilidad!D1)</f>
-        <v>0.25541999140999999</v>
+        <v>0</v>
       </c>
       <c r="J4" s="119">
         <f>+IF(C4&lt;&gt;0,(G4-C4)/C4,ABS(G4-C4))</f>
-        <v>-1.2247483951315042E-4</v>
+        <v>0</v>
       </c>
       <c r="K4" s="119">
         <f>+IF(D4&lt;&gt;0,(H4-D4)/D4,0)</f>
-        <v>1.6470251372548504E-3</v>
+        <v>0</v>
       </c>
       <c r="L4" s="120"/>
       <c r="M4" s="121">
         <f>+IF(J4&lt;&gt;"",ABS(J4),0)</f>
-        <v>1.2247483951315042E-4</v>
+        <v>0</v>
       </c>
       <c r="N4" s="121">
         <f>+IF(J4&lt;&gt;"",ABS(K4),0)</f>
-        <v>1.6470251372548504E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21371,38 +21476,38 @@
       </c>
       <c r="C6" s="111">
         <f>Utilidad!A3</f>
-        <v>52085</v>
+        <v>0</v>
       </c>
       <c r="D6" s="112">
         <f>IF(Utilidad!C3&gt;1,Utilidad!C3/100,Utilidad!C3)</f>
-        <v>0.1681</v>
+        <v>0</v>
       </c>
       <c r="F6" s="110" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="111">
         <f>Utilidad!B3</f>
-        <v>52102.316567000002</v>
+        <v>0</v>
       </c>
       <c r="H6" s="112">
         <f>IF(Utilidad!D3&gt;1,Utilidad!D3/100,Utilidad!D3)</f>
-        <v>0.16801210529999999</v>
+        <v>0</v>
       </c>
       <c r="J6" s="119">
         <f t="shared" ref="J6:J56" si="2">+IF(C6&lt;&gt;0,(G6-C6)/C6,ABS(G6-C6))</f>
-        <v>3.3246744744171392E-4</v>
+        <v>0</v>
       </c>
       <c r="K6" s="119">
         <f t="shared" si="0"/>
-        <v>-5.2287150505655816E-4</v>
+        <v>0</v>
       </c>
       <c r="M6" s="121">
         <f t="shared" ref="M6:M56" si="3">+IF(J6&lt;&gt;"",ABS(J6),0)</f>
-        <v>3.3246744744171392E-4</v>
+        <v>0</v>
       </c>
       <c r="N6" s="121">
         <f t="shared" si="1"/>
-        <v>5.2287150505655816E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21411,38 +21516,38 @@
       </c>
       <c r="C7" s="111">
         <f>Utilidad!A4</f>
-        <v>57114</v>
+        <v>0</v>
       </c>
       <c r="D7" s="112">
         <f>IF(Utilidad!C4&gt;1,Utilidad!C4/100,Utilidad!C4)</f>
-        <v>0.33429999999999999</v>
+        <v>0</v>
       </c>
       <c r="F7" s="110" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="111">
         <f>Utilidad!B4</f>
-        <v>57083.309306000003</v>
+        <v>0</v>
       </c>
       <c r="H7" s="112">
         <f>IF(Utilidad!D4&gt;1,Utilidad!D4/100,Utilidad!D4)</f>
-        <v>0.33520081367000004</v>
+        <v>0</v>
       </c>
       <c r="J7" s="119">
         <f t="shared" si="2"/>
-        <v>-5.3735851104802967E-4</v>
+        <v>0</v>
       </c>
       <c r="K7" s="119">
         <f t="shared" si="0"/>
-        <v>2.6946265928808129E-3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="121">
         <f t="shared" si="3"/>
-        <v>5.3735851104802967E-4</v>
+        <v>0</v>
       </c>
       <c r="N7" s="121">
         <f t="shared" si="1"/>
-        <v>2.6946265928808129E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21451,22 +21556,22 @@
       </c>
       <c r="C8" s="111">
         <f>Utilidad!A5</f>
-        <v>61069</v>
+        <v>21383</v>
       </c>
       <c r="D8" s="112">
         <f>IF(Utilidad!C5&gt;1,Utilidad!C5/100,Utilidad!C5)</f>
-        <v>0.49819999999999998</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="F8" s="110" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="111">
         <f>Utilidad!B5</f>
-        <v>61069</v>
+        <v>21383</v>
       </c>
       <c r="H8" s="112">
         <f>IF(Utilidad!D5&gt;1,Utilidad!D5/100,Utilidad!D5)</f>
-        <v>0.49819999999999998</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="J8" s="119">
         <f t="shared" si="2"/>
@@ -21491,38 +21596,38 @@
       </c>
       <c r="C9" s="111">
         <f>Utilidad!A6</f>
-        <v>37539</v>
+        <v>-45236</v>
       </c>
       <c r="D9" s="112">
         <f>IF(Utilidad!C6&gt;1,Utilidad!C6/100,Utilidad!C6)</f>
-        <v>0.40810000000000002</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="111">
         <f>Utilidad!B6</f>
-        <v>37526.428143999998</v>
+        <v>-38578.344008</v>
       </c>
       <c r="H9" s="112">
         <f>IF(Utilidad!D6&gt;1,Utilidad!D6/100,Utilidad!D6)</f>
-        <v>0.40684655739999998</v>
+        <v>0.42579</v>
       </c>
       <c r="J9" s="119">
         <f t="shared" si="2"/>
-        <v>-3.3490119608946159E-4</v>
+        <v>-0.14717605429304095</v>
       </c>
       <c r="K9" s="119">
         <f t="shared" si="0"/>
-        <v>-3.0714104386180912E-3</v>
+        <v>-0.10000000000000003</v>
       </c>
       <c r="M9" s="121">
         <f t="shared" si="3"/>
-        <v>3.3490119608946159E-4</v>
+        <v>0.14717605429304095</v>
       </c>
       <c r="N9" s="121">
         <f t="shared" si="1"/>
-        <v>3.0714104386180912E-3</v>
+        <v>0.10000000000000003</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21531,38 +21636,38 @@
       </c>
       <c r="C10" s="111">
         <f>Utilidad!A7</f>
-        <v>86600</v>
+        <v>66945</v>
       </c>
       <c r="D10" s="112">
         <f>IF(Utilidad!C7&gt;1,Utilidad!C7/100,Utilidad!C7)</f>
-        <v>0.42570000000000002</v>
+        <v>0.42229999999999995</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="111">
         <f>Utilidad!B7</f>
-        <v>80625.881162000005</v>
+        <v>59961.344008</v>
       </c>
       <c r="H10" s="112">
         <f>IF(Utilidad!D7&gt;1,Utilidad!D7/100,Utilidad!D7)</f>
-        <v>0.42531565469999999</v>
+        <v>0.44266136516000004</v>
       </c>
       <c r="J10" s="119">
         <f t="shared" si="2"/>
-        <v>-6.8985205981524189E-2</v>
+        <v>-0.10431930677421763</v>
       </c>
       <c r="K10" s="119">
         <f t="shared" si="0"/>
-        <v>-9.0285482734327681E-4</v>
+        <v>4.8215404120293848E-2</v>
       </c>
       <c r="M10" s="121">
         <f t="shared" si="3"/>
-        <v>6.8985205981524189E-2</v>
+        <v>0.10431930677421763</v>
       </c>
       <c r="N10" s="121">
         <f t="shared" si="1"/>
-        <v>9.0285482734327681E-4</v>
+        <v>4.8215404120293848E-2</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21611,38 +21716,38 @@
       </c>
       <c r="C12" s="111">
         <f>Utilidad!A9</f>
-        <v>19491</v>
+        <v>11248</v>
       </c>
       <c r="D12" s="112">
         <f>IF(Utilidad!C9&gt;1,Utilidad!C9/100,Utilidad!C9)</f>
-        <v>0.27800000000000002</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="F12" s="110" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="111">
         <f>Utilidad!B9</f>
-        <v>19798.424827999999</v>
+        <v>10381.135238000001</v>
       </c>
       <c r="H12" s="112">
         <f>IF(Utilidad!D9&gt;1,Utilidad!D9/100,Utilidad!D9)</f>
-        <v>0.27773377451999998</v>
+        <v>0.28139999999999998</v>
       </c>
       <c r="J12" s="119">
         <f t="shared" si="2"/>
-        <v>1.5772655482017305E-2</v>
+        <v>-7.7068346550497796E-2</v>
       </c>
       <c r="K12" s="119">
         <f t="shared" si="0"/>
-        <v>-9.576456115109658E-4</v>
+        <v>4.9999999999999878E-2</v>
       </c>
       <c r="M12" s="121">
         <f t="shared" si="3"/>
-        <v>1.5772655482017305E-2</v>
+        <v>7.7068346550497796E-2</v>
       </c>
       <c r="N12" s="121">
         <f t="shared" si="1"/>
-        <v>9.576456115109658E-4</v>
+        <v>4.9999999999999878E-2</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21651,38 +21756,38 @@
       </c>
       <c r="C13" s="111">
         <f>Utilidad!A10</f>
-        <v>4869</v>
+        <v>9230</v>
       </c>
       <c r="D13" s="112">
         <f>IF(Utilidad!C10&gt;1,Utilidad!C10/100,Utilidad!C10)</f>
-        <v>0.14699999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="F13" s="110" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="111">
         <f>Utilidad!B10</f>
-        <v>4888.7705244999997</v>
+        <v>7631.8824262999997</v>
       </c>
       <c r="H13" s="112">
         <f>IF(Utilidad!D10&gt;1,Utilidad!D10/100,Utilidad!D10)</f>
-        <v>0.14698076453</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="J13" s="119">
         <f t="shared" si="2"/>
-        <v>4.0604897309508602E-3</v>
+        <v>-0.17314383247020587</v>
       </c>
       <c r="K13" s="119">
         <f t="shared" si="0"/>
-        <v>-1.3085353741489598E-4</v>
+        <v>4.9999999999999913E-2</v>
       </c>
       <c r="M13" s="121">
         <f t="shared" si="3"/>
-        <v>4.0604897309508602E-3</v>
+        <v>0.17314383247020587</v>
       </c>
       <c r="N13" s="121">
         <f t="shared" si="1"/>
-        <v>1.3085353741489598E-4</v>
+        <v>4.9999999999999913E-2</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21691,38 +21796,38 @@
       </c>
       <c r="C14" s="111">
         <f>Utilidad!A11</f>
-        <v>26618</v>
+        <v>29638</v>
       </c>
       <c r="D14" s="112">
         <f>IF(Utilidad!C11&gt;1,Utilidad!C11/100,Utilidad!C11)</f>
-        <v>0.49149999999999999</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="111">
         <f>Utilidad!B11</f>
-        <v>25214.029043999999</v>
+        <v>31048.020892</v>
       </c>
       <c r="H14" s="112">
         <f>IF(Utilidad!D11&gt;1,Utilidad!D11/100,Utilidad!D11)</f>
-        <v>0.46944828637999997</v>
+        <v>0.51047126204999993</v>
       </c>
       <c r="J14" s="119">
         <f t="shared" si="2"/>
-        <v>-5.2745170786685738E-2</v>
+        <v>4.757476523382146E-2</v>
       </c>
       <c r="K14" s="119">
         <f t="shared" si="0"/>
-        <v>-4.4866151820956303E-2</v>
+        <v>1.7888857527417718E-2</v>
       </c>
       <c r="M14" s="121">
         <f t="shared" si="3"/>
-        <v>5.2745170786685738E-2</v>
+        <v>4.757476523382146E-2</v>
       </c>
       <c r="N14" s="121">
         <f t="shared" si="1"/>
-        <v>4.4866151820956303E-2</v>
+        <v>1.7888857527417718E-2</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21731,38 +21836,38 @@
       </c>
       <c r="C15" s="111">
         <f>Utilidad!A12</f>
-        <v>33462</v>
+        <v>14399</v>
       </c>
       <c r="D15" s="112">
         <f>IF(Utilidad!C12&gt;1,Utilidad!C12/100,Utilidad!C12)</f>
-        <v>0.55630000000000002</v>
+        <v>0.59140000000000004</v>
       </c>
       <c r="F15" s="110" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="111">
         <f>Utilidad!B12</f>
-        <v>30724.656765</v>
+        <v>10900.305451</v>
       </c>
       <c r="H15" s="112">
         <f>IF(Utilidad!D12&gt;1,Utilidad!D12/100,Utilidad!D12)</f>
-        <v>0.52848499999999998</v>
+        <v>0.61892499823000002</v>
       </c>
       <c r="J15" s="119">
         <f t="shared" si="2"/>
-        <v>-8.1804531558185414E-2</v>
+        <v>-0.24298177297034515</v>
       </c>
       <c r="K15" s="119">
         <f t="shared" si="0"/>
-        <v>-5.0000000000000058E-2</v>
+        <v>4.654210049036183E-2</v>
       </c>
       <c r="M15" s="121">
         <f t="shared" si="3"/>
-        <v>8.1804531558185414E-2</v>
+        <v>0.24298177297034515</v>
       </c>
       <c r="N15" s="121">
         <f t="shared" si="1"/>
-        <v>5.0000000000000058E-2</v>
+        <v>4.654210049036183E-2</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21771,38 +21876,38 @@
       </c>
       <c r="C16" s="111">
         <f>Utilidad!A13</f>
-        <v>28325</v>
+        <v>8027</v>
       </c>
       <c r="D16" s="112">
         <f>IF(Utilidad!C13&gt;1,Utilidad!C13/100,Utilidad!C13)</f>
-        <v>0.51790000000000003</v>
+        <v>0.52890000000000004</v>
       </c>
       <c r="F16" s="110" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="111">
         <f>Utilidad!B13</f>
-        <v>28128.492212000001</v>
+        <v>8027</v>
       </c>
       <c r="H16" s="112">
         <f>IF(Utilidad!D13&gt;1,Utilidad!D13/100,Utilidad!D13)</f>
-        <v>0.51519802099000001</v>
+        <v>0.52890000000000004</v>
       </c>
       <c r="J16" s="119">
         <f t="shared" si="2"/>
-        <v>-6.9376094616063191E-3</v>
+        <v>0</v>
       </c>
       <c r="K16" s="119">
         <f t="shared" si="0"/>
-        <v>-5.2171828731415746E-3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="121">
         <f t="shared" si="3"/>
-        <v>6.9376094616063191E-3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="121">
         <f t="shared" si="1"/>
-        <v>5.2171828731415746E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21811,38 +21916,38 @@
       </c>
       <c r="C17" s="111">
         <f>Utilidad!A14</f>
-        <v>-21948</v>
+        <v>9136</v>
       </c>
       <c r="D17" s="112">
         <f>IF(Utilidad!C14&gt;1,Utilidad!C14/100,Utilidad!C14)</f>
-        <v>0.53720000000000001</v>
+        <v>0.5292</v>
       </c>
       <c r="F17" s="110" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="111">
         <f>Utilidad!B14</f>
-        <v>-20540.741579000001</v>
+        <v>10280.020892</v>
       </c>
       <c r="H17" s="112">
         <f>IF(Utilidad!D14&gt;1,Utilidad!D14/100,Utilidad!D14)</f>
-        <v>0.51675562094000005</v>
+        <v>0.55566000000000004</v>
       </c>
       <c r="J17" s="119">
         <f t="shared" si="2"/>
-        <v>-6.4117843129214439E-2</v>
+        <v>0.12522120096322248</v>
       </c>
       <c r="K17" s="119">
         <f t="shared" si="0"/>
-        <v>-3.8057295346239688E-2</v>
+        <v>5.0000000000000072E-2</v>
       </c>
       <c r="M17" s="121">
         <f t="shared" si="3"/>
-        <v>6.4117843129214439E-2</v>
+        <v>0.12522120096322248</v>
       </c>
       <c r="N17" s="121">
         <f t="shared" si="1"/>
-        <v>3.8057295346239688E-2</v>
+        <v>5.0000000000000072E-2</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21851,38 +21956,38 @@
       </c>
       <c r="C18" s="111">
         <f>Utilidad!A15</f>
-        <v>100588</v>
+        <v>48056</v>
       </c>
       <c r="D18" s="112">
         <f>IF(Utilidad!C15&gt;1,Utilidad!C15/100,Utilidad!C15)</f>
-        <v>0.53720000000000001</v>
+        <v>0.5292</v>
       </c>
       <c r="F18" s="110" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="111">
         <f>Utilidad!B15</f>
-        <v>98068.278411000007</v>
+        <v>48056</v>
       </c>
       <c r="H18" s="112">
         <f>IF(Utilidad!D15&gt;1,Utilidad!D15/100,Utilidad!D15)</f>
-        <v>0.52705884993999996</v>
+        <v>0.5292</v>
       </c>
       <c r="J18" s="119">
         <f t="shared" si="2"/>
-        <v>-2.5049922346601916E-2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="119">
         <f t="shared" si="0"/>
-        <v>-1.8877792367833299E-2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="121">
         <f t="shared" si="3"/>
-        <v>2.5049922346601916E-2</v>
+        <v>0</v>
       </c>
       <c r="N18" s="121">
         <f t="shared" si="1"/>
-        <v>1.8877792367833299E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21891,38 +21996,38 @@
       </c>
       <c r="C19" s="111">
         <f>Utilidad!A16</f>
-        <v>35912</v>
+        <v>14426</v>
       </c>
       <c r="D19" s="112">
         <f>IF(Utilidad!C16&gt;1,Utilidad!C16/100,Utilidad!C16)</f>
-        <v>7.7300000000000008E-2</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="F19" s="110" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="111">
         <f>Utilidad!B16</f>
-        <v>37842.929820999998</v>
+        <v>13991.305451</v>
       </c>
       <c r="H19" s="112">
         <f>IF(Utilidad!D16&gt;1,Utilidad!D16/100,Utilidad!D16)</f>
-        <v>7.816002270700001E-2</v>
+        <v>8.4209999999999993E-2</v>
       </c>
       <c r="J19" s="119">
         <f t="shared" si="2"/>
-        <v>5.3768373273557525E-2</v>
+        <v>-3.0132715167059464E-2</v>
       </c>
       <c r="K19" s="119">
         <f t="shared" si="0"/>
-        <v>1.1125778874514904E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M19" s="121">
         <f t="shared" si="3"/>
-        <v>5.3768373273557525E-2</v>
+        <v>3.0132715167059464E-2</v>
       </c>
       <c r="N19" s="121">
         <f t="shared" si="1"/>
-        <v>1.1125778874514904E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21931,38 +22036,38 @@
       </c>
       <c r="C20" s="111">
         <f>Utilidad!A17</f>
-        <v>117320</v>
+        <v>52992</v>
       </c>
       <c r="D20" s="112">
         <f>IF(Utilidad!C17&gt;1,Utilidad!C17/100,Utilidad!C17)</f>
-        <v>0.66409999999999991</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="F20" s="110" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="111">
         <f>Utilidad!B17</f>
-        <v>119078.49757000001</v>
+        <v>52992</v>
       </c>
       <c r="H20" s="112">
         <f>IF(Utilidad!D17&gt;1,Utilidad!D17/100,Utilidad!D17)</f>
-        <v>0.66728431414</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="J20" s="119">
         <f t="shared" si="2"/>
-        <v>1.4988898482782193E-2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="119">
         <f t="shared" si="0"/>
-        <v>4.7949316970337134E-3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="121">
         <f t="shared" si="3"/>
-        <v>1.4988898482782193E-2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="121">
         <f t="shared" si="1"/>
-        <v>4.7949316970337134E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -21971,38 +22076,38 @@
       </c>
       <c r="C21" s="111">
         <f>Utilidad!A18</f>
-        <v>295</v>
+        <v>12235</v>
       </c>
       <c r="D21" s="112">
         <f>IF(Utilidad!C18&gt;1,Utilidad!C18/100,Utilidad!C18)</f>
-        <v>0.66409999999999991</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="F21" s="110" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="111">
         <f>Utilidad!B18</f>
-        <v>295.31678174000001</v>
+        <v>11879</v>
       </c>
       <c r="H21" s="112">
         <f>IF(Utilidad!D18&gt;1,Utilidad!D18/100,Utilidad!D18)</f>
-        <v>0.66459347006000002</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="J21" s="119">
         <f t="shared" si="2"/>
-        <v>1.0738364067796962E-3</v>
+        <v>-2.9096853289742541E-2</v>
       </c>
       <c r="K21" s="119">
         <f t="shared" si="0"/>
-        <v>7.430658936908777E-4</v>
+        <v>0</v>
       </c>
       <c r="M21" s="121">
         <f t="shared" si="3"/>
-        <v>1.0738364067796962E-3</v>
+        <v>2.9096853289742541E-2</v>
       </c>
       <c r="N21" s="121">
         <f t="shared" si="1"/>
-        <v>7.430658936908777E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -22051,38 +22156,38 @@
       </c>
       <c r="C23" s="111">
         <f>Utilidad!A20</f>
-        <v>116567</v>
+        <v>41113</v>
       </c>
       <c r="D23" s="112">
         <f>IF(Utilidad!C20&gt;1,Utilidad!C20/100,Utilidad!C20)</f>
-        <v>0.66400000000000003</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="F23" s="110" t="s">
         <v>35</v>
       </c>
       <c r="G23" s="111">
         <f>Utilidad!B20</f>
-        <v>118783.18078</v>
+        <v>41113</v>
       </c>
       <c r="H23" s="112">
         <f>IF(Utilidad!D20&gt;1,Utilidad!D20/100,Utilidad!D20)</f>
-        <v>0.66729100407999997</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="J23" s="119">
         <f t="shared" si="2"/>
-        <v>1.9012077002925315E-2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="119">
         <f t="shared" si="0"/>
-        <v>4.9563314457830377E-3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="121">
         <f t="shared" si="3"/>
-        <v>1.9012077002925315E-2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="121">
         <f t="shared" si="1"/>
-        <v>4.9563314457830377E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -22095,7 +22200,7 @@
       </c>
       <c r="D24" s="112">
         <f>IF(Utilidad!C21&gt;1,Utilidad!C21/100,Utilidad!C21)</f>
-        <v>0.66400000000000003</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="F24" s="110" t="s">
         <v>36</v>
@@ -22106,7 +22211,7 @@
       </c>
       <c r="H24" s="112">
         <f>IF(Utilidad!D21&gt;1,Utilidad!D21/100,Utilidad!D21)</f>
-        <v>0.66400000000000003</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="J24" s="119">
         <f t="shared" si="2"/>
@@ -22131,38 +22236,38 @@
       </c>
       <c r="C25" s="111">
         <f>Utilidad!A22</f>
-        <v>116567</v>
+        <v>41113</v>
       </c>
       <c r="D25" s="112">
         <f>IF(Utilidad!C22&gt;1,Utilidad!C22/100,Utilidad!C22)</f>
-        <v>0.66400000000000003</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="F25" s="110" t="s">
         <v>37</v>
       </c>
       <c r="G25" s="111">
         <f>Utilidad!B22</f>
-        <v>118783.18078</v>
+        <v>41113</v>
       </c>
       <c r="H25" s="112">
         <f>IF(Utilidad!D22&gt;1,Utilidad!D22/100,Utilidad!D22)</f>
-        <v>0.66729100407999997</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="J25" s="119">
         <f t="shared" si="2"/>
-        <v>1.9012077002925315E-2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="119">
         <f t="shared" si="0"/>
-        <v>4.9563314457830377E-3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="121">
         <f t="shared" si="3"/>
-        <v>1.9012077002925315E-2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="121">
         <f t="shared" si="1"/>
-        <v>4.9563314457830377E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -22171,38 +22276,38 @@
       </c>
       <c r="C26" s="111">
         <f>Utilidad!A23</f>
-        <v>16139</v>
+        <v>40739</v>
       </c>
       <c r="D26" s="112">
         <f>IF(Utilidad!C23&gt;1,Utilidad!C23/100,Utilidad!C23)</f>
-        <v>0.66400000000000003</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="F26" s="110" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="111">
         <f>Utilidad!B23</f>
-        <v>17017.180785</v>
+        <v>41113</v>
       </c>
       <c r="H26" s="112">
         <f>IF(Utilidad!D23&gt;1,Utilidad!D23/100,Utilidad!D23)</f>
-        <v>0.69115797330000006</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="J26" s="119">
         <f t="shared" si="2"/>
-        <v>5.4413581076894507E-2</v>
+        <v>9.180392253123542E-3</v>
       </c>
       <c r="K26" s="119">
         <f t="shared" si="0"/>
-        <v>4.0900562198795218E-2</v>
+        <v>0</v>
       </c>
       <c r="M26" s="121">
         <f t="shared" si="3"/>
-        <v>5.4413581076894507E-2</v>
+        <v>9.180392253123542E-3</v>
       </c>
       <c r="N26" s="121">
         <f t="shared" si="1"/>
-        <v>4.0900562198795218E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -22211,22 +22316,22 @@
       </c>
       <c r="C27" s="111">
         <f>Utilidad!A24</f>
-        <v>101766</v>
+        <v>0</v>
       </c>
       <c r="D27" s="112">
         <f>IF(Utilidad!C24&gt;1,Utilidad!C24/100,Utilidad!C24)</f>
-        <v>0.6633</v>
+        <v>0</v>
       </c>
       <c r="F27" s="110" t="s">
         <v>39</v>
       </c>
       <c r="G27" s="111">
         <f>Utilidad!B24</f>
-        <v>101766</v>
+        <v>0</v>
       </c>
       <c r="H27" s="112">
         <f>IF(Utilidad!D24&gt;1,Utilidad!D24/100,Utilidad!D24)</f>
-        <v>0.6633</v>
+        <v>0</v>
       </c>
       <c r="J27" s="119">
         <f t="shared" si="2"/>
@@ -22291,22 +22396,22 @@
       </c>
       <c r="C29" s="111">
         <f>Utilidad!A26</f>
-        <v>8464</v>
+        <v>0</v>
       </c>
       <c r="D29" s="112">
         <f>IF(Utilidad!C26&gt;1,Utilidad!C26/100,Utilidad!C26)</f>
-        <v>0.60560000000000003</v>
+        <v>0</v>
       </c>
       <c r="F29" s="110" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="111">
         <f>Utilidad!B26</f>
-        <v>8464</v>
+        <v>0</v>
       </c>
       <c r="H29" s="112">
         <f>IF(Utilidad!D26&gt;1,Utilidad!D26/100,Utilidad!D26)</f>
-        <v>0.60560000000000003</v>
+        <v>0</v>
       </c>
       <c r="J29" s="119">
         <f t="shared" si="2"/>
@@ -22331,22 +22436,22 @@
       </c>
       <c r="C30" s="111">
         <f>Utilidad!A27</f>
-        <v>28551</v>
+        <v>0</v>
       </c>
       <c r="D30" s="112">
         <f>IF(Utilidad!C27&gt;1,Utilidad!C27/100,Utilidad!C27)</f>
-        <v>0.58920000000000006</v>
+        <v>0</v>
       </c>
       <c r="F30" s="110" t="s">
         <v>41</v>
       </c>
       <c r="G30" s="111">
         <f>Utilidad!B27</f>
-        <v>28551</v>
+        <v>0</v>
       </c>
       <c r="H30" s="112">
         <f>IF(Utilidad!D27&gt;1,Utilidad!D27/100,Utilidad!D27)</f>
-        <v>0.58920000000000006</v>
+        <v>0</v>
       </c>
       <c r="J30" s="119">
         <f t="shared" si="2"/>
@@ -22371,38 +22476,38 @@
       </c>
       <c r="C31" s="111">
         <f>Utilidad!A28</f>
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="D31" s="112">
         <f>IF(Utilidad!C28&gt;1,Utilidad!C28/100,Utilidad!C28)</f>
-        <v>0.58920000000000006</v>
+        <v>0</v>
       </c>
       <c r="F31" s="110" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="111">
         <f>Utilidad!B28</f>
-        <v>37015</v>
+        <v>0</v>
       </c>
       <c r="H31" s="112">
         <f>IF(Utilidad!D28&gt;1,Utilidad!D28/100,Utilidad!D28)</f>
-        <v>0.59295009050000003</v>
+        <v>0</v>
       </c>
       <c r="J31" s="119">
         <f t="shared" si="2"/>
-        <v>5.7571428571428572E-2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="119">
         <f t="shared" si="0"/>
-        <v>6.3647157162253377E-3</v>
+        <v>0</v>
       </c>
       <c r="M31" s="121">
         <f t="shared" si="3"/>
-        <v>5.7571428571428572E-2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="121">
         <f t="shared" si="1"/>
-        <v>6.3647157162253377E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -22451,22 +22556,22 @@
       </c>
       <c r="C33" s="111">
         <f>Utilidad!A30</f>
-        <v>59464</v>
+        <v>0</v>
       </c>
       <c r="D33" s="112">
         <f>IF(Utilidad!C30&gt;1,Utilidad!C30/100,Utilidad!C30)</f>
-        <v>0.61399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F33" s="110" t="s">
         <v>139</v>
       </c>
       <c r="G33" s="111">
         <f>Utilidad!B30</f>
-        <v>59464</v>
+        <v>0</v>
       </c>
       <c r="H33" s="112">
         <f>IF(Utilidad!D30&gt;1,Utilidad!D30/100,Utilidad!D30)</f>
-        <v>0.59558</v>
+        <v>0</v>
       </c>
       <c r="J33" s="119">
         <f t="shared" si="2"/>
@@ -22474,7 +22579,7 @@
       </c>
       <c r="K33" s="119">
         <f t="shared" si="0"/>
-        <v>-2.9999999999999988E-2</v>
+        <v>0</v>
       </c>
       <c r="M33" s="121">
         <f t="shared" si="3"/>
@@ -22482,7 +22587,7 @@
       </c>
       <c r="N33" s="121">
         <f t="shared" si="1"/>
-        <v>2.9999999999999988E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -22491,38 +22596,38 @@
       </c>
       <c r="C34" s="111">
         <f>Utilidad!A31</f>
-        <v>-32971</v>
+        <v>2915</v>
       </c>
       <c r="D34" s="112">
         <f>IF(Utilidad!C31&gt;1,Utilidad!C31/100,Utilidad!C31)</f>
-        <v>0.5</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="F34" s="110" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="111">
         <f>Utilidad!B31</f>
-        <v>-47324</v>
+        <v>3551</v>
       </c>
       <c r="H34" s="112">
         <f>IF(Utilidad!D31&gt;1,Utilidad!D31/100,Utilidad!D31)</f>
-        <v>0.59382801792000006</v>
+        <v>0.59321140524000004</v>
       </c>
       <c r="J34" s="119">
         <f t="shared" si="2"/>
-        <v>0.43532194959206577</v>
+        <v>0.21818181818181817</v>
       </c>
       <c r="K34" s="119">
         <f t="shared" si="0"/>
-        <v>0.18765603584000012</v>
+        <v>3.9116690472162192E-3</v>
       </c>
       <c r="M34" s="121">
         <f t="shared" si="3"/>
-        <v>0.43532194959206577</v>
+        <v>0.21818181818181817</v>
       </c>
       <c r="N34" s="121">
         <f t="shared" si="1"/>
-        <v>0.18765603584000012</v>
+        <v>3.9116690472162192E-3</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -22531,22 +22636,22 @@
       </c>
       <c r="C35" s="111">
         <f>Utilidad!A32</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D35" s="112">
         <f>IF(Utilidad!C32&gt;1,Utilidad!C32/100,Utilidad!C32)</f>
-        <v>0</v>
+        <v>0.57810000000000006</v>
       </c>
       <c r="F35" s="110" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="111">
         <f>Utilidad!B32</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H35" s="112">
         <f>IF(Utilidad!D32&gt;1,Utilidad!D32/100,Utilidad!D32)</f>
-        <v>0</v>
+        <v>0.57810000000000006</v>
       </c>
       <c r="J35" s="119">
         <f t="shared" si="2"/>
@@ -22571,22 +22676,22 @@
       </c>
       <c r="C36" s="111">
         <f>Utilidad!A33</f>
-        <v>6944</v>
+        <v>2731</v>
       </c>
       <c r="D36" s="112">
         <f>IF(Utilidad!C33&gt;1,Utilidad!C33/100,Utilidad!C33)</f>
-        <v>0.58599999999999997</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="F36" s="110" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="111">
         <f>Utilidad!B33</f>
-        <v>6944</v>
+        <v>2731</v>
       </c>
       <c r="H36" s="112">
         <f>IF(Utilidad!D33&gt;1,Utilidad!D33/100,Utilidad!D33)</f>
-        <v>0.58599999999999997</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="J36" s="119">
         <f t="shared" si="2"/>
@@ -22611,22 +22716,22 @@
       </c>
       <c r="C37" s="111">
         <f>Utilidad!A34</f>
-        <v>8561</v>
+        <v>3348</v>
       </c>
       <c r="D37" s="112">
         <f>IF(Utilidad!C34&gt;1,Utilidad!C34/100,Utilidad!C34)</f>
-        <v>0.58360000000000001</v>
+        <v>0.57969999999999999</v>
       </c>
       <c r="F37" s="110" t="s">
         <v>48</v>
       </c>
       <c r="G37" s="111">
         <f>Utilidad!B34</f>
-        <v>8561</v>
+        <v>3348</v>
       </c>
       <c r="H37" s="112">
         <f>IF(Utilidad!D34&gt;1,Utilidad!D34/100,Utilidad!D34)</f>
-        <v>0.58360000000000001</v>
+        <v>0.57969999999999999</v>
       </c>
       <c r="J37" s="119">
         <f t="shared" si="2"/>
@@ -22691,38 +22796,38 @@
       </c>
       <c r="C39" s="111">
         <f>Utilidad!A36</f>
-        <v>16139</v>
+        <v>-41440</v>
       </c>
       <c r="D39" s="112">
         <f>IF(Utilidad!C36&gt;1,Utilidad!C36/100,Utilidad!C36)</f>
-        <v>0.58360000000000001</v>
+        <v>0.57969999999999999</v>
       </c>
       <c r="F39" s="110" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="111">
         <f>Utilidad!B36</f>
-        <v>8561</v>
+        <v>-40267</v>
       </c>
       <c r="H39" s="112">
         <f>IF(Utilidad!D36&gt;1,Utilidad!D36/100,Utilidad!D36)</f>
-        <v>0.58360000000000001</v>
+        <v>0.58869010355999996</v>
       </c>
       <c r="J39" s="119">
         <f t="shared" si="2"/>
-        <v>-0.46954582068281803</v>
+        <v>-2.8305984555984556E-2</v>
       </c>
       <c r="K39" s="119">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5508200034500539E-2</v>
       </c>
       <c r="M39" s="121">
         <f t="shared" si="3"/>
-        <v>0.46954582068281803</v>
+        <v>2.8305984555984556E-2</v>
       </c>
       <c r="N39" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5508200034500539E-2</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -22731,22 +22836,22 @@
       </c>
       <c r="C40" s="111">
         <f>Utilidad!A37</f>
-        <v>0</v>
+        <v>43615</v>
       </c>
       <c r="D40" s="112">
         <f>IF(Utilidad!C37&gt;1,Utilidad!C37/100,Utilidad!C37)</f>
-        <v>0</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="F40" s="110" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="111">
         <f>Utilidad!B37</f>
-        <v>0</v>
+        <v>43615</v>
       </c>
       <c r="H40" s="112">
         <f>IF(Utilidad!D37&gt;1,Utilidad!D37/100,Utilidad!D37)</f>
-        <v>0</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="J40" s="119">
         <f t="shared" si="2"/>
@@ -23331,22 +23436,22 @@
       </c>
       <c r="C55" s="111">
         <f>Utilidad!A52</f>
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="D55" s="112">
         <f>IF(Utilidad!C52&gt;1,Utilidad!C52/100,Utilidad!C52)</f>
-        <v>0.54359999999999997</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="F55" s="110" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="111">
         <f>Utilidad!B52</f>
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="H55" s="112">
         <f>IF(Utilidad!D52&gt;1,Utilidad!D52/100,Utilidad!D52)</f>
-        <v>0.54359999999999997</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="J55" s="119">
         <f t="shared" si="2"/>
@@ -23371,22 +23476,22 @@
       </c>
       <c r="C56" s="111">
         <f>Utilidad!A53</f>
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="D56" s="112">
         <f>IF(Utilidad!C53&gt;1,Utilidad!C53/100,Utilidad!C53)</f>
-        <v>0.54359999999999997</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="F56" s="110" t="s">
         <v>67</v>
       </c>
       <c r="G56" s="111">
         <f>Utilidad!B53</f>
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="H56" s="112">
         <f>IF(Utilidad!D53&gt;1,Utilidad!D53/100,Utilidad!D53)</f>
-        <v>0.54359999999999997</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="J56" s="119">
         <f t="shared" si="2"/>
@@ -23411,39 +23516,36 @@
       </c>
       <c r="C57" s="111">
         <f>Utilidad!A54</f>
-        <v>5284</v>
+        <v>829</v>
       </c>
       <c r="D57" s="112">
         <f>IF(Utilidad!C54&gt;1,Utilidad!C54/100,Utilidad!C54)</f>
-        <v>0.625</v>
-      </c>
-      <c r="E57" s="285"/>
+        <v>0.60659999999999992</v>
+      </c>
       <c r="F57" s="110" t="s">
         <v>159</v>
       </c>
       <c r="G57" s="111">
         <f>Utilidad!B54</f>
-        <v>5284</v>
+        <v>829</v>
       </c>
       <c r="H57" s="112">
         <f>IF(Utilidad!D54&gt;1,Utilidad!D54/100,Utilidad!D54)</f>
-        <v>0.625</v>
-      </c>
-      <c r="I57" s="285"/>
-      <c r="J57" s="286">
+        <v>0.60659999999999992</v>
+      </c>
+      <c r="J57" s="119">
         <f t="shared" ref="J57:J58" si="4">+IF(C57&lt;&gt;0,(G57-C57)/C57,ABS(G57-C57))</f>
         <v>0</v>
       </c>
-      <c r="K57" s="286">
+      <c r="K57" s="119">
         <f t="shared" ref="K57:K58" si="5">+IF(D57&lt;&gt;0,(H57-D57)/D57,0)</f>
         <v>0</v>
       </c>
-      <c r="L57" s="285"/>
-      <c r="M57" s="287">
+      <c r="M57" s="121">
         <f t="shared" ref="M57:M58" si="6">+IF(J57&lt;&gt;"",ABS(J57),0)</f>
         <v>0</v>
       </c>
-      <c r="N57" s="287">
+      <c r="N57" s="121">
         <f t="shared" ref="N57:N58" si="7">+IF(J57&lt;&gt;"",ABS(K57),0)</f>
         <v>0</v>
       </c>
@@ -23454,39 +23556,36 @@
       </c>
       <c r="C58" s="111">
         <f>Utilidad!A55</f>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D58" s="112">
         <f>IF(Utilidad!C55&gt;1,Utilidad!C55/100,Utilidad!C55)</f>
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="E58" s="285"/>
+        <v>0.66510000000000002</v>
+      </c>
       <c r="F58" s="110" t="s">
         <v>160</v>
       </c>
       <c r="G58" s="111">
         <f>Utilidad!B55</f>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H58" s="112">
         <f>IF(Utilidad!D55&gt;1,Utilidad!D55/100,Utilidad!D55)</f>
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="I58" s="285"/>
-      <c r="J58" s="286">
+        <v>0.66510000000000002</v>
+      </c>
+      <c r="J58" s="119">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K58" s="286">
+      <c r="K58" s="119">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L58" s="285"/>
-      <c r="M58" s="287">
+      <c r="M58" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N58" s="287">
+      <c r="N58" s="121">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -23515,8 +23614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:S135"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D121" zoomScale="111" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+    <sheetView showGridLines="0" topLeftCell="J90" zoomScale="111" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="P127" sqref="P127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23570,7 +23669,7 @@
       <c r="B6" s="7"/>
       <c r="E6" s="25">
         <f>+Utilidad!J62</f>
-        <v>109185.62587</v>
+        <v>0</v>
       </c>
       <c r="S6" s="24"/>
     </row>
@@ -23578,19 +23677,19 @@
       <c r="B7" s="7"/>
       <c r="E7" s="26">
         <f>+Utilidad!K62</f>
-        <v>0.25541999140999999</v>
+        <v>0</v>
       </c>
       <c r="I7" s="25">
         <f>+Utilidad!J65</f>
-        <v>57083.309306000003</v>
+        <v>0</v>
       </c>
       <c r="L7" s="27">
         <f>+Utilidad!J68</f>
-        <v>80625.881162000005</v>
+        <v>59961.344008</v>
       </c>
       <c r="Q7" s="27">
         <f>+Utilidad!J70</f>
-        <v>19798.424827999999</v>
+        <v>10381.135238000001</v>
       </c>
       <c r="S7" s="24"/>
     </row>
@@ -23598,19 +23697,19 @@
       <c r="B8" s="7"/>
       <c r="E8" s="28">
         <f>+Utilidad!L62</f>
-        <v>27888.191621810874</v>
+        <v>0</v>
       </c>
       <c r="I8" s="26">
         <f>+Utilidad!K65</f>
-        <v>0.33520081367000004</v>
+        <v>0</v>
       </c>
       <c r="L8" s="29">
         <f>+Utilidad!K68</f>
-        <v>0.42531565469999999</v>
+        <v>0.44266136516000004</v>
       </c>
       <c r="Q8" s="29">
         <f>+Utilidad!K70</f>
-        <v>0.27773377451999998</v>
+        <v>0.28139999999999998</v>
       </c>
       <c r="S8" s="24"/>
     </row>
@@ -23618,15 +23717,15 @@
       <c r="B9" s="7"/>
       <c r="I9" s="28">
         <f>+Utilidad!L65</f>
-        <v>19134.371726347486</v>
+        <v>0</v>
       </c>
       <c r="L9" s="30">
         <f>+Utilidad!L68</f>
-        <v>34291.44943218043</v>
+        <v>26542.570395409668</v>
       </c>
       <c r="Q9" s="30">
         <f>Q7*Q8</f>
-        <v>5498.6912570309214</v>
+        <v>2921.2514559731999</v>
       </c>
       <c r="S9" s="24"/>
     </row>
@@ -23646,7 +23745,7 @@
       </c>
       <c r="Q11" s="27">
         <f>+Utilidad!J71</f>
-        <v>4888.7705244999997</v>
+        <v>7631.8824262999997</v>
       </c>
       <c r="S11" s="24"/>
     </row>
@@ -23662,7 +23761,7 @@
       </c>
       <c r="Q12" s="29">
         <f>+Utilidad!K71</f>
-        <v>0.14698076453</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="S12" s="24"/>
     </row>
@@ -23674,15 +23773,15 @@
       </c>
       <c r="H13" s="31">
         <f>+Utilidad!J66</f>
-        <v>61069</v>
+        <v>21383</v>
       </c>
       <c r="N13" s="25">
         <f>+Utilidad!J72</f>
-        <v>25214.029043999999</v>
+        <v>31048.020892</v>
       </c>
       <c r="Q13" s="30">
         <f>+Utilidad!L71</f>
-        <v>718.55522930273912</v>
+        <v>1025.7249980947199</v>
       </c>
       <c r="S13" s="24"/>
     </row>
@@ -23694,11 +23793,11 @@
       </c>
       <c r="H14" s="32">
         <f>+Utilidad!K66</f>
-        <v>0.49819999999999998</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="J14" s="33">
         <f>+I7+H13-L14-L7</f>
-        <v>37526.428144000005</v>
+        <v>-38578.344008</v>
       </c>
       <c r="L14" s="27">
         <f>+Utilidad!J69</f>
@@ -23706,7 +23805,7 @@
       </c>
       <c r="N14" s="26">
         <f>+Utilidad!K72</f>
-        <v>0.46944828637999997</v>
+        <v>0.51047126204999993</v>
       </c>
       <c r="S14" s="24"/>
     </row>
@@ -23714,11 +23813,11 @@
       <c r="B15" s="7"/>
       <c r="G15" s="34">
         <f>+Utilidad!J64</f>
-        <v>52102.316567000002</v>
+        <v>0</v>
       </c>
       <c r="H15" s="35">
         <f>+Utilidad!L66</f>
-        <v>30424.575799999999</v>
+        <v>10116.2973</v>
       </c>
       <c r="L15" s="29">
         <f>+Utilidad!K69</f>
@@ -23726,7 +23825,7 @@
       </c>
       <c r="N15" s="28">
         <f>+Utilidad!L72</f>
-        <v>11836.682727441348</v>
+        <v>15849.122408894005</v>
       </c>
       <c r="S15" s="24"/>
     </row>
@@ -23738,7 +23837,7 @@
       </c>
       <c r="G16" s="37">
         <f>+Utilidad!K64</f>
-        <v>0.16801210529999999</v>
+        <v>0</v>
       </c>
       <c r="L16" s="30">
         <f>+Utilidad!L69</f>
@@ -23750,7 +23849,7 @@
       <c r="B17" s="7"/>
       <c r="G17" s="38">
         <f>G15*G16</f>
-        <v>8753.8198974287388</v>
+        <v>0</v>
       </c>
       <c r="S17" s="24"/>
     </row>
@@ -23758,7 +23857,7 @@
       <c r="B18" s="7"/>
       <c r="K18" s="25">
         <f>Flujos!C56</f>
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="S18" s="24"/>
     </row>
@@ -23766,7 +23865,7 @@
       <c r="B19" s="7"/>
       <c r="K19" s="26">
         <f>Flujos!D56</f>
-        <v>0.54359999999999997</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="S19" s="24"/>
     </row>
@@ -23774,11 +23873,11 @@
       <c r="B20" s="7"/>
       <c r="K20" s="28">
         <f>K18*K19</f>
-        <v>43728.271199999996</v>
+        <v>19539.789499999999</v>
       </c>
       <c r="N20" s="33">
         <f>+L14+N13+K18-M22-L21</f>
-        <v>-20540.741579000009</v>
+        <v>10280.020892</v>
       </c>
       <c r="S20" s="24"/>
     </row>
@@ -23786,7 +23885,7 @@
       <c r="B21" s="7"/>
       <c r="L21" s="25">
         <f>+Utilidad!J76</f>
-        <v>98068.278411000007</v>
+        <v>48056</v>
       </c>
       <c r="S21" s="24"/>
     </row>
@@ -23794,15 +23893,15 @@
       <c r="B22" s="7"/>
       <c r="L22" s="26">
         <f>+Utilidad!K76</f>
-        <v>0.52705884993999996</v>
+        <v>0.5292</v>
       </c>
       <c r="M22" s="25">
         <f>+Utilidad!J74</f>
-        <v>28128.492212000001</v>
+        <v>8027</v>
       </c>
       <c r="O22" s="25">
         <f>+Utilidad!J73</f>
-        <v>30724.656765</v>
+        <v>10900.305451</v>
       </c>
       <c r="S22" s="24"/>
     </row>
@@ -23810,15 +23909,15 @@
       <c r="B23" s="7"/>
       <c r="L23" s="28">
         <f>+Utilidad!L76</f>
-        <v>51687.754034897393</v>
+        <v>25431.235199999999</v>
       </c>
       <c r="M23" s="26">
         <f>+Utilidad!K74</f>
-        <v>0.51519802099000001</v>
+        <v>0.52890000000000004</v>
       </c>
       <c r="O23" s="26">
         <f>+Utilidad!K73</f>
-        <v>0.52848499999999998</v>
+        <v>0.61892499823000002</v>
       </c>
       <c r="S23" s="24"/>
     </row>
@@ -23826,15 +23925,15 @@
       <c r="B24" s="7"/>
       <c r="M24" s="28">
         <f>+Utilidad!L74</f>
-        <v>14491.743521055028</v>
+        <v>4245.4803000000002</v>
       </c>
       <c r="O24" s="28">
         <f>+Utilidad!L73</f>
-        <v>16237.520230451024</v>
+        <v>6746.4715319666348</v>
       </c>
       <c r="Q24">
         <f>+(O22+N13)/(L7)</f>
-        <v>0.69380557462191939</v>
+        <v>0.69958949448169949</v>
       </c>
       <c r="S24" s="24"/>
     </row>
@@ -23871,7 +23970,7 @@
       </c>
       <c r="Q27">
         <f>+(K28)/(L21+M22+O22)</f>
-        <v>0.7588415396934256</v>
+        <v>0.79112249900484544</v>
       </c>
       <c r="S27" s="24"/>
     </row>
@@ -23883,7 +23982,7 @@
       </c>
       <c r="K28" s="34">
         <f>+Utilidad!J78</f>
-        <v>119078.49757000001</v>
+        <v>52992</v>
       </c>
       <c r="S28" s="24"/>
     </row>
@@ -23896,11 +23995,11 @@
       </c>
       <c r="K29" s="37">
         <f>+Utilidad!K78</f>
-        <v>0.66728431414</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="M29">
         <f>K28/(L21+M22+O22)</f>
-        <v>0.7588415396934256</v>
+        <v>0.79112249900484544</v>
       </c>
       <c r="S29" s="24"/>
     </row>
@@ -23909,11 +24008,11 @@
       <c r="C30" s="156"/>
       <c r="I30" s="34">
         <f>+Utilidad!J77</f>
-        <v>37842.929820999998</v>
+        <v>13991.305451</v>
       </c>
       <c r="K30" s="38">
         <f>+Utilidad!L78</f>
-        <v>79459.213579819116</v>
+        <v>35244.979200000002</v>
       </c>
       <c r="S30" s="24"/>
     </row>
@@ -23922,7 +24021,7 @@
       <c r="C31" s="156"/>
       <c r="I31" s="37">
         <f>+Utilidad!K77</f>
-        <v>7.816002270700001E-2</v>
+        <v>8.4209999999999993E-2</v>
       </c>
       <c r="S31" s="24"/>
     </row>
@@ -23931,7 +24030,7 @@
       <c r="C32" s="156"/>
       <c r="I32" s="38">
         <f>I30*I31</f>
-        <v>2957.8042541087675</v>
+        <v>1178.2078320287098</v>
       </c>
       <c r="S32" s="24"/>
     </row>
@@ -23998,7 +24097,7 @@
       <c r="C39" s="156"/>
       <c r="K39" s="40">
         <f>K28-(I53+L53)</f>
-        <v>295.31679000001168</v>
+        <v>11879</v>
       </c>
       <c r="S39" s="24"/>
     </row>
@@ -24101,7 +24200,7 @@
       </c>
       <c r="L53" s="31">
         <f>+Utilidad!J83</f>
-        <v>118783.18078</v>
+        <v>41113</v>
       </c>
       <c r="S53" s="24"/>
     </row>
@@ -24113,11 +24212,11 @@
       </c>
       <c r="I54" s="32">
         <f>+Utilidad!K82</f>
-        <v>0.66400000000000003</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="L54" s="32">
         <f>+Utilidad!K83</f>
-        <v>0.66729100407999997</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="S54" s="24"/>
     </row>
@@ -24133,7 +24232,7 @@
       </c>
       <c r="L55" s="35">
         <f>+Utilidad!L83</f>
-        <v>79262.947970502355</v>
+        <v>27344.256300000001</v>
       </c>
       <c r="S55" s="24"/>
     </row>
@@ -24165,7 +24264,7 @@
       <c r="B59" s="7"/>
       <c r="M59" s="29">
         <f>Flujos!H24</f>
-        <v>0.66400000000000003</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="S59" s="24"/>
     </row>
@@ -24185,7 +24284,7 @@
       <c r="B62" s="7"/>
       <c r="C62" s="25">
         <f>Flujos!C55</f>
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="S62" s="24"/>
     </row>
@@ -24193,11 +24292,11 @@
       <c r="B63" s="7"/>
       <c r="C63" s="26">
         <f>Flujos!D55</f>
-        <v>0.54359999999999997</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="O63" s="31">
         <f>Flujos!G27</f>
-        <v>101766</v>
+        <v>0</v>
       </c>
       <c r="S63" s="24"/>
     </row>
@@ -24205,11 +24304,11 @@
       <c r="B64" s="7"/>
       <c r="C64" s="28">
         <f>C63*C62</f>
-        <v>43728.271199999996</v>
+        <v>19539.789499999999</v>
       </c>
       <c r="O64" s="32">
         <f>Flujos!H27</f>
-        <v>0.6633</v>
+        <v>0</v>
       </c>
       <c r="S64" s="24"/>
     </row>
@@ -24217,11 +24316,11 @@
       <c r="B65" s="7"/>
       <c r="L65" s="27">
         <f>Flujos!G25</f>
-        <v>118783.18078</v>
+        <v>41113</v>
       </c>
       <c r="O65" s="35">
         <f>O63*O64</f>
-        <v>67501.387799999997</v>
+        <v>0</v>
       </c>
       <c r="S65" s="24"/>
     </row>
@@ -24229,7 +24328,7 @@
       <c r="B66" s="7"/>
       <c r="L66" s="29">
         <f>Flujos!H25</f>
-        <v>0.66729100407999997</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="S66" s="24"/>
     </row>
@@ -24237,11 +24336,11 @@
       <c r="B67" s="7"/>
       <c r="L67" s="30">
         <f>L66*L65</f>
-        <v>79262.947970502355</v>
+        <v>27344.256300000001</v>
       </c>
       <c r="N67" s="36">
         <f>Flujos!G26</f>
-        <v>17017.180785</v>
+        <v>41113</v>
       </c>
       <c r="O67" s="31">
         <f>Flujos!G28</f>
@@ -24269,7 +24368,7 @@
       <c r="B70" s="7"/>
       <c r="H70" s="31">
         <f>Flujos!G29</f>
-        <v>8464</v>
+        <v>0</v>
       </c>
       <c r="K70" s="31">
         <f>Flujos!G22</f>
@@ -24281,7 +24380,7 @@
       <c r="B71" s="7"/>
       <c r="H71" s="32">
         <f>Flujos!H29</f>
-        <v>0.60560000000000003</v>
+        <v>0</v>
       </c>
       <c r="K71" s="32">
         <f>Flujos!H22</f>
@@ -24293,7 +24392,7 @@
       <c r="B72" s="7"/>
       <c r="H72" s="35">
         <f>H70*H71</f>
-        <v>5125.7984000000006</v>
+        <v>0</v>
       </c>
       <c r="K72" s="35">
         <f>K70*K71</f>
@@ -24309,11 +24408,11 @@
       <c r="B74" s="7"/>
       <c r="L74" s="31">
         <f>Flujos!G35</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O74" s="31">
         <f>Flujos!G33</f>
-        <v>59464</v>
+        <v>0</v>
       </c>
       <c r="S74" s="24"/>
     </row>
@@ -24321,23 +24420,23 @@
       <c r="B75" s="7"/>
       <c r="H75" s="31">
         <f>Flujos!G30</f>
-        <v>28551</v>
+        <v>0</v>
       </c>
       <c r="J75" s="36">
         <f>Flujos!G31</f>
-        <v>37015</v>
+        <v>0</v>
       </c>
       <c r="L75" s="32">
         <f>Flujos!H35</f>
-        <v>0</v>
+        <v>0.57810000000000006</v>
       </c>
       <c r="N75" s="36">
         <f>Flujos!G34</f>
-        <v>-47324</v>
+        <v>3551</v>
       </c>
       <c r="O75" s="32">
         <f>Flujos!H33</f>
-        <v>0.59558</v>
+        <v>0</v>
       </c>
       <c r="S75" s="24"/>
     </row>
@@ -24345,15 +24444,15 @@
       <c r="B76" s="7"/>
       <c r="H76" s="32">
         <f>Flujos!H30</f>
-        <v>0.58920000000000006</v>
+        <v>0</v>
       </c>
       <c r="L76" s="35">
         <f>L74*L75</f>
-        <v>0</v>
+        <v>32.951700000000002</v>
       </c>
       <c r="O76" s="35">
         <f>O74*O75</f>
-        <v>35415.56912</v>
+        <v>0</v>
       </c>
       <c r="S76" s="24"/>
     </row>
@@ -24361,7 +24460,7 @@
       <c r="B77" s="7"/>
       <c r="H77" s="35">
         <f>H76*H75</f>
-        <v>16822.249200000002</v>
+        <v>0</v>
       </c>
       <c r="S77" s="24"/>
     </row>
@@ -24369,7 +24468,7 @@
       <c r="B78" s="7"/>
       <c r="L78" s="31">
         <f>Flujos!G36</f>
-        <v>6944</v>
+        <v>2731</v>
       </c>
       <c r="S78" s="24"/>
     </row>
@@ -24377,11 +24476,11 @@
       <c r="B79" s="7"/>
       <c r="L79" s="32">
         <f>Flujos!H36</f>
-        <v>0.58599999999999997</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="Q79" s="31">
         <f>Flujos!G58</f>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="S79" s="24"/>
     </row>
@@ -24389,11 +24488,11 @@
       <c r="B80" s="7"/>
       <c r="L80" s="35">
         <f>L79*L78</f>
-        <v>4069.1839999999997</v>
+        <v>1614.5672</v>
       </c>
       <c r="Q80" s="32">
         <f>Flujos!H58</f>
-        <v>0.66400000000000003</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="S80" s="24"/>
     </row>
@@ -24401,7 +24500,7 @@
       <c r="B81" s="7"/>
       <c r="Q81" s="35">
         <f>Q79*Q80</f>
-        <v>58.432000000000002</v>
+        <v>43.896599999999999</v>
       </c>
       <c r="S81" s="24"/>
     </row>
@@ -24409,7 +24508,7 @@
       <c r="B82" s="7"/>
       <c r="K82" s="31">
         <f>Flujos!G57</f>
-        <v>5284</v>
+        <v>829</v>
       </c>
       <c r="S82" s="24"/>
     </row>
@@ -24417,7 +24516,7 @@
       <c r="B83" s="7"/>
       <c r="K83" s="32">
         <f>Flujos!H57</f>
-        <v>0.625</v>
+        <v>0.60659999999999992</v>
       </c>
       <c r="S83" s="24"/>
     </row>
@@ -24425,11 +24524,11 @@
       <c r="B84" s="7"/>
       <c r="K84" s="35">
         <f>K82*K83</f>
-        <v>3302.5</v>
+        <v>502.87139999999994</v>
       </c>
       <c r="O84" s="31">
         <f>Flujos!G40</f>
-        <v>0</v>
+        <v>43615</v>
       </c>
       <c r="S84" s="24"/>
     </row>
@@ -24437,11 +24536,11 @@
       <c r="B85" s="7"/>
       <c r="H85" s="2">
         <f>5562+L74</f>
-        <v>5562</v>
+        <v>5619</v>
       </c>
       <c r="O85" s="32">
         <f>Flujos!H40</f>
-        <v>0</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="S85" s="24"/>
     </row>
@@ -24449,11 +24548,11 @@
       <c r="B86" s="7"/>
       <c r="K86" s="31">
         <f>+Utilidad!J98</f>
-        <v>0</v>
+        <v>43615</v>
       </c>
       <c r="O86" s="35">
         <f>O84*O85</f>
-        <v>0</v>
+        <v>25645.62</v>
       </c>
       <c r="S86" s="24"/>
     </row>
@@ -24461,7 +24560,7 @@
       <c r="B87" s="7"/>
       <c r="K87" s="32">
         <f>+Utilidad!K98</f>
-        <v>0</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="S87" s="24"/>
     </row>
@@ -24469,11 +24568,11 @@
       <c r="B88" s="7"/>
       <c r="K88" s="35">
         <f>+Utilidad!L98</f>
-        <v>0</v>
+        <v>25645.62</v>
       </c>
       <c r="N88" s="41">
         <f>+L90+K86-O84</f>
-        <v>8561</v>
+        <v>-40267</v>
       </c>
       <c r="S88" s="24"/>
     </row>
@@ -24485,7 +24584,7 @@
       <c r="B90" s="7"/>
       <c r="L90" s="31">
         <f>+Utilidad!J97</f>
-        <v>8561</v>
+        <v>-40267</v>
       </c>
       <c r="S90" s="24"/>
     </row>
@@ -24493,7 +24592,7 @@
       <c r="B91" s="7"/>
       <c r="L91" s="32">
         <f>+Utilidad!K97</f>
-        <v>0.58360000000000001</v>
+        <v>0.58869010355999996</v>
       </c>
       <c r="S91" s="24"/>
     </row>
@@ -24501,7 +24600,7 @@
       <c r="B92" s="7"/>
       <c r="L92" s="35">
         <f>+Utilidad!L97</f>
-        <v>4996.1995999999999</v>
+        <v>-23704.784400050517</v>
       </c>
       <c r="S92" s="24"/>
     </row>
@@ -24535,162 +24634,162 @@
       </c>
     </row>
     <row r="96" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G96" s="214" t="s">
+      <c r="G96" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="H96" s="214"/>
-      <c r="I96" s="215"/>
-      <c r="J96" s="216" t="s">
+      <c r="H96" s="198"/>
+      <c r="I96" s="199"/>
+      <c r="J96" s="200" t="s">
         <v>72</v>
       </c>
-      <c r="K96" s="216"/>
-      <c r="L96" s="216"/>
-      <c r="M96" s="217" t="s">
+      <c r="K96" s="200"/>
+      <c r="L96" s="200"/>
+      <c r="M96" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="N96" s="217"/>
-      <c r="O96" s="217"/>
-      <c r="P96" s="217"/>
+      <c r="N96" s="201"/>
+      <c r="O96" s="201"/>
+      <c r="P96" s="201"/>
     </row>
     <row r="97" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G97" s="206" t="s">
+      <c r="G97" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="H97" s="207"/>
+      <c r="H97" s="203"/>
       <c r="I97" s="21">
         <f>+E6</f>
-        <v>109185.62587</v>
-      </c>
-      <c r="J97" s="212" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="198"/>
+      <c r="K97" s="197"/>
       <c r="L97" s="10">
         <f>Flujos!G9</f>
-        <v>37526.428143999998</v>
-      </c>
-      <c r="M97" s="198" t="s">
+        <v>-38578.344008</v>
+      </c>
+      <c r="M97" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="N97" s="198"/>
-      <c r="O97" s="198"/>
+      <c r="N97" s="197"/>
+      <c r="O97" s="197"/>
       <c r="P97" s="10">
         <f>+G15</f>
-        <v>52102.316567000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G98" s="206" t="s">
+      <c r="G98" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="H98" s="207"/>
+      <c r="H98" s="203"/>
       <c r="I98" s="21">
         <f>+C12</f>
         <v>0</v>
       </c>
-      <c r="J98" s="198" t="s">
+      <c r="J98" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="K98" s="198"/>
+      <c r="K98" s="197"/>
       <c r="L98" s="10">
         <f>Flujos!G17</f>
-        <v>-20540.741579000001</v>
-      </c>
-      <c r="M98" s="198" t="s">
+        <v>10280.020892</v>
+      </c>
+      <c r="M98" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="N98" s="198"/>
-      <c r="O98" s="198"/>
+      <c r="N98" s="197"/>
+      <c r="O98" s="197"/>
       <c r="P98" s="10">
         <f>+Q7</f>
-        <v>19798.424827999999</v>
+        <v>10381.135238000001</v>
       </c>
     </row>
     <row r="99" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G99" s="206" t="s">
+      <c r="G99" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="H99" s="207"/>
+      <c r="H99" s="203"/>
       <c r="I99" s="21">
         <f>+H13</f>
-        <v>61069</v>
-      </c>
-      <c r="J99" s="198" t="s">
+        <v>21383</v>
+      </c>
+      <c r="J99" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="K99" s="198"/>
+      <c r="K99" s="197"/>
       <c r="L99" s="10">
         <v>0</v>
       </c>
-      <c r="M99" s="198" t="s">
+      <c r="M99" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="N99" s="198"/>
-      <c r="O99" s="198"/>
+      <c r="N99" s="197"/>
+      <c r="O99" s="197"/>
       <c r="P99" s="10">
         <f>+Q11</f>
-        <v>4888.7705244999997</v>
+        <v>7631.8824262999997</v>
       </c>
     </row>
     <row r="100" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G100" s="201" t="s">
+      <c r="G100" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="H100" s="202"/>
+      <c r="H100" s="206"/>
       <c r="I100" s="21">
         <f>+C26</f>
         <v>0</v>
       </c>
-      <c r="J100" s="198" t="s">
+      <c r="J100" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="198"/>
+      <c r="K100" s="197"/>
       <c r="L100" s="10">
         <f>Flujos!G21</f>
-        <v>295.31678174000001</v>
-      </c>
-      <c r="M100" s="198" t="s">
+        <v>11879</v>
+      </c>
+      <c r="M100" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="N100" s="198"/>
-      <c r="O100" s="198"/>
+      <c r="N100" s="197"/>
+      <c r="O100" s="197"/>
       <c r="P100" s="10">
         <f>+I30</f>
-        <v>37842.929820999998</v>
+        <v>13991.305451</v>
       </c>
     </row>
     <row r="101" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G101" s="201" t="s">
+      <c r="G101" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="H101" s="202"/>
+      <c r="H101" s="206"/>
       <c r="I101" s="21">
         <f>+C35</f>
         <v>0</v>
       </c>
-      <c r="J101" s="198" t="s">
+      <c r="J101" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="K101" s="198"/>
+      <c r="K101" s="197"/>
       <c r="L101" s="10">
         <f>Flujos!G31</f>
-        <v>37015</v>
-      </c>
-      <c r="M101" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="M101" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="N101" s="198"/>
-      <c r="O101" s="198"/>
+      <c r="N101" s="197"/>
+      <c r="O101" s="197"/>
       <c r="P101" s="10">
         <f>+M58</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G102" s="201" t="s">
+      <c r="G102" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="H102" s="202"/>
+      <c r="H102" s="206"/>
       <c r="I102" s="21">
         <f>+C44</f>
         <v>0</v>
@@ -24703,21 +24802,21 @@
         <f>Flujos!G44</f>
         <v>0</v>
       </c>
-      <c r="M102" s="198" t="s">
+      <c r="M102" s="197" t="s">
         <v>84</v>
       </c>
-      <c r="N102" s="198"/>
-      <c r="O102" s="198"/>
+      <c r="N102" s="197"/>
+      <c r="O102" s="197"/>
       <c r="P102" s="10">
         <f>+O63</f>
-        <v>101766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G103" s="201" t="s">
+      <c r="G103" s="205" t="s">
         <v>85</v>
       </c>
-      <c r="H103" s="202"/>
+      <c r="H103" s="206"/>
       <c r="I103" s="21">
         <f>+C54</f>
         <v>0</v>
@@ -24730,24 +24829,24 @@
         <f>Flujos!G47</f>
         <v>0</v>
       </c>
-      <c r="M103" s="198" t="s">
+      <c r="M103" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="N103" s="198"/>
-      <c r="O103" s="198"/>
+      <c r="N103" s="197"/>
+      <c r="O103" s="197"/>
       <c r="P103" s="10">
         <f>+O67</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G104" s="201" t="s">
+      <c r="G104" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="H104" s="202"/>
+      <c r="H104" s="206"/>
       <c r="I104" s="21">
         <f>+C62</f>
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="J104" s="11" t="s">
         <v>89</v>
@@ -24757,24 +24856,24 @@
         <f>Flujos!G50</f>
         <v>0</v>
       </c>
-      <c r="M104" s="198" t="s">
+      <c r="M104" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="N104" s="198"/>
-      <c r="O104" s="198"/>
+      <c r="N104" s="197"/>
+      <c r="O104" s="197"/>
       <c r="P104" s="10">
         <f>+O74</f>
-        <v>59464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G105" s="201" t="s">
+      <c r="G105" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="H105" s="202"/>
+      <c r="H105" s="206"/>
       <c r="I105" s="21">
         <f>+H70</f>
-        <v>8464</v>
+        <v>0</v>
       </c>
       <c r="J105" s="11" t="s">
         <v>91</v>
@@ -24784,41 +24883,41 @@
         <f>Flujos!G53</f>
         <v>0</v>
       </c>
-      <c r="M105" s="198" t="s">
+      <c r="M105" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="N105" s="198"/>
-      <c r="O105" s="198"/>
+      <c r="N105" s="197"/>
+      <c r="O105" s="197"/>
       <c r="P105" s="10">
         <f>+O84</f>
-        <v>0</v>
+        <v>43615</v>
       </c>
     </row>
     <row r="106" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G106" s="201" t="s">
+      <c r="G106" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="H106" s="202"/>
+      <c r="H106" s="206"/>
       <c r="I106" s="21">
         <f>+H75</f>
-        <v>28551</v>
-      </c>
-      <c r="J106" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="K106" s="198"/>
+      <c r="K106" s="197"/>
       <c r="L106" s="10">
         <f>Flujos!G42</f>
         <v>0</v>
       </c>
-      <c r="M106" s="198" t="s">
+      <c r="M106" s="197" t="s">
         <v>160</v>
       </c>
-      <c r="N106" s="198"/>
-      <c r="O106" s="198"/>
+      <c r="N106" s="197"/>
+      <c r="O106" s="197"/>
       <c r="P106" s="10">
         <f>Q79</f>
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -24828,7 +24927,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="21">
         <f>+L74</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J107" s="11" t="s">
         <v>95</v>
@@ -24836,11 +24935,11 @@
       <c r="K107" s="11"/>
       <c r="L107" s="10">
         <f>Flujos!G26</f>
-        <v>17017.180785</v>
-      </c>
-      <c r="M107" s="203"/>
-      <c r="N107" s="204"/>
-      <c r="O107" s="205"/>
+        <v>41113</v>
+      </c>
+      <c r="M107" s="210"/>
+      <c r="N107" s="211"/>
+      <c r="O107" s="212"/>
       <c r="P107" s="10"/>
     </row>
     <row r="108" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -24850,19 +24949,19 @@
       <c r="H108" s="20"/>
       <c r="I108" s="21">
         <f>+L78</f>
-        <v>6944</v>
-      </c>
-      <c r="J108" s="198" t="s">
+        <v>2731</v>
+      </c>
+      <c r="J108" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="K108" s="198"/>
+      <c r="K108" s="197"/>
       <c r="L108" s="10">
         <f>Flujos!G34</f>
-        <v>-47324</v>
-      </c>
-      <c r="M108" s="203"/>
-      <c r="N108" s="204"/>
-      <c r="O108" s="205"/>
+        <v>3551</v>
+      </c>
+      <c r="M108" s="210"/>
+      <c r="N108" s="211"/>
+      <c r="O108" s="212"/>
       <c r="P108" s="10"/>
     </row>
     <row r="109" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -24872,80 +24971,80 @@
       <c r="H109" s="20"/>
       <c r="I109" s="21">
         <f>+K86</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="198" t="s">
+        <v>43615</v>
+      </c>
+      <c r="J109" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="K109" s="198"/>
+      <c r="K109" s="197"/>
       <c r="L109" s="10">
         <f>Flujos!G39</f>
-        <v>8561</v>
-      </c>
-      <c r="M109" s="203"/>
-      <c r="N109" s="204"/>
-      <c r="O109" s="205"/>
+        <v>-40267</v>
+      </c>
+      <c r="M109" s="210"/>
+      <c r="N109" s="211"/>
+      <c r="O109" s="212"/>
       <c r="P109" s="10"/>
     </row>
     <row r="110" spans="7:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G110" s="201" t="s">
+      <c r="G110" s="205" t="s">
         <v>98</v>
       </c>
-      <c r="H110" s="202"/>
+      <c r="H110" s="206"/>
       <c r="I110" s="21">
         <f>+L90</f>
-        <v>8561</v>
-      </c>
-      <c r="J110" s="198"/>
-      <c r="K110" s="198"/>
+        <v>-40267</v>
+      </c>
+      <c r="J110" s="197"/>
+      <c r="K110" s="197"/>
       <c r="L110" s="10"/>
-      <c r="M110" s="198"/>
-      <c r="N110" s="198"/>
-      <c r="O110" s="198"/>
+      <c r="M110" s="197"/>
+      <c r="N110" s="197"/>
+      <c r="O110" s="197"/>
       <c r="P110" s="10"/>
     </row>
     <row r="111" spans="7:16" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G111" s="201" t="s">
-        <v>162</v>
-      </c>
-      <c r="H111" s="202"/>
+      <c r="G111" s="205" t="s">
+        <v>161</v>
+      </c>
+      <c r="H111" s="206"/>
       <c r="I111" s="21">
         <f>K82</f>
-        <v>5284</v>
-      </c>
-      <c r="J111" s="198"/>
-      <c r="K111" s="198"/>
+        <v>829</v>
+      </c>
+      <c r="J111" s="197"/>
+      <c r="K111" s="197"/>
       <c r="L111" s="10"/>
-      <c r="M111" s="198"/>
-      <c r="N111" s="198"/>
-      <c r="O111" s="198"/>
+      <c r="M111" s="197"/>
+      <c r="N111" s="197"/>
+      <c r="O111" s="197"/>
       <c r="P111" s="10"/>
     </row>
     <row r="112" spans="7:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="G112" s="199" t="s">
+      <c r="G112" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="H112" s="200"/>
+      <c r="H112" s="208"/>
       <c r="I112" s="12">
         <f>+SUM(I97:I111)</f>
-        <v>308500.62586999999</v>
-      </c>
-      <c r="J112" s="213" t="s">
+        <v>63663</v>
+      </c>
+      <c r="J112" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="K112" s="213"/>
+      <c r="K112" s="209"/>
       <c r="L112" s="13">
         <f>+SUM(L97:L110)</f>
-        <v>32550.184131739996</v>
-      </c>
-      <c r="M112" s="213" t="s">
+        <v>-12022.323116</v>
+      </c>
+      <c r="M112" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="N112" s="213"/>
-      <c r="O112" s="213"/>
+      <c r="N112" s="209"/>
+      <c r="O112" s="209"/>
       <c r="P112" s="12">
         <f>+SUM(P97:P110)</f>
-        <v>275950.44174049998</v>
+        <v>75685.323115300009</v>
       </c>
     </row>
     <row r="113" spans="7:16" x14ac:dyDescent="0.2">
@@ -24974,7 +25073,7 @@
       <c r="O114" s="16"/>
       <c r="P114" s="18">
         <f>+I112-L112-P112</f>
-        <v>-2.2400054149329662E-6</v>
+        <v>6.9999077823013067E-7</v>
       </c>
     </row>
     <row r="116" spans="7:16" ht="16" x14ac:dyDescent="0.2">
@@ -24983,162 +25082,162 @@
       </c>
     </row>
     <row r="117" spans="7:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="G117" s="208" t="s">
+      <c r="G117" s="213" t="s">
         <v>71</v>
       </c>
-      <c r="H117" s="208"/>
-      <c r="I117" s="209"/>
-      <c r="J117" s="210" t="s">
+      <c r="H117" s="213"/>
+      <c r="I117" s="214"/>
+      <c r="J117" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="K117" s="210"/>
-      <c r="L117" s="210"/>
-      <c r="M117" s="211" t="s">
+      <c r="K117" s="215"/>
+      <c r="L117" s="215"/>
+      <c r="M117" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="N117" s="211"/>
-      <c r="O117" s="211"/>
-      <c r="P117" s="211"/>
+      <c r="N117" s="216"/>
+      <c r="O117" s="216"/>
+      <c r="P117" s="216"/>
     </row>
     <row r="118" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G118" s="206" t="s">
+      <c r="G118" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="H118" s="207"/>
+      <c r="H118" s="203"/>
       <c r="I118" s="21">
         <f>+E8</f>
-        <v>27888.191621810874</v>
-      </c>
-      <c r="J118" s="212" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="K118" s="198"/>
+      <c r="K118" s="197"/>
       <c r="L118" s="10">
         <f>Flujos!G9*Flujos!H9</f>
-        <v>15267.49810190487</v>
-      </c>
-      <c r="M118" s="198" t="s">
+        <v>-16426.273095166322</v>
+      </c>
+      <c r="M118" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="N118" s="198"/>
-      <c r="O118" s="198"/>
+      <c r="N118" s="197"/>
+      <c r="O118" s="197"/>
       <c r="P118" s="10">
         <f>+G17</f>
-        <v>8753.8198974287388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G119" s="206" t="s">
+      <c r="G119" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="H119" s="207"/>
+      <c r="H119" s="203"/>
       <c r="I119" s="21">
         <f>+C14</f>
         <v>0</v>
       </c>
-      <c r="J119" s="198" t="s">
+      <c r="J119" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="K119" s="198"/>
+      <c r="K119" s="197"/>
       <c r="L119" s="10">
         <f>Flujos!G17*Flujos!H17</f>
-        <v>-10614.543669224222</v>
-      </c>
-      <c r="M119" s="198" t="s">
+        <v>5712.1964088487211</v>
+      </c>
+      <c r="M119" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="N119" s="198"/>
-      <c r="O119" s="198"/>
+      <c r="N119" s="197"/>
+      <c r="O119" s="197"/>
       <c r="P119" s="10">
         <f>+Q9</f>
-        <v>5498.6912570309214</v>
+        <v>2921.2514559731999</v>
       </c>
     </row>
     <row r="120" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G120" s="206" t="s">
+      <c r="G120" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="H120" s="207"/>
+      <c r="H120" s="203"/>
       <c r="I120" s="21">
         <f>+H15</f>
-        <v>30424.575799999999</v>
-      </c>
-      <c r="J120" s="198" t="s">
+        <v>10116.2973</v>
+      </c>
+      <c r="J120" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="K120" s="198"/>
+      <c r="K120" s="197"/>
       <c r="L120" s="10">
         <v>0</v>
       </c>
-      <c r="M120" s="198" t="s">
+      <c r="M120" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="N120" s="198"/>
-      <c r="O120" s="198"/>
+      <c r="N120" s="197"/>
+      <c r="O120" s="197"/>
       <c r="P120" s="10">
         <f>+Q13</f>
-        <v>718.55522930273912</v>
+        <v>1025.7249980947199</v>
       </c>
     </row>
     <row r="121" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G121" s="201" t="s">
+      <c r="G121" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="H121" s="202"/>
+      <c r="H121" s="206"/>
       <c r="I121" s="21">
         <f>+C28</f>
         <v>0</v>
       </c>
-      <c r="J121" s="198" t="s">
+      <c r="J121" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="198"/>
+      <c r="K121" s="197"/>
       <c r="L121" s="10">
         <f>Flujos!G21*Flujos!H21</f>
-        <v>196.26560474353826</v>
-      </c>
-      <c r="M121" s="198" t="s">
+        <v>7900.7229000000007</v>
+      </c>
+      <c r="M121" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="N121" s="198"/>
-      <c r="O121" s="198"/>
+      <c r="N121" s="197"/>
+      <c r="O121" s="197"/>
       <c r="P121" s="10">
         <f>+I32</f>
-        <v>2957.8042541087675</v>
+        <v>1178.2078320287098</v>
       </c>
     </row>
     <row r="122" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G122" s="201" t="s">
+      <c r="G122" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="H122" s="202"/>
+      <c r="H122" s="206"/>
       <c r="I122" s="21">
         <f>+C37</f>
         <v>0</v>
       </c>
-      <c r="J122" s="198" t="s">
+      <c r="J122" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="K122" s="198"/>
+      <c r="K122" s="197"/>
       <c r="L122" s="10">
         <f>Flujos!G31*Flujos!H31</f>
-        <v>21948.047599857502</v>
-      </c>
-      <c r="M122" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="M122" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="N122" s="198"/>
-      <c r="O122" s="198"/>
+      <c r="N122" s="197"/>
+      <c r="O122" s="197"/>
       <c r="P122" s="10">
         <f>+M60</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G123" s="201" t="s">
+      <c r="G123" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="H123" s="202"/>
+      <c r="H123" s="206"/>
       <c r="I123" s="21">
         <f>+C46</f>
         <v>0</v>
@@ -25151,21 +25250,21 @@
         <f>Flujos!G44*Flujos!H44</f>
         <v>0</v>
       </c>
-      <c r="M123" s="198" t="s">
+      <c r="M123" s="197" t="s">
         <v>84</v>
       </c>
-      <c r="N123" s="198"/>
-      <c r="O123" s="198"/>
+      <c r="N123" s="197"/>
+      <c r="O123" s="197"/>
       <c r="P123" s="10">
         <f>+O65</f>
-        <v>67501.387799999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G124" s="201" t="s">
+      <c r="G124" s="205" t="s">
         <v>85</v>
       </c>
-      <c r="H124" s="202"/>
+      <c r="H124" s="206"/>
       <c r="I124" s="21">
         <f>+C56</f>
         <v>0</v>
@@ -25178,24 +25277,24 @@
         <f>Flujos!G47*Flujos!H47</f>
         <v>0</v>
       </c>
-      <c r="M124" s="198" t="s">
+      <c r="M124" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="N124" s="198"/>
-      <c r="O124" s="198"/>
+      <c r="N124" s="197"/>
+      <c r="O124" s="197"/>
       <c r="P124" s="10">
         <f>+O69</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G125" s="201" t="s">
+      <c r="G125" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="H125" s="202"/>
+      <c r="H125" s="206"/>
       <c r="I125" s="21">
         <f>C64</f>
-        <v>43728.271199999996</v>
+        <v>19539.789499999999</v>
       </c>
       <c r="J125" s="11" t="s">
         <v>89</v>
@@ -25205,24 +25304,24 @@
         <f>Flujos!G50*Flujos!H50</f>
         <v>0</v>
       </c>
-      <c r="M125" s="198" t="s">
+      <c r="M125" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="N125" s="198"/>
-      <c r="O125" s="198"/>
+      <c r="N125" s="197"/>
+      <c r="O125" s="197"/>
       <c r="P125" s="10">
         <f>+O76</f>
-        <v>35415.56912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G126" s="201" t="s">
+      <c r="G126" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="H126" s="202"/>
+      <c r="H126" s="206"/>
       <c r="I126" s="21">
         <f>+H72</f>
-        <v>5125.7984000000006</v>
+        <v>0</v>
       </c>
       <c r="J126" s="11" t="s">
         <v>91</v>
@@ -25232,41 +25331,41 @@
         <f>Flujos!G53*Flujos!H53</f>
         <v>0</v>
       </c>
-      <c r="M126" s="198" t="s">
+      <c r="M126" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="N126" s="198"/>
-      <c r="O126" s="198"/>
+      <c r="N126" s="197"/>
+      <c r="O126" s="197"/>
       <c r="P126" s="10">
-        <f>+O84</f>
-        <v>0</v>
+        <f>+O86</f>
+        <v>25645.62</v>
       </c>
     </row>
     <row r="127" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G127" s="201" t="s">
+      <c r="G127" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="H127" s="202"/>
+      <c r="H127" s="206"/>
       <c r="I127" s="21">
         <f>+H77</f>
-        <v>16822.249200000002</v>
-      </c>
-      <c r="J127" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="J127" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="K127" s="198"/>
+      <c r="K127" s="197"/>
       <c r="L127" s="10">
         <f>Flujos!G42*Flujos!H42</f>
         <v>0</v>
       </c>
-      <c r="M127" s="198" t="s">
+      <c r="M127" s="197" t="s">
         <v>160</v>
       </c>
-      <c r="N127" s="198"/>
-      <c r="O127" s="198"/>
+      <c r="N127" s="197"/>
+      <c r="O127" s="197"/>
       <c r="P127" s="10">
         <f>Q81</f>
-        <v>58.432000000000002</v>
+        <v>43.896599999999999</v>
       </c>
     </row>
     <row r="128" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25276,7 +25375,7 @@
       <c r="H128" s="20"/>
       <c r="I128" s="21">
         <f>+L76</f>
-        <v>0</v>
+        <v>32.951700000000002</v>
       </c>
       <c r="J128" s="11" t="s">
         <v>95</v>
@@ -25284,11 +25383,11 @@
       <c r="K128" s="11"/>
       <c r="L128" s="10">
         <f>Flujos!G26*Flujos!H26</f>
-        <v>11761.560182640304</v>
-      </c>
-      <c r="M128" s="203"/>
-      <c r="N128" s="204"/>
-      <c r="O128" s="205"/>
+        <v>27344.256300000001</v>
+      </c>
+      <c r="M128" s="210"/>
+      <c r="N128" s="211"/>
+      <c r="O128" s="212"/>
       <c r="P128" s="10"/>
     </row>
     <row r="129" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25298,19 +25397,19 @@
       <c r="H129" s="20"/>
       <c r="I129" s="21">
         <f>+L80</f>
-        <v>4069.1839999999997</v>
-      </c>
-      <c r="J129" s="198" t="s">
+        <v>1614.5672</v>
+      </c>
+      <c r="J129" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="K129" s="198"/>
+      <c r="K129" s="197"/>
       <c r="L129" s="10">
         <f>Flujos!G34*Flujos!H34</f>
-        <v>-28102.317120046082</v>
-      </c>
-      <c r="M129" s="203"/>
-      <c r="N129" s="204"/>
-      <c r="O129" s="205"/>
+        <v>2106.49370000724</v>
+      </c>
+      <c r="M129" s="210"/>
+      <c r="N129" s="211"/>
+      <c r="O129" s="212"/>
       <c r="P129" s="10"/>
     </row>
     <row r="130" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25320,63 +25419,63 @@
       <c r="H130" s="20"/>
       <c r="I130" s="21">
         <f>+K88</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="198" t="s">
+        <v>25645.62</v>
+      </c>
+      <c r="J130" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="K130" s="198"/>
+      <c r="K130" s="197"/>
       <c r="L130" s="10">
         <f>Flujos!G39*Flujos!H39</f>
-        <v>4996.1995999999999</v>
-      </c>
-      <c r="M130" s="203"/>
-      <c r="N130" s="204"/>
-      <c r="O130" s="205"/>
+        <v>-23704.784400050517</v>
+      </c>
+      <c r="M130" s="210"/>
+      <c r="N130" s="211"/>
+      <c r="O130" s="212"/>
       <c r="P130" s="10"/>
     </row>
     <row r="131" spans="7:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G131" s="201" t="s">
+      <c r="G131" s="205" t="s">
         <v>98</v>
       </c>
-      <c r="H131" s="202"/>
+      <c r="H131" s="206"/>
       <c r="I131" s="21">
         <f>+L92</f>
-        <v>4996.1995999999999</v>
-      </c>
-      <c r="J131" s="198"/>
-      <c r="K131" s="198"/>
+        <v>-23704.784400050517</v>
+      </c>
+      <c r="J131" s="197"/>
+      <c r="K131" s="197"/>
       <c r="L131" s="10"/>
-      <c r="M131" s="198"/>
-      <c r="N131" s="198"/>
-      <c r="O131" s="198"/>
+      <c r="M131" s="197"/>
+      <c r="N131" s="197"/>
+      <c r="O131" s="197"/>
       <c r="P131" s="10"/>
     </row>
     <row r="132" spans="7:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G132" s="201" t="s">
-        <v>162</v>
-      </c>
-      <c r="H132" s="202"/>
+      <c r="G132" s="205" t="s">
+        <v>161</v>
+      </c>
+      <c r="H132" s="206"/>
       <c r="I132" s="21">
         <f>K84</f>
-        <v>3302.5</v>
-      </c>
-      <c r="J132" s="198"/>
-      <c r="K132" s="198"/>
+        <v>502.87139999999994</v>
+      </c>
+      <c r="J132" s="197"/>
+      <c r="K132" s="197"/>
       <c r="L132" s="10"/>
-      <c r="M132" s="198"/>
-      <c r="N132" s="198"/>
-      <c r="O132" s="198"/>
+      <c r="M132" s="197"/>
+      <c r="N132" s="197"/>
+      <c r="O132" s="197"/>
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="7:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="G133" s="199" t="s">
+      <c r="G133" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="H133" s="200"/>
+      <c r="H133" s="208"/>
       <c r="I133" s="12">
         <f>+SUM(I118:I132)</f>
-        <v>136356.96982181087</v>
+        <v>33747.312699949478</v>
       </c>
       <c r="J133" s="155" t="s">
         <v>100</v>
@@ -25384,7 +25483,7 @@
       <c r="K133" s="155"/>
       <c r="L133" s="13">
         <f>+SUM(L118:L131)</f>
-        <v>15452.710299875911</v>
+        <v>2932.6118136391233</v>
       </c>
       <c r="M133" s="155" t="s">
         <v>101</v>
@@ -25393,7 +25492,7 @@
       <c r="O133" s="155"/>
       <c r="P133" s="12">
         <f>+SUM(P118:P131)</f>
-        <v>120904.25955787116</v>
+        <v>30814.700886096631</v>
       </c>
     </row>
     <row r="135" spans="7:16" ht="19" x14ac:dyDescent="0.2">
@@ -25405,39 +25504,52 @@
       <c r="O135" s="16"/>
       <c r="P135" s="18">
         <f>+I133-L133-P133</f>
-        <v>-3.5936202039010823E-5</v>
+        <v>2.1372397895902395E-7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="M97:O97"/>
-    <mergeCell ref="M99:O99"/>
-    <mergeCell ref="M100:O100"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="M102:O102"/>
-    <mergeCell ref="M103:O103"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="M104:O104"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="M96:P96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="M128:O128"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="M130:O130"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="M131:O131"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="M117:P117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="M118:O118"/>
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="G110:H110"/>
     <mergeCell ref="J110:K110"/>
@@ -25451,49 +25563,36 @@
     <mergeCell ref="M108:O108"/>
     <mergeCell ref="M109:O109"/>
     <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="M117:P117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="M127:O127"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="M124:O124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="M125:O125"/>
     <mergeCell ref="J111:K111"/>
     <mergeCell ref="M111:O111"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="M132:O132"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="M131:O131"/>
-    <mergeCell ref="M128:O128"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="M129:O129"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="M130:O130"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="M96:P96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="M104:O104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25777,8 +25876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A180942-FDE9-9742-9791-B717C09345EC}">
   <dimension ref="B1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="125" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28367,86 +28466,86 @@
     <row r="2" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="274" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="231" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="274"/>
-      <c r="H2" s="274"/>
-      <c r="I2" s="274"/>
-      <c r="J2" s="274"/>
-      <c r="K2" s="274"/>
-      <c r="L2" s="274"/>
-      <c r="M2" s="274"/>
-      <c r="N2" s="274"/>
-      <c r="O2" s="274"/>
-      <c r="P2" s="274"/>
-      <c r="Q2" s="275"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="231"/>
+      <c r="N2" s="231"/>
+      <c r="O2" s="231"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="232"/>
       <c r="R2" s="51"/>
     </row>
     <row r="3" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B3" s="49"/>
       <c r="C3" s="50"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="276"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="276"/>
-      <c r="K3" s="276"/>
-      <c r="L3" s="276"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="276"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="277"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="234"/>
       <c r="R3" s="51"/>
     </row>
     <row r="4" spans="2:20" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="49"/>
       <c r="C4" s="50"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="276" t="s">
+      <c r="D4" s="227"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="233" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="276" t="s">
+      <c r="G4" s="233"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="233"/>
+      <c r="M4" s="233" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="276"/>
+      <c r="N4" s="233"/>
       <c r="O4" s="134"/>
-      <c r="P4" s="279">
+      <c r="P4" s="236">
         <f ca="1">TODAY()</f>
-        <v>45184</v>
-      </c>
-      <c r="Q4" s="280"/>
+        <v>45198</v>
+      </c>
+      <c r="Q4" s="237"/>
       <c r="R4" s="51"/>
     </row>
     <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="49"/>
       <c r="C5" s="50"/>
-      <c r="D5" s="272"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="278"/>
-      <c r="L5" s="278"/>
-      <c r="M5" s="278"/>
-      <c r="N5" s="278"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="235"/>
+      <c r="L5" s="235"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="135"/>
-      <c r="P5" s="281"/>
-      <c r="Q5" s="282"/>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="239"/>
       <c r="R5" s="51"/>
     </row>
     <row r="6" spans="2:20" thickBot="1" x14ac:dyDescent="0.25">
@@ -28469,26 +28568,26 @@
     <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="54"/>
       <c r="C7" s="55"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="283" t="s">
+      <c r="D7" s="217"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="240" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="284"/>
+      <c r="H7" s="241"/>
       <c r="I7" s="56" t="s">
         <v>111</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="264"/>
-      <c r="L7" s="265"/>
-      <c r="M7" s="265"/>
-      <c r="N7" s="283" t="s">
+      <c r="K7" s="221"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="240" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="284"/>
+      <c r="O7" s="241"/>
       <c r="P7" s="56" t="s">
         <v>111</v>
       </c>
@@ -28500,9 +28599,9 @@
     <row r="8" spans="2:20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="54"/>
       <c r="C8" s="55"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="220"/>
       <c r="G8" s="58" t="s">
         <v>1</v>
       </c>
@@ -28515,9 +28614,9 @@
       <c r="J8" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="266"/>
-      <c r="L8" s="267"/>
-      <c r="M8" s="267"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="224"/>
       <c r="N8" s="58" t="s">
         <v>1</v>
       </c>
@@ -28535,24 +28634,24 @@
     <row r="9" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B9" s="54"/>
       <c r="C9" s="55"/>
-      <c r="D9" s="235" t="s">
+      <c r="D9" s="242" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
-      <c r="G9" s="236"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="232" t="s">
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="245" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="233"/>
-      <c r="M9" s="233"/>
-      <c r="N9" s="233"/>
-      <c r="O9" s="233"/>
-      <c r="P9" s="233"/>
-      <c r="Q9" s="234"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="246"/>
+      <c r="Q9" s="247"/>
       <c r="R9" s="51"/>
     </row>
     <row r="10" spans="2:20" thickBot="1" x14ac:dyDescent="0.25">
@@ -28560,47 +28659,47 @@
       <c r="C10" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="218" t="s">
+      <c r="D10" s="248" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="219"/>
-      <c r="F10" s="240"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="250"/>
       <c r="G10" s="62">
         <f>Flujos!G4</f>
-        <v>109185.62587</v>
+        <v>0</v>
       </c>
       <c r="H10" s="62">
         <f>G10*'Datos Extra'!B18+Report!G10</f>
-        <v>110277.48212870001</v>
+        <v>0</v>
       </c>
       <c r="I10" s="63">
         <f>Flujos!H4</f>
-        <v>0.25541999140999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="96">
         <f>+I10*G10</f>
-        <v>27888.191621810874</v>
-      </c>
-      <c r="K10" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="254" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="222"/>
-      <c r="M10" s="241"/>
+      <c r="L10" s="255"/>
+      <c r="M10" s="256"/>
       <c r="N10" s="122">
         <f>Flujos!G20</f>
-        <v>119078.49757000001</v>
+        <v>52992</v>
       </c>
       <c r="O10" s="122">
         <f>N10*'Datos Extra'!B28+Report!N10</f>
-        <v>129200.16986345001</v>
+        <v>57496.32</v>
       </c>
       <c r="P10" s="64">
         <f>Flujos!H20</f>
-        <v>0.66728431414</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="Q10" s="122">
         <f>+P10*N10</f>
-        <v>79459.213579819116</v>
+        <v>35244.979200000002</v>
       </c>
       <c r="R10" s="51"/>
       <c r="T10" s="91"/>
@@ -28608,11 +28707,11 @@
     <row r="11" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B11" s="54"/>
       <c r="C11" s="55"/>
-      <c r="D11" s="221" t="s">
+      <c r="D11" s="254" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="222"/>
-      <c r="F11" s="241"/>
+      <c r="E11" s="255"/>
+      <c r="F11" s="256"/>
       <c r="G11" s="65">
         <f>Flujos!G5</f>
         <v>0</v>
@@ -28644,141 +28743,138 @@
     <row r="12" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
-      <c r="D12" s="218" t="s">
+      <c r="D12" s="248" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="219"/>
-      <c r="F12" s="240"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="250"/>
       <c r="G12" s="60">
         <f>Flujos!G8</f>
-        <v>61069</v>
+        <v>21383</v>
       </c>
       <c r="H12" s="60">
         <f>G12*'Datos Extra'!B20+Report!G12</f>
-        <v>61671.630568780842</v>
+        <v>21509.291273691179</v>
       </c>
       <c r="I12" s="66">
         <f>Flujos!H8</f>
-        <v>0.49819999999999998</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="J12" s="60">
         <f>+I12*G12</f>
-        <v>30424.575799999999</v>
-      </c>
-      <c r="K12" s="247" t="s">
+        <v>10116.2973</v>
+      </c>
+      <c r="K12" s="260" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="248"/>
-      <c r="M12" s="249"/>
+      <c r="L12" s="261"/>
+      <c r="M12" s="262"/>
       <c r="N12" s="60">
         <f>Flujos!G6</f>
-        <v>52102.316567000002</v>
+        <v>0</v>
       </c>
       <c r="O12" s="62">
-        <f>N12*1/(1-'Datos Extra'!B35/100)</f>
-        <v>52107.527319731977</v>
+        <f>N12*1/(1-'Datos Extra'!B35)</f>
+        <v>0</v>
       </c>
       <c r="P12" s="66">
         <f>Flujos!H6</f>
-        <v>0.16801210529999999</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="60">
         <f>+P12*N12</f>
-        <v>8753.8198974287388</v>
+        <v>0</v>
       </c>
       <c r="R12" s="51"/>
     </row>
     <row r="13" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B13" s="54"/>
       <c r="C13" s="55"/>
-      <c r="D13" s="221" t="s">
+      <c r="D13" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="222"/>
-      <c r="F13" s="241"/>
+      <c r="E13" s="255"/>
+      <c r="F13" s="256"/>
       <c r="G13" s="65">
         <f>Flujos!G55</f>
-        <v>80442</v>
+        <v>35315</v>
       </c>
       <c r="H13" s="65">
         <f>G13*'Datos Extra'!B21+Report!G13</f>
-        <v>82204.216079999998</v>
+        <v>36057.792166666666</v>
       </c>
       <c r="I13" s="67">
         <f>Flujos!H55</f>
-        <v>0.54359999999999997</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="J13" s="65">
         <f>+I13*G13</f>
-        <v>43728.271199999996</v>
-      </c>
-      <c r="K13" s="250" t="s">
+        <v>19539.789499999999</v>
+      </c>
+      <c r="K13" s="263" t="s">
         <v>130</v>
       </c>
-      <c r="L13" s="251"/>
-      <c r="M13" s="252"/>
+      <c r="L13" s="264"/>
+      <c r="M13" s="265"/>
       <c r="N13" s="75">
         <f>Flujos!G12</f>
-        <v>19798.424827999999</v>
+        <v>10381.135238000001</v>
       </c>
       <c r="O13" s="75">
-        <f>N13*1/(1-'Datos Extra'!B36/100)</f>
-        <v>19818.243071071069</v>
+        <f>N13/(1-'Datos Extra'!B36)</f>
+        <v>11645.092539380219</v>
       </c>
       <c r="P13" s="76">
         <f>Flujos!H12</f>
-        <v>0.27773377451999998</v>
+        <v>0.28139999999999998</v>
       </c>
       <c r="Q13" s="65">
         <f>+P13*N13</f>
-        <v>5498.6912570309214</v>
+        <v>2921.2514559731999</v>
       </c>
       <c r="R13" s="51"/>
     </row>
     <row r="14" spans="2:20" ht="14" x14ac:dyDescent="0.2">
       <c r="B14" s="54"/>
       <c r="C14" s="55"/>
-      <c r="D14" s="218" t="s">
+      <c r="D14" s="248" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="219"/>
-      <c r="F14" s="240"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="250"/>
       <c r="G14" s="60">
         <f>Flujos!G31</f>
-        <v>37015</v>
+        <v>0</v>
       </c>
       <c r="H14" s="60">
         <f>G14*'Datos Extra'!B22+Report!G14</f>
-        <v>37274.105000000003</v>
+        <v>0</v>
       </c>
       <c r="I14" s="66">
         <f>Flujos!H31</f>
-        <v>0.59295009050000003</v>
+        <v>0</v>
       </c>
       <c r="J14" s="60">
         <f>+I14*G14</f>
-        <v>21948.047599857502</v>
-      </c>
-      <c r="K14" s="247" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="248"/>
-      <c r="M14" s="249"/>
+      <c r="L14" s="261"/>
+      <c r="M14" s="262"/>
       <c r="N14" s="77">
         <f>Flujos!G13</f>
-        <v>4888.7705244999997</v>
-      </c>
-      <c r="O14" s="62">
-        <f>N14*1/(1-'Datos Extra'!B37/100)</f>
-        <v>4888.7705244999997</v>
-      </c>
+        <v>7631.8824262999997</v>
+      </c>
+      <c r="O14" s="62"/>
       <c r="P14" s="78">
         <f>Flujos!H13</f>
-        <v>0.14698076453</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="Q14" s="60">
         <f>+P14*N14</f>
-        <v>718.55522930273912</v>
+        <v>1025.7249980947199</v>
       </c>
       <c r="R14" s="51"/>
     </row>
@@ -28799,71 +28895,68 @@
       <c r="M15" s="109"/>
       <c r="N15" s="79">
         <f>Flujos!G19</f>
-        <v>37842.929820999998</v>
-      </c>
-      <c r="O15" s="79">
-        <f>N15*1/(1-'Datos Extra'!B38/100)</f>
-        <v>37842.929820999998</v>
-      </c>
+        <v>13991.305451</v>
+      </c>
+      <c r="O15" s="79"/>
       <c r="P15" s="80">
         <f>Flujos!H19</f>
-        <v>7.816002270700001E-2</v>
+        <v>8.4209999999999993E-2</v>
       </c>
       <c r="Q15" s="65">
         <f>+P15*N15</f>
-        <v>2957.8042541087675</v>
+        <v>1178.2078320287098</v>
       </c>
       <c r="R15" s="51"/>
     </row>
     <row r="16" spans="2:20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="54"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="240"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="250"/>
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
       <c r="I16" s="61"/>
       <c r="J16" s="60"/>
-      <c r="K16" s="238" t="s">
+      <c r="K16" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="L16" s="239"/>
-      <c r="M16" s="239"/>
+      <c r="L16" s="267"/>
+      <c r="M16" s="267"/>
       <c r="N16" s="68">
         <f>+SUM(N12:N15)</f>
-        <v>114632.4417405</v>
+        <v>32004.323115300002</v>
       </c>
       <c r="O16" s="68">
         <f>+SUM(O12:O15)</f>
-        <v>114657.47073630305</v>
+        <v>11645.092539380219</v>
       </c>
       <c r="P16" s="68"/>
       <c r="Q16" s="69">
         <f>+SUM(Q12:Q15)</f>
-        <v>17928.870637871169</v>
+        <v>5125.1842860966299</v>
       </c>
       <c r="R16" s="51"/>
     </row>
     <row r="17" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="54"/>
       <c r="C17" s="55"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="240"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="250"/>
       <c r="G17" s="60"/>
       <c r="H17" s="60"/>
       <c r="I17" s="61"/>
       <c r="J17" s="60"/>
-      <c r="K17" s="232" t="s">
+      <c r="K17" s="245" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="233"/>
-      <c r="M17" s="233"/>
-      <c r="N17" s="233"/>
-      <c r="O17" s="233"/>
-      <c r="P17" s="233"/>
-      <c r="Q17" s="234"/>
+      <c r="L17" s="246"/>
+      <c r="M17" s="246"/>
+      <c r="N17" s="246"/>
+      <c r="O17" s="246"/>
+      <c r="P17" s="246"/>
+      <c r="Q17" s="247"/>
       <c r="R17" s="51"/>
     </row>
     <row r="18" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
@@ -28871,44 +28964,44 @@
       <c r="C18" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="238" t="s">
+      <c r="D18" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="239"/>
-      <c r="F18" s="239"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="267"/>
       <c r="G18" s="68">
         <f>+SUM(G10:G17)</f>
-        <v>287711.62586999999</v>
+        <v>56698</v>
       </c>
       <c r="H18" s="68">
         <f>+SUM(H10:H17)</f>
-        <v>291427.43377748085</v>
+        <v>57567.083440357848</v>
       </c>
       <c r="I18" s="68"/>
       <c r="J18" s="68">
         <f>+SUM(J10:J17)</f>
-        <v>123989.08622166837</v>
-      </c>
-      <c r="K18" s="254" t="s">
+        <v>29656.086799999997</v>
+      </c>
+      <c r="K18" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="L18" s="255"/>
-      <c r="M18" s="256"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="253"/>
       <c r="N18" s="62">
         <f>Flujos!G25</f>
-        <v>118783.18078</v>
+        <v>41113</v>
       </c>
       <c r="O18" s="62">
-        <f>N18*'Datos Extra'!B27+Report!N18</f>
-        <v>129259.62742186544</v>
+        <f>N18/(1-'Datos Extra'!B27)</f>
+        <v>44947.728909113532</v>
       </c>
       <c r="P18" s="63">
         <f>Flujos!H25</f>
-        <v>0.66729100407999997</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="Q18" s="60">
         <f t="shared" ref="Q18:Q23" si="0">+P18*N18</f>
-        <v>79262.947970502355</v>
+        <v>27344.256300000001</v>
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="70"/>
@@ -28917,82 +29010,82 @@
     <row r="19" spans="2:21" ht="14" x14ac:dyDescent="0.2">
       <c r="B19" s="54"/>
       <c r="C19" s="55"/>
-      <c r="D19" s="235" t="s">
+      <c r="D19" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="236"/>
-      <c r="F19" s="236"/>
-      <c r="G19" s="236"/>
-      <c r="H19" s="236"/>
-      <c r="I19" s="236"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="221" t="s">
+      <c r="E19" s="243"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="243"/>
+      <c r="I19" s="243"/>
+      <c r="J19" s="275"/>
+      <c r="K19" s="254" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="222"/>
-      <c r="M19" s="241"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="256"/>
       <c r="N19" s="122">
         <f>Flujos!G35</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="122">
-        <f>N19*'Datos Extra'!B30+Report!N19</f>
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="O19" s="62">
+        <f>N19/(1-'Datos Extra'!B30)</f>
+        <v>57.401812688821749</v>
       </c>
       <c r="P19" s="67">
         <f>Flujos!H35</f>
-        <v>0</v>
+        <v>0.57810000000000006</v>
       </c>
       <c r="Q19" s="122">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32.951700000000002</v>
       </c>
       <c r="R19" s="51"/>
     </row>
     <row r="20" spans="2:21" ht="14" x14ac:dyDescent="0.2">
       <c r="B20" s="54"/>
       <c r="C20" s="55"/>
-      <c r="D20" s="218" t="s">
+      <c r="D20" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="219"/>
-      <c r="F20" s="240"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="250"/>
       <c r="G20" s="138">
         <f>'Mapa de Procesos'!P102</f>
-        <v>101766</v>
+        <v>0</v>
       </c>
       <c r="H20" s="138">
         <f>G20*'Datos Extra'!B23+Report!G20</f>
-        <v>109917.4566</v>
+        <v>0</v>
       </c>
       <c r="I20" s="137">
         <f>Flujos!H27</f>
-        <v>0.6633</v>
+        <v>0</v>
       </c>
       <c r="J20" s="60">
         <f>+I20*G20</f>
-        <v>67501.387799999997</v>
-      </c>
-      <c r="K20" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="248" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="219"/>
-      <c r="M20" s="240"/>
+      <c r="L20" s="249"/>
+      <c r="M20" s="250"/>
       <c r="N20" s="62">
         <f>Flujos!G36</f>
-        <v>6944</v>
+        <v>2731</v>
       </c>
       <c r="O20" s="62">
-        <f>N20*'Datos Extra'!B31+Report!N20</f>
-        <v>7041.2160000000003</v>
+        <f>N20/(1-'Datos Extra'!B31)</f>
+        <v>2755.8022199798183</v>
       </c>
       <c r="P20" s="66">
         <f>Flujos!H36</f>
-        <v>0.58599999999999997</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="Q20" s="60">
         <f t="shared" si="0"/>
-        <v>4069.1839999999997</v>
+        <v>1614.5672</v>
       </c>
       <c r="R20" s="51"/>
       <c r="S20" s="72"/>
@@ -29000,47 +29093,47 @@
     <row r="21" spans="2:21" ht="14" x14ac:dyDescent="0.2">
       <c r="B21" s="54"/>
       <c r="C21" s="55"/>
-      <c r="D21" s="221" t="s">
+      <c r="D21" s="254" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="222"/>
-      <c r="F21" s="241"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="256"/>
       <c r="G21" s="73">
         <f>Flujos!G33</f>
-        <v>59464</v>
+        <v>0</v>
       </c>
       <c r="H21" s="73">
         <f>G21*'Datos Extra'!B24+Report!G21</f>
-        <v>59999.175999999999</v>
+        <v>0</v>
       </c>
       <c r="I21" s="74">
         <f>Flujos!H33</f>
-        <v>0.59558</v>
+        <v>0</v>
       </c>
       <c r="J21" s="65">
         <f>+I21*G21</f>
-        <v>35415.56912</v>
-      </c>
-      <c r="K21" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="254" t="s">
         <v>138</v>
       </c>
-      <c r="L21" s="222"/>
-      <c r="M21" s="241"/>
+      <c r="L21" s="255"/>
+      <c r="M21" s="256"/>
       <c r="N21" s="122">
         <f>Flujos!G57</f>
-        <v>5284</v>
-      </c>
-      <c r="O21" s="122">
-        <f>N21*'Datos Extra'!B32+Report!N21</f>
-        <v>5284</v>
+        <v>829</v>
+      </c>
+      <c r="O21" s="62">
+        <f>N21/(1-'Datos Extra'!B32)</f>
+        <v>829</v>
       </c>
       <c r="P21" s="189">
         <f>Flujos!H57</f>
-        <v>0.625</v>
+        <v>0.60659999999999992</v>
       </c>
       <c r="Q21" s="122">
         <f t="shared" si="0"/>
-        <v>3302.5</v>
+        <v>502.87139999999994</v>
       </c>
       <c r="R21" s="51"/>
       <c r="S21" s="72"/>
@@ -29048,47 +29141,47 @@
     <row r="22" spans="2:21" ht="14" x14ac:dyDescent="0.2">
       <c r="B22" s="54"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="218" t="s">
+      <c r="D22" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="219"/>
-      <c r="F22" s="240"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="250"/>
       <c r="G22" s="60">
         <f>Flujos!G40</f>
-        <v>0</v>
+        <v>43615</v>
       </c>
       <c r="H22" s="60">
         <f>G22*'Datos Extra'!B25+Report!G22</f>
-        <v>0</v>
+        <v>44016.258000000002</v>
       </c>
       <c r="I22" s="66">
         <f>Flujos!H40</f>
-        <v>0</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="J22" s="60">
         <f>+I22*G22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="218" t="s">
+        <v>25645.62</v>
+      </c>
+      <c r="K22" s="248" t="s">
         <v>122</v>
       </c>
-      <c r="L22" s="219"/>
-      <c r="M22" s="240"/>
+      <c r="L22" s="249"/>
+      <c r="M22" s="250"/>
       <c r="N22" s="62">
         <f>Flujos!G37</f>
-        <v>8561</v>
+        <v>3348</v>
       </c>
       <c r="O22" s="62">
-        <f>Report!N22*'Datos Extra'!B33+Report!N22</f>
-        <v>8612.366</v>
+        <f>N22/(1-'Datos Extra'!B33)</f>
+        <v>3368.2092555331992</v>
       </c>
       <c r="P22" s="66">
         <f>Flujos!H37</f>
-        <v>0.58360000000000001</v>
+        <v>0.57969999999999999</v>
       </c>
       <c r="Q22" s="60">
         <f t="shared" si="0"/>
-        <v>4996.1995999999999</v>
+        <v>1940.8355999999999</v>
       </c>
       <c r="R22" s="51"/>
       <c r="S22" s="72"/>
@@ -29096,38 +29189,38 @@
     <row r="23" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="54"/>
       <c r="C23" s="55"/>
-      <c r="D23" s="242" t="s">
+      <c r="D23" s="276" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="243"/>
-      <c r="F23" s="244"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="278"/>
       <c r="G23" s="187">
         <f>Flujos!G57</f>
-        <v>5284</v>
+        <v>829</v>
       </c>
       <c r="H23" s="73">
         <f>G23*'Datos Extra'!B27+Report!G23</f>
-        <v>5750.0385729032259</v>
+        <v>899.72638246268662</v>
       </c>
       <c r="I23" s="188">
         <f>Flujos!H57</f>
-        <v>0.625</v>
+        <v>0.60659999999999992</v>
       </c>
       <c r="J23" s="62">
         <f>G23*I23</f>
-        <v>3302.5</v>
-      </c>
-      <c r="K23" s="221" t="s">
+        <v>502.87139999999994</v>
+      </c>
+      <c r="K23" s="254" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="222"/>
-      <c r="M23" s="241"/>
+      <c r="L23" s="255"/>
+      <c r="M23" s="256"/>
       <c r="N23" s="122">
         <f>Flujos!G38</f>
         <v>0</v>
       </c>
-      <c r="O23" s="190">
-        <f>N23*'Datos Extra'!B34+Report!N23</f>
+      <c r="O23" s="62">
+        <f>N23/(1-'Datos Extra'!B34)</f>
         <v>0</v>
       </c>
       <c r="P23" s="67">
@@ -29144,50 +29237,50 @@
     <row r="24" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="54"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="238" t="s">
+      <c r="D24" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="267"/>
       <c r="G24" s="68">
         <f>+SUM(G20:G23)</f>
-        <v>166514</v>
+        <v>44444</v>
       </c>
       <c r="H24" s="68">
         <f>+SUM(H20:H23)</f>
-        <v>175666.67117290324</v>
+        <v>44915.984382462688</v>
       </c>
       <c r="I24" s="89"/>
       <c r="J24" s="68">
         <f t="shared" ref="J24" si="1">+SUM(J20:J23)</f>
-        <v>106219.45692</v>
-      </c>
-      <c r="K24" s="238" t="s">
+        <v>26148.491399999999</v>
+      </c>
+      <c r="K24" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="239"/>
-      <c r="M24" s="239"/>
+      <c r="L24" s="267"/>
+      <c r="M24" s="267"/>
       <c r="N24" s="68">
         <f>SUM(N18:N23)</f>
-        <v>139572.18078</v>
+        <v>48078</v>
       </c>
       <c r="O24" s="68">
         <f>SUM(O18,O19:O23)</f>
-        <v>150197.20942186544</v>
+        <v>51958.14219731537</v>
       </c>
       <c r="P24" s="68"/>
       <c r="Q24" s="69">
         <f>SUM(Q18,Q18:Q23)</f>
-        <v>170893.77954100471</v>
+        <v>58779.738499999992</v>
       </c>
       <c r="R24" s="51"/>
     </row>
     <row r="25" spans="2:21" ht="14" x14ac:dyDescent="0.2">
       <c r="B25" s="54"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="225"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="225"/>
+      <c r="D25" s="268"/>
+      <c r="E25" s="268"/>
+      <c r="F25" s="268"/>
       <c r="G25" s="81"/>
       <c r="H25" s="81"/>
       <c r="I25" s="82"/>
@@ -29197,23 +29290,23 @@
     <row r="26" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="54"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="245" t="s">
+      <c r="D26" s="279" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="246"/>
-      <c r="F26" s="246"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="246"/>
-      <c r="J26" s="246"/>
+      <c r="E26" s="280"/>
+      <c r="F26" s="280"/>
+      <c r="G26" s="280"/>
+      <c r="H26" s="280"/>
+      <c r="I26" s="280"/>
+      <c r="J26" s="280"/>
       <c r="R26" s="84"/>
     </row>
     <row r="27" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="54"/>
       <c r="C27" s="55"/>
-      <c r="D27" s="226"/>
-      <c r="E27" s="227"/>
-      <c r="F27" s="228"/>
+      <c r="D27" s="269"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="271"/>
       <c r="G27" s="94" t="s">
         <v>104</v>
       </c>
@@ -29232,26 +29325,26 @@
     <row r="28" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
-      <c r="D28" s="229" t="s">
+      <c r="D28" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="230"/>
-      <c r="F28" s="231"/>
+      <c r="E28" s="273"/>
+      <c r="F28" s="274"/>
       <c r="G28" s="146">
         <f>'Datos Extra'!B1</f>
-        <v>74334.13764999999</v>
+        <v>28354.753556249998</v>
       </c>
       <c r="H28" s="145">
         <f>G29*(1-'Datos Extra'!D1)</f>
-        <v>85523.252925000008</v>
+        <v>94642.650164156468</v>
       </c>
       <c r="I28" s="145">
         <f>Flujos!G9</f>
-        <v>37526.428143999998</v>
+        <v>-38578.344008</v>
       </c>
       <c r="J28" s="145">
         <f>'Mapa de Procesos'!L118</f>
-        <v>15267.49810190487</v>
+        <v>-16426.273095166322</v>
       </c>
       <c r="R28" s="84"/>
       <c r="U28" s="85"/>
@@ -29259,26 +29352,26 @@
     <row r="29" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="54"/>
       <c r="C29" s="55"/>
-      <c r="D29" s="218" t="s">
+      <c r="D29" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
       <c r="G29" s="146">
         <f>'Datos Extra'!B2</f>
-        <v>86387.124166666676</v>
+        <v>95598.636529450974</v>
       </c>
       <c r="H29" s="145">
         <f>G30*(1-'Datos Extra'!D2)</f>
-        <v>818.01885000000095</v>
+        <v>14058.709500000001</v>
       </c>
       <c r="I29" s="93">
         <f>Flujos!G17</f>
-        <v>-20540.741579000001</v>
+        <v>10280.020892</v>
       </c>
       <c r="J29" s="93">
         <f>'Mapa de Procesos'!L119</f>
-        <v>-10614.543669224222</v>
+        <v>5712.1964088487211</v>
       </c>
       <c r="L29" s="151"/>
       <c r="M29" s="46" t="s">
@@ -29299,14 +29392,14 @@
     <row r="30" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="54"/>
       <c r="C30" s="55"/>
-      <c r="D30" s="218" t="s">
+      <c r="D30" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
       <c r="G30" s="146">
         <f>'Datos Extra'!B3</f>
-        <v>826.28166666666766</v>
+        <v>14200.716666666667</v>
       </c>
       <c r="H30" s="145">
         <f>G31*(1-'Datos Extra'!D3)</f>
@@ -29314,30 +29407,30 @@
       </c>
       <c r="I30" s="93">
         <f>Flujos!G21</f>
-        <v>295.31678174000001</v>
+        <v>11879</v>
       </c>
       <c r="J30" s="93">
         <f>'Mapa de Procesos'!L121</f>
-        <v>196.26560474353826</v>
+        <v>7900.7229000000007</v>
       </c>
       <c r="L30" s="54" t="s">
         <v>1</v>
       </c>
       <c r="M30" s="148">
         <f>G18+N19+N20+N21+N22+N23</f>
-        <v>308500.62586999999</v>
+        <v>63663</v>
       </c>
       <c r="N30" s="148">
         <f>G20+G21+G22+N16+'Mapa de Procesos'!P106</f>
-        <v>275950.44174049998</v>
+        <v>75685.323115300009</v>
       </c>
       <c r="O30" s="152">
         <f>I35</f>
-        <v>32550.184131739996</v>
+        <v>-12022.323116</v>
       </c>
       <c r="P30" s="84">
         <f>M30-N30-O30</f>
-        <v>-2.2399908630177379E-6</v>
+        <v>6.9999077823013067E-7</v>
       </c>
       <c r="R30" s="51"/>
       <c r="U30" s="85"/>
@@ -29345,45 +29438,45 @@
     <row r="31" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="54"/>
       <c r="C31" s="55"/>
-      <c r="D31" s="218" t="s">
+      <c r="D31" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
       <c r="G31" s="146">
         <f>'Datos Extra'!B4</f>
         <v>0</v>
       </c>
       <c r="H31" s="145">
         <f>G32*(1-'Datos Extra'!D4)</f>
-        <v>120576.06715349999</v>
+        <v>150743.05019204534</v>
       </c>
       <c r="I31" s="93">
         <f>Flujos!G31</f>
-        <v>37015</v>
+        <v>0</v>
       </c>
       <c r="J31" s="93">
         <f>'Mapa de Procesos'!L122</f>
-        <v>21948.047599857502</v>
+        <v>0</v>
       </c>
       <c r="L31" s="86" t="s">
         <v>34</v>
       </c>
       <c r="M31" s="150">
         <f>J18+Q19+Q20+Q21+Q22+Q23</f>
-        <v>136356.96982166835</v>
+        <v>33747.312700000002</v>
       </c>
       <c r="N31" s="150">
         <f>Q16+J20+J21+J22+'Mapa de Procesos'!P127</f>
-        <v>120904.25955787116</v>
+        <v>30814.700886096631</v>
       </c>
       <c r="O31" s="153">
         <f>J35</f>
-        <v>15452.710299875911</v>
+        <v>2932.6118136391233</v>
       </c>
       <c r="P31" s="154">
         <f>M31-N31-O31</f>
-        <v>-3.6078727134736255E-5</v>
+        <v>2.6424822863191366E-7</v>
       </c>
       <c r="R31" s="84"/>
       <c r="U31" s="85"/>
@@ -29391,26 +29484,26 @@
     <row r="32" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="54"/>
       <c r="C32" s="55"/>
-      <c r="D32" s="221" t="s">
+      <c r="D32" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="222"/>
-      <c r="F32" s="222"/>
+      <c r="E32" s="255"/>
+      <c r="F32" s="255"/>
       <c r="G32" s="146">
         <f>'Datos Extra'!B5</f>
-        <v>121426.04949999998</v>
+        <v>151805.69002220075</v>
       </c>
       <c r="H32" s="145">
         <f>G33*(1-'Datos Extra'!D5)</f>
-        <v>37892.92715304</v>
+        <v>40712.451420186568</v>
       </c>
       <c r="I32" s="93">
         <f>Flujos!G26</f>
-        <v>17017.180785</v>
+        <v>41113</v>
       </c>
       <c r="J32" s="93">
         <f>'Mapa de Procesos'!L128</f>
-        <v>11761.560182640304</v>
+        <v>27344.256300000001</v>
       </c>
       <c r="L32" s="148"/>
       <c r="R32" s="51"/>
@@ -29419,26 +29512,26 @@
     <row r="33" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="54"/>
       <c r="C33" s="55"/>
-      <c r="D33" s="221" t="s">
+      <c r="D33" s="254" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="222"/>
-      <c r="F33" s="222"/>
+      <c r="E33" s="255"/>
+      <c r="F33" s="255"/>
       <c r="G33" s="146">
         <f>'Datos Extra'!B6</f>
-        <v>41594.870640000001</v>
+        <v>44509.82</v>
       </c>
       <c r="H33" s="145">
         <f>G34*(1-'Datos Extra'!D6)</f>
-        <v>67428.213680849993</v>
+        <v>26055.722000000002</v>
       </c>
       <c r="I33" s="93">
         <f>Flujos!G34</f>
-        <v>-47324</v>
+        <v>3551</v>
       </c>
       <c r="J33" s="93">
         <f>'Mapa de Procesos'!L129</f>
-        <v>-28102.317120046082</v>
+        <v>2106.49370000724</v>
       </c>
       <c r="R33" s="84"/>
       <c r="U33" s="85"/>
@@ -29446,14 +29539,14 @@
     <row r="34" spans="2:21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="54"/>
       <c r="C34" s="55"/>
-      <c r="D34" s="223" t="s">
+      <c r="D34" s="282" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="224"/>
-      <c r="F34" s="224"/>
+      <c r="E34" s="283"/>
+      <c r="F34" s="283"/>
       <c r="G34" s="146">
         <f>'Datos Extra'!B7</f>
-        <v>67903.538449999993</v>
+        <v>26055.722000000002</v>
       </c>
       <c r="H34" s="145">
         <f>G35*(1-'Datos Extra'!D7)</f>
@@ -29461,11 +29554,11 @@
       </c>
       <c r="I34" s="147">
         <f>Flujos!G39</f>
-        <v>8561</v>
+        <v>-40267</v>
       </c>
       <c r="J34" s="147">
         <f>'Mapa de Procesos'!L130</f>
-        <v>4996.1995999999999</v>
+        <v>-23704.784400050517</v>
       </c>
       <c r="R34" s="51"/>
       <c r="U34" s="85"/>
@@ -29480,11 +29573,11 @@
       <c r="H35" s="87"/>
       <c r="I35" s="149">
         <f>SUM(I28:I34)</f>
-        <v>32550.184131739996</v>
+        <v>-12022.323116</v>
       </c>
       <c r="J35" s="149">
         <f>SUM(J28:J34)</f>
-        <v>15452.710299875911</v>
+        <v>2932.6118136391233</v>
       </c>
       <c r="R35" s="88"/>
     </row>
@@ -29514,9 +29607,9 @@
       <c r="K40" s="90"/>
     </row>
     <row r="41" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="220"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="220"/>
+      <c r="E41" s="281"/>
+      <c r="F41" s="281"/>
+      <c r="G41" s="281"/>
       <c r="H41" s="136"/>
       <c r="I41" s="92"/>
       <c r="J41" s="131"/>
@@ -29524,36 +29617,12 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="K7:M8"/>
-    <mergeCell ref="D2:E5"/>
-    <mergeCell ref="F2:Q3"/>
-    <mergeCell ref="F4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
@@ -29568,12 +29637,36 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D26:J26"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="D2:E5"/>
+    <mergeCell ref="F2:Q3"/>
+    <mergeCell ref="F4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -29583,15 +29676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A6756668BF342349B2041C16AA74819C" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="08eddba80e67fcdf0e7dbb3dbc3e0d70">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f53f264-df38-4c5e-a089-ad7f07a2b911" xmlns:ns3="1490ee3b-8825-4a14-a799-bb3413729370" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31c7a2af7ff0f9db171af585e46ec1a5" ns2:_="" ns3:_="">
     <xsd:import namespace="6f53f264-df38-4c5e-a089-ad7f07a2b911"/>
@@ -29826,6 +29910,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -29838,14 +29931,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFCA9A7-8661-43F7-BFD7-3C6B027F5CB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{511DD2B5-8036-4C02-853A-E0965342EFE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29860,6 +29945,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFCA9A7-8661-43F7-BFD7-3C6B027F5CB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
